--- a/actus-dictionary.xlsx
+++ b/actus-dictionary.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2055" uniqueCount="891">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2159" uniqueCount="928">
   <si>
     <t xml:space="preserve">The ACTUS Dictionary</t>
   </si>
@@ -611,6 +611,21 @@
   </si>
   <si>
     <t xml:space="preserve">Classical repo and reverse repo agreements.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">certificate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Certificate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CERTF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This contract represents all kinds of certificates which, in essence, give an investor the possibility to participate in the change of market value of an underlying instrument. The underlying instrument can be any product with a market value or a NAV calculated for it. Generally, a certificate grants the investor the right to redeem his shares / notes at a defined redemption schedule and with a payoff following a predefined redemption formula. Other rights and duties of the investor are also possible.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tracker Certificates, Performance Certificates, etc.</t>
   </si>
   <si>
     <t xml:space="preserve">Group</t>
@@ -2597,6 +2612,102 @@
 If no settlement currency is defined the cash flows are settled in the currency in which they are denominated.</t>
   </si>
   <si>
+    <t xml:space="preserve">issueDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Issue Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defines the time of issuance of the contract. At this time, the contract transitions from e.g. the subscription phase into the execution phase.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nominalPrice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nominal Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">issuePrice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Issue Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IPR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minimumSubscription</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum Subscription</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cycleAnchorDateOfRedemption</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cycle Anchor Date Of Redemption</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RDANX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cycleOfRedemption</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cycle Of Redemption</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RDCL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exercisePeriod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exercise Period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The period within which an option holder (e.g. from redemption of a note / certificate / etc) can chose to execute his option</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exerciseQuantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exercise Quantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of shares / notes / certificates / etc executed. E.g. the number of certificates redeemed as per a certain redemption day.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Attribute Applicability Rules</t>
   </si>
   <si>
@@ -2917,8 +3028,9 @@
 option: 17, identifier: scalingIndexFixing, name: Scaling Index Fixing, acronym: SC, description: Scheduled fixing of a scaling index, sequence: 17
 option: 18, identifier: interestCalculationBaseFixing, name: Interest Calculation Base Fixing, acronym: IPCB, description: Scheduled fixing of the interest calculation base, sequence: 18
 option: 19, identifier: maturity, name: Maturity, acronym: MD, description: Maturity of a contract, sequence: 19
-option: 20, identifier: exercise, name: Exercise, acronym: XD, description: Exercise of a contractual feature such as an optionality, sequence: 20
-option: 21, identifier: settlement, name: Settlement, acronym: STD, description: Settlement of an exercised contractual claim, sequence: 21</t>
+Option: 20, identifier: redemptionDay, name: Redemption Day, acronym: RD, description: Fixing of the redemption amount, sequence: 20
+option: 21, identifier: exercise, name: Exercise, acronym: XD, description: Exercise of a contractual feature such as an optionality, sequence: 21
+Option: 22, identifier: settlement, name: Settlement, acronym: STD, description: Settlement of an exercised contractual claim, sequence: 22</t>
   </si>
   <si>
     <t xml:space="preserve">The currency in which the event payoff is scheduled</t>
@@ -3370,7 +3482,7 @@
   <dimension ref="A1:AA1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5250,6 +5362,32 @@
       <c r="Z32" s="10"/>
       <c r="AA32" s="10"/>
     </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
     <row r="1048576" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5267,15 +5405,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:AA115"/>
+  <dimension ref="A1:AC124"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.71"/>
@@ -5298,7 +5436,7 @@
         <v>18</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>19</v>
@@ -5307,16 +5445,16 @@
         <v>20</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="I1" s="15" t="s">
         <v>10</v>
@@ -5325,25 +5463,25 @@
         <v>80</v>
       </c>
       <c r="K1" s="18" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="L1" s="18" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="M1" s="18" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="N1" s="18" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="O1" s="18" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="P1" s="18" t="s">
         <v>34</v>
       </c>
       <c r="Q1" s="18" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="R1" s="18" t="s">
         <v>86</v>
@@ -5358,13 +5496,13 @@
         <v>174</v>
       </c>
       <c r="V1" s="18" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="W1" s="18" t="s">
         <v>96</v>
       </c>
       <c r="X1" s="18" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="Y1" s="18" t="s">
         <v>114</v>
@@ -5373,709 +5511,739 @@
         <v>119</v>
       </c>
       <c r="AA1" s="18" t="s">
-        <v>201</v>
+        <v>206</v>
+      </c>
+      <c r="AB1" s="18" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="19" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="H2" s="21"/>
       <c r="I2" s="19" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="J2" s="21"/>
       <c r="K2" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="L2" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="M2" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="N2" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="O2" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="P2" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q2" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="R2" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="S2" s="21"/>
       <c r="T2" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="U2" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="V2" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="W2" s="21"/>
       <c r="X2" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Y2" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Z2" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="AA2" s="21"/>
+      <c r="AB2" s="19" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="191.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="E3" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="B3" s="20" t="s">
-        <v>203</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>205</v>
-      </c>
       <c r="F3" s="19" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="H3" s="21"/>
       <c r="I3" s="19" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="J3" s="22"/>
       <c r="K3" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="L3" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="M3" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="N3" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="O3" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="P3" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q3" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="R3" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="S3" s="22"/>
       <c r="T3" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="U3" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="V3" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="W3" s="22"/>
       <c r="X3" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Y3" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Z3" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="AA3" s="22"/>
+      <c r="AB3" s="19" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="19" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="H4" s="22"/>
       <c r="I4" s="19" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="J4" s="22"/>
       <c r="K4" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="L4" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="M4" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="N4" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="O4" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="P4" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q4" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="R4" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="S4" s="22"/>
       <c r="T4" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="U4" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="V4" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="W4" s="22"/>
       <c r="X4" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Y4" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Z4" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="AA4" s="22"/>
+      <c r="AB4" s="19" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="19" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="G5" s="22"/>
       <c r="H5" s="21"/>
       <c r="I5" s="19" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="L5" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="M5" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="N5" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="O5" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="P5" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q5" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="R5" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="S5" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="T5" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="U5" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="V5" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="W5" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="X5" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Y5" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Z5" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="AA5" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
+      </c>
+      <c r="AB5" s="19" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="19" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="G6" s="22"/>
       <c r="H6" s="21"/>
       <c r="I6" s="19" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="J6" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="K6" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="L6" s="19" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="M6" s="19" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="N6" s="19" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="O6" s="19" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="P6" s="19" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q6" s="19" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="R6" s="19" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="S6" s="19" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="T6" s="19" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="U6" s="19" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="V6" s="19" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="W6" s="19" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="X6" s="19" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Y6" s="19" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Z6" s="19" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="AA6" s="19" t="s">
-        <v>235</v>
+        <v>240</v>
+      </c>
+      <c r="AB6" s="19" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="156" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="19" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="G7" s="22"/>
       <c r="H7" s="21"/>
       <c r="I7" s="19" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="J7" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="K7" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="L7" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="M7" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="N7" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="O7" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="P7" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q7" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="R7" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="S7" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="T7" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="U7" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="V7" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="W7" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="X7" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Y7" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Z7" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="AA7" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
+      </c>
+      <c r="AB7" s="19" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="19" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="G8" s="22"/>
       <c r="H8" s="21"/>
       <c r="I8" s="19" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="J8" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="L8" s="19" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="M8" s="19" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="N8" s="19" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="O8" s="19" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="P8" s="19" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q8" s="19" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="R8" s="19" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="S8" s="19" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="T8" s="19" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="U8" s="19" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="V8" s="19" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="W8" s="19" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="X8" s="19" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Y8" s="19" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Z8" s="19" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="AA8" s="19" t="s">
-        <v>235</v>
+        <v>240</v>
+      </c>
+      <c r="AB8" s="19" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="19" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="D9" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="E9" s="19" t="s">
         <v>249</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>244</v>
       </c>
       <c r="F9" s="22"/>
       <c r="G9" s="22"/>
       <c r="H9" s="21"/>
       <c r="I9" s="19" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="L9" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="M9" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="N9" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="O9" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="P9" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q9" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="R9" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="S9" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="T9" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="U9" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="V9" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="W9" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="X9" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Y9" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Z9" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="AA9" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
+      </c>
+      <c r="AB9" s="19" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="19" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="F10" s="22"/>
       <c r="G10" s="20"/>
       <c r="H10" s="22"/>
       <c r="I10" s="20" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="J10" s="19"/>
       <c r="K10" s="19"/>
       <c r="L10" s="19"/>
       <c r="M10" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="N10" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="O10" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="P10" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q10" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="R10" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="S10" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="T10" s="19"/>
       <c r="U10" s="19"/>
       <c r="V10" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="W10" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="X10" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Y10" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Z10" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="AA10" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
+      </c>
+      <c r="AB10" s="19" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="23" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F11" s="23"/>
       <c r="G11" s="24"/>
       <c r="H11" s="24"/>
       <c r="I11" s="23" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="J11" s="24"/>
       <c r="K11" s="24"/>
@@ -6088,367 +6256,380 @@
       <c r="R11" s="25"/>
       <c r="S11" s="23"/>
       <c r="T11" s="24" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="U11" s="24" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="V11" s="24"/>
       <c r="W11" s="24" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="X11" s="24"/>
       <c r="Y11" s="24" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Z11" s="24" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="AA11" s="24" t="s">
-        <v>228</v>
+        <v>233</v>
+      </c>
+      <c r="AB11" s="24" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="19" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="F12" s="22"/>
       <c r="G12" s="22"/>
       <c r="H12" s="21"/>
       <c r="I12" s="19" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="J12" s="22"/>
       <c r="K12" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="L12" s="19" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="M12" s="19" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="N12" s="19" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="O12" s="19" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="P12" s="19" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="Q12" s="19" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="R12" s="19" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="S12" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="T12" s="19" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="U12" s="19" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="V12" s="19" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="W12" s="19" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="X12" s="19" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Y12" s="19" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Z12" s="19" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="AA12" s="19" t="s">
-        <v>235</v>
+        <v>240</v>
+      </c>
+      <c r="AB12" s="19" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="B13" s="19" t="s">
         <v>266</v>
       </c>
-      <c r="B13" s="19" t="s">
-        <v>261</v>
-      </c>
       <c r="C13" s="19" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="H13" s="21"/>
       <c r="I13" s="21" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="J13" s="22"/>
       <c r="K13" s="19" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="L13" s="19" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="M13" s="19" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="N13" s="19" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="O13" s="19" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="P13" s="19" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="Q13" s="19" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="R13" s="19" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="S13" s="22"/>
       <c r="T13" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="U13" s="22"/>
       <c r="V13" s="19" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="W13" s="19" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="X13" s="19" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="Y13" s="19" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="Z13" s="19" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="AA13" s="19" t="s">
-        <v>272</v>
+        <v>277</v>
+      </c>
+      <c r="AB13" s="19" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="19" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="G14" s="22"/>
       <c r="H14" s="21"/>
       <c r="I14" s="21" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="J14" s="22"/>
       <c r="K14" s="19" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="L14" s="19" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="M14" s="19" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="N14" s="19" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="O14" s="19" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="P14" s="19" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="Q14" s="19" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="R14" s="19" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="S14" s="22"/>
       <c r="T14" s="22"/>
       <c r="U14" s="22"/>
       <c r="V14" s="19" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="W14" s="19" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="X14" s="19" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="Y14" s="19" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="Z14" s="19" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="AA14" s="19" t="s">
-        <v>272</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="AB14" s="19"/>
     </row>
     <row r="15" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="19" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="G15" s="20"/>
       <c r="H15" s="22"/>
       <c r="I15" s="22" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="J15" s="22"/>
       <c r="K15" s="19" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="L15" s="19" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="M15" s="19" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="N15" s="19" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="O15" s="19" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="P15" s="19" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="Q15" s="19" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="R15" s="19" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="S15" s="22"/>
       <c r="T15" s="21" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="U15" s="22"/>
       <c r="V15" s="19" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="W15" s="19" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="X15" s="19" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="Y15" s="19" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="Z15" s="19" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="AA15" s="19" t="s">
-        <v>272</v>
+        <v>277</v>
+      </c>
+      <c r="AB15" s="19" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="19" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="F16" s="24" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="H16" s="22"/>
       <c r="I16" s="21" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="J16" s="22"/>
       <c r="K16" s="19" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="L16" s="19" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="M16" s="19" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="N16" s="19" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="O16" s="19" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="P16" s="19" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="Q16" s="19" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="R16" s="22"/>
       <c r="S16" s="22"/>
@@ -6460,249 +6641,259 @@
       <c r="Y16" s="22"/>
       <c r="Z16" s="22"/>
       <c r="AA16" s="22"/>
+      <c r="AB16" s="22"/>
     </row>
     <row r="17" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="E17" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="B17" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="C17" s="19" t="s">
+      <c r="F17" s="24" t="s">
         <v>291</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="G17" s="20" t="s">
         <v>292</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>285</v>
-      </c>
-      <c r="F17" s="24" t="s">
-        <v>286</v>
-      </c>
-      <c r="G17" s="20" t="s">
-        <v>287</v>
       </c>
       <c r="H17" s="22"/>
       <c r="I17" s="21" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="J17" s="22"/>
       <c r="K17" s="19" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="L17" s="19" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="M17" s="19" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="N17" s="19" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="O17" s="19" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="P17" s="19" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="Q17" s="19" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="R17" s="22"/>
       <c r="S17" s="22"/>
       <c r="T17" s="22" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="U17" s="22"/>
       <c r="V17" s="19" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="W17" s="19" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="X17" s="19" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="Y17" s="19" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="Z17" s="19" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="AA17" s="19" t="s">
-        <v>272</v>
+        <v>277</v>
+      </c>
+      <c r="AB17" s="19" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="19" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="H18" s="22"/>
       <c r="I18" s="21" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="J18" s="22"/>
       <c r="K18" s="19" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="L18" s="19" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="M18" s="19" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="N18" s="19" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="O18" s="19" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="P18" s="19" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="Q18" s="19" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="R18" s="22"/>
       <c r="S18" s="22"/>
       <c r="T18" s="22" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="U18" s="22"/>
       <c r="V18" s="19" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="W18" s="19" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="X18" s="19" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="Y18" s="19" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="Z18" s="19" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="AA18" s="19" t="s">
-        <v>272</v>
+        <v>277</v>
+      </c>
+      <c r="AB18" s="19" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="19" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="G19" s="20" t="n">
         <v>0</v>
       </c>
       <c r="H19" s="22"/>
       <c r="I19" s="21" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="J19" s="22"/>
       <c r="K19" s="19" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="L19" s="19" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="M19" s="19" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="N19" s="19" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="O19" s="19" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="P19" s="19" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="Q19" s="19" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="R19" s="22"/>
       <c r="S19" s="22"/>
       <c r="T19" s="22" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="U19" s="22"/>
       <c r="V19" s="19" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="W19" s="19" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="X19" s="19" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="Y19" s="19" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="Z19" s="19" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="AA19" s="19" t="s">
-        <v>272</v>
+        <v>277</v>
+      </c>
+      <c r="AB19" s="19" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="19" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="G20" s="22"/>
       <c r="H20" s="22"/>
       <c r="I20" s="19" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="J20" s="22"/>
       <c r="K20" s="22"/>
@@ -6715,10 +6906,10 @@
       <c r="R20" s="22"/>
       <c r="S20" s="22"/>
       <c r="T20" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="U20" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="V20" s="22"/>
       <c r="W20" s="22"/>
@@ -6726,32 +6917,33 @@
       <c r="Y20" s="22"/>
       <c r="Z20" s="22"/>
       <c r="AA20" s="22"/>
+      <c r="AB20" s="22"/>
     </row>
     <row r="21" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="19" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="G21" s="20" t="n">
         <v>1</v>
       </c>
       <c r="H21" s="22"/>
       <c r="I21" s="19" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="J21" s="22"/>
       <c r="K21" s="22"/>
@@ -6764,10 +6956,10 @@
       <c r="R21" s="22"/>
       <c r="S21" s="22"/>
       <c r="T21" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="U21" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="V21" s="22"/>
       <c r="W21" s="22"/>
@@ -6775,32 +6967,33 @@
       <c r="Y21" s="22"/>
       <c r="Z21" s="22"/>
       <c r="AA21" s="22"/>
+      <c r="AB21" s="22"/>
     </row>
     <row r="22" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="19" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="H22" s="22"/>
       <c r="I22" s="19" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="J22" s="22"/>
       <c r="K22" s="22"/>
@@ -6813,10 +7006,10 @@
       <c r="R22" s="22"/>
       <c r="S22" s="22"/>
       <c r="T22" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="U22" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="V22" s="22"/>
       <c r="W22" s="22"/>
@@ -6824,30 +7017,31 @@
       <c r="Y22" s="22"/>
       <c r="Z22" s="22"/>
       <c r="AA22" s="22"/>
+      <c r="AB22" s="22"/>
     </row>
     <row r="23" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="19" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="G23" s="20"/>
       <c r="H23" s="22"/>
       <c r="I23" s="19" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="J23" s="22"/>
       <c r="K23" s="22"/>
@@ -6858,7 +7052,7 @@
       <c r="P23" s="22"/>
       <c r="Q23" s="22"/>
       <c r="R23" s="19" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="S23" s="22"/>
       <c r="T23" s="22"/>
@@ -6869,30 +7063,33 @@
       <c r="Y23" s="22"/>
       <c r="Z23" s="22"/>
       <c r="AA23" s="22"/>
+      <c r="AB23" s="19" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="B24" s="19" t="s">
         <v>327</v>
       </c>
-      <c r="B24" s="19" t="s">
-        <v>322</v>
-      </c>
       <c r="C24" s="19" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="F24" s="24" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="G24" s="22"/>
       <c r="H24" s="22"/>
       <c r="I24" s="19" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="J24" s="22"/>
       <c r="K24" s="22"/>
@@ -6903,7 +7100,7 @@
       <c r="P24" s="22"/>
       <c r="Q24" s="22"/>
       <c r="R24" s="19" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="S24" s="22"/>
       <c r="T24" s="22"/>
@@ -6914,34 +7111,37 @@
       <c r="Y24" s="22"/>
       <c r="Z24" s="22"/>
       <c r="AA24" s="22"/>
+      <c r="AB24" s="19" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="19" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="G25" s="20" t="n">
         <v>0</v>
       </c>
       <c r="H25" s="22" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="I25" s="19" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="J25" s="22"/>
       <c r="K25" s="22"/>
@@ -6952,7 +7152,7 @@
       <c r="P25" s="22"/>
       <c r="Q25" s="22"/>
       <c r="R25" s="19" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="S25" s="22"/>
       <c r="T25" s="22"/>
@@ -6963,30 +7163,33 @@
       <c r="Y25" s="22"/>
       <c r="Z25" s="22"/>
       <c r="AA25" s="22"/>
+      <c r="AB25" s="19" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="19" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="G26" s="22"/>
       <c r="H26" s="22"/>
       <c r="I26" s="19" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="J26" s="22"/>
       <c r="K26" s="22"/>
@@ -6997,7 +7200,7 @@
       <c r="P26" s="22"/>
       <c r="Q26" s="22"/>
       <c r="R26" s="19" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="S26" s="22"/>
       <c r="T26" s="22"/>
@@ -7008,57 +7211,60 @@
       <c r="Y26" s="22"/>
       <c r="Z26" s="22"/>
       <c r="AA26" s="22"/>
+      <c r="AB26" s="19" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="19" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="G27" s="20"/>
       <c r="H27" s="22"/>
       <c r="I27" s="19" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="J27" s="22"/>
       <c r="K27" s="19" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="L27" s="19" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="M27" s="19" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="N27" s="19" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="O27" s="19" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="P27" s="19" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="Q27" s="19" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="R27" s="22"/>
       <c r="S27" s="22"/>
       <c r="T27" s="19" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="U27" s="22"/>
       <c r="V27" s="22"/>
@@ -7067,57 +7273,58 @@
       <c r="Y27" s="22"/>
       <c r="Z27" s="22"/>
       <c r="AA27" s="22"/>
+      <c r="AB27" s="22"/>
     </row>
     <row r="28" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="19" t="s">
+        <v>356</v>
+      </c>
+      <c r="B28" s="19" t="s">
         <v>351</v>
       </c>
-      <c r="B28" s="19" t="s">
-        <v>346</v>
-      </c>
       <c r="C28" s="19" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="F28" s="24" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="G28" s="22"/>
       <c r="H28" s="22"/>
       <c r="I28" s="19" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="J28" s="22"/>
       <c r="K28" s="19" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="L28" s="19" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="M28" s="19" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="N28" s="19" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="O28" s="19" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="P28" s="19" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="Q28" s="19" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="R28" s="22"/>
       <c r="S28" s="22"/>
       <c r="T28" s="19" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="U28" s="22"/>
       <c r="V28" s="22"/>
@@ -7126,57 +7333,58 @@
       <c r="Y28" s="22"/>
       <c r="Z28" s="22"/>
       <c r="AA28" s="22"/>
+      <c r="AB28" s="22"/>
     </row>
     <row r="29" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="19" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F29" s="19" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="G29" s="22"/>
       <c r="H29" s="22"/>
       <c r="I29" s="19" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="J29" s="22"/>
       <c r="K29" s="19" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="L29" s="19" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="M29" s="19" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="N29" s="19" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="O29" s="19" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="P29" s="19" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="Q29" s="19" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="R29" s="22"/>
       <c r="S29" s="22"/>
       <c r="T29" s="19" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="U29" s="22"/>
       <c r="V29" s="22"/>
@@ -7185,55 +7393,56 @@
       <c r="Y29" s="22"/>
       <c r="Z29" s="22"/>
       <c r="AA29" s="22"/>
+      <c r="AB29" s="22"/>
     </row>
     <row r="30" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="19" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="F30" s="22"/>
       <c r="G30" s="22"/>
       <c r="H30" s="22"/>
       <c r="I30" s="19" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="J30" s="22"/>
       <c r="K30" s="19" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="L30" s="19" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="M30" s="19" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="N30" s="19" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="O30" s="19" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="P30" s="19" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="Q30" s="19" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="R30" s="22"/>
       <c r="S30" s="22"/>
       <c r="T30" s="19" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="U30" s="22"/>
       <c r="V30" s="22"/>
@@ -7242,55 +7451,56 @@
       <c r="Y30" s="22"/>
       <c r="Z30" s="22"/>
       <c r="AA30" s="22"/>
+      <c r="AB30" s="22"/>
     </row>
     <row r="31" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="19" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="F31" s="22"/>
       <c r="G31" s="20"/>
       <c r="H31" s="22"/>
       <c r="I31" s="19" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="J31" s="22"/>
       <c r="K31" s="19" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="L31" s="19" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="M31" s="19" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="N31" s="19" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="O31" s="19" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="P31" s="19" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="Q31" s="19" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="R31" s="22"/>
       <c r="S31" s="22"/>
       <c r="T31" s="19" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="U31" s="22"/>
       <c r="V31" s="22"/>
@@ -7299,87 +7509,89 @@
       <c r="Y31" s="22"/>
       <c r="Z31" s="22"/>
       <c r="AA31" s="22"/>
+      <c r="AB31" s="22"/>
     </row>
     <row r="32" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="19" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="G32" s="20"/>
       <c r="H32" s="22"/>
       <c r="I32" s="19" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="J32" s="22"/>
       <c r="K32" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="L32" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="M32" s="19" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="N32" s="19" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="O32" s="22"/>
       <c r="P32" s="19" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="Q32" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="R32" s="22"/>
       <c r="S32" s="22"/>
       <c r="T32" s="22"/>
       <c r="U32" s="22"/>
       <c r="V32" s="19" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="W32" s="22"/>
       <c r="X32" s="22"/>
       <c r="Y32" s="22"/>
       <c r="Z32" s="22"/>
       <c r="AA32" s="22"/>
+      <c r="AB32" s="22"/>
     </row>
     <row r="33" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="19" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="F33" s="19" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="G33" s="20"/>
       <c r="H33" s="22"/>
       <c r="I33" s="19" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="J33" s="22"/>
       <c r="K33" s="22"/>
@@ -7387,7 +7599,7 @@
       <c r="M33" s="22"/>
       <c r="N33" s="22"/>
       <c r="O33" s="19" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="P33" s="22"/>
       <c r="Q33" s="22"/>
@@ -7401,85 +7613,87 @@
       <c r="Y33" s="22"/>
       <c r="Z33" s="22"/>
       <c r="AA33" s="22"/>
+      <c r="AB33" s="22"/>
     </row>
     <row r="34" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="19" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="F34" s="24" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="G34" s="20"/>
       <c r="H34" s="22"/>
       <c r="I34" s="19" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="J34" s="22"/>
       <c r="K34" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="L34" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="M34" s="19" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="N34" s="19" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="O34" s="22"/>
       <c r="P34" s="19" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="Q34" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="R34" s="22"/>
       <c r="S34" s="22"/>
       <c r="T34" s="22"/>
       <c r="U34" s="22"/>
       <c r="V34" s="19" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="W34" s="22"/>
       <c r="X34" s="22"/>
       <c r="Y34" s="22"/>
       <c r="Z34" s="22"/>
       <c r="AA34" s="22"/>
+      <c r="AB34" s="22"/>
     </row>
     <row r="35" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="19" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="F35" s="21"/>
       <c r="G35" s="20"/>
       <c r="H35" s="22"/>
       <c r="I35" s="19" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="J35" s="22"/>
       <c r="K35" s="22"/>
@@ -7487,7 +7701,7 @@
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
       <c r="O35" s="19" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="P35" s="22"/>
       <c r="Q35" s="22"/>
@@ -7501,85 +7715,87 @@
       <c r="Y35" s="22"/>
       <c r="Z35" s="22"/>
       <c r="AA35" s="22"/>
+      <c r="AB35" s="22"/>
     </row>
     <row r="36" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="19" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="F36" s="22"/>
       <c r="G36" s="22"/>
       <c r="H36" s="22"/>
       <c r="I36" s="19" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="J36" s="22"/>
       <c r="K36" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="L36" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="M36" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="N36" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="O36" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="P36" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q36" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="R36" s="22"/>
       <c r="S36" s="22"/>
       <c r="T36" s="22"/>
       <c r="U36" s="22"/>
       <c r="V36" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="W36" s="22"/>
       <c r="X36" s="22"/>
       <c r="Y36" s="22"/>
       <c r="Z36" s="22"/>
       <c r="AA36" s="22"/>
+      <c r="AB36" s="22"/>
     </row>
     <row r="37" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="19" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="E37" s="19" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="F37" s="22"/>
       <c r="G37" s="22"/>
       <c r="H37" s="22"/>
       <c r="I37" s="19" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="J37" s="22"/>
       <c r="K37" s="22"/>
@@ -7594,118 +7810,122 @@
       <c r="T37" s="22"/>
       <c r="U37" s="22"/>
       <c r="V37" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="W37" s="22"/>
       <c r="X37" s="22"/>
       <c r="Y37" s="22"/>
       <c r="Z37" s="22"/>
       <c r="AA37" s="22"/>
+      <c r="AB37" s="22"/>
     </row>
     <row r="38" customFormat="false" ht="145.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="19" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="E38" s="19" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F38" s="19" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="G38" s="22"/>
       <c r="H38" s="22"/>
       <c r="I38" s="19" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="J38" s="22"/>
       <c r="K38" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="L38" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="M38" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="N38" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="O38" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="P38" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q38" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="R38" s="22"/>
       <c r="S38" s="22"/>
       <c r="T38" s="22"/>
       <c r="U38" s="22"/>
       <c r="V38" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="W38" s="22"/>
       <c r="X38" s="22"/>
       <c r="Y38" s="22"/>
       <c r="Z38" s="22"/>
       <c r="AA38" s="22"/>
+      <c r="AB38" s="22" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="19" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="E39" s="19" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="F39" s="22"/>
       <c r="G39" s="20"/>
       <c r="H39" s="19" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="I39" s="19" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="J39" s="22"/>
       <c r="K39" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="L39" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="M39" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="N39" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="O39" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="P39" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q39" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="R39" s="22"/>
       <c r="S39" s="22"/>
@@ -7717,48 +7937,49 @@
       <c r="Y39" s="22"/>
       <c r="Z39" s="22"/>
       <c r="AA39" s="22"/>
+      <c r="AB39" s="22"/>
     </row>
     <row r="40" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="19" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="E40" s="19" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F40" s="22" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="G40" s="20"/>
       <c r="H40" s="22"/>
       <c r="I40" s="19" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="J40" s="22"/>
       <c r="K40" s="22"/>
       <c r="L40" s="22"/>
       <c r="M40" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="N40" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="O40" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="P40" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q40" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="R40" s="22"/>
       <c r="S40" s="22"/>
@@ -7770,46 +7991,47 @@
       <c r="Y40" s="22"/>
       <c r="Z40" s="22"/>
       <c r="AA40" s="22"/>
+      <c r="AB40" s="22"/>
     </row>
     <row r="41" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="19" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="E41" s="19" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F41" s="22" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="G41" s="22"/>
       <c r="H41" s="22"/>
       <c r="I41" s="19" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="J41" s="22"/>
       <c r="K41" s="22"/>
       <c r="L41" s="22"/>
       <c r="M41" s="22"/>
       <c r="N41" s="19" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="O41" s="19" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="P41" s="19" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="Q41" s="19" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="R41" s="22"/>
       <c r="S41" s="22"/>
@@ -7821,46 +8043,47 @@
       <c r="Y41" s="22"/>
       <c r="Z41" s="22"/>
       <c r="AA41" s="22"/>
+      <c r="AB41" s="22"/>
     </row>
     <row r="42" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="19" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="E42" s="19" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="F42" s="24" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="G42" s="22"/>
       <c r="H42" s="22"/>
       <c r="I42" s="19" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="J42" s="22"/>
       <c r="K42" s="22"/>
       <c r="L42" s="22"/>
       <c r="M42" s="22"/>
       <c r="N42" s="19" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="O42" s="19" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="P42" s="19" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="Q42" s="19" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="R42" s="22"/>
       <c r="S42" s="22"/>
@@ -7872,50 +8095,51 @@
       <c r="Y42" s="22"/>
       <c r="Z42" s="22"/>
       <c r="AA42" s="22"/>
+      <c r="AB42" s="22"/>
     </row>
     <row r="43" customFormat="false" ht="142.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="19" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="E43" s="19" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F43" s="19" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="G43" s="20" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="H43" s="19" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="I43" s="19" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="J43" s="22"/>
       <c r="K43" s="22"/>
       <c r="L43" s="22"/>
       <c r="M43" s="22"/>
       <c r="N43" s="19" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="O43" s="19" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="P43" s="19" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="Q43" s="19" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="R43" s="22"/>
       <c r="S43" s="22"/>
@@ -7927,48 +8151,49 @@
       <c r="Y43" s="22"/>
       <c r="Z43" s="22"/>
       <c r="AA43" s="22"/>
+      <c r="AB43" s="22"/>
     </row>
     <row r="44" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="19" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="E44" s="19" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="F44" s="22" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="G44" s="22"/>
       <c r="H44" s="19" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="I44" s="19" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="J44" s="22"/>
       <c r="K44" s="22"/>
       <c r="L44" s="22"/>
       <c r="M44" s="22"/>
       <c r="N44" s="19" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="O44" s="19" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="P44" s="19" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="Q44" s="19" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="R44" s="22"/>
       <c r="S44" s="22"/>
@@ -7980,44 +8205,45 @@
       <c r="Y44" s="22"/>
       <c r="Z44" s="22"/>
       <c r="AA44" s="22"/>
+      <c r="AB44" s="22"/>
     </row>
     <row r="45" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="19" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F45" s="19" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="G45" s="20" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="H45" s="22"/>
       <c r="I45" s="19" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="J45" s="22"/>
       <c r="K45" s="22"/>
       <c r="L45" s="22"/>
       <c r="M45" s="19" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="N45" s="19" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="O45" s="19" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="P45" s="22"/>
       <c r="Q45" s="22"/>
@@ -8031,30 +8257,31 @@
       <c r="Y45" s="22"/>
       <c r="Z45" s="22"/>
       <c r="AA45" s="22"/>
+      <c r="AB45" s="22"/>
     </row>
     <row r="46" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="19" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="B46" s="19" t="s">
         <v>179</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="D46" s="19" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="E46" s="19" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F46" s="19" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="G46" s="20"/>
       <c r="H46" s="21"/>
       <c r="I46" s="19" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="J46" s="21"/>
       <c r="K46" s="21"/>
@@ -8072,38 +8299,39 @@
       <c r="W46" s="21"/>
       <c r="X46" s="21"/>
       <c r="Y46" s="19" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="Z46" s="21"/>
       <c r="AA46" s="21"/>
+      <c r="AB46" s="21"/>
     </row>
     <row r="47" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="19" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="B47" s="19" t="s">
         <v>179</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="D47" s="19" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="E47" s="19" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="F47" s="22" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="G47" s="20" t="n">
         <v>0</v>
       </c>
       <c r="H47" s="19" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="I47" s="19" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="J47" s="22"/>
       <c r="K47" s="22"/>
@@ -8121,34 +8349,35 @@
       <c r="W47" s="22"/>
       <c r="X47" s="22"/>
       <c r="Y47" s="19" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="Z47" s="22"/>
       <c r="AA47" s="22"/>
+      <c r="AB47" s="22"/>
     </row>
     <row r="48" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="19" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="B48" s="19" t="s">
         <v>179</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="D48" s="19" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="E48" s="19" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="F48" s="22" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="G48" s="22"/>
       <c r="H48" s="22"/>
       <c r="I48" s="19" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="J48" s="22"/>
       <c r="K48" s="22"/>
@@ -8166,34 +8395,35 @@
       <c r="W48" s="22"/>
       <c r="X48" s="22"/>
       <c r="Y48" s="19" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="Z48" s="22"/>
       <c r="AA48" s="22"/>
+      <c r="AB48" s="22"/>
     </row>
     <row r="49" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="19" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="B49" s="19" t="s">
         <v>179</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="D49" s="19" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="E49" s="19" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="F49" s="22" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="G49" s="22"/>
       <c r="H49" s="22"/>
       <c r="I49" s="19" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="J49" s="22"/>
       <c r="K49" s="22"/>
@@ -8211,34 +8441,35 @@
       <c r="W49" s="22"/>
       <c r="X49" s="22"/>
       <c r="Y49" s="19" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="Z49" s="22"/>
       <c r="AA49" s="22"/>
+      <c r="AB49" s="22"/>
     </row>
     <row r="50" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="19" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="B50" s="19" t="s">
         <v>179</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="D50" s="19" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="E50" s="19" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F50" s="22" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="G50" s="22"/>
       <c r="H50" s="22"/>
       <c r="I50" s="19" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="J50" s="22"/>
       <c r="K50" s="22"/>
@@ -8256,34 +8487,35 @@
       <c r="W50" s="22"/>
       <c r="X50" s="22"/>
       <c r="Y50" s="19" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="Z50" s="22"/>
       <c r="AA50" s="22"/>
+      <c r="AB50" s="22"/>
     </row>
     <row r="51" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="19" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="B51" s="19" t="s">
         <v>179</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="D51" s="19" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="E51" s="19" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="F51" s="24" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="G51" s="22"/>
       <c r="H51" s="22"/>
       <c r="I51" s="19" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="J51" s="22"/>
       <c r="K51" s="22"/>
@@ -8301,34 +8533,35 @@
       <c r="W51" s="22"/>
       <c r="X51" s="22"/>
       <c r="Y51" s="19" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="Z51" s="22"/>
       <c r="AA51" s="22"/>
+      <c r="AB51" s="22"/>
     </row>
     <row r="52" customFormat="false" ht="136.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="19" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="B52" s="19" t="s">
         <v>179</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="D52" s="19" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="E52" s="19" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="F52" s="22" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="G52" s="22"/>
       <c r="H52" s="22"/>
       <c r="I52" s="19" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="J52" s="22"/>
       <c r="K52" s="22"/>
@@ -8346,111 +8579,115 @@
       <c r="W52" s="22"/>
       <c r="X52" s="22"/>
       <c r="Y52" s="19" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="Z52" s="22"/>
       <c r="AA52" s="22"/>
+      <c r="AB52" s="22"/>
     </row>
     <row r="53" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="19" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="D53" s="19" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="E53" s="19" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="F53" s="19" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="G53" s="22"/>
       <c r="H53" s="22"/>
       <c r="I53" s="19" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="J53" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="K53" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="L53" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="M53" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="N53" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="O53" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="P53" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q53" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="R53" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="S53" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="T53" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="U53" s="21"/>
       <c r="V53" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="W53" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="X53" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Y53" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Z53" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="AA53" s="19" t="s">
-        <v>479</v>
+        <v>484</v>
+      </c>
+      <c r="AB53" s="19" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="19" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="D54" s="19" t="s">
+        <v>487</v>
+      </c>
+      <c r="E54" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="F54" s="19" t="s">
         <v>482</v>
-      </c>
-      <c r="E54" s="19" t="s">
-        <v>244</v>
-      </c>
-      <c r="F54" s="19" t="s">
-        <v>477</v>
       </c>
       <c r="G54" s="22"/>
       <c r="H54" s="22"/>
       <c r="I54" s="19" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="J54" s="22"/>
       <c r="K54" s="22"/>
@@ -8467,35 +8704,36 @@
       <c r="V54" s="22"/>
       <c r="W54" s="22"/>
       <c r="X54" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Y54" s="22"/>
       <c r="Z54" s="22"/>
       <c r="AA54" s="22"/>
+      <c r="AB54" s="22"/>
     </row>
     <row r="55" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="19" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="D55" s="19" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="E55" s="19" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F55" s="22" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="G55" s="20"/>
       <c r="H55" s="22"/>
       <c r="I55" s="19" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="J55" s="22"/>
       <c r="K55" s="22"/>
@@ -8504,7 +8742,7 @@
       <c r="N55" s="22"/>
       <c r="O55" s="22"/>
       <c r="P55" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q55" s="26"/>
       <c r="R55" s="22"/>
@@ -8517,186 +8755,191 @@
       <c r="Y55" s="22"/>
       <c r="Z55" s="22"/>
       <c r="AA55" s="22"/>
+      <c r="AB55" s="22"/>
     </row>
     <row r="56" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="19" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="D56" s="19" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="E56" s="19" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F56" s="22" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="G56" s="22"/>
       <c r="H56" s="22"/>
       <c r="I56" s="19" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="J56" s="22"/>
       <c r="K56" s="19" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="L56" s="19" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="M56" s="19" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="N56" s="19" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="O56" s="19" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="P56" s="19" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q56" s="19" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="R56" s="19" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="S56" s="19" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="T56" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="U56" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="V56" s="19" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="W56" s="19" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="X56" s="19" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Y56" s="19" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Z56" s="19" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="AA56" s="19" t="s">
-        <v>235</v>
+        <v>240</v>
+      </c>
+      <c r="AB56" s="19" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="19" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="D57" s="19" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="E57" s="19" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F57" s="22" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="G57" s="22"/>
       <c r="H57" s="22"/>
       <c r="I57" s="19" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="J57" s="22"/>
       <c r="K57" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="L57" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="M57" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="N57" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="O57" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="P57" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q57" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="R57" s="27"/>
       <c r="S57" s="22"/>
       <c r="T57" s="22"/>
       <c r="U57" s="22"/>
       <c r="V57" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="W57" s="22"/>
       <c r="X57" s="22"/>
       <c r="Y57" s="22"/>
       <c r="Z57" s="22"/>
       <c r="AA57" s="22"/>
+      <c r="AB57" s="22"/>
     </row>
     <row r="58" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="19" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="B58" s="19" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="D58" s="19" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="E58" s="19" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="F58" s="22"/>
       <c r="G58" s="20" t="n">
         <v>0</v>
       </c>
       <c r="H58" s="19" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="I58" s="19" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="J58" s="22"/>
       <c r="K58" s="22"/>
       <c r="L58" s="22"/>
       <c r="M58" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="N58" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="O58" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="P58" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q58" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="R58" s="22"/>
       <c r="S58" s="22"/>
@@ -8708,166 +8951,171 @@
       <c r="Y58" s="22"/>
       <c r="Z58" s="22"/>
       <c r="AA58" s="22"/>
+      <c r="AB58" s="22"/>
     </row>
     <row r="59" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="19" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="D59" s="19" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="E59" s="19" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F59" s="22" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="G59" s="20"/>
       <c r="H59" s="22"/>
       <c r="I59" s="19" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="J59" s="22"/>
       <c r="K59" s="22"/>
       <c r="L59" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="M59" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="N59" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="O59" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="P59" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q59" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="R59" s="22"/>
       <c r="S59" s="22"/>
       <c r="T59" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="U59" s="22"/>
       <c r="V59" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="W59" s="22"/>
       <c r="X59" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Y59" s="22" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Z59" s="22" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="AA59" s="22"/>
+      <c r="AB59" s="22" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="19" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="D60" s="19" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="E60" s="19" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="F60" s="22" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="G60" s="22"/>
       <c r="H60" s="19" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="I60" s="19" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="J60" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="K60" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="L60" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="M60" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="N60" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="O60" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="P60" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q60" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="R60" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="S60" s="22"/>
       <c r="T60" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="U60" s="22"/>
       <c r="V60" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="W60" s="22"/>
       <c r="X60" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Y60" s="22"/>
       <c r="Z60" s="22"/>
       <c r="AA60" s="22"/>
+      <c r="AB60" s="22"/>
     </row>
     <row r="61" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="19" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="C61" s="19" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="D61" s="19" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="E61" s="19" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="F61" s="22" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="G61" s="22"/>
       <c r="H61" s="19" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="I61" s="19" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="J61" s="22"/>
       <c r="K61" s="22"/>
@@ -8884,37 +9132,38 @@
       <c r="V61" s="22"/>
       <c r="W61" s="22"/>
       <c r="X61" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Y61" s="22"/>
       <c r="Z61" s="22"/>
       <c r="AA61" s="22"/>
+      <c r="AB61" s="22"/>
     </row>
     <row r="62" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="19" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="D62" s="19" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="E62" s="19" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="F62" s="22" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="G62" s="20" t="n">
         <v>1</v>
       </c>
       <c r="H62" s="22"/>
       <c r="I62" s="19" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="J62" s="22"/>
       <c r="K62" s="22"/>
@@ -8925,10 +9174,10 @@
       <c r="P62" s="22"/>
       <c r="Q62" s="22"/>
       <c r="R62" s="19" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="S62" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="T62" s="22"/>
       <c r="U62" s="22"/>
@@ -8938,30 +9187,33 @@
       <c r="Y62" s="22"/>
       <c r="Z62" s="22"/>
       <c r="AA62" s="22"/>
+      <c r="AB62" s="22" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="148.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="19" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="C63" s="19" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="D63" s="19" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="E63" s="19" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F63" s="19" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="G63" s="22"/>
       <c r="H63" s="22"/>
       <c r="I63" s="19" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="J63" s="22"/>
       <c r="K63" s="22"/>
@@ -8973,7 +9225,7 @@
       <c r="Q63" s="22"/>
       <c r="R63" s="28"/>
       <c r="S63" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="T63" s="22"/>
       <c r="U63" s="22"/>
@@ -8983,44 +9235,45 @@
       <c r="Y63" s="22"/>
       <c r="Z63" s="22"/>
       <c r="AA63" s="22"/>
+      <c r="AB63" s="22"/>
     </row>
     <row r="64" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="19" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="B64" s="19" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="D64" s="19" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="E64" s="19" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F64" s="22" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="G64" s="20"/>
       <c r="H64" s="22"/>
       <c r="I64" s="19" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="J64" s="22"/>
       <c r="K64" s="22"/>
       <c r="L64" s="22"/>
       <c r="M64" s="22"/>
       <c r="N64" s="19" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="O64" s="22"/>
       <c r="P64" s="19" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="Q64" s="19" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="R64" s="22"/>
       <c r="S64" s="22"/>
@@ -9032,28 +9285,29 @@
       <c r="Y64" s="22"/>
       <c r="Z64" s="22"/>
       <c r="AA64" s="22"/>
+      <c r="AB64" s="22"/>
     </row>
     <row r="65" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="19" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="D65" s="19" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="E65" s="19" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="F65" s="22"/>
       <c r="G65" s="20"/>
       <c r="H65" s="22"/>
       <c r="I65" s="19" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="J65" s="22"/>
       <c r="K65" s="22"/>
@@ -9061,7 +9315,7 @@
       <c r="M65" s="22"/>
       <c r="N65" s="22"/>
       <c r="O65" s="19" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="P65" s="22"/>
       <c r="Q65" s="22"/>
@@ -9075,44 +9329,45 @@
       <c r="Y65" s="22"/>
       <c r="Z65" s="22"/>
       <c r="AA65" s="22"/>
+      <c r="AB65" s="22"/>
     </row>
     <row r="66" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="19" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="B66" s="19" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="D66" s="19" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="E66" s="19" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="F66" s="24" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="G66" s="20"/>
       <c r="H66" s="22"/>
       <c r="I66" s="19" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="J66" s="22"/>
       <c r="K66" s="22"/>
       <c r="L66" s="22"/>
       <c r="M66" s="22"/>
       <c r="N66" s="19" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="O66" s="22"/>
       <c r="P66" s="19" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="Q66" s="19" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="R66" s="22"/>
       <c r="S66" s="22"/>
@@ -9124,28 +9379,29 @@
       <c r="Y66" s="22"/>
       <c r="Z66" s="22"/>
       <c r="AA66" s="22"/>
+      <c r="AB66" s="22"/>
     </row>
     <row r="67" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="19" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="B67" s="19" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="D67" s="19" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="E67" s="19" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="F67" s="19"/>
       <c r="G67" s="20"/>
       <c r="H67" s="22"/>
       <c r="I67" s="19" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="J67" s="22"/>
       <c r="K67" s="22"/>
@@ -9153,7 +9409,7 @@
       <c r="M67" s="22"/>
       <c r="N67" s="22"/>
       <c r="O67" s="19" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="P67" s="22"/>
       <c r="Q67" s="22"/>
@@ -9167,46 +9423,47 @@
       <c r="Y67" s="22"/>
       <c r="Z67" s="22"/>
       <c r="AA67" s="22"/>
+      <c r="AB67" s="22"/>
     </row>
     <row r="68" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="19" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="C68" s="19" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="D68" s="19" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="E68" s="19" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="F68" s="22" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="G68" s="20"/>
       <c r="H68" s="19" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="I68" s="19" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="J68" s="22"/>
       <c r="K68" s="22"/>
       <c r="L68" s="22"/>
       <c r="M68" s="22"/>
       <c r="N68" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="O68" s="22"/>
       <c r="P68" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q68" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="R68" s="22"/>
       <c r="S68" s="22"/>
@@ -9218,28 +9475,29 @@
       <c r="Y68" s="22"/>
       <c r="Z68" s="22"/>
       <c r="AA68" s="22"/>
+      <c r="AB68" s="22"/>
     </row>
     <row r="69" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="19" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="C69" s="19" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="D69" s="19" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="E69" s="19" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="F69" s="22"/>
       <c r="G69" s="20"/>
       <c r="H69" s="22"/>
       <c r="I69" s="19" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="J69" s="22"/>
       <c r="K69" s="22"/>
@@ -9247,7 +9505,7 @@
       <c r="M69" s="22"/>
       <c r="N69" s="22"/>
       <c r="O69" s="19" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="P69" s="22"/>
       <c r="Q69" s="22"/>
@@ -9261,30 +9519,31 @@
       <c r="Y69" s="22"/>
       <c r="Z69" s="22"/>
       <c r="AA69" s="22"/>
+      <c r="AB69" s="22"/>
     </row>
     <row r="70" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="19" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="C70" s="19" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="D70" s="19" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="E70" s="19" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F70" s="19" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="G70" s="20"/>
       <c r="H70" s="22"/>
       <c r="I70" s="19" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="J70" s="22"/>
       <c r="K70" s="22"/>
@@ -9292,7 +9551,7 @@
       <c r="M70" s="22"/>
       <c r="N70" s="22"/>
       <c r="O70" s="19" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="P70" s="22"/>
       <c r="Q70" s="22"/>
@@ -9306,325 +9565,330 @@
       <c r="Y70" s="22"/>
       <c r="Z70" s="22"/>
       <c r="AA70" s="22"/>
+      <c r="AB70" s="22"/>
     </row>
     <row r="71" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="19" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="D71" s="19" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="E71" s="19" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F71" s="22" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="G71" s="20"/>
       <c r="H71" s="22"/>
       <c r="I71" s="19" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="J71" s="22"/>
       <c r="K71" s="22"/>
       <c r="L71" s="22"/>
       <c r="M71" s="19" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="N71" s="19" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="O71" s="19" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="P71" s="19" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="Q71" s="19" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="R71" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="S71" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="T71" s="19" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="U71" s="22"/>
       <c r="V71" s="19" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="W71" s="19" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="X71" s="19" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="Y71" s="19" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="Z71" s="19" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="AA71" s="19" t="s">
-        <v>559</v>
-      </c>
+        <v>564</v>
+      </c>
+      <c r="AB71" s="19"/>
     </row>
     <row r="72" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="19" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="C72" s="19" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="D72" s="19" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="E72" s="19" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="F72" s="22"/>
       <c r="G72" s="22"/>
       <c r="H72" s="19" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="I72" s="19" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="J72" s="22"/>
       <c r="K72" s="22"/>
       <c r="L72" s="22"/>
       <c r="M72" s="19" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="N72" s="19" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="O72" s="19" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="P72" s="19" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="Q72" s="19" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="R72" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="S72" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="T72" s="19" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="U72" s="22"/>
       <c r="V72" s="19" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="W72" s="19" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="X72" s="19" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="Y72" s="19" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="Z72" s="19" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="AA72" s="19" t="s">
-        <v>564</v>
-      </c>
+        <v>569</v>
+      </c>
+      <c r="AB72" s="19"/>
     </row>
     <row r="73" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="19" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="C73" s="19" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="D73" s="19" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="E73" s="19" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F73" s="22" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="G73" s="20"/>
       <c r="H73" s="22"/>
       <c r="I73" s="19" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="J73" s="22"/>
       <c r="K73" s="19" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="L73" s="22"/>
       <c r="M73" s="19" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="N73" s="19" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="O73" s="19" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="P73" s="19" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="Q73" s="19" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="R73" s="19" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="S73" s="19" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="T73" s="19" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="U73" s="22"/>
       <c r="V73" s="19" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="W73" s="19" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="X73" s="19" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="Y73" s="19" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="Z73" s="19" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="AA73" s="19" t="s">
-        <v>569</v>
-      </c>
+        <v>574</v>
+      </c>
+      <c r="AB73" s="19"/>
     </row>
     <row r="74" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="19" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="C74" s="19" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="D74" s="19" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="E74" s="19" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="F74" s="22"/>
       <c r="G74" s="22"/>
       <c r="H74" s="19" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="I74" s="19" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="J74" s="22"/>
       <c r="K74" s="19" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="L74" s="22"/>
       <c r="M74" s="19" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="N74" s="19" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="O74" s="19" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="P74" s="19" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="Q74" s="19" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="R74" s="19" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="S74" s="19" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="T74" s="19" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="U74" s="22"/>
       <c r="V74" s="19" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="W74" s="19" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="X74" s="19" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="Y74" s="19" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="Z74" s="19" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="AA74" s="19" t="s">
-        <v>574</v>
-      </c>
+        <v>579</v>
+      </c>
+      <c r="AB74" s="19"/>
     </row>
     <row r="75" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="19" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="C75" s="19" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="D75" s="19" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="E75" s="19" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="F75" s="24" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="G75" s="20"/>
       <c r="H75" s="22"/>
       <c r="I75" s="19" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="J75" s="22"/>
       <c r="K75" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="L75" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="M75" s="22"/>
       <c r="N75" s="22"/>
@@ -9641,48 +9905,49 @@
       <c r="Y75" s="22"/>
       <c r="Z75" s="22"/>
       <c r="AA75" s="22"/>
+      <c r="AB75" s="22"/>
     </row>
     <row r="76" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="23" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="B76" s="23" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="C76" s="23" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="D76" s="23" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="E76" s="23" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="F76" s="24" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="G76" s="29"/>
       <c r="H76" s="23" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="I76" s="24" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="J76" s="24"/>
       <c r="K76" s="24"/>
       <c r="L76" s="24"/>
       <c r="M76" s="24" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="N76" s="24" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="O76" s="24"/>
       <c r="P76" s="24" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q76" s="24" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="R76" s="24"/>
       <c r="S76" s="24"/>
@@ -9694,22 +9959,23 @@
       <c r="Y76" s="24"/>
       <c r="Z76" s="24"/>
       <c r="AA76" s="24"/>
+      <c r="AB76" s="24"/>
     </row>
     <row r="77" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="19" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="D77" s="19" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="E77" s="19" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="F77" s="21"/>
       <c r="G77" s="20"/>
@@ -9719,19 +9985,19 @@
       <c r="K77" s="21"/>
       <c r="L77" s="21"/>
       <c r="M77" s="19" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="N77" s="19" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="O77" s="19" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="P77" s="19" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="Q77" s="19" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="R77" s="21"/>
       <c r="S77" s="21"/>
@@ -9743,25 +10009,26 @@
       <c r="Y77" s="21"/>
       <c r="Z77" s="21"/>
       <c r="AA77" s="21"/>
+      <c r="AB77" s="21"/>
     </row>
     <row r="78" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="19" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="C78" s="19" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="D78" s="19" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="E78" s="19" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="F78" s="21" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="G78" s="22"/>
       <c r="H78" s="22"/>
@@ -9770,19 +10037,19 @@
       <c r="K78" s="22"/>
       <c r="L78" s="22"/>
       <c r="M78" s="19" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="N78" s="19" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="O78" s="19" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="P78" s="19" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="Q78" s="19" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="R78" s="22"/>
       <c r="S78" s="22"/>
@@ -9794,48 +10061,49 @@
       <c r="Y78" s="22"/>
       <c r="Z78" s="22"/>
       <c r="AA78" s="22"/>
+      <c r="AB78" s="22"/>
     </row>
     <row r="79" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="19" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="C79" s="19" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="D79" s="19" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="E79" s="19" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F79" s="21" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="G79" s="22"/>
       <c r="H79" s="22"/>
       <c r="I79" s="19" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="J79" s="22"/>
       <c r="K79" s="22"/>
       <c r="L79" s="22"/>
       <c r="M79" s="19" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="N79" s="19" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="O79" s="19" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="P79" s="19" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="Q79" s="19" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="R79" s="22"/>
       <c r="S79" s="22"/>
@@ -9847,48 +10115,49 @@
       <c r="Y79" s="22"/>
       <c r="Z79" s="22"/>
       <c r="AA79" s="22"/>
+      <c r="AB79" s="22"/>
     </row>
     <row r="80" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="19" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="C80" s="19" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="D80" s="19" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="E80" s="19" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="F80" s="24" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="G80" s="22"/>
       <c r="H80" s="22"/>
       <c r="I80" s="19" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="J80" s="22"/>
       <c r="K80" s="22"/>
       <c r="L80" s="22"/>
       <c r="M80" s="19" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="N80" s="19" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="O80" s="19" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="P80" s="19" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="Q80" s="19" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="R80" s="22"/>
       <c r="S80" s="22"/>
@@ -9900,50 +10169,51 @@
       <c r="Y80" s="22"/>
       <c r="Z80" s="22"/>
       <c r="AA80" s="22"/>
+      <c r="AB80" s="22"/>
     </row>
     <row r="81" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="19" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="C81" s="19" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="D81" s="19" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="E81" s="19" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F81" s="19" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="G81" s="20" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="H81" s="21"/>
       <c r="I81" s="19" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="J81" s="22"/>
       <c r="K81" s="22"/>
       <c r="L81" s="22"/>
       <c r="M81" s="19" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="N81" s="19" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="O81" s="19" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="P81" s="19" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="Q81" s="19" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="R81" s="22"/>
       <c r="S81" s="22"/>
@@ -9955,99 +10225,101 @@
       <c r="Y81" s="22"/>
       <c r="Z81" s="22"/>
       <c r="AA81" s="22"/>
+      <c r="AB81" s="22"/>
     </row>
     <row r="82" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="19" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="C82" s="19" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="D82" s="19" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="E82" s="19" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="F82" s="22"/>
       <c r="G82" s="20"/>
       <c r="H82" s="19" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="I82" s="19" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="J82" s="22"/>
       <c r="K82" s="22"/>
       <c r="L82" s="22"/>
       <c r="M82" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="N82" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="O82" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="P82" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q82" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="R82" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="S82" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="T82" s="22"/>
       <c r="U82" s="22"/>
       <c r="V82" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="W82" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="X82" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Y82" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Z82" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="AA82" s="19" t="s">
-        <v>209</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="AB82" s="19"/>
     </row>
     <row r="83" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="19" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="C83" s="19" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="D83" s="19" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="E83" s="19" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F83" s="19" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="G83" s="20"/>
       <c r="H83" s="21"/>
       <c r="I83" s="19" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="J83" s="21"/>
       <c r="K83" s="21"/>
@@ -10066,51 +10338,52 @@
       <c r="X83" s="21"/>
       <c r="Y83" s="21"/>
       <c r="Z83" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="AA83" s="21"/>
+      <c r="AB83" s="21"/>
     </row>
     <row r="84" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="19" t="s">
+        <v>621</v>
+      </c>
+      <c r="B84" s="19" t="s">
         <v>616</v>
       </c>
-      <c r="B84" s="19" t="s">
-        <v>611</v>
-      </c>
       <c r="C84" s="19" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="D84" s="19" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="E84" s="19" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F84" s="22" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="G84" s="20"/>
       <c r="H84" s="21"/>
       <c r="I84" s="19" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="J84" s="22"/>
       <c r="K84" s="22"/>
       <c r="L84" s="22"/>
       <c r="M84" s="19" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="N84" s="19" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="O84" s="19" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="P84" s="19" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="Q84" s="19" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="R84" s="22"/>
       <c r="S84" s="22"/>
@@ -10121,35 +10394,36 @@
       <c r="X84" s="22"/>
       <c r="Y84" s="22"/>
       <c r="Z84" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="AA84" s="22"/>
+      <c r="AB84" s="22"/>
     </row>
     <row r="85" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="19" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="C85" s="19" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="D85" s="19" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="E85" s="19" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="F85" s="22" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="G85" s="22"/>
       <c r="H85" s="19" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="I85" s="19" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="J85" s="22"/>
       <c r="K85" s="22"/>
@@ -10168,35 +10442,36 @@
       <c r="X85" s="22"/>
       <c r="Y85" s="22"/>
       <c r="Z85" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="AA85" s="22"/>
+      <c r="AB85" s="22"/>
     </row>
     <row r="86" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="19" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="C86" s="19" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="D86" s="19" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="E86" s="19" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="F86" s="22" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="G86" s="22"/>
       <c r="H86" s="19" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="I86" s="19" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="J86" s="22"/>
       <c r="K86" s="22"/>
@@ -10215,33 +10490,34 @@
       <c r="X86" s="22"/>
       <c r="Y86" s="22"/>
       <c r="Z86" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="AA86" s="22"/>
+      <c r="AB86" s="22"/>
     </row>
     <row r="87" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="19" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="B87" s="19" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="C87" s="19" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="D87" s="19" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="E87" s="19" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F87" s="19" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="G87" s="22"/>
       <c r="H87" s="22"/>
       <c r="I87" s="19" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="J87" s="22"/>
       <c r="K87" s="22"/>
@@ -10260,51 +10536,52 @@
       <c r="X87" s="22"/>
       <c r="Y87" s="22"/>
       <c r="Z87" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="AA87" s="22"/>
+      <c r="AB87" s="22"/>
     </row>
     <row r="88" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="19" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="C88" s="19" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="D88" s="19" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="E88" s="19" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F88" s="22" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="G88" s="20"/>
       <c r="H88" s="22"/>
       <c r="I88" s="19" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="J88" s="22"/>
       <c r="K88" s="22"/>
       <c r="L88" s="22"/>
       <c r="M88" s="19" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="N88" s="19" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="O88" s="19" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="P88" s="19" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="Q88" s="19" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="R88" s="22"/>
       <c r="S88" s="22"/>
@@ -10315,51 +10592,52 @@
       <c r="X88" s="22"/>
       <c r="Y88" s="22"/>
       <c r="Z88" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="AA88" s="22"/>
+      <c r="AB88" s="22"/>
     </row>
     <row r="89" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="19" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="B89" s="19" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="C89" s="19" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="D89" s="19" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="E89" s="19" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="F89" s="24" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="G89" s="22"/>
       <c r="H89" s="22"/>
       <c r="I89" s="19" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="J89" s="22"/>
       <c r="K89" s="22"/>
       <c r="L89" s="22"/>
       <c r="M89" s="19" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="N89" s="19" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="O89" s="19" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="P89" s="19" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="Q89" s="19" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="R89" s="22"/>
       <c r="S89" s="22"/>
@@ -10370,53 +10648,54 @@
       <c r="X89" s="22"/>
       <c r="Y89" s="22"/>
       <c r="Z89" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="AA89" s="22"/>
+      <c r="AB89" s="22"/>
     </row>
     <row r="90" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="19" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="B90" s="19" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="C90" s="19" t="s">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="D90" s="19" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="E90" s="19" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F90" s="20" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="G90" s="20" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="H90" s="22"/>
       <c r="I90" s="19" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="J90" s="22"/>
       <c r="K90" s="22"/>
       <c r="L90" s="22"/>
       <c r="M90" s="19" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="N90" s="19" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="O90" s="19" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="P90" s="19" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="Q90" s="19" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="R90" s="22"/>
       <c r="S90" s="22"/>
@@ -10428,52 +10707,53 @@
       <c r="Y90" s="22"/>
       <c r="Z90" s="22"/>
       <c r="AA90" s="22"/>
+      <c r="AB90" s="22"/>
     </row>
     <row r="91" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="19" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="B91" s="19" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="C91" s="19" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
       <c r="D91" s="19" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="E91" s="19" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="F91" s="22" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="G91" s="20" t="n">
         <v>0</v>
       </c>
       <c r="H91" s="19" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="I91" s="19" t="s">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="J91" s="22"/>
       <c r="K91" s="22"/>
       <c r="L91" s="22"/>
       <c r="M91" s="19" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="N91" s="19" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="O91" s="19" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="P91" s="19" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="Q91" s="19" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="R91" s="22"/>
       <c r="S91" s="22"/>
@@ -10485,50 +10765,51 @@
       <c r="Y91" s="22"/>
       <c r="Z91" s="22"/>
       <c r="AA91" s="22"/>
+      <c r="AB91" s="22"/>
     </row>
     <row r="92" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="19" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="B92" s="19" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="C92" s="19" t="s">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="D92" s="19" t="s">
-        <v>654</v>
+        <v>659</v>
       </c>
       <c r="E92" s="19" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F92" s="21" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="G92" s="20" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="H92" s="22"/>
       <c r="I92" s="19" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
       <c r="J92" s="22"/>
       <c r="K92" s="22"/>
       <c r="L92" s="22"/>
       <c r="M92" s="19" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="N92" s="19" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="O92" s="19" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="P92" s="19" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="Q92" s="19" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="R92" s="22"/>
       <c r="S92" s="22"/>
@@ -10540,36 +10821,37 @@
       <c r="Y92" s="22"/>
       <c r="Z92" s="22"/>
       <c r="AA92" s="22"/>
+      <c r="AB92" s="22"/>
     </row>
     <row r="93" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="19" t="s">
-        <v>659</v>
+        <v>664</v>
       </c>
       <c r="B93" s="19" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="C93" s="19" t="s">
-        <v>660</v>
+        <v>665</v>
       </c>
       <c r="D93" s="19" t="s">
-        <v>661</v>
+        <v>666</v>
       </c>
       <c r="E93" s="19" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="F93" s="21" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="G93" s="20" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
       <c r="H93" s="21"/>
       <c r="I93" s="19" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="J93" s="21"/>
       <c r="K93" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="L93" s="21"/>
       <c r="M93" s="21"/>
@@ -10587,85 +10869,87 @@
       <c r="Y93" s="21"/>
       <c r="Z93" s="21"/>
       <c r="AA93" s="21"/>
+      <c r="AB93" s="21"/>
     </row>
     <row r="94" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="19" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="B94" s="19" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="C94" s="19" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
       <c r="D94" s="19" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
       <c r="E94" s="19" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F94" s="21" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="G94" s="20"/>
       <c r="H94" s="19"/>
       <c r="I94" s="19" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
       <c r="J94" s="19"/>
       <c r="K94" s="19" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="L94" s="19" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="M94" s="19" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="N94" s="19" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="O94" s="21"/>
       <c r="P94" s="19" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
       <c r="Q94" s="19" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="R94" s="19"/>
       <c r="S94" s="19"/>
       <c r="T94" s="19"/>
       <c r="U94" s="19"/>
       <c r="V94" s="19" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="W94" s="21"/>
       <c r="X94" s="21"/>
       <c r="Y94" s="21"/>
       <c r="Z94" s="21"/>
       <c r="AA94" s="21"/>
+      <c r="AB94" s="21"/>
     </row>
     <row r="95" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="19" t="s">
-        <v>672</v>
+        <v>677</v>
       </c>
       <c r="B95" s="19" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="C95" s="19" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
       <c r="D95" s="19" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="E95" s="19" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="F95" s="21"/>
       <c r="G95" s="22"/>
       <c r="H95" s="19"/>
       <c r="I95" s="19" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="J95" s="19"/>
       <c r="K95" s="21"/>
@@ -10673,7 +10957,7 @@
       <c r="M95" s="21"/>
       <c r="N95" s="21"/>
       <c r="O95" s="19" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="P95" s="21"/>
       <c r="Q95" s="21"/>
@@ -10687,85 +10971,87 @@
       <c r="Y95" s="21"/>
       <c r="Z95" s="21"/>
       <c r="AA95" s="21"/>
+      <c r="AB95" s="21"/>
     </row>
     <row r="96" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="19" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="B96" s="19" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="C96" s="19" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="D96" s="19" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="E96" s="19" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="F96" s="24" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="G96" s="20"/>
       <c r="H96" s="19"/>
       <c r="I96" s="19" t="s">
-        <v>679</v>
+        <v>684</v>
       </c>
       <c r="J96" s="19"/>
       <c r="K96" s="19" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="L96" s="19" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="M96" s="19" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="N96" s="19" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="O96" s="21"/>
       <c r="P96" s="19" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
       <c r="Q96" s="19" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="R96" s="19"/>
       <c r="S96" s="19"/>
       <c r="T96" s="19"/>
       <c r="U96" s="19"/>
       <c r="V96" s="19" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="W96" s="21"/>
       <c r="X96" s="21"/>
       <c r="Y96" s="21"/>
       <c r="Z96" s="21"/>
       <c r="AA96" s="21"/>
+      <c r="AB96" s="21"/>
     </row>
     <row r="97" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="19" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="B97" s="19" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="C97" s="19" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="D97" s="19" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="E97" s="19" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="F97" s="19"/>
       <c r="G97" s="22"/>
       <c r="H97" s="19"/>
       <c r="I97" s="19" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
       <c r="J97" s="19"/>
       <c r="K97" s="21"/>
@@ -10773,7 +11059,7 @@
       <c r="M97" s="21"/>
       <c r="N97" s="21"/>
       <c r="O97" s="19" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="P97" s="21"/>
       <c r="Q97" s="21"/>
@@ -10787,22 +11073,23 @@
       <c r="Y97" s="21"/>
       <c r="Z97" s="21"/>
       <c r="AA97" s="21"/>
+      <c r="AB97" s="21"/>
     </row>
     <row r="98" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="19" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="B98" s="19" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="C98" s="19" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="D98" s="19" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="E98" s="19" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="F98" s="21"/>
       <c r="G98" s="20" t="n">
@@ -10810,62 +11097,63 @@
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="J98" s="19"/>
       <c r="K98" s="19" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="L98" s="19" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="M98" s="19" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="N98" s="19" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="O98" s="21"/>
       <c r="P98" s="19" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="Q98" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="R98" s="19"/>
       <c r="S98" s="19"/>
       <c r="T98" s="19"/>
       <c r="U98" s="19"/>
       <c r="V98" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="W98" s="21"/>
       <c r="X98" s="21"/>
       <c r="Y98" s="21"/>
       <c r="Z98" s="21"/>
       <c r="AA98" s="21"/>
+      <c r="AB98" s="21"/>
     </row>
     <row r="99" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="19" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="C99" s="19" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="D99" s="19" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="E99" s="19" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="F99" s="21"/>
       <c r="G99" s="22"/>
       <c r="H99" s="19"/>
       <c r="I99" s="19" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="J99" s="19"/>
       <c r="K99" s="21"/>
@@ -10873,7 +11161,7 @@
       <c r="M99" s="21"/>
       <c r="N99" s="21"/>
       <c r="O99" s="19" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="P99" s="21"/>
       <c r="Q99" s="21"/>
@@ -10887,30 +11175,31 @@
       <c r="Y99" s="21"/>
       <c r="Z99" s="21"/>
       <c r="AA99" s="21"/>
+      <c r="AB99" s="21"/>
     </row>
     <row r="100" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="19" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="B100" s="19" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="C100" s="19" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="D100" s="19" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="E100" s="19" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F100" s="19" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="G100" s="22"/>
       <c r="H100" s="19"/>
       <c r="I100" s="19" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="J100" s="19"/>
       <c r="K100" s="21"/>
@@ -10918,7 +11207,7 @@
       <c r="M100" s="21"/>
       <c r="N100" s="21"/>
       <c r="O100" s="19" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="P100" s="21"/>
       <c r="Q100" s="21"/>
@@ -10932,103 +11221,105 @@
       <c r="Y100" s="21"/>
       <c r="Z100" s="21"/>
       <c r="AA100" s="21"/>
+      <c r="AB100" s="21"/>
     </row>
     <row r="101" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="19" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="B101" s="19" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="C101" s="19" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="D101" s="19" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="E101" s="19" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="F101" s="19"/>
       <c r="G101" s="20"/>
       <c r="H101" s="19"/>
       <c r="I101" s="19" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="J101" s="19"/>
       <c r="K101" s="19" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="L101" s="19" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="M101" s="19" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="N101" s="19" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="O101" s="19" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="P101" s="19" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="Q101" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="R101" s="19"/>
       <c r="S101" s="19"/>
       <c r="T101" s="19"/>
       <c r="U101" s="19"/>
       <c r="V101" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="W101" s="21"/>
       <c r="X101" s="21"/>
       <c r="Y101" s="21"/>
       <c r="Z101" s="21"/>
       <c r="AA101" s="21"/>
+      <c r="AB101" s="21"/>
     </row>
     <row r="102" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="19" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="B102" s="19" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="C102" s="19" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
       <c r="D102" s="19" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="E102" s="19" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="F102" s="21"/>
       <c r="G102" s="20"/>
       <c r="H102" s="19"/>
       <c r="I102" s="19" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="J102" s="19"/>
       <c r="K102" s="19"/>
       <c r="L102" s="21"/>
       <c r="M102" s="19" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="N102" s="19" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="O102" s="19" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="P102" s="19" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="Q102" s="19" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="R102" s="19"/>
       <c r="S102" s="19"/>
@@ -11040,48 +11331,49 @@
       <c r="Y102" s="21"/>
       <c r="Z102" s="21"/>
       <c r="AA102" s="19" t="s">
-        <v>594</v>
-      </c>
+        <v>599</v>
+      </c>
+      <c r="AB102" s="19"/>
     </row>
     <row r="103" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="19" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="B103" s="19" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="C103" s="19" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
       <c r="D103" s="19" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="E103" s="19" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="F103" s="21"/>
       <c r="G103" s="20"/>
       <c r="H103" s="19"/>
       <c r="I103" s="19" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="J103" s="19"/>
       <c r="K103" s="19"/>
       <c r="L103" s="21"/>
       <c r="M103" s="19" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="N103" s="19" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="O103" s="19" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="P103" s="19" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="Q103" s="19" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="R103" s="19"/>
       <c r="S103" s="19"/>
@@ -11093,50 +11385,51 @@
       <c r="Y103" s="21"/>
       <c r="Z103" s="21"/>
       <c r="AA103" s="19" t="s">
-        <v>594</v>
-      </c>
+        <v>599</v>
+      </c>
+      <c r="AB103" s="19"/>
     </row>
     <row r="104" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="19" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="B104" s="19" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="C104" s="19" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="D104" s="19" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="E104" s="19" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="F104" s="21" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="G104" s="20"/>
       <c r="H104" s="19"/>
       <c r="I104" s="19" t="s">
-        <v>714</v>
+        <v>719</v>
       </c>
       <c r="J104" s="19"/>
       <c r="K104" s="19"/>
       <c r="L104" s="21"/>
       <c r="M104" s="19" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="N104" s="19" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="O104" s="19" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="P104" s="19" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="Q104" s="19" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="R104" s="19"/>
       <c r="S104" s="19"/>
@@ -11148,48 +11441,49 @@
       <c r="Y104" s="21"/>
       <c r="Z104" s="21"/>
       <c r="AA104" s="19"/>
+      <c r="AB104" s="19"/>
     </row>
     <row r="105" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="19" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="B105" s="19" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="C105" s="19" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="D105" s="19" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
       <c r="E105" s="19" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="F105" s="21" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="G105" s="20"/>
       <c r="H105" s="19"/>
       <c r="I105" s="19" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="J105" s="19"/>
       <c r="K105" s="19"/>
       <c r="L105" s="21"/>
       <c r="M105" s="19" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="N105" s="19" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="O105" s="19" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="P105" s="19" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="Q105" s="19" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="R105" s="19"/>
       <c r="S105" s="19"/>
@@ -11201,44 +11495,45 @@
       <c r="Y105" s="21"/>
       <c r="Z105" s="21"/>
       <c r="AA105" s="19"/>
+      <c r="AB105" s="19"/>
     </row>
     <row r="106" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="19" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
       <c r="B106" s="19" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="C106" s="19" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
       <c r="D106" s="19" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
       <c r="E106" s="19" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F106" s="19" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="G106" s="20" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="J106" s="19"/>
       <c r="K106" s="19"/>
       <c r="L106" s="21"/>
       <c r="M106" s="19" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="N106" s="19" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="O106" s="19" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="P106" s="21"/>
       <c r="Q106" s="21"/>
@@ -11247,143 +11542,148 @@
       <c r="T106" s="19"/>
       <c r="U106" s="19"/>
       <c r="V106" s="19" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="W106" s="21"/>
       <c r="X106" s="21"/>
       <c r="Y106" s="21"/>
       <c r="Z106" s="21"/>
       <c r="AA106" s="19"/>
+      <c r="AB106" s="19"/>
     </row>
     <row r="107" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="19" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="B107" s="19" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="C107" s="19" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="D107" s="19" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
       <c r="E107" s="19" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="F107" s="24" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="G107" s="20" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="H107" s="19"/>
       <c r="I107" s="19" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="J107" s="19"/>
       <c r="K107" s="19"/>
       <c r="L107" s="19" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="M107" s="19" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="N107" s="19" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="O107" s="19" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="P107" s="19" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="Q107" s="19" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="R107" s="19"/>
       <c r="S107" s="19"/>
       <c r="T107" s="19"/>
       <c r="U107" s="19"/>
       <c r="V107" s="19" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="W107" s="21"/>
       <c r="X107" s="21"/>
       <c r="Y107" s="21"/>
       <c r="Z107" s="21"/>
       <c r="AA107" s="19"/>
+      <c r="AB107" s="19" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="108" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="19" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
       <c r="B108" s="19" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="C108" s="19" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
       <c r="D108" s="19" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="E108" s="19" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="F108" s="21"/>
       <c r="G108" s="20"/>
       <c r="H108" s="19"/>
       <c r="I108" s="19" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="J108" s="19"/>
       <c r="K108" s="19"/>
       <c r="L108" s="19" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="M108" s="19" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="N108" s="19" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="O108" s="19" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="P108" s="19" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="Q108" s="19" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="R108" s="19"/>
       <c r="S108" s="19"/>
       <c r="T108" s="19"/>
       <c r="U108" s="19"/>
       <c r="V108" s="19" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="W108" s="21"/>
       <c r="X108" s="21"/>
       <c r="Y108" s="21"/>
       <c r="Z108" s="21"/>
       <c r="AA108" s="19"/>
+      <c r="AB108" s="19"/>
     </row>
     <row r="109" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="19" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="B109" s="19" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="C109" s="19" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="D109" s="19" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="E109" s="19" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="F109" s="21"/>
       <c r="G109" s="20" t="n">
@@ -11391,64 +11691,65 @@
       </c>
       <c r="H109" s="19"/>
       <c r="I109" s="19" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
       <c r="J109" s="19"/>
       <c r="K109" s="19"/>
       <c r="L109" s="19" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="M109" s="19" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="N109" s="19" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="O109" s="19" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="P109" s="19" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="Q109" s="19" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="R109" s="19"/>
       <c r="S109" s="19"/>
       <c r="T109" s="19"/>
       <c r="U109" s="19"/>
       <c r="V109" s="19" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="W109" s="21"/>
       <c r="X109" s="21"/>
       <c r="Y109" s="21"/>
       <c r="Z109" s="21"/>
       <c r="AA109" s="19"/>
+      <c r="AB109" s="19"/>
     </row>
     <row r="110" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="19" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="B110" s="19" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="C110" s="19" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
       <c r="D110" s="19" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
       <c r="E110" s="19" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F110" s="21" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="G110" s="20"/>
       <c r="H110" s="19"/>
       <c r="I110" s="19" t="s">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="J110" s="19"/>
       <c r="K110" s="19"/>
@@ -11461,47 +11762,48 @@
       <c r="R110" s="19"/>
       <c r="S110" s="19"/>
       <c r="T110" s="19" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
       <c r="U110" s="19" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
       <c r="V110" s="21"/>
       <c r="W110" s="21"/>
       <c r="X110" s="19" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
       <c r="Y110" s="19" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
       <c r="Z110" s="19" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
       <c r="AA110" s="19"/>
+      <c r="AB110" s="19"/>
     </row>
     <row r="111" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="19" t="s">
+        <v>749</v>
+      </c>
+      <c r="B111" s="19" t="s">
         <v>744</v>
       </c>
-      <c r="B111" s="19" t="s">
-        <v>739</v>
-      </c>
       <c r="C111" s="19" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="D111" s="19" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
       <c r="E111" s="19" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="F111" s="21"/>
       <c r="G111" s="20"/>
       <c r="H111" s="19" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="I111" s="19" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="J111" s="19"/>
       <c r="K111" s="19"/>
@@ -11514,49 +11816,50 @@
       <c r="R111" s="19"/>
       <c r="S111" s="19"/>
       <c r="T111" s="19" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="U111" s="19" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="V111" s="21"/>
       <c r="W111" s="21"/>
       <c r="X111" s="19" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="Y111" s="19" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="Z111" s="19" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="AA111" s="19"/>
+      <c r="AB111" s="19"/>
     </row>
     <row r="112" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="19" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
       <c r="B112" s="19" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="C112" s="19" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="D112" s="19" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="E112" s="19" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="F112" s="21" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="G112" s="20" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="H112" s="19"/>
       <c r="I112" s="19" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
       <c r="J112" s="19"/>
       <c r="K112" s="19"/>
@@ -11569,49 +11872,52 @@
       <c r="R112" s="19"/>
       <c r="S112" s="19"/>
       <c r="T112" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="U112" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="V112" s="21"/>
       <c r="W112" s="21"/>
       <c r="X112" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Y112" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Z112" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="AA112" s="19"/>
+      <c r="AB112" s="19" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="113" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="19" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
       <c r="B113" s="19" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="C113" s="19" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="D113" s="19" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="E113" s="19" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F113" s="19" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
       <c r="G113" s="20" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
       <c r="H113" s="19"/>
       <c r="I113" s="19" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="J113" s="19"/>
       <c r="K113" s="19"/>
@@ -11626,43 +11932,44 @@
       <c r="T113" s="19"/>
       <c r="U113" s="19"/>
       <c r="V113" s="19" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="W113" s="19" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="X113" s="19" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="Y113" s="19" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="Z113" s="19" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="AA113" s="19"/>
+      <c r="AB113" s="19"/>
     </row>
     <row r="114" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="19" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="B114" s="19" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="C114" s="19" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="D114" s="19" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
       <c r="E114" s="19" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="F114" s="19"/>
       <c r="G114" s="20"/>
       <c r="H114" s="19"/>
       <c r="I114" s="19" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="J114" s="19"/>
       <c r="K114" s="19"/>
@@ -11680,82 +11987,328 @@
       <c r="W114" s="19"/>
       <c r="X114" s="19"/>
       <c r="Y114" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Z114" s="19"/>
       <c r="AA114" s="19"/>
+      <c r="AB114" s="19"/>
     </row>
     <row r="115" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="19" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
       <c r="B115" s="19" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="C115" s="19" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
       <c r="D115" s="19" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
       <c r="E115" s="19" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="F115" s="19" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="G115" s="20"/>
       <c r="H115" s="19"/>
       <c r="I115" s="19" t="s">
-        <v>766</v>
+        <v>771</v>
       </c>
       <c r="J115" s="19"/>
       <c r="K115" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="L115" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="M115" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="N115" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="O115" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="P115" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q115" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="R115" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="S115" s="19"/>
       <c r="T115" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="U115" s="19"/>
       <c r="V115" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="W115" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="X115" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Y115" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Z115" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="AA115" s="19" t="s">
-        <v>209</v>
+        <v>214</v>
+      </c>
+      <c r="AB115" s="19" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="19" t="s">
+        <v>772</v>
+      </c>
+      <c r="B116" s="19" t="s">
+        <v>479</v>
+      </c>
+      <c r="C116" s="19" t="s">
+        <v>773</v>
+      </c>
+      <c r="D116" s="19" t="s">
+        <v>774</v>
+      </c>
+      <c r="E116" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="F116" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="G116" s="19"/>
+      <c r="H116" s="19"/>
+      <c r="I116" s="19" t="s">
+        <v>775</v>
+      </c>
+      <c r="AB116" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="AC116" s="19"/>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="19" t="s">
+        <v>776</v>
+      </c>
+      <c r="B117" s="19" t="s">
+        <v>479</v>
+      </c>
+      <c r="C117" s="19" t="s">
+        <v>777</v>
+      </c>
+      <c r="D117" s="19" t="s">
+        <v>778</v>
+      </c>
+      <c r="E117" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="F117" s="19"/>
+      <c r="G117" s="19"/>
+      <c r="H117" s="19"/>
+      <c r="I117" s="19"/>
+      <c r="AB117" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="AC117" s="19"/>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="19" t="s">
+        <v>779</v>
+      </c>
+      <c r="B118" s="19" t="s">
+        <v>479</v>
+      </c>
+      <c r="C118" s="19" t="s">
+        <v>780</v>
+      </c>
+      <c r="D118" s="19" t="s">
+        <v>781</v>
+      </c>
+      <c r="E118" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="F118" s="19"/>
+      <c r="G118" s="19"/>
+      <c r="H118" s="19"/>
+      <c r="I118" s="19"/>
+      <c r="AB118" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="AC118" s="19"/>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="19" t="s">
+        <v>782</v>
+      </c>
+      <c r="B119" s="19" t="s">
+        <v>479</v>
+      </c>
+      <c r="C119" s="19" t="s">
+        <v>783</v>
+      </c>
+      <c r="D119" s="19" t="s">
+        <v>784</v>
+      </c>
+      <c r="E119" s="19" t="s">
+        <v>785</v>
+      </c>
+      <c r="F119" s="19"/>
+      <c r="G119" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H119" s="19"/>
+      <c r="I119" s="19"/>
+      <c r="AB119" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="AC119" s="19"/>
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="19" t="s">
+        <v>786</v>
+      </c>
+      <c r="B120" s="19" t="s">
+        <v>479</v>
+      </c>
+      <c r="C120" s="19" t="s">
+        <v>787</v>
+      </c>
+      <c r="D120" s="19" t="s">
+        <v>788</v>
+      </c>
+      <c r="E120" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="F120" s="19"/>
+      <c r="G120" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H120" s="19"/>
+      <c r="I120" s="19"/>
+      <c r="AB120" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="AC120" s="19"/>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="19" t="s">
+        <v>789</v>
+      </c>
+      <c r="B121" s="19" t="s">
+        <v>479</v>
+      </c>
+      <c r="C121" s="19" t="s">
+        <v>790</v>
+      </c>
+      <c r="D121" s="19" t="s">
+        <v>791</v>
+      </c>
+      <c r="E121" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="F121" s="19"/>
+      <c r="G121" s="19"/>
+      <c r="H121" s="19"/>
+      <c r="I121" s="19"/>
+      <c r="AB121" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="AC121" s="19"/>
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="19" t="s">
+        <v>792</v>
+      </c>
+      <c r="B122" s="19" t="s">
+        <v>479</v>
+      </c>
+      <c r="C122" s="19" t="s">
+        <v>793</v>
+      </c>
+      <c r="D122" s="19" t="s">
+        <v>794</v>
+      </c>
+      <c r="E122" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="F122" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="G122" s="19"/>
+      <c r="H122" s="19"/>
+      <c r="I122" s="19"/>
+      <c r="AB122" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="AC122" s="19"/>
+    </row>
+    <row r="123" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="19" t="s">
+        <v>795</v>
+      </c>
+      <c r="B123" s="19" t="s">
+        <v>744</v>
+      </c>
+      <c r="C123" s="19" t="s">
+        <v>796</v>
+      </c>
+      <c r="D123" s="19" t="s">
+        <v>797</v>
+      </c>
+      <c r="E123" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="F123" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="G123" s="19" t="s">
+        <v>798</v>
+      </c>
+      <c r="H123" s="19"/>
+      <c r="I123" s="19" t="s">
+        <v>799</v>
+      </c>
+      <c r="AB123" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="AC123" s="19"/>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="0" t="s">
+        <v>800</v>
+      </c>
+      <c r="B124" s="0" t="s">
+        <v>744</v>
+      </c>
+      <c r="C124" s="0" t="s">
+        <v>801</v>
+      </c>
+      <c r="D124" s="0" t="s">
+        <v>802</v>
+      </c>
+      <c r="E124" s="0" t="s">
+        <v>785</v>
+      </c>
+      <c r="G124" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" s="5" t="s">
+        <v>803</v>
+      </c>
+      <c r="AB124" s="0" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -11825,7 +12378,7 @@
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="10"/>
       <c r="B2" s="30" t="s">
-        <v>767</v>
+        <v>804</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -11883,7 +12436,7 @@
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="30"/>
       <c r="B4" s="30" t="s">
-        <v>768</v>
+        <v>805</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -11941,10 +12494,10 @@
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="30"/>
       <c r="B6" s="30" t="s">
-        <v>769</v>
+        <v>806</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>770</v>
+        <v>807</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="30"/>
@@ -11974,7 +12527,7 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="30" t="s">
-        <v>771</v>
+        <v>808</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
@@ -12031,10 +12584,10 @@
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="30"/>
       <c r="B9" s="30" t="s">
-        <v>772</v>
+        <v>809</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>773</v>
+        <v>810</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="30"/>
@@ -12064,11 +12617,11 @@
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="30" t="s">
-        <v>774</v>
+        <v>811</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="30" t="s">
-        <v>775</v>
+        <v>812</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
@@ -12123,12 +12676,12 @@
     <row r="12" customFormat="false" ht="118.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="10"/>
       <c r="B12" s="30" t="s">
-        <v>776</v>
+        <v>813</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="21" t="s">
-        <v>777</v>
+        <v>814</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
@@ -12183,14 +12736,14 @@
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="10"/>
       <c r="B14" s="30" t="s">
-        <v>778</v>
+        <v>815</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>779</v>
+        <v>816</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="21" t="s">
-        <v>780</v>
+        <v>817</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
@@ -12247,10 +12800,10 @@
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="30" t="s">
-        <v>781</v>
+        <v>818</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>782</v>
+        <v>819</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
@@ -12279,10 +12832,10 @@
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="30" t="s">
-        <v>783</v>
+        <v>820</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>784</v>
+        <v>821</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
@@ -12311,10 +12864,10 @@
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="30" t="s">
-        <v>785</v>
+        <v>822</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>786</v>
+        <v>823</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
@@ -12370,11 +12923,11 @@
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="30" t="s">
-        <v>787</v>
+        <v>824</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="21" t="s">
-        <v>788</v>
+        <v>825</v>
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
@@ -12431,10 +12984,10 @@
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="30" t="s">
-        <v>781</v>
+        <v>818</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>789</v>
+        <v>826</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
@@ -12463,10 +13016,10 @@
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="30" t="s">
-        <v>790</v>
+        <v>827</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>791</v>
+        <v>828</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
@@ -12522,11 +13075,11 @@
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="30" t="s">
-        <v>792</v>
+        <v>829</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="21" t="s">
-        <v>793</v>
+        <v>830</v>
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
@@ -12583,10 +13136,10 @@
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
       <c r="D27" s="31" t="s">
-        <v>794</v>
+        <v>831</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>795</v>
+        <v>832</v>
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
@@ -12615,10 +13168,10 @@
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="31" t="s">
-        <v>796</v>
+        <v>833</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>797</v>
+        <v>834</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
@@ -12647,10 +13200,10 @@
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="31" t="s">
-        <v>798</v>
+        <v>835</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>799</v>
+        <v>836</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
@@ -12679,10 +13232,10 @@
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="31" t="s">
-        <v>800</v>
+        <v>837</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>801</v>
+        <v>838</v>
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
@@ -12711,10 +13264,10 @@
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
       <c r="D31" s="31" t="s">
-        <v>802</v>
+        <v>839</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>803</v>
+        <v>840</v>
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
@@ -12770,11 +13323,11 @@
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="30" t="s">
-        <v>804</v>
+        <v>841</v>
       </c>
       <c r="D33" s="10"/>
       <c r="E33" s="21" t="s">
-        <v>805</v>
+        <v>842</v>
       </c>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
@@ -12831,10 +13384,10 @@
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="30" t="s">
-        <v>781</v>
+        <v>818</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>806</v>
+        <v>843</v>
       </c>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
@@ -12863,10 +13416,10 @@
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="D36" s="30" t="s">
-        <v>807</v>
+        <v>844</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>808</v>
+        <v>845</v>
       </c>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
@@ -12895,10 +13448,10 @@
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
       <c r="D37" s="30" t="s">
-        <v>809</v>
+        <v>846</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>810</v>
+        <v>847</v>
       </c>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
@@ -12927,10 +13480,10 @@
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
       <c r="D38" s="30" t="s">
-        <v>811</v>
+        <v>848</v>
       </c>
       <c r="E38" s="21" t="s">
-        <v>812</v>
+        <v>849</v>
       </c>
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
@@ -12959,10 +13512,10 @@
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
       <c r="D39" s="30" t="s">
-        <v>813</v>
+        <v>850</v>
       </c>
       <c r="E39" s="21" t="s">
-        <v>814</v>
+        <v>851</v>
       </c>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
@@ -13018,11 +13571,11 @@
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10" t="s">
-        <v>815</v>
+        <v>852</v>
       </c>
       <c r="D41" s="10"/>
       <c r="E41" s="21" t="s">
-        <v>816</v>
+        <v>853</v>
       </c>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
@@ -13079,10 +13632,10 @@
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
       <c r="D43" s="30" t="s">
-        <v>781</v>
+        <v>818</v>
       </c>
       <c r="E43" s="30" t="s">
-        <v>817</v>
+        <v>854</v>
       </c>
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
@@ -13111,10 +13664,10 @@
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
       <c r="D44" s="31" t="s">
-        <v>818</v>
+        <v>855</v>
       </c>
       <c r="E44" s="21" t="s">
-        <v>819</v>
+        <v>856</v>
       </c>
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
@@ -13143,10 +13696,10 @@
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
       <c r="D45" s="30" t="s">
-        <v>820</v>
+        <v>857</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>821</v>
+        <v>858</v>
       </c>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
@@ -13201,14 +13754,14 @@
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="30"/>
       <c r="B47" s="30" t="s">
-        <v>822</v>
+        <v>859</v>
       </c>
       <c r="C47" s="30" t="s">
-        <v>823</v>
+        <v>860</v>
       </c>
       <c r="D47" s="30"/>
       <c r="E47" s="21" t="s">
-        <v>824</v>
+        <v>861</v>
       </c>
       <c r="F47" s="30"/>
       <c r="G47" s="30"/>
@@ -13238,7 +13791,7 @@
       <c r="C48" s="30"/>
       <c r="D48" s="30"/>
       <c r="E48" s="21" t="s">
-        <v>825</v>
+        <v>862</v>
       </c>
       <c r="F48" s="30"/>
       <c r="G48" s="30"/>
@@ -13268,7 +13821,7 @@
       <c r="C49" s="30"/>
       <c r="D49" s="30"/>
       <c r="E49" s="21" t="s">
-        <v>826</v>
+        <v>863</v>
       </c>
       <c r="F49" s="30"/>
       <c r="G49" s="30"/>
@@ -14259,7 +14812,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -14288,334 +14841,351 @@
         <v>10</v>
       </c>
       <c r="E1" s="32" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="F1" s="32" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>827</v>
+        <v>864</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>828</v>
+        <v>865</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>829</v>
+        <v>866</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>830</v>
+        <v>867</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>831</v>
+        <v>868</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>832</v>
+        <v>869</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>832</v>
+        <v>869</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>833</v>
+        <v>870</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>834</v>
+        <v>871</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>835</v>
+        <v>872</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>836</v>
+        <v>873</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>837</v>
+        <v>874</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>838</v>
+        <v>875</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>839</v>
+        <v>876</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>840</v>
+        <v>877</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>841</v>
+        <v>878</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>842</v>
+        <v>879</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>843</v>
+        <v>880</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>844</v>
+        <v>881</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>845</v>
+        <v>882</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>846</v>
+        <v>883</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>847</v>
+        <v>884</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>848</v>
+        <v>885</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>849</v>
+        <v>886</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>850</v>
+        <v>887</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>851</v>
+        <v>888</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>852</v>
+        <v>889</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>565</v>
+        <v>800</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>566</v>
+        <v>801</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>567</v>
+        <v>802</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>853</v>
+        <v>803</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>500</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>501</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>502</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>854</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>232</v>
+        <v>785</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>890</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>237</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>233</v>
+        <v>238</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>505</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>891</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -14637,7 +15207,7 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14664,124 +15234,124 @@
         <v>10</v>
       </c>
       <c r="E1" s="32" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="F1" s="32" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>855</v>
+        <v>892</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>856</v>
+        <v>893</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>857</v>
+        <v>894</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>858</v>
+        <v>895</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F2" s="33" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>859</v>
+        <v>896</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>860</v>
+        <v>897</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>861</v>
+        <v>898</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>862</v>
+        <v>899</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="249" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>863</v>
+        <v>900</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>864</v>
+        <v>901</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>865</v>
+        <v>902</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>866</v>
+        <v>903</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F4" s="34" t="s">
-        <v>867</v>
+        <v>904</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>868</v>
+        <v>905</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>869</v>
+        <v>906</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>870</v>
+        <v>907</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>871</v>
+        <v>908</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>872</v>
+        <v>909</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>873</v>
+        <v>910</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>874</v>
+        <v>911</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>875</v>
+        <v>912</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>876</v>
+        <v>913</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>874</v>
+        <v>911</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -14857,67 +15427,67 @@
         <v>10</v>
       </c>
       <c r="E1" s="32" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="F1" s="32" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>877</v>
+        <v>914</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>878</v>
+        <v>915</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>879</v>
+        <v>916</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>880</v>
+        <v>917</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="375" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>881</v>
+        <v>918</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>882</v>
+        <v>919</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>883</v>
+        <v>920</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>884</v>
+        <v>921</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F3" s="35" t="s">
-        <v>885</v>
+        <v>922</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="209.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>886</v>
+        <v>923</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>887</v>
+        <v>924</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>888</v>
+        <v>925</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>889</v>
+        <v>926</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>890</v>
+        <v>927</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/actus-dictionary.xlsx
+++ b/actus-dictionary.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" state="visible" r:id="rId2"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2159" uniqueCount="928">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2177" uniqueCount="934">
   <si>
     <t xml:space="preserve">The ACTUS Dictionary</t>
   </si>
@@ -2630,7 +2630,7 @@
     <t xml:space="preserve">Nominal Price</t>
   </si>
   <si>
-    <t xml:space="preserve">NP</t>
+    <t xml:space="preserve">NPR</t>
   </si>
   <si>
     <t xml:space="preserve">issuePrice</t>
@@ -2642,72 +2642,93 @@
     <t xml:space="preserve">IPR</t>
   </si>
   <si>
-    <t xml:space="preserve">minimumSubscription</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum Subscription</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSU</t>
+    <t xml:space="preserve">ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cycleAnchorDateOfRedemption</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cycle Anchor Date Of Redemption</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RDANX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cycleOfRedemption</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cycle Of Redemption</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RDCL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cycleAnchorDateOfTermination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cycle Anchor Date Of Termination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TDANX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cycleOfTermination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cycle Of Termination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TDCL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exercisePeriod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exercise Period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The period within which an option holder (e.g. from redemption of a note / certificate / etc) can chose to execute his option</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exerciseQuantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exercise Quantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XQ</t>
   </si>
   <si>
     <t xml:space="preserve">Integer</t>
   </si>
   <si>
-    <t xml:space="preserve">ratio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ratio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cycleAnchorDateOfRedemption</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cycle Anchor Date Of Redemption</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RDANX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cycleOfRedemption</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cycle Of Redemption</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RDCL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exercisePeriod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exercise Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The period within which an option holder (e.g. from redemption of a note / certificate / etc) can chose to execute his option</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exerciseQuantity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exercise Quantity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XQ</t>
-  </si>
-  <si>
     <t xml:space="preserve">The number of shares / notes / certificates / etc executed. E.g. the number of certificates redeemed as per a certain redemption day.</t>
   </si>
   <si>
+    <t xml:space="preserve">exerciseQuantityOrdered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exercise Quantity Ordered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of shares / notes / certificates / etc ordered for exercise. E.g. the number of certificates ordered for redemption as per a certain redemption day.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Attribute Applicability Rules</t>
   </si>
   <si>
@@ -2952,9 +2973,6 @@
   </si>
   <si>
     <t xml:space="preserve">The multiplier being applied to interest cash flows</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NPR</t>
   </si>
   <si>
     <t xml:space="preserve">The value at which principal is being repaid. This may be including or excluding of interest depending on the Contract Type</t>
@@ -3028,9 +3046,10 @@
 option: 17, identifier: scalingIndexFixing, name: Scaling Index Fixing, acronym: SC, description: Scheduled fixing of a scaling index, sequence: 17
 option: 18, identifier: interestCalculationBaseFixing, name: Interest Calculation Base Fixing, acronym: IPCB, description: Scheduled fixing of the interest calculation base, sequence: 18
 option: 19, identifier: maturity, name: Maturity, acronym: MD, description: Maturity of a contract, sequence: 19
-Option: 20, identifier: redemptionDay, name: Redemption Day, acronym: RD, description: Fixing of the redemption amount, sequence: 20
-option: 21, identifier: exercise, name: Exercise, acronym: XD, description: Exercise of a contractual feature such as an optionality, sequence: 21
-Option: 22, identifier: settlement, name: Settlement, acronym: STD, description: Settlement of an exercised contractual claim, sequence: 22</t>
+option: 20, identifier: redemptionDay, name: Redemption Day, acronym: RD, description: Fixing of the redemption amount, sequence: 20
+option: 21, identifier: exerciseOrder, name: Exercise Order, acronym: XO, description: Submission of an exercise order for a contractual feature such as an optionality, sequence: 21
+option: 22, identifier: exercise, name: Exercise, acronym: XD, description: Exercise of a contractual feature such as an optionality, sequence: 22
+option: 23, identifier: settlement, name: Settlement, acronym: STD, description: Settlement of an exercised contractual claim, sequence: 23</t>
   </si>
   <si>
     <t xml:space="preserve">The currency in which the event payoff is scheduled</t>
@@ -3481,8 +3500,8 @@
   </sheetPr>
   <dimension ref="A1:AA1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5405,12 +5424,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:AC124"/>
+  <dimension ref="A1:AF126"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A116" activeCellId="0" sqref="A116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12162,11 +12181,11 @@
         <v>784</v>
       </c>
       <c r="E119" s="19" t="s">
-        <v>785</v>
+        <v>306</v>
       </c>
       <c r="F119" s="19"/>
-      <c r="G119" s="19" t="n">
-        <v>1</v>
+      <c r="G119" s="19" t="s">
+        <v>11</v>
       </c>
       <c r="H119" s="19"/>
       <c r="I119" s="19"/>
@@ -12177,24 +12196,22 @@
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="19" t="s">
+        <v>785</v>
+      </c>
+      <c r="B120" s="19" t="s">
+        <v>616</v>
+      </c>
+      <c r="C120" s="19" t="s">
         <v>786</v>
       </c>
-      <c r="B120" s="19" t="s">
-        <v>479</v>
-      </c>
-      <c r="C120" s="19" t="s">
+      <c r="D120" s="19" t="s">
         <v>787</v>
       </c>
-      <c r="D120" s="19" t="s">
-        <v>788</v>
-      </c>
       <c r="E120" s="19" t="s">
-        <v>306</v>
+        <v>237</v>
       </c>
       <c r="F120" s="19"/>
-      <c r="G120" s="19" t="s">
-        <v>11</v>
-      </c>
+      <c r="G120" s="19"/>
       <c r="H120" s="19"/>
       <c r="I120" s="19"/>
       <c r="AB120" s="0" t="s">
@@ -12204,21 +12221,23 @@
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="19" t="s">
+        <v>788</v>
+      </c>
+      <c r="B121" s="19" t="s">
+        <v>616</v>
+      </c>
+      <c r="C121" s="19" t="s">
         <v>789</v>
       </c>
-      <c r="B121" s="19" t="s">
-        <v>479</v>
-      </c>
-      <c r="C121" s="19" t="s">
+      <c r="D121" s="19" t="s">
         <v>790</v>
       </c>
-      <c r="D121" s="19" t="s">
-        <v>791</v>
-      </c>
       <c r="E121" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="F121" s="19"/>
+        <v>335</v>
+      </c>
+      <c r="F121" s="19" t="s">
+        <v>336</v>
+      </c>
       <c r="G121" s="19"/>
       <c r="H121" s="19"/>
       <c r="I121" s="19"/>
@@ -12229,23 +12248,21 @@
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="19" t="s">
+        <v>791</v>
+      </c>
+      <c r="B122" s="19" t="s">
+        <v>616</v>
+      </c>
+      <c r="C122" s="19" t="s">
         <v>792</v>
       </c>
-      <c r="B122" s="19" t="s">
-        <v>479</v>
-      </c>
-      <c r="C122" s="19" t="s">
+      <c r="D122" s="19" t="s">
         <v>793</v>
       </c>
-      <c r="D122" s="19" t="s">
-        <v>794</v>
-      </c>
       <c r="E122" s="19" t="s">
-        <v>335</v>
-      </c>
-      <c r="F122" s="19" t="s">
-        <v>336</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="F122" s="19"/>
       <c r="G122" s="19"/>
       <c r="H122" s="19"/>
       <c r="I122" s="19"/>
@@ -12254,62 +12271,161 @@
       </c>
       <c r="AC122" s="19"/>
     </row>
-    <row r="123" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="19" t="s">
+        <v>794</v>
+      </c>
+      <c r="B123" s="19" t="s">
+        <v>616</v>
+      </c>
+      <c r="C123" s="19" t="s">
         <v>795</v>
       </c>
-      <c r="B123" s="19" t="s">
-        <v>744</v>
-      </c>
-      <c r="C123" s="19" t="s">
+      <c r="D123" s="19" t="s">
         <v>796</v>
       </c>
-      <c r="D123" s="19" t="s">
-        <v>797</v>
-      </c>
       <c r="E123" s="19" t="s">
-        <v>290</v>
-      </c>
-      <c r="F123" s="24" t="s">
-        <v>291</v>
-      </c>
-      <c r="G123" s="19" t="s">
-        <v>798</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="F123" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="G123" s="19"/>
       <c r="H123" s="19"/>
-      <c r="I123" s="19" t="s">
-        <v>799</v>
-      </c>
+      <c r="I123" s="19"/>
       <c r="AB123" s="0" t="s">
         <v>214</v>
       </c>
       <c r="AC123" s="19"/>
     </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="0" t="s">
+    <row r="124" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="19" t="s">
+        <v>797</v>
+      </c>
+      <c r="B124" s="19" t="s">
+        <v>744</v>
+      </c>
+      <c r="C124" s="19" t="s">
+        <v>798</v>
+      </c>
+      <c r="D124" s="19" t="s">
+        <v>799</v>
+      </c>
+      <c r="E124" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="F124" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="G124" s="19" t="s">
         <v>800</v>
       </c>
-      <c r="B124" s="0" t="s">
-        <v>744</v>
-      </c>
-      <c r="C124" s="0" t="s">
+      <c r="H124" s="19"/>
+      <c r="I124" s="19" t="s">
         <v>801</v>
-      </c>
-      <c r="D124" s="0" t="s">
-        <v>802</v>
-      </c>
-      <c r="E124" s="0" t="s">
-        <v>785</v>
-      </c>
-      <c r="G124" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" s="5" t="s">
-        <v>803</v>
       </c>
       <c r="AB124" s="0" t="s">
         <v>214</v>
       </c>
+      <c r="AC124" s="19"/>
+    </row>
+    <row r="125" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="19" t="s">
+        <v>802</v>
+      </c>
+      <c r="B125" s="19" t="s">
+        <v>744</v>
+      </c>
+      <c r="C125" s="19" t="s">
+        <v>803</v>
+      </c>
+      <c r="D125" s="19" t="s">
+        <v>804</v>
+      </c>
+      <c r="E125" s="19" t="s">
+        <v>805</v>
+      </c>
+      <c r="F125" s="19"/>
+      <c r="G125" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H125" s="19"/>
+      <c r="I125" s="19" t="s">
+        <v>806</v>
+      </c>
+      <c r="J125" s="19"/>
+      <c r="K125" s="19"/>
+      <c r="L125" s="19"/>
+      <c r="M125" s="19"/>
+      <c r="N125" s="19"/>
+      <c r="O125" s="19"/>
+      <c r="P125" s="19"/>
+      <c r="Q125" s="19"/>
+      <c r="R125" s="19"/>
+      <c r="S125" s="19"/>
+      <c r="T125" s="19"/>
+      <c r="U125" s="19"/>
+      <c r="V125" s="19"/>
+      <c r="W125" s="19"/>
+      <c r="X125" s="19"/>
+      <c r="Y125" s="19"/>
+      <c r="Z125" s="19"/>
+      <c r="AA125" s="19"/>
+      <c r="AB125" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="AC125" s="19"/>
+      <c r="AD125" s="19"/>
+      <c r="AE125" s="19"/>
+      <c r="AF125" s="19"/>
+    </row>
+    <row r="126" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="19" t="s">
+        <v>807</v>
+      </c>
+      <c r="B126" s="19" t="s">
+        <v>744</v>
+      </c>
+      <c r="C126" s="19" t="s">
+        <v>808</v>
+      </c>
+      <c r="D126" s="19" t="s">
+        <v>809</v>
+      </c>
+      <c r="E126" s="19" t="s">
+        <v>805</v>
+      </c>
+      <c r="F126" s="19"/>
+      <c r="G126" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H126" s="19"/>
+      <c r="I126" s="19" t="s">
+        <v>810</v>
+      </c>
+      <c r="J126" s="19"/>
+      <c r="K126" s="19"/>
+      <c r="L126" s="19"/>
+      <c r="M126" s="19"/>
+      <c r="N126" s="19"/>
+      <c r="O126" s="19"/>
+      <c r="P126" s="19"/>
+      <c r="Q126" s="19"/>
+      <c r="R126" s="19"/>
+      <c r="S126" s="19"/>
+      <c r="T126" s="19"/>
+      <c r="U126" s="19"/>
+      <c r="V126" s="19"/>
+      <c r="W126" s="19"/>
+      <c r="X126" s="19"/>
+      <c r="Y126" s="19"/>
+      <c r="Z126" s="19"/>
+      <c r="AA126" s="19"/>
+      <c r="AB126" s="19"/>
+      <c r="AC126" s="19"/>
+      <c r="AD126" s="19"/>
+      <c r="AE126" s="19"/>
+      <c r="AF126" s="19"/>
     </row>
   </sheetData>
   <autoFilter ref="T1:T115"/>
@@ -12378,7 +12494,7 @@
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="10"/>
       <c r="B2" s="30" t="s">
-        <v>804</v>
+        <v>811</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -12436,7 +12552,7 @@
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="30"/>
       <c r="B4" s="30" t="s">
-        <v>805</v>
+        <v>812</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -12494,10 +12610,10 @@
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="30"/>
       <c r="B6" s="30" t="s">
-        <v>806</v>
+        <v>813</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>807</v>
+        <v>814</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="30"/>
@@ -12527,7 +12643,7 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="30" t="s">
-        <v>808</v>
+        <v>815</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
@@ -12584,10 +12700,10 @@
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="30"/>
       <c r="B9" s="30" t="s">
-        <v>809</v>
+        <v>816</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>810</v>
+        <v>817</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="30"/>
@@ -12617,11 +12733,11 @@
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="30" t="s">
-        <v>811</v>
+        <v>818</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="30" t="s">
-        <v>812</v>
+        <v>819</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
@@ -12676,12 +12792,12 @@
     <row r="12" customFormat="false" ht="118.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="10"/>
       <c r="B12" s="30" t="s">
-        <v>813</v>
+        <v>820</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="21" t="s">
-        <v>814</v>
+        <v>821</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
@@ -12736,14 +12852,14 @@
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="10"/>
       <c r="B14" s="30" t="s">
-        <v>815</v>
+        <v>822</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>816</v>
+        <v>823</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="21" t="s">
-        <v>817</v>
+        <v>824</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
@@ -12800,10 +12916,10 @@
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="30" t="s">
-        <v>818</v>
+        <v>825</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>819</v>
+        <v>826</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
@@ -12832,10 +12948,10 @@
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="30" t="s">
-        <v>820</v>
+        <v>827</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>821</v>
+        <v>828</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
@@ -12864,10 +12980,10 @@
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="30" t="s">
-        <v>822</v>
+        <v>829</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>823</v>
+        <v>830</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
@@ -12923,11 +13039,11 @@
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="30" t="s">
-        <v>824</v>
+        <v>831</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="21" t="s">
-        <v>825</v>
+        <v>832</v>
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
@@ -12984,10 +13100,10 @@
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="30" t="s">
-        <v>818</v>
+        <v>825</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>826</v>
+        <v>833</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
@@ -13016,10 +13132,10 @@
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="30" t="s">
-        <v>827</v>
+        <v>834</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>828</v>
+        <v>835</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
@@ -13075,11 +13191,11 @@
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="30" t="s">
-        <v>829</v>
+        <v>836</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="21" t="s">
-        <v>830</v>
+        <v>837</v>
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
@@ -13136,10 +13252,10 @@
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
       <c r="D27" s="31" t="s">
-        <v>831</v>
+        <v>838</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>832</v>
+        <v>839</v>
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
@@ -13168,10 +13284,10 @@
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="31" t="s">
-        <v>833</v>
+        <v>840</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>834</v>
+        <v>841</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
@@ -13200,10 +13316,10 @@
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="31" t="s">
-        <v>835</v>
+        <v>842</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>836</v>
+        <v>843</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
@@ -13232,10 +13348,10 @@
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="31" t="s">
-        <v>837</v>
+        <v>844</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>838</v>
+        <v>845</v>
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
@@ -13264,10 +13380,10 @@
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
       <c r="D31" s="31" t="s">
-        <v>839</v>
+        <v>846</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>840</v>
+        <v>847</v>
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
@@ -13323,11 +13439,11 @@
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="30" t="s">
-        <v>841</v>
+        <v>848</v>
       </c>
       <c r="D33" s="10"/>
       <c r="E33" s="21" t="s">
-        <v>842</v>
+        <v>849</v>
       </c>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
@@ -13384,10 +13500,10 @@
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="30" t="s">
-        <v>818</v>
+        <v>825</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>843</v>
+        <v>850</v>
       </c>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
@@ -13416,10 +13532,10 @@
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="D36" s="30" t="s">
-        <v>844</v>
+        <v>851</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>845</v>
+        <v>852</v>
       </c>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
@@ -13448,10 +13564,10 @@
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
       <c r="D37" s="30" t="s">
-        <v>846</v>
+        <v>853</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>847</v>
+        <v>854</v>
       </c>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
@@ -13480,10 +13596,10 @@
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
       <c r="D38" s="30" t="s">
-        <v>848</v>
+        <v>855</v>
       </c>
       <c r="E38" s="21" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
@@ -13512,10 +13628,10 @@
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
       <c r="D39" s="30" t="s">
-        <v>850</v>
+        <v>857</v>
       </c>
       <c r="E39" s="21" t="s">
-        <v>851</v>
+        <v>858</v>
       </c>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
@@ -13571,11 +13687,11 @@
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10" t="s">
-        <v>852</v>
+        <v>859</v>
       </c>
       <c r="D41" s="10"/>
       <c r="E41" s="21" t="s">
-        <v>853</v>
+        <v>860</v>
       </c>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
@@ -13632,10 +13748,10 @@
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
       <c r="D43" s="30" t="s">
-        <v>818</v>
+        <v>825</v>
       </c>
       <c r="E43" s="30" t="s">
-        <v>854</v>
+        <v>861</v>
       </c>
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
@@ -13664,10 +13780,10 @@
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
       <c r="D44" s="31" t="s">
-        <v>855</v>
+        <v>862</v>
       </c>
       <c r="E44" s="21" t="s">
-        <v>856</v>
+        <v>863</v>
       </c>
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
@@ -13696,10 +13812,10 @@
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
       <c r="D45" s="30" t="s">
-        <v>857</v>
+        <v>864</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>858</v>
+        <v>865</v>
       </c>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
@@ -13754,14 +13870,14 @@
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="30"/>
       <c r="B47" s="30" t="s">
-        <v>859</v>
+        <v>866</v>
       </c>
       <c r="C47" s="30" t="s">
-        <v>860</v>
+        <v>867</v>
       </c>
       <c r="D47" s="30"/>
       <c r="E47" s="21" t="s">
-        <v>861</v>
+        <v>868</v>
       </c>
       <c r="F47" s="30"/>
       <c r="G47" s="30"/>
@@ -13791,7 +13907,7 @@
       <c r="C48" s="30"/>
       <c r="D48" s="30"/>
       <c r="E48" s="21" t="s">
-        <v>862</v>
+        <v>869</v>
       </c>
       <c r="F48" s="30"/>
       <c r="G48" s="30"/>
@@ -13821,7 +13937,7 @@
       <c r="C49" s="30"/>
       <c r="D49" s="30"/>
       <c r="E49" s="21" t="s">
-        <v>863</v>
+        <v>870</v>
       </c>
       <c r="F49" s="30"/>
       <c r="G49" s="30"/>
@@ -14812,10 +14928,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14858,7 +14974,7 @@
         <v>236</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>864</v>
+        <v>871</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>237</v>
@@ -14878,7 +14994,7 @@
         <v>273</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>865</v>
+        <v>872</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>210</v>
@@ -14898,7 +15014,7 @@
         <v>285</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>866</v>
+        <v>873</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>237</v>
@@ -14918,7 +15034,7 @@
         <v>432</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>867</v>
+        <v>874</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>306</v>
@@ -14935,7 +15051,7 @@
         <v>513</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>868</v>
+        <v>875</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>306</v>
@@ -14952,7 +15068,7 @@
         <v>400</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>869</v>
+        <v>876</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>306</v>
@@ -14969,7 +15085,7 @@
         <v>404</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>869</v>
+        <v>876</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>306</v>
@@ -14986,7 +15102,7 @@
         <v>413</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>870</v>
+        <v>877</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>306</v>
@@ -14994,16 +15110,16 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>871</v>
+        <v>878</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>872</v>
+        <v>879</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>873</v>
+        <v>880</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>874</v>
+        <v>881</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>306</v>
@@ -15020,7 +15136,7 @@
         <v>373</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>875</v>
+        <v>882</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>306</v>
@@ -15034,10 +15150,10 @@
         <v>436</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>876</v>
+        <v>883</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>877</v>
+        <v>884</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>306</v>
@@ -15045,16 +15161,16 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>878</v>
+        <v>885</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>879</v>
+        <v>886</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>880</v>
+        <v>887</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>881</v>
+        <v>888</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>306</v>
@@ -15062,16 +15178,16 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>882</v>
+        <v>889</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>883</v>
+        <v>890</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>885</v>
+        <v>892</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>306</v>
@@ -15085,10 +15201,10 @@
         <v>547</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>886</v>
+        <v>778</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>887</v>
+        <v>893</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>306</v>
@@ -15105,7 +15221,7 @@
         <v>746</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>888</v>
+        <v>894</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>237</v>
@@ -15125,7 +15241,7 @@
         <v>751</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>889</v>
+        <v>895</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>306</v>
@@ -15133,58 +15249,75 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
+        <v>807</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>808</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>809</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="s">
         <v>570</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B20" s="5" t="s">
         <v>571</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C20" s="5" t="s">
         <v>572</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>890</v>
-      </c>
-      <c r="E19" s="5" t="s">
+      <c r="D20" s="5" t="s">
+        <v>896</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="F19" s="0" t="s">
+      <c r="F20" s="0" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
         <v>505</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B21" s="0" t="s">
         <v>506</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C21" s="0" t="s">
         <v>507</v>
       </c>
-      <c r="D20" s="0" t="s">
-        <v>891</v>
-      </c>
-      <c r="E20" s="0" t="s">
+      <c r="D21" s="0" t="s">
+        <v>897</v>
+      </c>
+      <c r="E21" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="F20" s="0" t="s">
+      <c r="F21" s="0" t="s">
         <v>238</v>
       </c>
     </row>
@@ -15242,16 +15375,16 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>892</v>
+        <v>898</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>893</v>
+        <v>899</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>895</v>
+        <v>901</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>237</v>
@@ -15262,16 +15395,16 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>897</v>
+        <v>903</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>898</v>
+        <v>904</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>899</v>
+        <v>905</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>237</v>
@@ -15282,22 +15415,22 @@
     </row>
     <row r="4" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>900</v>
+        <v>906</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>901</v>
+        <v>907</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>902</v>
+        <v>908</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>903</v>
+        <v>909</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>210</v>
       </c>
       <c r="F4" s="34" t="s">
-        <v>904</v>
+        <v>910</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15311,7 +15444,7 @@
         <v>481</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>905</v>
+        <v>911</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>249</v>
@@ -15322,16 +15455,16 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>906</v>
+        <v>912</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>907</v>
+        <v>913</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>908</v>
+        <v>914</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>909</v>
+        <v>915</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>306</v>
@@ -15339,19 +15472,19 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>910</v>
+        <v>916</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>911</v>
+        <v>917</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>912</v>
+        <v>918</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>913</v>
+        <v>919</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>911</v>
+        <v>917</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -15435,16 +15568,16 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>914</v>
+        <v>920</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>915</v>
+        <v>921</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>916</v>
+        <v>922</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>917</v>
+        <v>923</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>249</v>
@@ -15452,42 +15585,42 @@
     </row>
     <row r="3" customFormat="false" ht="375" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>918</v>
+        <v>924</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>919</v>
+        <v>925</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>920</v>
+        <v>926</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>921</v>
+        <v>927</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>210</v>
       </c>
       <c r="F3" s="35" t="s">
-        <v>922</v>
+        <v>928</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="209.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>923</v>
+        <v>929</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>924</v>
+        <v>930</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>926</v>
+        <v>932</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>210</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>927</v>
+        <v>933</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/actus-dictionary.xlsx
+++ b/actus-dictionary.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2177" uniqueCount="934">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2211" uniqueCount="948">
   <si>
     <t xml:space="preserve">The ACTUS Dictionary</t>
   </si>
@@ -2633,6 +2633,9 @@
     <t xml:space="preserve">NPR</t>
   </si>
   <si>
+    <t xml:space="preserve">The nominal price for a single certificate.</t>
+  </si>
+  <si>
     <t xml:space="preserve">issuePrice</t>
   </si>
   <si>
@@ -2642,33 +2645,45 @@
     <t xml:space="preserve">IPR</t>
   </si>
   <si>
-    <t xml:space="preserve">ratio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ratio</t>
+    <t xml:space="preserve">The issue price for a single certificate as per Issue Day.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denominationRatio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denomination Ratio</t>
   </si>
   <si>
     <t xml:space="preserve">RAT</t>
   </si>
   <si>
+    <t xml:space="preserve">The ratio defining how a single certificate is denominated in terms of the certificate’s underlying instrument. Is often times also simply referred to as the “Ratio”.</t>
+  </si>
+  <si>
     <t xml:space="preserve">cycleAnchorDateOfRedemption</t>
   </si>
   <si>
-    <t xml:space="preserve">Cycle Anchor Date Of Redemption</t>
+    <t xml:space="preserve">Cycle Anchor Date Of Redemption Day</t>
   </si>
   <si>
     <t xml:space="preserve">RDANX</t>
   </si>
   <si>
+    <t xml:space="preserve">The start date of the Redemption Day schedule. i.e. this is the very first regular Redemption Day. After this day periodic Redemption Days are scheduled through the Cycle of Redemption Day.</t>
+  </si>
+  <si>
     <t xml:space="preserve">cycleOfRedemption</t>
   </si>
   <si>
-    <t xml:space="preserve">Cycle Of Redemption</t>
+    <t xml:space="preserve">Cycle Of Redemption Day</t>
   </si>
   <si>
     <t xml:space="preserve">RDCL</t>
   </si>
   <si>
+    <t xml:space="preserve">The period according to which Redemption Days are scheduled.</t>
+  </si>
+  <si>
     <t xml:space="preserve">cycleAnchorDateOfTermination</t>
   </si>
   <si>
@@ -2678,6 +2693,9 @@
     <t xml:space="preserve">TDANX</t>
   </si>
   <si>
+    <t xml:space="preserve">The start date of the Termination Day schedule. i.e. this is the very first regular Termination Day. After this period Termination Days are scheduled according to the Cycle Of Termination Day.</t>
+  </si>
+  <si>
     <t xml:space="preserve">cycleOfTermination</t>
   </si>
   <si>
@@ -2687,6 +2705,9 @@
     <t xml:space="preserve">TDCL</t>
   </si>
   <si>
+    <t xml:space="preserve">The period according to which Termination Days are scheduled.</t>
+  </si>
+  <si>
     <t xml:space="preserve">exercisePeriod</t>
   </si>
   <si>
@@ -2727,6 +2748,27 @@
   </si>
   <si>
     <t xml:space="preserve">The number of shares / notes / certificates / etc ordered for exercise. E.g. the number of certificates ordered for redemption as per a certain redemption day.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">marginFactor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Margin Factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MRF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A correction factor for the Redemption Amount determined by the Calculating Agent.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adjustmentFactor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adjustment Factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADF</t>
   </si>
   <si>
     <t xml:space="preserve">Attribute Applicability Rules</t>
@@ -5424,12 +5466,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:AF126"/>
+  <dimension ref="A1:AF128"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A116" activeCellId="0" sqref="A116"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A127" activeCellId="0" sqref="A127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8914,7 +8956,9 @@
       <c r="Y57" s="22"/>
       <c r="Z57" s="22"/>
       <c r="AA57" s="22"/>
-      <c r="AB57" s="22"/>
+      <c r="AB57" s="22" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="19" t="s">
@@ -9037,7 +9081,7 @@
       </c>
       <c r="AA59" s="22"/>
       <c r="AB59" s="22" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11852,7 +11896,9 @@
         <v>753</v>
       </c>
       <c r="AA111" s="19"/>
-      <c r="AB111" s="19"/>
+      <c r="AB111" s="19" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="112" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="19" t="s">
@@ -12136,7 +12182,9 @@
       <c r="F117" s="19"/>
       <c r="G117" s="19"/>
       <c r="H117" s="19"/>
-      <c r="I117" s="19"/>
+      <c r="I117" s="19" t="s">
+        <v>779</v>
+      </c>
       <c r="AB117" s="0" t="s">
         <v>233</v>
       </c>
@@ -12144,16 +12192,16 @@
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="19" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B118" s="19" t="s">
         <v>479</v>
       </c>
       <c r="C118" s="19" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="D118" s="19" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="E118" s="19" t="s">
         <v>306</v>
@@ -12161,24 +12209,26 @@
       <c r="F118" s="19"/>
       <c r="G118" s="19"/>
       <c r="H118" s="19"/>
-      <c r="I118" s="19"/>
+      <c r="I118" s="19" t="s">
+        <v>783</v>
+      </c>
       <c r="AB118" s="0" t="s">
         <v>233</v>
       </c>
       <c r="AC118" s="19"/>
     </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="19" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="B119" s="19" t="s">
         <v>479</v>
       </c>
       <c r="C119" s="19" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D119" s="19" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="E119" s="19" t="s">
         <v>306</v>
@@ -12188,24 +12238,26 @@
         <v>11</v>
       </c>
       <c r="H119" s="19"/>
-      <c r="I119" s="19"/>
+      <c r="I119" s="19" t="s">
+        <v>787</v>
+      </c>
       <c r="AB119" s="0" t="s">
         <v>214</v>
       </c>
       <c r="AC119" s="19"/>
     </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="19" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="B120" s="19" t="s">
         <v>616</v>
       </c>
       <c r="C120" s="19" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="D120" s="19" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="E120" s="19" t="s">
         <v>237</v>
@@ -12213,7 +12265,9 @@
       <c r="F120" s="19"/>
       <c r="G120" s="19"/>
       <c r="H120" s="19"/>
-      <c r="I120" s="19"/>
+      <c r="I120" s="19" t="s">
+        <v>791</v>
+      </c>
       <c r="AB120" s="0" t="s">
         <v>214</v>
       </c>
@@ -12221,16 +12275,16 @@
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="19" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="B121" s="19" t="s">
         <v>616</v>
       </c>
       <c r="C121" s="19" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
       <c r="D121" s="19" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
       <c r="E121" s="19" t="s">
         <v>335</v>
@@ -12240,24 +12294,26 @@
       </c>
       <c r="G121" s="19"/>
       <c r="H121" s="19"/>
-      <c r="I121" s="19"/>
+      <c r="I121" s="19" t="s">
+        <v>795</v>
+      </c>
       <c r="AB121" s="0" t="s">
         <v>214</v>
       </c>
       <c r="AC121" s="19"/>
     </row>
-    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="19" t="s">
-        <v>791</v>
+        <v>796</v>
       </c>
       <c r="B122" s="19" t="s">
         <v>616</v>
       </c>
       <c r="C122" s="19" t="s">
-        <v>792</v>
+        <v>797</v>
       </c>
       <c r="D122" s="19" t="s">
-        <v>793</v>
+        <v>798</v>
       </c>
       <c r="E122" s="19" t="s">
         <v>237</v>
@@ -12265,7 +12321,9 @@
       <c r="F122" s="19"/>
       <c r="G122" s="19"/>
       <c r="H122" s="19"/>
-      <c r="I122" s="19"/>
+      <c r="I122" s="19" t="s">
+        <v>799</v>
+      </c>
       <c r="AB122" s="0" t="s">
         <v>214</v>
       </c>
@@ -12273,16 +12331,16 @@
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="19" t="s">
-        <v>794</v>
+        <v>800</v>
       </c>
       <c r="B123" s="19" t="s">
         <v>616</v>
       </c>
       <c r="C123" s="19" t="s">
-        <v>795</v>
+        <v>801</v>
       </c>
       <c r="D123" s="19" t="s">
-        <v>796</v>
+        <v>802</v>
       </c>
       <c r="E123" s="19" t="s">
         <v>335</v>
@@ -12292,7 +12350,9 @@
       </c>
       <c r="G123" s="19"/>
       <c r="H123" s="19"/>
-      <c r="I123" s="19"/>
+      <c r="I123" s="19" t="s">
+        <v>803</v>
+      </c>
       <c r="AB123" s="0" t="s">
         <v>214</v>
       </c>
@@ -12300,16 +12360,16 @@
     </row>
     <row r="124" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="19" t="s">
-        <v>797</v>
+        <v>804</v>
       </c>
       <c r="B124" s="19" t="s">
         <v>744</v>
       </c>
       <c r="C124" s="19" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
       <c r="D124" s="19" t="s">
-        <v>799</v>
+        <v>806</v>
       </c>
       <c r="E124" s="19" t="s">
         <v>290</v>
@@ -12318,11 +12378,11 @@
         <v>291</v>
       </c>
       <c r="G124" s="19" t="s">
-        <v>800</v>
+        <v>807</v>
       </c>
       <c r="H124" s="19"/>
       <c r="I124" s="19" t="s">
-        <v>801</v>
+        <v>808</v>
       </c>
       <c r="AB124" s="0" t="s">
         <v>214</v>
@@ -12331,19 +12391,19 @@
     </row>
     <row r="125" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="19" t="s">
-        <v>802</v>
+        <v>809</v>
       </c>
       <c r="B125" s="19" t="s">
         <v>744</v>
       </c>
       <c r="C125" s="19" t="s">
-        <v>803</v>
+        <v>810</v>
       </c>
       <c r="D125" s="19" t="s">
-        <v>804</v>
+        <v>811</v>
       </c>
       <c r="E125" s="19" t="s">
-        <v>805</v>
+        <v>812</v>
       </c>
       <c r="F125" s="19"/>
       <c r="G125" s="19" t="n">
@@ -12351,7 +12411,7 @@
       </c>
       <c r="H125" s="19"/>
       <c r="I125" s="19" t="s">
-        <v>806</v>
+        <v>813</v>
       </c>
       <c r="J125" s="19"/>
       <c r="K125" s="19"/>
@@ -12379,21 +12439,21 @@
       <c r="AE125" s="19"/>
       <c r="AF125" s="19"/>
     </row>
-    <row r="126" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="19" t="s">
-        <v>807</v>
+        <v>814</v>
       </c>
       <c r="B126" s="19" t="s">
         <v>744</v>
       </c>
       <c r="C126" s="19" t="s">
-        <v>808</v>
+        <v>815</v>
       </c>
       <c r="D126" s="19" t="s">
-        <v>809</v>
+        <v>816</v>
       </c>
       <c r="E126" s="19" t="s">
-        <v>805</v>
+        <v>812</v>
       </c>
       <c r="F126" s="19"/>
       <c r="G126" s="19" t="n">
@@ -12401,7 +12461,7 @@
       </c>
       <c r="H126" s="19"/>
       <c r="I126" s="19" t="s">
-        <v>810</v>
+        <v>817</v>
       </c>
       <c r="J126" s="19"/>
       <c r="K126" s="19"/>
@@ -12421,11 +12481,65 @@
       <c r="Y126" s="19"/>
       <c r="Z126" s="19"/>
       <c r="AA126" s="19"/>
-      <c r="AB126" s="19"/>
+      <c r="AB126" s="19" t="s">
+        <v>214</v>
+      </c>
       <c r="AC126" s="19"/>
       <c r="AD126" s="19"/>
       <c r="AE126" s="19"/>
       <c r="AF126" s="19"/>
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="0" t="s">
+        <v>818</v>
+      </c>
+      <c r="B127" s="0" t="s">
+        <v>744</v>
+      </c>
+      <c r="C127" s="0" t="s">
+        <v>819</v>
+      </c>
+      <c r="D127" s="0" t="s">
+        <v>820</v>
+      </c>
+      <c r="E127" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="G127" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I127" s="0" t="s">
+        <v>821</v>
+      </c>
+      <c r="AB127" s="0" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="0" t="s">
+        <v>822</v>
+      </c>
+      <c r="B128" s="0" t="s">
+        <v>744</v>
+      </c>
+      <c r="C128" s="0" t="s">
+        <v>823</v>
+      </c>
+      <c r="D128" s="0" t="s">
+        <v>824</v>
+      </c>
+      <c r="E128" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="G128" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I128" s="0" t="s">
+        <v>821</v>
+      </c>
+      <c r="AB128" s="0" t="s">
+        <v>214</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="T1:T115"/>
@@ -12494,7 +12608,7 @@
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="10"/>
       <c r="B2" s="30" t="s">
-        <v>811</v>
+        <v>825</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -12552,7 +12666,7 @@
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="30"/>
       <c r="B4" s="30" t="s">
-        <v>812</v>
+        <v>826</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -12610,10 +12724,10 @@
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="30"/>
       <c r="B6" s="30" t="s">
-        <v>813</v>
+        <v>827</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>814</v>
+        <v>828</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="30"/>
@@ -12643,7 +12757,7 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="30" t="s">
-        <v>815</v>
+        <v>829</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
@@ -12700,10 +12814,10 @@
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="30"/>
       <c r="B9" s="30" t="s">
-        <v>816</v>
+        <v>830</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>817</v>
+        <v>831</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="30"/>
@@ -12733,11 +12847,11 @@
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="30" t="s">
-        <v>818</v>
+        <v>832</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="30" t="s">
-        <v>819</v>
+        <v>833</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
@@ -12792,12 +12906,12 @@
     <row r="12" customFormat="false" ht="118.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="10"/>
       <c r="B12" s="30" t="s">
-        <v>820</v>
+        <v>834</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="21" t="s">
-        <v>821</v>
+        <v>835</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
@@ -12852,14 +12966,14 @@
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="10"/>
       <c r="B14" s="30" t="s">
-        <v>822</v>
+        <v>836</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>823</v>
+        <v>837</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="21" t="s">
-        <v>824</v>
+        <v>838</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
@@ -12916,10 +13030,10 @@
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="30" t="s">
-        <v>825</v>
+        <v>839</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>826</v>
+        <v>840</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
@@ -12948,10 +13062,10 @@
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="30" t="s">
-        <v>827</v>
+        <v>841</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>828</v>
+        <v>842</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
@@ -12980,10 +13094,10 @@
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="30" t="s">
-        <v>829</v>
+        <v>843</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>830</v>
+        <v>844</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
@@ -13039,11 +13153,11 @@
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="30" t="s">
-        <v>831</v>
+        <v>845</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="21" t="s">
-        <v>832</v>
+        <v>846</v>
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
@@ -13100,10 +13214,10 @@
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="30" t="s">
-        <v>825</v>
+        <v>839</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>833</v>
+        <v>847</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
@@ -13132,10 +13246,10 @@
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="30" t="s">
-        <v>834</v>
+        <v>848</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>835</v>
+        <v>849</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
@@ -13191,11 +13305,11 @@
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="30" t="s">
-        <v>836</v>
+        <v>850</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="21" t="s">
-        <v>837</v>
+        <v>851</v>
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
@@ -13252,10 +13366,10 @@
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
       <c r="D27" s="31" t="s">
-        <v>838</v>
+        <v>852</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>839</v>
+        <v>853</v>
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
@@ -13284,10 +13398,10 @@
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="31" t="s">
-        <v>840</v>
+        <v>854</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>841</v>
+        <v>855</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
@@ -13316,10 +13430,10 @@
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="31" t="s">
-        <v>842</v>
+        <v>856</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
@@ -13348,10 +13462,10 @@
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="31" t="s">
-        <v>844</v>
+        <v>858</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>845</v>
+        <v>859</v>
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
@@ -13380,10 +13494,10 @@
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
       <c r="D31" s="31" t="s">
-        <v>846</v>
+        <v>860</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>847</v>
+        <v>861</v>
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
@@ -13439,11 +13553,11 @@
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="30" t="s">
-        <v>848</v>
+        <v>862</v>
       </c>
       <c r="D33" s="10"/>
       <c r="E33" s="21" t="s">
-        <v>849</v>
+        <v>863</v>
       </c>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
@@ -13500,10 +13614,10 @@
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="30" t="s">
-        <v>825</v>
+        <v>839</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>850</v>
+        <v>864</v>
       </c>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
@@ -13532,10 +13646,10 @@
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="D36" s="30" t="s">
-        <v>851</v>
+        <v>865</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>852</v>
+        <v>866</v>
       </c>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
@@ -13564,10 +13678,10 @@
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
       <c r="D37" s="30" t="s">
-        <v>853</v>
+        <v>867</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>854</v>
+        <v>868</v>
       </c>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
@@ -13596,10 +13710,10 @@
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
       <c r="D38" s="30" t="s">
-        <v>855</v>
+        <v>869</v>
       </c>
       <c r="E38" s="21" t="s">
-        <v>856</v>
+        <v>870</v>
       </c>
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
@@ -13628,10 +13742,10 @@
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
       <c r="D39" s="30" t="s">
-        <v>857</v>
+        <v>871</v>
       </c>
       <c r="E39" s="21" t="s">
-        <v>858</v>
+        <v>872</v>
       </c>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
@@ -13687,11 +13801,11 @@
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10" t="s">
-        <v>859</v>
+        <v>873</v>
       </c>
       <c r="D41" s="10"/>
       <c r="E41" s="21" t="s">
-        <v>860</v>
+        <v>874</v>
       </c>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
@@ -13748,10 +13862,10 @@
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
       <c r="D43" s="30" t="s">
-        <v>825</v>
+        <v>839</v>
       </c>
       <c r="E43" s="30" t="s">
-        <v>861</v>
+        <v>875</v>
       </c>
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
@@ -13780,10 +13894,10 @@
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
       <c r="D44" s="31" t="s">
-        <v>862</v>
+        <v>876</v>
       </c>
       <c r="E44" s="21" t="s">
-        <v>863</v>
+        <v>877</v>
       </c>
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
@@ -13812,10 +13926,10 @@
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
       <c r="D45" s="30" t="s">
-        <v>864</v>
+        <v>878</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>865</v>
+        <v>879</v>
       </c>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
@@ -13870,14 +13984,14 @@
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="30"/>
       <c r="B47" s="30" t="s">
-        <v>866</v>
+        <v>880</v>
       </c>
       <c r="C47" s="30" t="s">
-        <v>867</v>
+        <v>881</v>
       </c>
       <c r="D47" s="30"/>
       <c r="E47" s="21" t="s">
-        <v>868</v>
+        <v>882</v>
       </c>
       <c r="F47" s="30"/>
       <c r="G47" s="30"/>
@@ -13907,7 +14021,7 @@
       <c r="C48" s="30"/>
       <c r="D48" s="30"/>
       <c r="E48" s="21" t="s">
-        <v>869</v>
+        <v>883</v>
       </c>
       <c r="F48" s="30"/>
       <c r="G48" s="30"/>
@@ -13937,7 +14051,7 @@
       <c r="C49" s="30"/>
       <c r="D49" s="30"/>
       <c r="E49" s="21" t="s">
-        <v>870</v>
+        <v>884</v>
       </c>
       <c r="F49" s="30"/>
       <c r="G49" s="30"/>
@@ -14928,10 +15042,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14974,7 +15088,7 @@
         <v>236</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>871</v>
+        <v>885</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>237</v>
@@ -14994,7 +15108,7 @@
         <v>273</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>872</v>
+        <v>886</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>210</v>
@@ -15014,7 +15128,7 @@
         <v>285</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>873</v>
+        <v>887</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>237</v>
@@ -15034,7 +15148,7 @@
         <v>432</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>874</v>
+        <v>888</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>306</v>
@@ -15051,7 +15165,7 @@
         <v>513</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>875</v>
+        <v>889</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>306</v>
@@ -15068,7 +15182,7 @@
         <v>400</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>876</v>
+        <v>890</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>306</v>
@@ -15085,7 +15199,7 @@
         <v>404</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>876</v>
+        <v>890</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>306</v>
@@ -15102,7 +15216,7 @@
         <v>413</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>877</v>
+        <v>891</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>306</v>
@@ -15110,16 +15224,16 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>878</v>
+        <v>892</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>879</v>
+        <v>893</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>880</v>
+        <v>894</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>881</v>
+        <v>895</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>306</v>
@@ -15136,7 +15250,7 @@
         <v>373</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>882</v>
+        <v>896</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>306</v>
@@ -15150,10 +15264,10 @@
         <v>436</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>883</v>
+        <v>897</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>884</v>
+        <v>898</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>306</v>
@@ -15161,16 +15275,16 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>885</v>
+        <v>899</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>886</v>
+        <v>900</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>887</v>
+        <v>901</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>888</v>
+        <v>902</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>306</v>
@@ -15178,16 +15292,16 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>889</v>
+        <v>903</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>890</v>
+        <v>904</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>891</v>
+        <v>905</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>892</v>
+        <v>906</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>306</v>
@@ -15204,7 +15318,7 @@
         <v>778</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>893</v>
+        <v>907</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>306</v>
@@ -15221,7 +15335,7 @@
         <v>746</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>894</v>
+        <v>908</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>237</v>
@@ -15241,7 +15355,7 @@
         <v>751</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>895</v>
+        <v>909</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>306</v>
@@ -15249,75 +15363,109 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>802</v>
+        <v>809</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>803</v>
+        <v>810</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>804</v>
+        <v>811</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>806</v>
+        <v>813</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>805</v>
+        <v>812</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>807</v>
+        <v>814</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>808</v>
+        <v>815</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>809</v>
+        <v>816</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>810</v>
+        <v>817</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>818</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>819</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>820</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>821</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>822</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>823</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>824</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>821</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5" t="s">
         <v>570</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B22" s="5" t="s">
         <v>571</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C22" s="5" t="s">
         <v>572</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>896</v>
-      </c>
-      <c r="E20" s="5" t="s">
+      <c r="D22" s="5" t="s">
+        <v>910</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="F20" s="0" t="s">
+      <c r="F22" s="0" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
         <v>505</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B23" s="0" t="s">
         <v>506</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C23" s="0" t="s">
         <v>507</v>
       </c>
-      <c r="D21" s="0" t="s">
-        <v>897</v>
-      </c>
-      <c r="E21" s="0" t="s">
+      <c r="D23" s="0" t="s">
+        <v>911</v>
+      </c>
+      <c r="E23" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="F21" s="0" t="s">
+      <c r="F23" s="0" t="s">
         <v>238</v>
       </c>
     </row>
@@ -15375,16 +15523,16 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>898</v>
+        <v>912</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>899</v>
+        <v>913</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>900</v>
+        <v>914</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>901</v>
+        <v>915</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>237</v>
@@ -15395,16 +15543,16 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>902</v>
+        <v>916</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>903</v>
+        <v>917</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>904</v>
+        <v>918</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>237</v>
@@ -15415,22 +15563,22 @@
     </row>
     <row r="4" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>906</v>
+        <v>920</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>907</v>
+        <v>921</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>908</v>
+        <v>922</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>909</v>
+        <v>923</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>210</v>
       </c>
       <c r="F4" s="34" t="s">
-        <v>910</v>
+        <v>924</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15444,7 +15592,7 @@
         <v>481</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>911</v>
+        <v>925</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>249</v>
@@ -15455,16 +15603,16 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>912</v>
+        <v>926</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>913</v>
+        <v>927</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>914</v>
+        <v>928</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>915</v>
+        <v>929</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>306</v>
@@ -15472,19 +15620,19 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>916</v>
+        <v>930</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>917</v>
+        <v>931</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>918</v>
+        <v>932</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>919</v>
+        <v>933</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>917</v>
+        <v>931</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -15568,16 +15716,16 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>920</v>
+        <v>934</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>921</v>
+        <v>935</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>922</v>
+        <v>936</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>923</v>
+        <v>937</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>249</v>
@@ -15585,42 +15733,42 @@
     </row>
     <row r="3" customFormat="false" ht="375" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>924</v>
+        <v>938</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>925</v>
+        <v>939</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>926</v>
+        <v>940</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>927</v>
+        <v>941</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>210</v>
       </c>
       <c r="F3" s="35" t="s">
-        <v>928</v>
+        <v>942</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="209.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>929</v>
+        <v>943</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>930</v>
+        <v>944</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>931</v>
+        <v>945</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>932</v>
+        <v>946</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>210</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>933</v>
+        <v>947</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/actus-dictionary.xlsx
+++ b/actus-dictionary.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" state="visible" r:id="rId2"/>
@@ -3068,30 +3068,31 @@
     <t xml:space="preserve">The type of the event. Different types have their own business logic in terms of payoff and state transition functions</t>
   </si>
   <si>
-    <t xml:space="preserve">option: 0, identifier: monitoring, name: Monitoring, acronym: AD, description: Monitoring of contract. Evaluates all contract states, sequence: 22
-option: 1, identifier: initialExchange, name: Initial Exchange, acronym: IED, description: Scheduled date of initial exchange of e.g. principal value in fixed income products, sequence: 1
-Option: 2, identifier: feePayment, name: Fee Payment, acronym: FP, description: Scheduled fee payments, sequence: 2
-option: 3, identifier: principalRedemption, name: Principal Redemption, acronym: PR, description: Scheduled principal redemption payment, sequence: 3
-option: 4, identifier: principalDrawing, name: Principal Drawing, acronym: PD, description: Drawing of principal amount e.g. in a credit line, sequence: 4
-option: 5, identifier: principalPaymentAmountFixing, name: Principal Payment Amount Fixing, acronym: PRF, description: Scheduled fixing of principal payment amount, sequence: 5
-option: 6, identifier: penalytPayment, name: Penalty Payment, acronym: PY, description: Scheduled payment of a penalty, sequence: 6
-option: 7, identifier: principalPrepayment, name: Principal Prepayment, acronym: PP, description: Unscheduled early repayment of principal, sequence: 7
-option: 8, identifier: interestPayment, name: Interest Payment, acronym: IP, description: Scheduled interest payment, sequence: 8
-option: 9, identifier: interestCapitalization, name: Interest Capitalization, acronym: IPCI, description: Scheduled capitalization of accrued interest, sequence: 9
-option: 10, identifier: creditEvent, name: Credit Event, acronym: CE, description: Credit event of counterparty to a contract, sequence: 10
-option: 11, identifier: rateResetFixed, name: Rate Reset Fixing with Known Rate, acronym: RRF, description: Scheduled fixing of variable rate with known new rate, sequence: 11 
-option: 12, identifier: rateResetVariable, name: Rate Reset Fixing with Unknown Rate, acronym: RR, description: Scheduled fixing of variable rate with unknown new rate, sequence: 12
-option: 13, identifier: dividendPayment, name: Dividend Payment, acronym: DV, description: Payment of dividends, sequence: 13
-option: 14, identifier: purchase, name: Purchase, acronym: PRD, description: Purchase of a contract, sequence: 14
-option: 15, identifier: marginCall, name: Margin Call, acronym: MR, description: Scheduled margin call, sequence: 15
-option: 16, identifier: termination, name: Termination, acronym: TD, description: Termination of a contract, sequence: 16
-option: 17, identifier: scalingIndexFixing, name: Scaling Index Fixing, acronym: SC, description: Scheduled fixing of a scaling index, sequence: 17
-option: 18, identifier: interestCalculationBaseFixing, name: Interest Calculation Base Fixing, acronym: IPCB, description: Scheduled fixing of the interest calculation base, sequence: 18
-option: 19, identifier: maturity, name: Maturity, acronym: MD, description: Maturity of a contract, sequence: 19
-option: 20, identifier: redemptionDay, name: Redemption Day, acronym: RD, description: Fixing of the redemption amount, sequence: 20
-option: 21, identifier: exerciseOrder, name: Exercise Order, acronym: XO, description: Submission of an exercise order for a contractual feature such as an optionality, sequence: 21
-option: 22, identifier: exercise, name: Exercise, acronym: XD, description: Exercise of a contractual feature such as an optionality, sequence: 22
-option: 23, identifier: settlement, name: Settlement, acronym: STD, description: Settlement of an exercised contractual claim, sequence: 23</t>
+    <t xml:space="preserve">option: 0, identifier: monitoring, name: Monitoring, acronym: AD, description: Monitoring of contract. Evaluates all contract states, sequence: 25
+option: 1, identifier: issueDay, name: Issue Day, acronym: ID, description: Marks the day or timestamp respectively of issuance of a contract, sequence: 1
+option: 2, identifier: initialExchange, name: Initial Exchange, acronym: IED, description: Scheduled date of initial exchange of e.g. principal value in fixed income products, sequence: 2
+option: 3, identifier: feePayment, name: Fee Payment, acronym: FP, description: Scheduled fee payments, sequence: 3
+option: 4, identifier: principalRedemption, name: Principal Redemption, acronym: PR, description: Scheduled principal redemption payment, sequence: 4
+option: 5, identifier: principalDrawing, name: Principal Drawing, acronym: PD, description: Drawing of principal amount e.g. in a credit line, sequence: 5
+option: 6, identifier: principalPaymentAmountFixing, name: Principal Payment Amount Fixing, acronym: PRF, description: Scheduled fixing of principal payment amount, sequence: 6
+option: 7, identifier: penalytPayment, name: Penalty Payment, acronym: PY, description: Scheduled payment of a penalty, sequence: 7
+option: 8, identifier: principalPrepayment, name: Principal Prepayment, acronym: PP, description: Unscheduled early repayment of principal, sequence: 8
+option: 9, identifier: interestPayment, name: Interest Payment, acronym: IP, description: Scheduled interest payment, sequence: 9
+option: 10, identifier: interestCapitalization, name: Interest Capitalization, acronym: IPCI, description: Scheduled capitalization of accrued interest, sequence: 10
+option: 11, identifier: creditEvent, name: Credit Event, acronym: CE, description: Credit event of counterparty to a contract, sequence: 11
+option: 12, identifier: rateResetFixed, name: Rate Reset Fixing with Known Rate, acronym: RRF, description: Scheduled fixing of variable rate with known new rate, sequence: 12
+option: 13, identifier: rateResetVariable, name: Rate Reset Fixing with Unknown Rate, acronym: RR, description: Scheduled fixing of variable rate with unknown new rate, sequence: 13
+option: 14, identifier: dividendPayment, name: Dividend Payment, acronym: DV, description: Payment of dividends, sequence: 14
+option: 15, identifier: purchase, name: Purchase, acronym: PRD, description: Purchase of a contract, sequence: 15
+option: 16, identifier: marginCall, name: Margin Call, acronym: MR, description: Scheduled margin call, sequence: 16
+option: 17, identifier: termination, name: Termination, acronym: TD, description: Termination of a contract, sequence: 17
+option: 18, identifier: scalingIndexFixing, name: Scaling Index Fixing, acronym: SC, description: Scheduled fixing of a scaling index, sequence: 18
+option: 19, identifier: interestCalculationBaseFixing, name: Interest Calculation Base Fixing, acronym: IPCB, description: Scheduled fixing of the interest calculation base, sequence: 19
+option: 20, identifier: maturity, name: Maturity, acronym: MD, description: Maturity of a contract, sequence: 20
+option: 21, identifier: redemptionDay, name: Redemption Day, acronym: RD, description: Fixing of the redemption amount, sequence: 21
+option: 22, identifier: exerciseOrder, name: Exercise Order, acronym: XO, description: Submission of an exercise order for a contractual feature such as an optionality, sequence: 22
+option: 23, identifier: exercise, name: Exercise, acronym: XD, description: Exercise of a contractual feature such as an optionality, sequence: 23
+Option: 24, identifier: settlement, name: Settlement, acronym: STD, description: Settlement of an exercised contractual claim, sequence: 24</t>
   </si>
   <si>
     <t xml:space="preserve">The currency in which the event payoff is scheduled</t>
@@ -3542,8 +3543,8 @@
   </sheetPr>
   <dimension ref="A1:AA1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5468,7 +5469,7 @@
   </sheetPr>
   <dimension ref="A1:AF128"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A127" activeCellId="0" sqref="A127"/>

--- a/actus-dictionary.xlsx
+++ b/actus-dictionary.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2211" uniqueCount="948">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2248" uniqueCount="971">
   <si>
     <t xml:space="preserve">The ACTUS Dictionary</t>
   </si>
@@ -2771,6 +2771,79 @@
     <t xml:space="preserve">ADF</t>
   </si>
   <si>
+    <t xml:space="preserve">cycleAnchorDateOfCoupon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coupon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cycle Anchor Date Of Coupon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPANX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The start date of the Coupon Day schedule. i.e. this is the very first regular Coupon Day. After this day periodic Coupon Days are scheduled through the Cycle of Coupon Day.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cycleOfCoupon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cycle Of Coupon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPCL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The period according to which Coupon Days are scheduled.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">couponType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coupon Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPTP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">option: 0, identifier: none, name: No Coupon, acronym: NOC, description: No coupon is paid.
+option: 1, identifier: fixed, name: Fixed Coupon, acronym: FIX, description: A fixed coupon is paid according to the couponRate.
+option: 2, identifier: fixedConditional, name: Fixed Conditional Coupon, acronym: FCN, description: A fixed coupon is paid conditional to sufficient liquidity.
+option: 3, identifier: performance, name: Performance Based, acronym: PRF, description: The coupon paid is based on the performance of the underlying instrument.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The type of coupon applicable. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">couponRate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coupon Rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPRT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The fixed coupon applicable (if any). Applies in conjunction with couponType=FIX (fixed).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">couponAmountFixed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coupon Amount Fixed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPFX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The coupon amount fixed at the most recent coupon day and due for payment.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Attribute Applicability Rules</t>
   </si>
   <si>
@@ -3068,7 +3141,7 @@
     <t xml:space="preserve">The type of the event. Different types have their own business logic in terms of payoff and state transition functions</t>
   </si>
   <si>
-    <t xml:space="preserve">option: 0, identifier: monitoring, name: Monitoring, acronym: AD, description: Monitoring of contract. Evaluates all contract states, sequence: 25
+    <t xml:space="preserve">option: 0, identifier: monitoring, name: Monitoring, acronym: AD, description: Monitoring of contract. Evaluates all contract states, sequence: 27
 option: 1, identifier: issueDay, name: Issue Day, acronym: ID, description: Marks the day or timestamp respectively of issuance of a contract, sequence: 1
 option: 2, identifier: initialExchange, name: Initial Exchange, acronym: IED, description: Scheduled date of initial exchange of e.g. principal value in fixed income products, sequence: 2
 option: 3, identifier: feePayment, name: Fee Payment, acronym: FP, description: Scheduled fee payments, sequence: 3
@@ -3089,10 +3162,12 @@
 option: 18, identifier: scalingIndexFixing, name: Scaling Index Fixing, acronym: SC, description: Scheduled fixing of a scaling index, sequence: 18
 option: 19, identifier: interestCalculationBaseFixing, name: Interest Calculation Base Fixing, acronym: IPCB, description: Scheduled fixing of the interest calculation base, sequence: 19
 option: 20, identifier: maturity, name: Maturity, acronym: MD, description: Maturity of a contract, sequence: 20
-option: 21, identifier: redemptionDay, name: Redemption Day, acronym: RD, description: Fixing of the redemption amount, sequence: 21
-option: 22, identifier: exerciseOrder, name: Exercise Order, acronym: XO, description: Submission of an exercise order for a contractual feature such as an optionality, sequence: 22
-option: 23, identifier: exercise, name: Exercise, acronym: XD, description: Exercise of a contractual feature such as an optionality, sequence: 23
-Option: 24, identifier: settlement, name: Settlement, acronym: STD, description: Settlement of an exercised contractual claim, sequence: 24</t>
+option: 21, identifier: couponFixingDay, name: Coupon Fixing Day, acronym: CFD, description: Fixing of the coupon amount, sequence: 21 
+option: 22, identifier: couponPaymentDay, name: Coupon Payment Day, acronym: CPD, description: Payment of the coupon amount, sequence: 22
+option: 23, identifier: redemptionDay, name: Redemption Day, acronym: RD, description: Fixing of the redemption amount, sequence: 23
+option: 24, identifier: exerciseOrder, name: Exercise Order, acronym: XO, description: Submission of an exercise order for a contractual feature such as an optionality, sequence: 24
+option: 25, identifier: exerciseDay, name: Exercise Day, acronym: XD, description: Exercise of a contractual feature such as an optionality, sequence: 25
+Option: 26, identifier: settlement, name: Settlement, acronym: STD, description: Settlement of an exercised contractual claim, sequence: 26</t>
   </si>
   <si>
     <t xml:space="preserve">The currency in which the event payoff is scheduled</t>
@@ -3544,7 +3619,7 @@
   <dimension ref="A1:AA1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5467,12 +5542,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:AF128"/>
+  <dimension ref="A1:AF133"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A127" activeCellId="0" sqref="A127"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7125,9 +7200,7 @@
       <c r="Y23" s="22"/>
       <c r="Z23" s="22"/>
       <c r="AA23" s="22"/>
-      <c r="AB23" s="19" t="s">
-        <v>331</v>
-      </c>
+      <c r="AB23" s="19"/>
     </row>
     <row r="24" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="19" t="s">
@@ -7173,9 +7246,7 @@
       <c r="Y24" s="22"/>
       <c r="Z24" s="22"/>
       <c r="AA24" s="22"/>
-      <c r="AB24" s="19" t="s">
-        <v>338</v>
-      </c>
+      <c r="AB24" s="19"/>
     </row>
     <row r="25" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="19" t="s">
@@ -7225,9 +7296,7 @@
       <c r="Y25" s="22"/>
       <c r="Z25" s="22"/>
       <c r="AA25" s="22"/>
-      <c r="AB25" s="19" t="s">
-        <v>344</v>
-      </c>
+      <c r="AB25" s="19"/>
     </row>
     <row r="26" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="19" t="s">
@@ -7273,9 +7342,7 @@
       <c r="Y26" s="22"/>
       <c r="Z26" s="22"/>
       <c r="AA26" s="22"/>
-      <c r="AB26" s="19" t="s">
-        <v>349</v>
-      </c>
+      <c r="AB26" s="19"/>
     </row>
     <row r="27" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="19" t="s">
@@ -12247,7 +12314,7 @@
       </c>
       <c r="AC119" s="19"/>
     </row>
-    <row r="120" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="19" t="s">
         <v>788</v>
       </c>
@@ -12263,7 +12330,9 @@
       <c r="E120" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="F120" s="19"/>
+      <c r="F120" s="21" t="s">
+        <v>238</v>
+      </c>
       <c r="G120" s="19"/>
       <c r="H120" s="19"/>
       <c r="I120" s="19" t="s">
@@ -12303,7 +12372,7 @@
       </c>
       <c r="AC121" s="19"/>
     </row>
-    <row r="122" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="19" t="s">
         <v>796</v>
       </c>
@@ -12319,7 +12388,9 @@
       <c r="E122" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="F122" s="19"/>
+      <c r="F122" s="21" t="s">
+        <v>238</v>
+      </c>
       <c r="G122" s="19"/>
       <c r="H122" s="19"/>
       <c r="I122" s="19" t="s">
@@ -12540,6 +12611,139 @@
       </c>
       <c r="AB128" s="0" t="s">
         <v>214</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="0" t="s">
+        <v>825</v>
+      </c>
+      <c r="B129" s="0" t="s">
+        <v>826</v>
+      </c>
+      <c r="C129" s="0" t="s">
+        <v>827</v>
+      </c>
+      <c r="D129" s="0" t="s">
+        <v>828</v>
+      </c>
+      <c r="E129" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="F129" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="I129" s="19" t="s">
+        <v>829</v>
+      </c>
+      <c r="AB129" s="19" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="0" t="s">
+        <v>830</v>
+      </c>
+      <c r="B130" s="0" t="s">
+        <v>826</v>
+      </c>
+      <c r="C130" s="0" t="s">
+        <v>831</v>
+      </c>
+      <c r="D130" s="0" t="s">
+        <v>832</v>
+      </c>
+      <c r="E130" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="F130" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="I130" s="19" t="s">
+        <v>833</v>
+      </c>
+      <c r="AB130" s="19" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="0" t="s">
+        <v>834</v>
+      </c>
+      <c r="B131" s="0" t="s">
+        <v>826</v>
+      </c>
+      <c r="C131" s="0" t="s">
+        <v>835</v>
+      </c>
+      <c r="D131" s="0" t="s">
+        <v>836</v>
+      </c>
+      <c r="E131" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="F131" s="19" t="s">
+        <v>837</v>
+      </c>
+      <c r="G131" s="0" t="s">
+        <v>838</v>
+      </c>
+      <c r="I131" s="0" t="s">
+        <v>839</v>
+      </c>
+      <c r="AB131" s="19" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="0" t="s">
+        <v>840</v>
+      </c>
+      <c r="B132" s="0" t="s">
+        <v>826</v>
+      </c>
+      <c r="C132" s="0" t="s">
+        <v>841</v>
+      </c>
+      <c r="D132" s="0" t="s">
+        <v>842</v>
+      </c>
+      <c r="E132" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="G132" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" s="0" t="s">
+        <v>843</v>
+      </c>
+      <c r="AB132" s="19" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="0" t="s">
+        <v>844</v>
+      </c>
+      <c r="B133" s="0" t="s">
+        <v>826</v>
+      </c>
+      <c r="C133" s="0" t="s">
+        <v>845</v>
+      </c>
+      <c r="D133" s="0" t="s">
+        <v>846</v>
+      </c>
+      <c r="E133" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="G133" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" s="0" t="s">
+        <v>847</v>
+      </c>
+      <c r="AB133" s="19" t="s">
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -12609,7 +12813,7 @@
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="10"/>
       <c r="B2" s="30" t="s">
-        <v>825</v>
+        <v>848</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -12667,7 +12871,7 @@
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="30"/>
       <c r="B4" s="30" t="s">
-        <v>826</v>
+        <v>849</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -12725,10 +12929,10 @@
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="30"/>
       <c r="B6" s="30" t="s">
-        <v>827</v>
+        <v>850</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>828</v>
+        <v>851</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="30"/>
@@ -12758,7 +12962,7 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="30" t="s">
-        <v>829</v>
+        <v>852</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
@@ -12815,10 +13019,10 @@
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="30"/>
       <c r="B9" s="30" t="s">
-        <v>830</v>
+        <v>853</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>831</v>
+        <v>854</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="30"/>
@@ -12848,11 +13052,11 @@
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="30" t="s">
-        <v>832</v>
+        <v>855</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="30" t="s">
-        <v>833</v>
+        <v>856</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
@@ -12907,12 +13111,12 @@
     <row r="12" customFormat="false" ht="118.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="10"/>
       <c r="B12" s="30" t="s">
-        <v>834</v>
+        <v>857</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="21" t="s">
-        <v>835</v>
+        <v>858</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
@@ -12967,14 +13171,14 @@
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="10"/>
       <c r="B14" s="30" t="s">
-        <v>836</v>
+        <v>859</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>837</v>
+        <v>860</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="21" t="s">
-        <v>838</v>
+        <v>861</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
@@ -13031,10 +13235,10 @@
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="30" t="s">
-        <v>839</v>
+        <v>862</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>840</v>
+        <v>863</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
@@ -13063,10 +13267,10 @@
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="30" t="s">
-        <v>841</v>
+        <v>864</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>842</v>
+        <v>865</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
@@ -13095,10 +13299,10 @@
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="30" t="s">
-        <v>843</v>
+        <v>866</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>844</v>
+        <v>867</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
@@ -13154,11 +13358,11 @@
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="30" t="s">
-        <v>845</v>
+        <v>868</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="21" t="s">
-        <v>846</v>
+        <v>869</v>
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
@@ -13215,10 +13419,10 @@
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="30" t="s">
-        <v>839</v>
+        <v>862</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>847</v>
+        <v>870</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
@@ -13247,10 +13451,10 @@
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="30" t="s">
-        <v>848</v>
+        <v>871</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>849</v>
+        <v>872</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
@@ -13306,11 +13510,11 @@
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="30" t="s">
-        <v>850</v>
+        <v>873</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="21" t="s">
-        <v>851</v>
+        <v>874</v>
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
@@ -13367,10 +13571,10 @@
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
       <c r="D27" s="31" t="s">
-        <v>852</v>
+        <v>875</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>853</v>
+        <v>876</v>
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
@@ -13399,10 +13603,10 @@
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="31" t="s">
-        <v>854</v>
+        <v>877</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>855</v>
+        <v>878</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
@@ -13431,10 +13635,10 @@
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="31" t="s">
-        <v>856</v>
+        <v>879</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>857</v>
+        <v>880</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
@@ -13463,10 +13667,10 @@
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="31" t="s">
-        <v>858</v>
+        <v>881</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>859</v>
+        <v>882</v>
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
@@ -13495,10 +13699,10 @@
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
       <c r="D31" s="31" t="s">
-        <v>860</v>
+        <v>883</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>861</v>
+        <v>884</v>
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
@@ -13554,11 +13758,11 @@
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="30" t="s">
-        <v>862</v>
+        <v>885</v>
       </c>
       <c r="D33" s="10"/>
       <c r="E33" s="21" t="s">
-        <v>863</v>
+        <v>886</v>
       </c>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
@@ -13615,10 +13819,10 @@
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="30" t="s">
-        <v>839</v>
+        <v>862</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>864</v>
+        <v>887</v>
       </c>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
@@ -13647,10 +13851,10 @@
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="D36" s="30" t="s">
-        <v>865</v>
+        <v>888</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>866</v>
+        <v>889</v>
       </c>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
@@ -13679,10 +13883,10 @@
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
       <c r="D37" s="30" t="s">
-        <v>867</v>
+        <v>890</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>868</v>
+        <v>891</v>
       </c>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
@@ -13711,10 +13915,10 @@
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
       <c r="D38" s="30" t="s">
-        <v>869</v>
+        <v>892</v>
       </c>
       <c r="E38" s="21" t="s">
-        <v>870</v>
+        <v>893</v>
       </c>
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
@@ -13743,10 +13947,10 @@
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
       <c r="D39" s="30" t="s">
-        <v>871</v>
+        <v>894</v>
       </c>
       <c r="E39" s="21" t="s">
-        <v>872</v>
+        <v>895</v>
       </c>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
@@ -13802,11 +14006,11 @@
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10" t="s">
-        <v>873</v>
+        <v>896</v>
       </c>
       <c r="D41" s="10"/>
       <c r="E41" s="21" t="s">
-        <v>874</v>
+        <v>897</v>
       </c>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
@@ -13863,10 +14067,10 @@
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
       <c r="D43" s="30" t="s">
-        <v>839</v>
+        <v>862</v>
       </c>
       <c r="E43" s="30" t="s">
-        <v>875</v>
+        <v>898</v>
       </c>
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
@@ -13895,10 +14099,10 @@
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
       <c r="D44" s="31" t="s">
-        <v>876</v>
+        <v>899</v>
       </c>
       <c r="E44" s="21" t="s">
-        <v>877</v>
+        <v>900</v>
       </c>
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
@@ -13927,10 +14131,10 @@
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
       <c r="D45" s="30" t="s">
-        <v>878</v>
+        <v>901</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>879</v>
+        <v>902</v>
       </c>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
@@ -13985,14 +14189,14 @@
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="30"/>
       <c r="B47" s="30" t="s">
-        <v>880</v>
+        <v>903</v>
       </c>
       <c r="C47" s="30" t="s">
-        <v>881</v>
+        <v>904</v>
       </c>
       <c r="D47" s="30"/>
       <c r="E47" s="21" t="s">
-        <v>882</v>
+        <v>905</v>
       </c>
       <c r="F47" s="30"/>
       <c r="G47" s="30"/>
@@ -14022,7 +14226,7 @@
       <c r="C48" s="30"/>
       <c r="D48" s="30"/>
       <c r="E48" s="21" t="s">
-        <v>883</v>
+        <v>906</v>
       </c>
       <c r="F48" s="30"/>
       <c r="G48" s="30"/>
@@ -14052,7 +14256,7 @@
       <c r="C49" s="30"/>
       <c r="D49" s="30"/>
       <c r="E49" s="21" t="s">
-        <v>884</v>
+        <v>907</v>
       </c>
       <c r="F49" s="30"/>
       <c r="G49" s="30"/>
@@ -15089,7 +15293,7 @@
         <v>236</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>885</v>
+        <v>908</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>237</v>
@@ -15109,7 +15313,7 @@
         <v>273</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>886</v>
+        <v>909</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>210</v>
@@ -15129,7 +15333,7 @@
         <v>285</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>887</v>
+        <v>910</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>237</v>
@@ -15149,7 +15353,7 @@
         <v>432</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>888</v>
+        <v>911</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>306</v>
@@ -15166,7 +15370,7 @@
         <v>513</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>889</v>
+        <v>912</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>306</v>
@@ -15183,7 +15387,7 @@
         <v>400</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>890</v>
+        <v>913</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>306</v>
@@ -15200,7 +15404,7 @@
         <v>404</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>890</v>
+        <v>913</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>306</v>
@@ -15217,7 +15421,7 @@
         <v>413</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>891</v>
+        <v>914</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>306</v>
@@ -15225,16 +15429,16 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>892</v>
+        <v>915</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>893</v>
+        <v>916</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>894</v>
+        <v>917</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>895</v>
+        <v>918</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>306</v>
@@ -15251,7 +15455,7 @@
         <v>373</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>896</v>
+        <v>919</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>306</v>
@@ -15265,10 +15469,10 @@
         <v>436</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>897</v>
+        <v>920</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>898</v>
+        <v>921</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>306</v>
@@ -15276,16 +15480,16 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>899</v>
+        <v>922</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>900</v>
+        <v>923</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>901</v>
+        <v>924</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>902</v>
+        <v>925</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>306</v>
@@ -15293,16 +15497,16 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>903</v>
+        <v>926</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>904</v>
+        <v>927</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>905</v>
+        <v>928</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>906</v>
+        <v>929</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>306</v>
@@ -15319,7 +15523,7 @@
         <v>778</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>907</v>
+        <v>930</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>306</v>
@@ -15336,7 +15540,7 @@
         <v>746</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>908</v>
+        <v>931</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>237</v>
@@ -15356,7 +15560,7 @@
         <v>751</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>909</v>
+        <v>932</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>306</v>
@@ -15441,7 +15645,7 @@
         <v>572</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>910</v>
+        <v>933</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>237</v>
@@ -15461,7 +15665,7 @@
         <v>507</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>911</v>
+        <v>934</v>
       </c>
       <c r="E23" s="0" t="s">
         <v>237</v>
@@ -15524,16 +15728,16 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>912</v>
+        <v>935</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>913</v>
+        <v>936</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>914</v>
+        <v>937</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>915</v>
+        <v>938</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>237</v>
@@ -15544,16 +15748,16 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>916</v>
+        <v>939</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>917</v>
+        <v>940</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>918</v>
+        <v>941</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>919</v>
+        <v>942</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>237</v>
@@ -15564,22 +15768,22 @@
     </row>
     <row r="4" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>920</v>
+        <v>943</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>921</v>
+        <v>944</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>922</v>
+        <v>945</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>923</v>
+        <v>946</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>210</v>
       </c>
       <c r="F4" s="34" t="s">
-        <v>924</v>
+        <v>947</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15593,7 +15797,7 @@
         <v>481</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>925</v>
+        <v>948</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>249</v>
@@ -15604,16 +15808,16 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>926</v>
+        <v>949</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>927</v>
+        <v>950</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>928</v>
+        <v>951</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>929</v>
+        <v>952</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>306</v>
@@ -15621,19 +15825,19 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>930</v>
+        <v>953</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>931</v>
+        <v>954</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>932</v>
+        <v>955</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>933</v>
+        <v>956</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>931</v>
+        <v>954</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -15717,16 +15921,16 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>934</v>
+        <v>957</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>935</v>
+        <v>958</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>936</v>
+        <v>959</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>937</v>
+        <v>960</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>249</v>
@@ -15734,42 +15938,42 @@
     </row>
     <row r="3" customFormat="false" ht="375" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>938</v>
+        <v>961</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>939</v>
+        <v>962</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>940</v>
+        <v>963</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>941</v>
+        <v>964</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>210</v>
       </c>
       <c r="F3" s="35" t="s">
-        <v>942</v>
+        <v>965</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="209.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>943</v>
+        <v>966</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>944</v>
+        <v>967</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>945</v>
+        <v>968</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>946</v>
+        <v>969</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>210</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>947</v>
+        <v>970</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/actus-dictionary.xlsx
+++ b/actus-dictionary.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2248" uniqueCount="971">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2253" uniqueCount="972">
   <si>
     <t xml:space="preserve">The ACTUS Dictionary</t>
   </si>
@@ -3091,6 +3091,9 @@
   </si>
   <si>
     <t xml:space="preserve">The value at which principal is being repaid. This may be including or excluding of interest depending on the Contract Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of shares / notes / certificates / etc in circulation</t>
   </si>
   <si>
     <t xml:space="preserve">The timestamp at which a contingent event/obligation is exercised</t>
@@ -3619,7 +3622,7 @@
   <dimension ref="A1:AA1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5545,9 +5548,9 @@
   <dimension ref="A1:AF133"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A123" activeCellId="0" sqref="A123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15247,7 +15250,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -15529,103 +15532,103 @@
         <v>306</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>743</v>
+        <v>516</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>745</v>
+        <v>517</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>746</v>
+        <v>518</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>931</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>238</v>
+        <v>812</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>932</v>
       </c>
       <c r="E17" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="s">
+        <v>749</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>750</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>751</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>933</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>306</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="s">
-        <v>809</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>810</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>811</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>813</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>812</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>812</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>818</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>819</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>820</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>821</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>306</v>
+      <c r="A20" s="5" t="s">
+        <v>814</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>815</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>816</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>817</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>812</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>821</v>
@@ -15634,43 +15637,60 @@
         <v>306</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5" t="s">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>822</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>823</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>824</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>821</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5" t="s">
         <v>570</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B23" s="5" t="s">
         <v>571</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C23" s="5" t="s">
         <v>572</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>933</v>
-      </c>
-      <c r="E22" s="5" t="s">
+      <c r="D23" s="5" t="s">
+        <v>934</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="F22" s="0" t="s">
+      <c r="F23" s="0" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
         <v>505</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B24" s="0" t="s">
         <v>506</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C24" s="0" t="s">
         <v>507</v>
       </c>
-      <c r="D23" s="0" t="s">
-        <v>934</v>
-      </c>
-      <c r="E23" s="0" t="s">
+      <c r="D24" s="0" t="s">
+        <v>935</v>
+      </c>
+      <c r="E24" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="F23" s="0" t="s">
+      <c r="F24" s="0" t="s">
         <v>238</v>
       </c>
     </row>
@@ -15728,16 +15748,16 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>237</v>
@@ -15748,16 +15768,16 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>237</v>
@@ -15768,22 +15788,22 @@
     </row>
     <row r="4" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>210</v>
       </c>
       <c r="F4" s="34" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15797,7 +15817,7 @@
         <v>481</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>249</v>
@@ -15808,16 +15828,16 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>306</v>
@@ -15825,19 +15845,19 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="C7" s="0" t="s">
+        <v>956</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>957</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>955</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>956</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>954</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -15921,16 +15941,16 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>249</v>
@@ -15938,42 +15958,42 @@
     </row>
     <row r="3" customFormat="false" ht="375" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>210</v>
       </c>
       <c r="F3" s="35" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="209.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>210</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/actus-dictionary.xlsx
+++ b/actus-dictionary.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2253" uniqueCount="972">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2264" uniqueCount="978">
   <si>
     <t xml:space="preserve">The ACTUS Dictionary</t>
   </si>
@@ -3106,6 +3106,24 @@
   </si>
   <si>
     <t xml:space="preserve">The timestamp as per which the contract matures according to the initial terms or as per unscheduled events</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lastCouponDay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last Coupon Day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LCD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The most recent Coupon Day as per which the last Coupon Amount was fixed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Coupon Amount fixed with the last Coupon Fixing Day event and applicable to the next Coupon Payment Day event.</t>
   </si>
   <si>
     <t xml:space="preserve">eventTime</t>
@@ -5548,9 +5566,9 @@
   <dimension ref="A1:AF133"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A123" activeCellId="0" sqref="A123"/>
+      <selection pane="bottomLeft" activeCell="A133" activeCellId="0" sqref="A133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15250,10 +15268,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15692,6 +15710,43 @@
       </c>
       <c r="F24" s="0" t="s">
         <v>238</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>936</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>937</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>938</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>939</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>844</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>845</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>940</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>941</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -15748,16 +15803,16 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>936</v>
+        <v>942</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>937</v>
+        <v>943</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>938</v>
+        <v>944</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>939</v>
+        <v>945</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>237</v>
@@ -15768,16 +15823,16 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>940</v>
+        <v>946</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>941</v>
+        <v>947</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>942</v>
+        <v>948</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>943</v>
+        <v>949</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>237</v>
@@ -15788,22 +15843,22 @@
     </row>
     <row r="4" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>944</v>
+        <v>950</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>945</v>
+        <v>951</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>946</v>
+        <v>952</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>210</v>
       </c>
       <c r="F4" s="34" t="s">
-        <v>948</v>
+        <v>954</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15817,7 +15872,7 @@
         <v>481</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>949</v>
+        <v>955</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>249</v>
@@ -15828,16 +15883,16 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>950</v>
+        <v>956</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>951</v>
+        <v>957</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>952</v>
+        <v>958</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>953</v>
+        <v>959</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>306</v>
@@ -15845,19 +15900,19 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>954</v>
+        <v>960</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>955</v>
+        <v>961</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>956</v>
+        <v>962</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>957</v>
+        <v>963</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>955</v>
+        <v>961</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -15941,16 +15996,16 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>958</v>
+        <v>964</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>959</v>
+        <v>965</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>960</v>
+        <v>966</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>961</v>
+        <v>967</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>249</v>
@@ -15958,42 +16013,42 @@
     </row>
     <row r="3" customFormat="false" ht="375" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>962</v>
+        <v>968</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>963</v>
+        <v>969</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>964</v>
+        <v>970</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>965</v>
+        <v>971</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>210</v>
       </c>
       <c r="F3" s="35" t="s">
-        <v>966</v>
+        <v>972</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="209.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>967</v>
+        <v>973</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>968</v>
+        <v>974</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>969</v>
+        <v>975</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>970</v>
+        <v>976</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>210</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>971</v>
+        <v>977</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/actus-dictionary.xlsx
+++ b/actus-dictionary.xlsx
@@ -3162,7 +3162,7 @@
     <t xml:space="preserve">The type of the event. Different types have their own business logic in terms of payoff and state transition functions</t>
   </si>
   <si>
-    <t xml:space="preserve">option: 0, identifier: monitoring, name: Monitoring, acronym: AD, description: Monitoring of contract. Evaluates all contract states, sequence: 27
+    <t xml:space="preserve">option: 0, identifier: monitoring, name: Monitoring, acronym: AD, description: Monitoring of contract. Evaluates all contract states, sequence: 28
 option: 1, identifier: issueDay, name: Issue Day, acronym: ID, description: Marks the day or timestamp respectively of issuance of a contract, sequence: 1
 option: 2, identifier: initialExchange, name: Initial Exchange, acronym: IED, description: Scheduled date of initial exchange of e.g. principal value in fixed income products, sequence: 2
 option: 3, identifier: feePayment, name: Fee Payment, acronym: FP, description: Scheduled fee payments, sequence: 3
@@ -3185,10 +3185,11 @@
 option: 20, identifier: maturity, name: Maturity, acronym: MD, description: Maturity of a contract, sequence: 20
 option: 21, identifier: couponFixingDay, name: Coupon Fixing Day, acronym: CFD, description: Fixing of the coupon amount, sequence: 21 
 option: 22, identifier: couponPaymentDay, name: Coupon Payment Day, acronym: CPD, description: Payment of the coupon amount, sequence: 22
-option: 23, identifier: redemptionDay, name: Redemption Day, acronym: RD, description: Fixing of the redemption amount, sequence: 23
-option: 24, identifier: exerciseOrder, name: Exercise Order, acronym: XO, description: Submission of an exercise order for a contractual feature such as an optionality, sequence: 24
-option: 25, identifier: exerciseDay, name: Exercise Day, acronym: XD, description: Exercise of a contractual feature such as an optionality, sequence: 25
-Option: 26, identifier: settlement, name: Settlement, acronym: STD, description: Settlement of an exercised contractual claim, sequence: 26</t>
+option: 23, identifier: redemptionFixingDay, name: Redemption Fixing Day, acronym: RFD, description: Fixing of the redemption amount, sequence: 23 
+option: 24, identifier: redemptionPaymentDay, name: Redemption Payment Day, acronym: RPD, description: Payment of the redemption amount, sequence: 24
+option: 25, identifier: exerciseOrder, name: Exercise Order, acronym: XO, description: Submission of an exercise order for a contractual feature such as an optionality, sequence: 25
+option: 26, identifier: exerciseDay, name: Exercise Day, acronym: XD, description: Exercise of a contractual feature such as an optionality, sequence: 26
+Option: 27, identifier: settlement, name: Settlement, acronym: STD, description: Settlement of an exercised contractual claim, sequence: 27</t>
   </si>
   <si>
     <t xml:space="preserve">The currency in which the event payoff is scheduled</t>

--- a/actus-dictionary.xlsx
+++ b/actus-dictionary.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2264" uniqueCount="978">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2272" uniqueCount="979">
   <si>
     <t xml:space="preserve">The ACTUS Dictionary</t>
   </si>
@@ -2663,6 +2663,9 @@
     <t xml:space="preserve">cycleAnchorDateOfRedemption</t>
   </si>
   <si>
+    <t xml:space="preserve">Redemption</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cycle Anchor Date Of Redemption Day</t>
   </si>
   <si>
@@ -2844,6 +2847,18 @@
     <t xml:space="preserve">The coupon amount fixed at the most recent coupon day and due for payment.</t>
   </si>
   <si>
+    <t xml:space="preserve">lastCouponDay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last Coupon Day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LCD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The most recent Coupon Day as per which the last Coupon Amount was fixed.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Attribute Applicability Rules</t>
   </si>
   <si>
@@ -3106,18 +3121,6 @@
   </si>
   <si>
     <t xml:space="preserve">The timestamp as per which the contract matures according to the initial terms or as per unscheduled events</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lastCouponDay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Last Coupon Day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LCD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The most recent Coupon Day as per which the last Coupon Amount was fixed.</t>
   </si>
   <si>
     <t xml:space="preserve">CAF</t>
@@ -5564,12 +5567,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:AF133"/>
+  <dimension ref="A1:AF134"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A133" activeCellId="0" sqref="A133"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12336,18 +12339,18 @@
       </c>
       <c r="AC119" s="19"/>
     </row>
-    <row r="120" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="19" t="s">
         <v>788</v>
       </c>
       <c r="B120" s="19" t="s">
-        <v>616</v>
+        <v>789</v>
       </c>
       <c r="C120" s="19" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="D120" s="19" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="E120" s="19" t="s">
         <v>237</v>
@@ -12358,7 +12361,7 @@
       <c r="G120" s="19"/>
       <c r="H120" s="19"/>
       <c r="I120" s="19" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="AB120" s="0" t="s">
         <v>214</v>
@@ -12367,16 +12370,16 @@
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="19" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B121" s="19" t="s">
-        <v>616</v>
+        <v>789</v>
       </c>
       <c r="C121" s="19" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="D121" s="19" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="E121" s="19" t="s">
         <v>335</v>
@@ -12387,25 +12390,25 @@
       <c r="G121" s="19"/>
       <c r="H121" s="19"/>
       <c r="I121" s="19" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="AB121" s="0" t="s">
         <v>214</v>
       </c>
       <c r="AC121" s="19"/>
     </row>
-    <row r="122" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="19" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B122" s="19" t="s">
-        <v>616</v>
+        <v>789</v>
       </c>
       <c r="C122" s="19" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="D122" s="19" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="E122" s="19" t="s">
         <v>237</v>
@@ -12416,7 +12419,7 @@
       <c r="G122" s="19"/>
       <c r="H122" s="19"/>
       <c r="I122" s="19" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="AB122" s="0" t="s">
         <v>214</v>
@@ -12425,16 +12428,16 @@
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="19" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B123" s="19" t="s">
-        <v>616</v>
+        <v>789</v>
       </c>
       <c r="C123" s="19" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="D123" s="19" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="E123" s="19" t="s">
         <v>335</v>
@@ -12445,7 +12448,7 @@
       <c r="G123" s="19"/>
       <c r="H123" s="19"/>
       <c r="I123" s="19" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="AB123" s="0" t="s">
         <v>214</v>
@@ -12454,16 +12457,16 @@
     </row>
     <row r="124" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="19" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B124" s="19" t="s">
-        <v>744</v>
+        <v>789</v>
       </c>
       <c r="C124" s="19" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="D124" s="19" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="E124" s="19" t="s">
         <v>290</v>
@@ -12472,32 +12475,32 @@
         <v>291</v>
       </c>
       <c r="G124" s="19" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="H124" s="19"/>
       <c r="I124" s="19" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="AB124" s="0" t="s">
         <v>214</v>
       </c>
       <c r="AC124" s="19"/>
     </row>
-    <row r="125" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="19" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B125" s="19" t="s">
-        <v>744</v>
+        <v>789</v>
       </c>
       <c r="C125" s="19" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="D125" s="19" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="E125" s="19" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="F125" s="19"/>
       <c r="G125" s="19" t="n">
@@ -12505,7 +12508,7 @@
       </c>
       <c r="H125" s="19"/>
       <c r="I125" s="19" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="J125" s="19"/>
       <c r="K125" s="19"/>
@@ -12535,19 +12538,19 @@
     </row>
     <row r="126" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="19" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B126" s="19" t="s">
-        <v>744</v>
+        <v>789</v>
       </c>
       <c r="C126" s="19" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="D126" s="19" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="E126" s="19" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="F126" s="19"/>
       <c r="G126" s="19" t="n">
@@ -12555,7 +12558,7 @@
       </c>
       <c r="H126" s="19"/>
       <c r="I126" s="19" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="J126" s="19"/>
       <c r="K126" s="19"/>
@@ -12585,16 +12588,16 @@
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>744</v>
+        <v>789</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="E127" s="0" t="s">
         <v>306</v>
@@ -12603,7 +12606,7 @@
         <v>1</v>
       </c>
       <c r="I127" s="0" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="AB127" s="0" t="s">
         <v>214</v>
@@ -12611,16 +12614,16 @@
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>744</v>
+        <v>789</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="D128" s="0" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="E128" s="0" t="s">
         <v>306</v>
@@ -12629,7 +12632,7 @@
         <v>1</v>
       </c>
       <c r="I128" s="0" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="AB128" s="0" t="s">
         <v>214</v>
@@ -12637,16 +12640,16 @@
     </row>
     <row r="129" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="D129" s="0" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="E129" s="0" t="s">
         <v>237</v>
@@ -12655,7 +12658,7 @@
         <v>238</v>
       </c>
       <c r="I129" s="19" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="AB129" s="19" t="s">
         <v>338</v>
@@ -12663,16 +12666,16 @@
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="D130" s="0" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="E130" s="0" t="s">
         <v>335</v>
@@ -12681,7 +12684,7 @@
         <v>336</v>
       </c>
       <c r="I130" s="19" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="AB130" s="19" t="s">
         <v>338</v>
@@ -12689,28 +12692,28 @@
     </row>
     <row r="131" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="D131" s="0" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="E131" s="0" t="s">
         <v>210</v>
       </c>
       <c r="F131" s="19" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="G131" s="0" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="I131" s="0" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="AB131" s="19" t="s">
         <v>452</v>
@@ -12718,16 +12721,16 @@
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="D132" s="0" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="E132" s="0" t="s">
         <v>306</v>
@@ -12736,7 +12739,7 @@
         <v>0</v>
       </c>
       <c r="I132" s="0" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="AB132" s="19" t="s">
         <v>331</v>
@@ -12744,16 +12747,16 @@
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="D133" s="0" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="E133" s="0" t="s">
         <v>306</v>
@@ -12762,9 +12765,35 @@
         <v>0</v>
       </c>
       <c r="I133" s="0" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="AB133" s="19" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="0" t="s">
+        <v>849</v>
+      </c>
+      <c r="B134" s="0" t="s">
+        <v>827</v>
+      </c>
+      <c r="C134" s="0" t="s">
+        <v>850</v>
+      </c>
+      <c r="D134" s="0" t="s">
+        <v>851</v>
+      </c>
+      <c r="E134" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="F134" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="I134" s="0" t="s">
+        <v>852</v>
+      </c>
+      <c r="AB134" s="19" t="s">
         <v>338</v>
       </c>
     </row>
@@ -12835,7 +12864,7 @@
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="10"/>
       <c r="B2" s="30" t="s">
-        <v>848</v>
+        <v>853</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -12893,7 +12922,7 @@
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="30"/>
       <c r="B4" s="30" t="s">
-        <v>849</v>
+        <v>854</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -12951,10 +12980,10 @@
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="30"/>
       <c r="B6" s="30" t="s">
-        <v>850</v>
+        <v>855</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>851</v>
+        <v>856</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="30"/>
@@ -12984,7 +13013,7 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="30" t="s">
-        <v>852</v>
+        <v>857</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
@@ -13041,10 +13070,10 @@
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="30"/>
       <c r="B9" s="30" t="s">
-        <v>853</v>
+        <v>858</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="30"/>
@@ -13074,11 +13103,11 @@
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="30" t="s">
-        <v>855</v>
+        <v>860</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="30" t="s">
-        <v>856</v>
+        <v>861</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
@@ -13133,12 +13162,12 @@
     <row r="12" customFormat="false" ht="118.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="10"/>
       <c r="B12" s="30" t="s">
-        <v>857</v>
+        <v>862</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="21" t="s">
-        <v>858</v>
+        <v>863</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
@@ -13193,14 +13222,14 @@
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="10"/>
       <c r="B14" s="30" t="s">
-        <v>859</v>
+        <v>864</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>860</v>
+        <v>865</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="21" t="s">
-        <v>861</v>
+        <v>866</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
@@ -13257,10 +13286,10 @@
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="30" t="s">
-        <v>862</v>
+        <v>867</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>863</v>
+        <v>868</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
@@ -13289,10 +13318,10 @@
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="30" t="s">
-        <v>864</v>
+        <v>869</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>865</v>
+        <v>870</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
@@ -13321,10 +13350,10 @@
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="30" t="s">
-        <v>866</v>
+        <v>871</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>867</v>
+        <v>872</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
@@ -13380,11 +13409,11 @@
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="30" t="s">
-        <v>868</v>
+        <v>873</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="21" t="s">
-        <v>869</v>
+        <v>874</v>
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
@@ -13441,10 +13470,10 @@
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="30" t="s">
-        <v>862</v>
+        <v>867</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>870</v>
+        <v>875</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
@@ -13473,10 +13502,10 @@
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="30" t="s">
-        <v>871</v>
+        <v>876</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
@@ -13532,11 +13561,11 @@
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="30" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="21" t="s">
-        <v>874</v>
+        <v>879</v>
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
@@ -13593,10 +13622,10 @@
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
       <c r="D27" s="31" t="s">
-        <v>875</v>
+        <v>880</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>876</v>
+        <v>881</v>
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
@@ -13625,10 +13654,10 @@
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="31" t="s">
-        <v>877</v>
+        <v>882</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>878</v>
+        <v>883</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
@@ -13657,10 +13686,10 @@
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="31" t="s">
-        <v>879</v>
+        <v>884</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>880</v>
+        <v>885</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
@@ -13689,10 +13718,10 @@
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="31" t="s">
-        <v>881</v>
+        <v>886</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>882</v>
+        <v>887</v>
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
@@ -13721,10 +13750,10 @@
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
       <c r="D31" s="31" t="s">
-        <v>883</v>
+        <v>888</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>884</v>
+        <v>889</v>
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
@@ -13780,11 +13809,11 @@
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="30" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="D33" s="10"/>
       <c r="E33" s="21" t="s">
-        <v>886</v>
+        <v>891</v>
       </c>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
@@ -13841,10 +13870,10 @@
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="30" t="s">
-        <v>862</v>
+        <v>867</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
@@ -13873,10 +13902,10 @@
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="D36" s="30" t="s">
-        <v>888</v>
+        <v>893</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>889</v>
+        <v>894</v>
       </c>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
@@ -13905,10 +13934,10 @@
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
       <c r="D37" s="30" t="s">
-        <v>890</v>
+        <v>895</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>891</v>
+        <v>896</v>
       </c>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
@@ -13937,10 +13966,10 @@
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
       <c r="D38" s="30" t="s">
-        <v>892</v>
+        <v>897</v>
       </c>
       <c r="E38" s="21" t="s">
-        <v>893</v>
+        <v>898</v>
       </c>
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
@@ -13969,10 +13998,10 @@
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
       <c r="D39" s="30" t="s">
-        <v>894</v>
+        <v>899</v>
       </c>
       <c r="E39" s="21" t="s">
-        <v>895</v>
+        <v>900</v>
       </c>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
@@ -14028,11 +14057,11 @@
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10" t="s">
-        <v>896</v>
+        <v>901</v>
       </c>
       <c r="D41" s="10"/>
       <c r="E41" s="21" t="s">
-        <v>897</v>
+        <v>902</v>
       </c>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
@@ -14089,10 +14118,10 @@
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
       <c r="D43" s="30" t="s">
-        <v>862</v>
+        <v>867</v>
       </c>
       <c r="E43" s="30" t="s">
-        <v>898</v>
+        <v>903</v>
       </c>
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
@@ -14121,10 +14150,10 @@
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
       <c r="D44" s="31" t="s">
-        <v>899</v>
+        <v>904</v>
       </c>
       <c r="E44" s="21" t="s">
-        <v>900</v>
+        <v>905</v>
       </c>
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
@@ -14153,10 +14182,10 @@
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
       <c r="D45" s="30" t="s">
-        <v>901</v>
+        <v>906</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>902</v>
+        <v>907</v>
       </c>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
@@ -14211,14 +14240,14 @@
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="30"/>
       <c r="B47" s="30" t="s">
-        <v>903</v>
+        <v>908</v>
       </c>
       <c r="C47" s="30" t="s">
-        <v>904</v>
+        <v>909</v>
       </c>
       <c r="D47" s="30"/>
       <c r="E47" s="21" t="s">
-        <v>905</v>
+        <v>910</v>
       </c>
       <c r="F47" s="30"/>
       <c r="G47" s="30"/>
@@ -14248,7 +14277,7 @@
       <c r="C48" s="30"/>
       <c r="D48" s="30"/>
       <c r="E48" s="21" t="s">
-        <v>906</v>
+        <v>911</v>
       </c>
       <c r="F48" s="30"/>
       <c r="G48" s="30"/>
@@ -14278,7 +14307,7 @@
       <c r="C49" s="30"/>
       <c r="D49" s="30"/>
       <c r="E49" s="21" t="s">
-        <v>907</v>
+        <v>912</v>
       </c>
       <c r="F49" s="30"/>
       <c r="G49" s="30"/>
@@ -15272,7 +15301,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
+      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15315,7 +15344,7 @@
         <v>236</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>908</v>
+        <v>913</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>237</v>
@@ -15335,7 +15364,7 @@
         <v>273</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>909</v>
+        <v>914</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>210</v>
@@ -15355,7 +15384,7 @@
         <v>285</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>910</v>
+        <v>915</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>237</v>
@@ -15375,7 +15404,7 @@
         <v>432</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>911</v>
+        <v>916</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>306</v>
@@ -15392,7 +15421,7 @@
         <v>513</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>912</v>
+        <v>917</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>306</v>
@@ -15409,7 +15438,7 @@
         <v>400</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>913</v>
+        <v>918</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>306</v>
@@ -15426,7 +15455,7 @@
         <v>404</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>913</v>
+        <v>918</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>306</v>
@@ -15443,7 +15472,7 @@
         <v>413</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>914</v>
+        <v>919</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>306</v>
@@ -15451,16 +15480,16 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>915</v>
+        <v>920</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>916</v>
+        <v>921</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>917</v>
+        <v>922</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>918</v>
+        <v>923</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>306</v>
@@ -15477,7 +15506,7 @@
         <v>373</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>919</v>
+        <v>924</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>306</v>
@@ -15491,10 +15520,10 @@
         <v>436</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>920</v>
+        <v>925</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>921</v>
+        <v>926</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>306</v>
@@ -15502,16 +15531,16 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>922</v>
+        <v>927</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>923</v>
+        <v>928</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>924</v>
+        <v>929</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>925</v>
+        <v>930</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>306</v>
@@ -15519,16 +15548,16 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>926</v>
+        <v>931</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>927</v>
+        <v>932</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>928</v>
+        <v>933</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>929</v>
+        <v>934</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>306</v>
@@ -15545,7 +15574,7 @@
         <v>778</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>930</v>
+        <v>935</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>306</v>
@@ -15562,10 +15591,10 @@
         <v>518</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>931</v>
+        <v>936</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15579,7 +15608,7 @@
         <v>746</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>932</v>
+        <v>937</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>237</v>
@@ -15599,7 +15628,7 @@
         <v>751</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>933</v>
+        <v>938</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>306</v>
@@ -15607,50 +15636,50 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="D19" s="5" t="s">
+        <v>814</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>813</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>812</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>306</v>
@@ -15658,16 +15687,16 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
+        <v>823</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>824</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>825</v>
+      </c>
+      <c r="D22" s="0" t="s">
         <v>822</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>823</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>824</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>821</v>
       </c>
       <c r="E22" s="0" t="s">
         <v>306</v>
@@ -15684,7 +15713,7 @@
         <v>572</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>934</v>
+        <v>939</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>237</v>
@@ -15704,7 +15733,7 @@
         <v>507</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>935</v>
+        <v>940</v>
       </c>
       <c r="E24" s="0" t="s">
         <v>237</v>
@@ -15715,16 +15744,16 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>936</v>
+        <v>849</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>937</v>
+        <v>850</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>938</v>
+        <v>851</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>939</v>
+        <v>852</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>237</v>
@@ -15735,16 +15764,16 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="E26" s="0" t="s">
         <v>306</v>
@@ -15804,16 +15833,16 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>237</v>
@@ -15824,16 +15853,16 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>237</v>
@@ -15844,22 +15873,22 @@
     </row>
     <row r="4" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>210</v>
       </c>
       <c r="F4" s="34" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15873,7 +15902,7 @@
         <v>481</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>249</v>
@@ -15884,16 +15913,16 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>306</v>
@@ -15901,19 +15930,19 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="C7" s="0" t="s">
+        <v>963</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>964</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>962</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>963</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>961</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -15997,16 +16026,16 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>249</v>
@@ -16014,42 +16043,42 @@
     </row>
     <row r="3" customFormat="false" ht="375" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>210</v>
       </c>
       <c r="F3" s="35" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="209.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>210</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/actus-dictionary.xlsx
+++ b/actus-dictionary.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" state="visible" r:id="rId2"/>
@@ -2488,10 +2488,10 @@
     <t xml:space="preserve">Fixing Period</t>
   </si>
   <si>
-    <t xml:space="preserve">RRFIX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interest rate resets (adjustments) are usually fixed one or two days (usually Business Days) before the new rate applies (defined by the rate reset schedule). This field holds the period between fixing and application of a rate.</t>
+    <t xml:space="preserve">FIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adjustments of external data points (variable rates, redemption amounts, etc.) are usually fixed one or two days (usually Business Days) before they are applied (the fixing day). This field holds the period between fixing and application of a data point.</t>
   </si>
   <si>
     <t xml:space="preserve">nextResetRate</t>
@@ -3643,7 +3643,7 @@
   </sheetPr>
   <dimension ref="A1:AA1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -5569,7 +5569,7 @@
   </sheetPr>
   <dimension ref="A1:AF134"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>

--- a/actus-dictionary.xlsx
+++ b/actus-dictionary.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" state="visible" r:id="rId2"/>
@@ -774,7 +774,8 @@
 option: 14, identifier: future, name: Future, acronym: FUTUR, description: An agreement of exchanging an underlying instrument against a fixed price in the future. 
 option: 15, identifier: option, name: Option, acronym: OPTNS, description: Different types of options on buying an underlying instrument at a fixed price in the future. 
 option: 16, identifier: creditEnhancementGuarantee, name: Credit Enhancement Guarantee, acronym: CEG, description: A guarantee / letter of credit by a third party on the scheduled payment obligations of an underlying instrument 
-option: 17, identifier: creditEnhancementCollateral, name: Credit Enhancement Collateral, acronym: CEC, description: A collateral securing the scheduled payment obligations of an underlying instrument</t>
+option: 17, identifier: creditEnhancementCollateral, name: Credit Enhancement Collateral, acronym: CEC, description: A collateral securing the scheduled payment obligations of an underlying instrument
+option: 18, identifier: certificate, name: Certificate, acronym: CERTF, description: A certificate letting the buyer participate in the performance of an underlying instrument. Often comes with specific rights of redemption, termination, and also special features on the payoff.</t>
   </si>
   <si>
     <t xml:space="preserve">The ContractType is the most important information. It defines the cash flow generating pattern of a contract. The ContractType information in combination with a given state of the risk factors will produce a deterministic sequence of cash flows which are the basis of any financial analysis.</t>
@@ -3643,7 +3644,7 @@
   </sheetPr>
   <dimension ref="A1:AA1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -5569,7 +5570,7 @@
   </sheetPr>
   <dimension ref="A1:AF134"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>

--- a/actus-dictionary.xlsx
+++ b/actus-dictionary.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" state="visible" r:id="rId2"/>
@@ -3189,7 +3189,7 @@
 option: 20, identifier: maturity, name: Maturity, acronym: MD, description: Maturity of a contract, sequence: 20
 option: 21, identifier: couponFixingDay, name: Coupon Fixing Day, acronym: CFD, description: Fixing of the coupon amount, sequence: 21 
 option: 22, identifier: couponPaymentDay, name: Coupon Payment Day, acronym: CPD, description: Payment of the coupon amount, sequence: 22
-option: 23, identifier: redemptionFixingDay, name: Redemption Fixing Day, acronym: RFD, description: Fixing of the redemption amount, sequence: 23 
+option: 23, identifier: redemptionFixingDay, name: Redemption Fixing Day, acronym: RFD, description: Fixing of the redemption amount, sequence: 23
 option: 24, identifier: redemptionPaymentDay, name: Redemption Payment Day, acronym: RPD, description: Payment of the redemption amount, sequence: 24
 option: 25, identifier: exerciseOrder, name: Exercise Order, acronym: XO, description: Submission of an exercise order for a contractual feature such as an optionality, sequence: 25
 option: 26, identifier: exerciseDay, name: Exercise Day, acronym: XD, description: Exercise of a contractual feature such as an optionality, sequence: 26
@@ -3644,7 +3644,7 @@
   </sheetPr>
   <dimension ref="A1:AA1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -15798,8 +15798,8 @@
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/actus-dictionary.xlsx
+++ b/actus-dictionary.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" state="visible" r:id="rId2"/>
@@ -775,7 +775,7 @@
 option: 15, identifier: option, name: Option, acronym: OPTNS, description: Different types of options on buying an underlying instrument at a fixed price in the future. 
 option: 16, identifier: creditEnhancementGuarantee, name: Credit Enhancement Guarantee, acronym: CEG, description: A guarantee / letter of credit by a third party on the scheduled payment obligations of an underlying instrument 
 option: 17, identifier: creditEnhancementCollateral, name: Credit Enhancement Collateral, acronym: CEC, description: A collateral securing the scheduled payment obligations of an underlying instrument
-option: 18, identifier: certificate, name: Certificate, acronym: CERTF, description: A certificate letting the buyer participate in the performance of an underlying instrument. Often comes with specific rights of redemption, termination, and also special features on the payoff.</t>
+option: 18, identifier: certificate, name: Certificate, acronym: CERTF, description: A certificate letting the buyer participate in the performance of an underlying instrument. Often comes with specific rights of redemption and termination and also special features on the payoff.</t>
   </si>
   <si>
     <t xml:space="preserve">The ContractType is the most important information. It defines the cash flow generating pattern of a contract. The ContractType information in combination with a given state of the risk factors will produce a deterministic sequence of cash flows which are the basis of any financial analysis.</t>
@@ -3644,7 +3644,7 @@
   </sheetPr>
   <dimension ref="A1:AA1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -15798,7 +15798,7 @@
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>

--- a/actus-dictionary.xlsx
+++ b/actus-dictionary.xlsx
@@ -3025,7 +3025,7 @@
     <t xml:space="preserve">Last Dividend Declaration Date</t>
   </si>
   <si>
-    <t xml:space="preserve">DDLD</t>
+    <t xml:space="preserve">DLDD</t>
   </si>
   <si>
     <t xml:space="preserve">The timestamp of the last DDD event.</t>
@@ -5505,9 +5505,9 @@
   <dimension ref="A1:AC130"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
+      <selection pane="bottomLeft" activeCell="A70" activeCellId="0" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/actus-dictionary.xlsx
+++ b/actus-dictionary.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2426" uniqueCount="1043">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2425" uniqueCount="1045">
   <si>
     <t xml:space="preserve">The ACTUS Dictionary</t>
   </si>
@@ -1101,7 +1101,7 @@
     <t xml:space="preserve">Cycle Anchor Date Of Dividend</t>
   </si>
   <si>
-    <t xml:space="preserve">DVANX</t>
+    <t xml:space="preserve">DANX</t>
   </si>
   <si>
     <t xml:space="preserve">Date from which the dividend payment date schedule is calculated according to the cycle length. The first dividend payment event takes place on this anchor.</t>
@@ -1116,7 +1116,7 @@
     <t xml:space="preserve">Cycle Of Dividend</t>
   </si>
   <si>
-    <t xml:space="preserve">DVCL</t>
+    <t xml:space="preserve">DCL</t>
   </si>
   <si>
     <t xml:space="preserve">Cycle</t>
@@ -1198,6 +1198,18 @@
   </si>
   <si>
     <t xml:space="preserve">The period according to which the Dividend Payment Date is scheduled. More specifically, the Dividend Payment Date is scheduled at Dividend Declaration Date, the time at which a dividend event is announced, plus DPP.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lastDividendFixingDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last Dividend Fixing Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LDFD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The timestamp of the last DF event.</t>
   </si>
   <si>
     <t xml:space="preserve">cycleAnchorDateOfFee</t>
@@ -1805,22 +1817,16 @@
     <t xml:space="preserve">The physical unit of the contract. Example: Barrels for an Oil COM CT.</t>
   </si>
   <si>
-    <t xml:space="preserve">splitRecordPeriod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Split Record Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">splitExDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Split Ex Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SED</t>
+    <t xml:space="preserve">splitSettlementPeriod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Split Settlement Period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The period according to which stock splits are scheduled.</t>
   </si>
   <si>
     <t xml:space="preserve">splitRatio</t>
@@ -1830,6 +1836,9 @@
   </si>
   <si>
     <t xml:space="preserve">SRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The ratio according to which a stock split is executed.</t>
   </si>
   <si>
     <t xml:space="preserve">cycleAnchorDateOfPrincipalRedemption</t>
@@ -2096,6 +2105,9 @@
     <t xml:space="preserve">SCMO</t>
   </si>
   <si>
+    <t xml:space="preserve">The identifier of the market object used to update the scaling index variable.</t>
+  </si>
+  <si>
     <t xml:space="preserve">NN(7,1,)</t>
   </si>
   <si>
@@ -2106,6 +2118,9 @@
   </si>
   <si>
     <t xml:space="preserve">SCIED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The current value of the scaling index as per last scaling index fixing event (SC).</t>
   </si>
   <si>
     <t xml:space="preserve">cycleAnchorDateOfScalingIndex</t>
@@ -2988,10 +3003,10 @@
     <t xml:space="preserve">The coupon amount fixed at the most recent coupon day and due for payment.</t>
   </si>
   <si>
-    <t xml:space="preserve">lastCouponDay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Last Coupon Day</t>
+    <t xml:space="preserve">lastCouponFixingDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last Coupon Fixing Date</t>
   </si>
   <si>
     <t xml:space="preserve">LCD</t>
@@ -3264,45 +3279,36 @@
     <t xml:space="preserve">The timestamp as per which the contract matures according to the initial terms or as per unscheduled events</t>
   </si>
   <si>
+    <t xml:space="preserve">LCFD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The timestamp of the last CF event.</t>
+  </si>
+  <si>
     <t xml:space="preserve">CAF</t>
   </si>
   <si>
     <t xml:space="preserve">The Coupon Amount fixed with the last Coupon Fixing Day event and applicable to the next Coupon Payment Day event.</t>
   </si>
   <si>
-    <t xml:space="preserve">lastDividendDeclarationDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Last Dividend Declaration Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DLDD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The timestamp of the last DDD event.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dividendDeclarationDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dividend Declaration Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DDD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The timestamp of the next DDD event (if scheduled).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The timestamp of the next DPD event (if scheduled).</t>
+    <t xml:space="preserve">dividendFixingDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dividend Fixing Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DFD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The timestamp of the next DF event (if scheduled).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The timestamp of the next DP event (if scheduled).</t>
   </si>
   <si>
     <t xml:space="preserve">The amount of the next dividend payment (if fixed).</t>
   </si>
   <si>
-    <t xml:space="preserve">The timestamp of the next SED event (if scheduled).</t>
-  </si>
-  <si>
     <t xml:space="preserve">splitSettlementDate</t>
   </si>
   <si>
@@ -3318,10 +3324,10 @@
     <t xml:space="preserve">The ratio of the next stock split (if scheduled).</t>
   </si>
   <si>
-    <t xml:space="preserve">The timestamp of the next RED event (if scheduled).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The timestamp of the next RPD event (if scheduled).</t>
+    <t xml:space="preserve">The timestamp of the next RE event (if scheduled).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The timestamp of the next RP event (if scheduled).</t>
   </si>
   <si>
     <t xml:space="preserve">eventTime</t>
@@ -3368,20 +3374,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">option: 0, identifier: monitoring, name: Monitoring, acronym: AD, description: Monitoring of contract. Evaluates all contract states, sequence: 28
-option: 1, identifier: issueDay, name: Issue Day, acronym: ID, description: Marks the day or timestamp respectively of issuance of a contract, sequence: 1
-option: 2, identifier: initialExchange, name: Initial Exchange, acronym: IED, description: Scheduled date of initial exchange of e.g. principal value in fixed income products, sequence: 2
-option: 3, identifier: feePayment, name: Fee Payment, acronym: FP, description: Scheduled fee payments, sequence: 3
-option: 4, identifier: principalRedemption, name: Principal Redemption, acronym: PR, description: Scheduled principal redemption payment, sequence: 4
-option: 5, identifier: principalDrawing, name: Principal Drawing, acronym: PD, description: Drawing of principal amount e.g. in a credit line, sequence: 5
-option: 6, identifier: principalPaymentAmountFixing, name: Principal Payment Amount Fixing, acronym: PRF, description: Scheduled fixing of principal payment amount, sequence: 6
-option: 7, identifier: penalytPayment, name: Penalty Payment, acronym: PY, description: Scheduled payment of a penalty, sequence: 7
-option: 8, identifier: principalPrepayment, name: Principal Prepayment, acronym: PP, description: Unscheduled early repayment of principal, sequence: 8
-option: 9, identifier: interestPayment, name: Interest Payment, acronym: IP, description: Scheduled interest payment, sequence: 9
-option: 10, identifier: interestCapitalization, name: Interest Capitalization, acronym: IPCI, description: Scheduled capitalization of accrued interest, sequence: 10
-option: 11, identifier: creditEvent, name: Credit Event, acronym: CE, description: Credit event of counterparty to a contract, sequence: 11
-option: 12, identifier: rateResetFixed, name: Rate Reset Fixing with Known Rate, acronym: RRF, description: Scheduled fixing of variable rate with known new rate, sequence: 12
-option: 13, identifier: rateResetVariable, name: Rate Reset Fixing with Unknown Rate, acronym: RR, description: Scheduled fixing of variable rate with unknown new rate, sequence: 13
+      <t xml:space="preserve">option: 0, identifier: monitoring, name: Monitoring, acronym: AD, description: Monitoring of contract. Evaluates all contract states, sequence: 33
 </t>
     </r>
     <r>
@@ -3391,9 +3384,7 @@
         <rFont val="Arial"/>
         <family val="0"/>
       </rPr>
-      <t xml:space="preserve">option: 14, identifier: dividendDeclarationDate, name: Dividend Declaration Date, acronym: DDD, description: Declaration of a dividend payment, sequence: 14
-option: 15, identifier: dividendExDate, name: Dividend Ex Date, acronym: DED, description: Date from which new shareholders are not considered for the next dividend distribution, sequence: 15
-option: 16, identifier: dividendPaymentDate, name: Dividend Payment Date, acronym: DPD, description: Date at which next dividend is distributed to shareholders, sequence: 16
+      <t xml:space="preserve">option: 1, identifier: creditEvent, name: Credit Event, acronym: CE, description: Credit event of counterparty to a contract, sequence: 1
 </t>
     </r>
     <r>
@@ -3404,19 +3395,8 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">option: 17, identifier: purchase, name: Purchase, acronym: PRD, description: Purchase of a contract, sequence: 17
-option: 18, identifier: marginCall, name: Margin Call, acronym: MR, description: Scheduled margin call, sequence: 18
-option: 19, identifier: termination, name: Termination, acronym: TD, description: Termination of a contract, sequence: 19
-option: 20, identifier: scalingIndexFixing, name: Scaling Index Fixing, acronym: SC, description: Scheduled fixing of a scaling index, sequence: 20
-option: 21, identifier: interestCalculationBaseFixing, name: Interest Calculation Base Fixing, acronym: IPCB, description: Scheduled fixing of the interest calculation base, sequence: 21
-option: 22, identifier: maturity, name: Maturity, acronym: MD, description: Maturity of a contract, sequence: 22
-option: 23, identifier: couponFixingDay, name: Coupon Fixing Day, acronym: CFD, description: Fixing of the coupon amount, sequence: 23
-option: 24, identifier: couponPaymentDay, name: Coupon Payment Day, acronym: CPD, description: Payment of the coupon amount, sequence: 24
-option: 25, identifier: redemptionFixingDay, name: Redemption Fixing Day, acronym: RFD, description: Fixing of the redemption amount, sequence: 25
-option: 26, identifier: redemptionPaymentDay, name: Redemption Payment Day, acronym: RPD, description: Payment of the redemption amount, sequence: 26
-option: 27, identifier: exerciseOrder, name: Exercise Order, acronym: XO, description: Submission of an exercise order for a contractual feature such as an optionality, sequence: 27
-option: 28, identifier: exerciseDay, name: Exercise Day, acronym: XD, description: Exercise of a contractual feature such as an optionality, sequence: 28
-option: 29, identifier: settlement, name: Settlement, acronym: STD, description: Settlement of an exercised contractual claim, sequence: 29
+      <t xml:space="preserve">option: 2, identifier: issue, name: Issue, acronym: IS, description: Marks the date or timestamp respectively of issuance of a contract, sequence: 2
+option: 3, identifier: initialExchange, name: Initial Exchange, acronym: IED, description: Scheduled date of initial exchange of e.g. principal value in fixed income products, sequence: 3
 </t>
     </r>
     <r>
@@ -3426,12 +3406,74 @@
         <rFont val="Arial"/>
         <family val="0"/>
       </rPr>
-      <t xml:space="preserve">option: 30, identifier: splitDeclarationDate, name: Split Declaration Date, acronym: SDD, description: Declaration of a stock split or reverse split, sequence: 30
-option: 31, identifier: splitExDate, name: Split Ex Date, acronym: SED, description: Date at which stock split is initiated, sequence: 31
-option: 32, identifier: splitSettlementDate, name: Split Settlement Date, acronym: SSD, description: Date at which stock split is settled or settlement is finalized, sequence: 32
-option: 33, identifier: redemptionDeclarationDate, name: Redemption Declaration Date, acronym: RDD, description: Declaration of the redemption of units of an instrument by the initiating party, sequence: 33
-option: 34, identifier: redemptionExDate, name: Redemption Ex Date, acronym: RED, description: Date from which new holders are not considered for next redemption, sequence: 34
-option: 35, identifier: redemptionPaymentDate, name: Redemption Payment Date, acronym: RPD, description: Date at which redemption is settled by paying the Redemption Price against returning respective units of instrument, sequence: 35</t>
+      <t xml:space="preserve">option: 4, identifier: purchase, name: Purchase, acronym: PRD, description: Purchase of a contract, sequence: 4
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">option: 5, identifier: feePayment, name: Fee Payment, acronym: FP, description: Scheduled fee payments, sequence: 5
+option: 6, identifier: principalRedemption, name: Principal Redemption, acronym: PR, description: Scheduled principal redemption payment, sequence: 6
+option: 7, identifier: principalDrawing, name: Principal Drawing, acronym: PD, description: Drawing of principal amount e.g. in a credit line, sequence: 7
+option: 8, identifier: penaltyPayment, name: Penalty Payment, acronym: PY, description: Scheduled payment of a penalty, sequence: 8
+option: 9, identifier: principalPrepayment, name: Principal Prepayment, acronym: PP, description: Unscheduled early repayment of principal, sequence: 9
+option: 10, identifier: interestPayment, name: Interest Payment, acronym: IP, description: Scheduled interest payment, sequence: 10
+option: 11, identifier: interestCapitalization, name: Interest Capitalization, acronym: IPCI, description: Scheduled capitalization of accrued interest, sequence: 11
+option: 12, identifier: rateResetFixed, name: Rate Reset Fixing with Known Rate, acronym: RRF, description: Scheduled fixing of variable rate with known new rate, sequence: 12
+option: 13, identifier: rateResetVariable, name: Rate Reset Fixing with Unknown Rate, acronym: RR, description: Scheduled fixing of variable rate with unknown new rate, sequence: 13
+option: 14, identifier: dividendFixing, name: Dividend Fixing, acronym: DF, description: Declaration of a dividend payment, sequence: 14
+option: 15, identifier: dividendEx, name: Dividend Ex, acronym: DE, description: Date from which new shareholders are not considered for the next dividend distribution, sequence: 15
+option: 16, identifier: dividendPayment, name: Dividend Payment, acronym: DP, description: Date at which next dividend is distributed to shareholders, sequence: 16
+option: 17, identifier: couponFixing, name: Coupon Fixing, acronym: CF, description: Fixing of the coupon amount, sequence: 17
+option: 18, identifier: couponPayment, name: Coupon Payment, acronym: CP, description: Payment of the coupon amount, sequence: 18
+option: 19, identifier: redemptionFixing, name: Redemption Fixing, acronym: RF, description: Fixing of the redemption amount, sequence: 19
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">option: 20, identifier: redemptionEx, name: Redemption Ex, acronym: RE, description: Date from which new holders are not considered for next redemption, sequence: 20
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">option: 21, identifier: redemptionPayment, name: Redemption Payment, acronym: RP, description: Payment of the redemption amount, sequence: 21
+option: 22, identifier: splitDeclaration, name: Split Declaration, acronym: SD, description: Declaration of a stock split or reverse split, sequence: 22
+option: 23, identifier: splitSettlement, name: Split Settlement, acronym: SE, description: Date at which stock split is settled or settlement is finalized, sequence: 23
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">option: 24, identifier: exerciseOrder, name: Exercise Order, acronym: XO, description: Submission of an exercise order for a contractual feature such as an optionality, sequence: 24
+option: 25, identifier: exercise, name: Exercise, acronym: XE, description: Exercise of a contractual feature such as an optionality, sequence: 25
+option: 26, identifier: settlement, name: Settlement, acronym: ST, description: Settlement of an exercised contractual claim, sequence: 26
+option: 27, identifier: scalingIndexFixing, name: Scaling Index Fixing, acronym: SC, description: Scheduled fixing of a scaling index, sequence: 27
+option: 28, identifier: interestCalculationBaseFixing, name: Interest Calculation Base Fixing, acronym: IPCB, description: Scheduled fixing of the interest calculation base, sequence: 28
+option: 29, identifier: principalPaymentAmountFixing, name: Principal Payment Amount Fixing, acronym: PRF, description: Scheduled fixing of principal payment amount, sequence: 29
+option: 30, identifier: marginCall, name: Margin Call, acronym: MC, description: Scheduled margin call, sequence: 30
+option: 31, identifier: termination, name: Termination, acronym: TD, description: Termination of a contract, sequence: 31
+option: 32, identifier: maturity, name: Maturity, acronym: MD, description: Maturity of a contract, sequence: 32
+</t>
     </r>
   </si>
   <si>
@@ -7762,13 +7804,13 @@
         <v>362</v>
       </c>
       <c r="B30" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="C30" s="19" t="s">
         <v>363</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="D30" s="19" t="s">
         <v>364</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>365</v>
       </c>
       <c r="E30" s="19" t="s">
         <v>237</v>
@@ -7779,35 +7821,21 @@
       <c r="G30" s="20"/>
       <c r="H30" s="22"/>
       <c r="I30" s="19" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J30" s="22"/>
-      <c r="K30" s="19" t="s">
-        <v>367</v>
-      </c>
-      <c r="L30" s="19" t="s">
-        <v>367</v>
-      </c>
-      <c r="M30" s="19" t="s">
-        <v>367</v>
-      </c>
-      <c r="N30" s="19" t="s">
-        <v>367</v>
-      </c>
-      <c r="O30" s="19" t="s">
-        <v>367</v>
-      </c>
-      <c r="P30" s="19" t="s">
-        <v>367</v>
-      </c>
-      <c r="Q30" s="19" t="s">
-        <v>367</v>
-      </c>
-      <c r="R30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="22"/>
+      <c r="Q30" s="22"/>
+      <c r="R30" s="19" t="s">
+        <v>214</v>
+      </c>
       <c r="S30" s="22"/>
-      <c r="T30" s="19" t="s">
-        <v>367</v>
-      </c>
+      <c r="T30" s="22"/>
       <c r="U30" s="22"/>
       <c r="V30" s="22"/>
       <c r="W30" s="22"/>
@@ -7815,58 +7843,58 @@
       <c r="Y30" s="22"/>
       <c r="Z30" s="22"/>
       <c r="AA30" s="22"/>
-      <c r="AB30" s="22"/>
+      <c r="AB30" s="19"/>
     </row>
     <row r="31" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="19" t="s">
+        <v>366</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="C31" s="19" t="s">
         <v>368</v>
       </c>
-      <c r="B31" s="19" t="s">
-        <v>363</v>
-      </c>
-      <c r="C31" s="19" t="s">
+      <c r="D31" s="19" t="s">
         <v>369</v>
       </c>
-      <c r="D31" s="19" t="s">
-        <v>370</v>
-      </c>
       <c r="E31" s="19" t="s">
-        <v>335</v>
-      </c>
-      <c r="F31" s="24" t="s">
-        <v>336</v>
-      </c>
-      <c r="G31" s="22"/>
+        <v>237</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="G31" s="20"/>
       <c r="H31" s="22"/>
       <c r="I31" s="19" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J31" s="22"/>
       <c r="K31" s="19" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="L31" s="19" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="M31" s="19" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="N31" s="19" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="O31" s="19" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="P31" s="19" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="Q31" s="19" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="R31" s="22"/>
       <c r="S31" s="22"/>
       <c r="T31" s="19" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="U31" s="22"/>
       <c r="V31" s="22"/>
@@ -7882,7 +7910,7 @@
         <v>372</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C32" s="19" t="s">
         <v>373</v>
@@ -7891,42 +7919,42 @@
         <v>374</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="F32" s="19" t="s">
-        <v>375</v>
+        <v>335</v>
+      </c>
+      <c r="F32" s="24" t="s">
+        <v>336</v>
       </c>
       <c r="G32" s="22"/>
       <c r="H32" s="22"/>
       <c r="I32" s="19" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J32" s="22"/>
       <c r="K32" s="19" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="L32" s="19" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="M32" s="19" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="N32" s="19" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="O32" s="19" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="P32" s="19" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="Q32" s="19" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="R32" s="22"/>
       <c r="S32" s="22"/>
       <c r="T32" s="19" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="U32" s="22"/>
       <c r="V32" s="22"/>
@@ -7939,52 +7967,54 @@
     </row>
     <row r="33" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="19" t="s">
+        <v>376</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>377</v>
+      </c>
+      <c r="D33" s="19" t="s">
         <v>378</v>
       </c>
-      <c r="B33" s="19" t="s">
-        <v>363</v>
-      </c>
-      <c r="C33" s="19" t="s">
+      <c r="E33" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="F33" s="19" t="s">
         <v>379</v>
       </c>
-      <c r="D33" s="19" t="s">
-        <v>380</v>
-      </c>
-      <c r="E33" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="F33" s="22"/>
       <c r="G33" s="22"/>
       <c r="H33" s="22"/>
       <c r="I33" s="19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="J33" s="22"/>
       <c r="K33" s="19" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="L33" s="19" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="M33" s="19" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="N33" s="19" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O33" s="19" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="P33" s="19" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="Q33" s="19" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="R33" s="22"/>
       <c r="S33" s="22"/>
       <c r="T33" s="19" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="U33" s="22"/>
       <c r="V33" s="22"/>
@@ -7997,52 +8027,52 @@
     </row>
     <row r="34" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="19" t="s">
+        <v>382</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="C34" s="19" t="s">
         <v>383</v>
       </c>
-      <c r="B34" s="19" t="s">
-        <v>363</v>
-      </c>
-      <c r="C34" s="19" t="s">
+      <c r="D34" s="19" t="s">
         <v>384</v>
-      </c>
-      <c r="D34" s="19" t="s">
-        <v>385</v>
       </c>
       <c r="E34" s="19" t="s">
         <v>306</v>
       </c>
       <c r="F34" s="22"/>
-      <c r="G34" s="20"/>
+      <c r="G34" s="22"/>
       <c r="H34" s="22"/>
       <c r="I34" s="19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J34" s="22"/>
       <c r="K34" s="19" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="L34" s="19" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="M34" s="19" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="N34" s="19" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="O34" s="19" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="P34" s="19" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q34" s="19" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="R34" s="22"/>
       <c r="S34" s="22"/>
       <c r="T34" s="19" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="U34" s="22"/>
       <c r="V34" s="22"/>
@@ -8055,55 +8085,55 @@
     </row>
     <row r="35" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="19" t="s">
+        <v>387</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="C35" s="19" t="s">
         <v>388</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="D35" s="19" t="s">
         <v>389</v>
       </c>
-      <c r="C35" s="19" t="s">
-        <v>390</v>
-      </c>
-      <c r="D35" s="19" t="s">
-        <v>391</v>
-      </c>
       <c r="E35" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="F35" s="22" t="s">
-        <v>238</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="F35" s="22"/>
       <c r="G35" s="20"/>
       <c r="H35" s="22"/>
       <c r="I35" s="19" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="J35" s="22"/>
       <c r="K35" s="19" t="s">
-        <v>214</v>
+        <v>391</v>
       </c>
       <c r="L35" s="19" t="s">
-        <v>214</v>
+        <v>391</v>
       </c>
       <c r="M35" s="19" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="N35" s="19" t="s">
-        <v>393</v>
-      </c>
-      <c r="O35" s="22"/>
+        <v>391</v>
+      </c>
+      <c r="O35" s="19" t="s">
+        <v>391</v>
+      </c>
       <c r="P35" s="19" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="Q35" s="19" t="s">
-        <v>214</v>
+        <v>391</v>
       </c>
       <c r="R35" s="22"/>
       <c r="S35" s="22"/>
-      <c r="T35" s="22"/>
+      <c r="T35" s="19" t="s">
+        <v>391</v>
+      </c>
       <c r="U35" s="22"/>
-      <c r="V35" s="19" t="s">
-        <v>393</v>
-      </c>
+      <c r="V35" s="22"/>
       <c r="W35" s="22"/>
       <c r="X35" s="22"/>
       <c r="Y35" s="22"/>
@@ -8113,43 +8143,55 @@
     </row>
     <row r="36" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="19" t="s">
+        <v>392</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>393</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>394</v>
+      </c>
+      <c r="D36" s="19" t="s">
         <v>395</v>
       </c>
-      <c r="B36" s="19" t="s">
-        <v>389</v>
-      </c>
-      <c r="C36" s="19" t="s">
-        <v>396</v>
-      </c>
-      <c r="D36" s="19" t="s">
-        <v>397</v>
-      </c>
       <c r="E36" s="19" t="s">
-        <v>398</v>
-      </c>
-      <c r="F36" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="F36" s="22" t="s">
         <v>238</v>
       </c>
       <c r="G36" s="20"/>
       <c r="H36" s="22"/>
       <c r="I36" s="19" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="J36" s="22"/>
-      <c r="K36" s="22"/>
-      <c r="L36" s="22"/>
-      <c r="M36" s="22"/>
-      <c r="N36" s="22"/>
-      <c r="O36" s="19" t="s">
-        <v>393</v>
-      </c>
-      <c r="P36" s="22"/>
-      <c r="Q36" s="22"/>
+      <c r="K36" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="L36" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="M36" s="19" t="s">
+        <v>397</v>
+      </c>
+      <c r="N36" s="19" t="s">
+        <v>397</v>
+      </c>
+      <c r="O36" s="22"/>
+      <c r="P36" s="19" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q36" s="19" t="s">
+        <v>214</v>
+      </c>
       <c r="R36" s="22"/>
       <c r="S36" s="22"/>
       <c r="T36" s="22"/>
       <c r="U36" s="22"/>
-      <c r="V36" s="22"/>
+      <c r="V36" s="19" t="s">
+        <v>397</v>
+      </c>
       <c r="W36" s="22"/>
       <c r="X36" s="22"/>
       <c r="Y36" s="22"/>
@@ -8159,22 +8201,22 @@
     </row>
     <row r="37" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="19" t="s">
+        <v>399</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>393</v>
+      </c>
+      <c r="C37" s="19" t="s">
         <v>400</v>
       </c>
-      <c r="B37" s="19" t="s">
-        <v>389</v>
-      </c>
-      <c r="C37" s="19" t="s">
+      <c r="D37" s="19" t="s">
         <v>401</v>
       </c>
-      <c r="D37" s="19" t="s">
+      <c r="E37" s="19" t="s">
         <v>402</v>
       </c>
-      <c r="E37" s="19" t="s">
-        <v>335</v>
-      </c>
-      <c r="F37" s="24" t="s">
-        <v>336</v>
+      <c r="F37" s="19" t="s">
+        <v>238</v>
       </c>
       <c r="G37" s="20"/>
       <c r="H37" s="22"/>
@@ -8182,32 +8224,20 @@
         <v>403</v>
       </c>
       <c r="J37" s="22"/>
-      <c r="K37" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="L37" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="M37" s="19" t="s">
-        <v>393</v>
-      </c>
-      <c r="N37" s="19" t="s">
-        <v>393</v>
-      </c>
-      <c r="O37" s="22"/>
-      <c r="P37" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="Q37" s="19" t="s">
-        <v>214</v>
-      </c>
+      <c r="K37" s="22"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="22"/>
+      <c r="O37" s="19" t="s">
+        <v>397</v>
+      </c>
+      <c r="P37" s="22"/>
+      <c r="Q37" s="22"/>
       <c r="R37" s="22"/>
       <c r="S37" s="22"/>
       <c r="T37" s="22"/>
       <c r="U37" s="22"/>
-      <c r="V37" s="19" t="s">
-        <v>404</v>
-      </c>
+      <c r="V37" s="22"/>
       <c r="W37" s="22"/>
       <c r="X37" s="22"/>
       <c r="Y37" s="22"/>
@@ -8217,41 +8247,55 @@
     </row>
     <row r="38" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="19" t="s">
+        <v>404</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>393</v>
+      </c>
+      <c r="C38" s="19" t="s">
         <v>405</v>
       </c>
-      <c r="B38" s="19" t="s">
-        <v>389</v>
-      </c>
-      <c r="C38" s="19" t="s">
+      <c r="D38" s="19" t="s">
         <v>406</v>
       </c>
-      <c r="D38" s="19" t="s">
-        <v>407</v>
-      </c>
       <c r="E38" s="19" t="s">
-        <v>408</v>
-      </c>
-      <c r="F38" s="21"/>
+        <v>335</v>
+      </c>
+      <c r="F38" s="24" t="s">
+        <v>336</v>
+      </c>
       <c r="G38" s="20"/>
       <c r="H38" s="22"/>
       <c r="I38" s="19" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="J38" s="22"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="22"/>
-      <c r="M38" s="22"/>
-      <c r="N38" s="22"/>
-      <c r="O38" s="19" t="s">
-        <v>393</v>
-      </c>
-      <c r="P38" s="22"/>
-      <c r="Q38" s="22"/>
+      <c r="K38" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="L38" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="M38" s="19" t="s">
+        <v>397</v>
+      </c>
+      <c r="N38" s="19" t="s">
+        <v>397</v>
+      </c>
+      <c r="O38" s="22"/>
+      <c r="P38" s="19" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q38" s="19" t="s">
+        <v>214</v>
+      </c>
       <c r="R38" s="22"/>
       <c r="S38" s="22"/>
       <c r="T38" s="22"/>
       <c r="U38" s="22"/>
-      <c r="V38" s="22"/>
+      <c r="V38" s="19" t="s">
+        <v>408</v>
+      </c>
       <c r="W38" s="22"/>
       <c r="X38" s="22"/>
       <c r="Y38" s="22"/>
@@ -8261,55 +8305,41 @@
     </row>
     <row r="39" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="19" t="s">
+        <v>409</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>393</v>
+      </c>
+      <c r="C39" s="19" t="s">
         <v>410</v>
       </c>
-      <c r="B39" s="19" t="s">
-        <v>389</v>
-      </c>
-      <c r="C39" s="19" t="s">
+      <c r="D39" s="19" t="s">
         <v>411</v>
       </c>
-      <c r="D39" s="19" t="s">
+      <c r="E39" s="19" t="s">
         <v>412</v>
       </c>
-      <c r="E39" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="20"/>
       <c r="H39" s="22"/>
       <c r="I39" s="19" t="s">
         <v>413</v>
       </c>
       <c r="J39" s="22"/>
-      <c r="K39" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="L39" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="M39" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="N39" s="19" t="s">
-        <v>233</v>
-      </c>
+      <c r="K39" s="22"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="22"/>
       <c r="O39" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="P39" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q39" s="19" t="s">
-        <v>233</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="P39" s="22"/>
+      <c r="Q39" s="22"/>
       <c r="R39" s="22"/>
       <c r="S39" s="22"/>
       <c r="T39" s="22"/>
       <c r="U39" s="22"/>
-      <c r="V39" s="19" t="s">
-        <v>233</v>
-      </c>
+      <c r="V39" s="22"/>
       <c r="W39" s="22"/>
       <c r="X39" s="22"/>
       <c r="Y39" s="22"/>
@@ -8322,7 +8352,7 @@
         <v>414</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="C40" s="19" t="s">
         <v>415</v>
@@ -8340,13 +8370,27 @@
         <v>417</v>
       </c>
       <c r="J40" s="22"/>
-      <c r="K40" s="22"/>
-      <c r="L40" s="22"/>
-      <c r="M40" s="22"/>
-      <c r="N40" s="22"/>
-      <c r="O40" s="22"/>
-      <c r="P40" s="22"/>
-      <c r="Q40" s="22"/>
+      <c r="K40" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="L40" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="M40" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="N40" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="O40" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="P40" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q40" s="19" t="s">
+        <v>233</v>
+      </c>
       <c r="R40" s="22"/>
       <c r="S40" s="22"/>
       <c r="T40" s="22"/>
@@ -8361,12 +8405,12 @@
       <c r="AA40" s="22"/>
       <c r="AB40" s="22"/>
     </row>
-    <row r="41" customFormat="false" ht="145.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="19" t="s">
         <v>418</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="C41" s="19" t="s">
         <v>419</v>
@@ -8375,38 +8419,22 @@
         <v>420</v>
       </c>
       <c r="E41" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="F41" s="19" t="s">
-        <v>421</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="F41" s="22"/>
       <c r="G41" s="22"/>
       <c r="H41" s="22"/>
       <c r="I41" s="19" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J41" s="22"/>
-      <c r="K41" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="L41" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="M41" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="N41" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="O41" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="P41" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q41" s="19" t="s">
-        <v>233</v>
-      </c>
+      <c r="K41" s="22"/>
+      <c r="L41" s="22"/>
+      <c r="M41" s="22"/>
+      <c r="N41" s="22"/>
+      <c r="O41" s="22"/>
+      <c r="P41" s="22"/>
+      <c r="Q41" s="22"/>
       <c r="R41" s="22"/>
       <c r="S41" s="22"/>
       <c r="T41" s="22"/>
@@ -8419,74 +8447,76 @@
       <c r="Y41" s="22"/>
       <c r="Z41" s="22"/>
       <c r="AA41" s="22"/>
-      <c r="AB41" s="22" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AB41" s="22"/>
+    </row>
+    <row r="42" customFormat="false" ht="145.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="19" t="s">
+        <v>422</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>393</v>
+      </c>
+      <c r="C42" s="19" t="s">
         <v>423</v>
       </c>
-      <c r="B42" s="19" t="s">
-        <v>389</v>
-      </c>
-      <c r="C42" s="19" t="s">
+      <c r="D42" s="19" t="s">
         <v>424</v>
       </c>
-      <c r="D42" s="19" t="s">
+      <c r="E42" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="F42" s="19" t="s">
         <v>425</v>
       </c>
-      <c r="E42" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="F42" s="22"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="19" t="s">
-        <v>351</v>
-      </c>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
       <c r="I42" s="19" t="s">
         <v>426</v>
       </c>
       <c r="J42" s="22"/>
       <c r="K42" s="19" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="L42" s="19" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="M42" s="19" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="N42" s="19" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="O42" s="19" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="P42" s="19" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="Q42" s="19" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="R42" s="22"/>
       <c r="S42" s="22"/>
       <c r="T42" s="22"/>
       <c r="U42" s="22"/>
-      <c r="V42" s="22"/>
+      <c r="V42" s="19" t="s">
+        <v>233</v>
+      </c>
       <c r="W42" s="22"/>
       <c r="X42" s="22"/>
       <c r="Y42" s="22"/>
       <c r="Z42" s="22"/>
       <c r="AA42" s="22"/>
-      <c r="AB42" s="22"/>
+      <c r="AB42" s="22" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="19" t="s">
         <v>427</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="C43" s="19" t="s">
         <v>428</v>
@@ -8495,19 +8525,23 @@
         <v>429</v>
       </c>
       <c r="E43" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="F43" s="22" t="s">
-        <v>238</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="F43" s="22"/>
       <c r="G43" s="20"/>
-      <c r="H43" s="22"/>
+      <c r="H43" s="19" t="s">
+        <v>351</v>
+      </c>
       <c r="I43" s="19" t="s">
         <v>430</v>
       </c>
       <c r="J43" s="22"/>
-      <c r="K43" s="22"/>
-      <c r="L43" s="22"/>
+      <c r="K43" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="L43" s="19" t="s">
+        <v>214</v>
+      </c>
       <c r="M43" s="19" t="s">
         <v>214</v>
       </c>
@@ -8540,7 +8574,7 @@
         <v>431</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="C44" s="19" t="s">
         <v>432</v>
@@ -8554,7 +8588,7 @@
       <c r="F44" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="G44" s="22"/>
+      <c r="G44" s="20"/>
       <c r="H44" s="22"/>
       <c r="I44" s="19" t="s">
         <v>434</v>
@@ -8562,18 +8596,20 @@
       <c r="J44" s="22"/>
       <c r="K44" s="22"/>
       <c r="L44" s="22"/>
-      <c r="M44" s="22"/>
+      <c r="M44" s="19" t="s">
+        <v>214</v>
+      </c>
       <c r="N44" s="19" t="s">
-        <v>435</v>
+        <v>214</v>
       </c>
       <c r="O44" s="19" t="s">
-        <v>435</v>
+        <v>214</v>
       </c>
       <c r="P44" s="19" t="s">
-        <v>435</v>
+        <v>214</v>
       </c>
       <c r="Q44" s="19" t="s">
-        <v>435</v>
+        <v>214</v>
       </c>
       <c r="R44" s="22"/>
       <c r="S44" s="22"/>
@@ -8589,43 +8625,43 @@
     </row>
     <row r="45" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="B45" s="19" t="s">
+        <v>393</v>
+      </c>
+      <c r="C45" s="19" t="s">
         <v>436</v>
       </c>
-      <c r="B45" s="19" t="s">
-        <v>389</v>
-      </c>
-      <c r="C45" s="19" t="s">
+      <c r="D45" s="19" t="s">
         <v>437</v>
       </c>
-      <c r="D45" s="19" t="s">
-        <v>438</v>
-      </c>
       <c r="E45" s="19" t="s">
-        <v>335</v>
-      </c>
-      <c r="F45" s="24" t="s">
-        <v>336</v>
+        <v>237</v>
+      </c>
+      <c r="F45" s="22" t="s">
+        <v>238</v>
       </c>
       <c r="G45" s="22"/>
       <c r="H45" s="22"/>
       <c r="I45" s="19" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="J45" s="22"/>
       <c r="K45" s="22"/>
       <c r="L45" s="22"/>
       <c r="M45" s="22"/>
       <c r="N45" s="19" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="O45" s="19" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="P45" s="19" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="Q45" s="19" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="R45" s="22"/>
       <c r="S45" s="22"/>
@@ -8639,12 +8675,12 @@
       <c r="AA45" s="22"/>
       <c r="AB45" s="22"/>
     </row>
-    <row r="46" customFormat="false" ht="142.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="19" t="s">
         <v>440</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="C46" s="19" t="s">
         <v>441</v>
@@ -8653,35 +8689,31 @@
         <v>442</v>
       </c>
       <c r="E46" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="F46" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="F46" s="24" t="s">
+        <v>336</v>
+      </c>
+      <c r="G46" s="22"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="19" t="s">
         <v>443</v>
-      </c>
-      <c r="G46" s="20" t="s">
-        <v>444</v>
-      </c>
-      <c r="H46" s="19" t="s">
-        <v>351</v>
-      </c>
-      <c r="I46" s="19" t="s">
-        <v>445</v>
       </c>
       <c r="J46" s="22"/>
       <c r="K46" s="22"/>
       <c r="L46" s="22"/>
       <c r="M46" s="22"/>
       <c r="N46" s="19" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="O46" s="19" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="P46" s="19" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="Q46" s="19" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="R46" s="22"/>
       <c r="S46" s="22"/>
@@ -8695,47 +8727,49 @@
       <c r="AA46" s="22"/>
       <c r="AB46" s="22"/>
     </row>
-    <row r="47" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="142.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="19" t="s">
+        <v>444</v>
+      </c>
+      <c r="B47" s="19" t="s">
+        <v>393</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>445</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>446</v>
+      </c>
+      <c r="E47" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="F47" s="19" t="s">
         <v>447</v>
       </c>
-      <c r="B47" s="19" t="s">
-        <v>389</v>
-      </c>
-      <c r="C47" s="19" t="s">
+      <c r="G47" s="20" t="s">
         <v>448</v>
       </c>
-      <c r="D47" s="19" t="s">
-        <v>449</v>
-      </c>
-      <c r="E47" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="F47" s="22" t="s">
-        <v>307</v>
-      </c>
-      <c r="G47" s="22"/>
       <c r="H47" s="19" t="s">
         <v>351</v>
       </c>
       <c r="I47" s="19" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="J47" s="22"/>
       <c r="K47" s="22"/>
       <c r="L47" s="22"/>
       <c r="M47" s="22"/>
       <c r="N47" s="19" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="O47" s="19" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="P47" s="19" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="Q47" s="19" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="R47" s="22"/>
       <c r="S47" s="22"/>
@@ -8751,44 +8785,46 @@
     </row>
     <row r="48" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="19" t="s">
+        <v>451</v>
+      </c>
+      <c r="B48" s="19" t="s">
+        <v>393</v>
+      </c>
+      <c r="C48" s="19" t="s">
         <v>452</v>
       </c>
-      <c r="B48" s="19" t="s">
-        <v>389</v>
-      </c>
-      <c r="C48" s="19" t="s">
+      <c r="D48" s="19" t="s">
         <v>453</v>
       </c>
-      <c r="D48" s="19" t="s">
+      <c r="E48" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="F48" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="G48" s="22"/>
+      <c r="H48" s="19" t="s">
+        <v>351</v>
+      </c>
+      <c r="I48" s="19" t="s">
         <v>454</v>
-      </c>
-      <c r="E48" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="F48" s="19" t="s">
-        <v>455</v>
-      </c>
-      <c r="G48" s="20" t="s">
-        <v>456</v>
-      </c>
-      <c r="H48" s="22"/>
-      <c r="I48" s="19" t="s">
-        <v>457</v>
       </c>
       <c r="J48" s="22"/>
       <c r="K48" s="22"/>
       <c r="L48" s="22"/>
-      <c r="M48" s="19" t="s">
-        <v>458</v>
-      </c>
+      <c r="M48" s="22"/>
       <c r="N48" s="19" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="O48" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="P48" s="22"/>
-      <c r="Q48" s="22"/>
+        <v>455</v>
+      </c>
+      <c r="P48" s="19" t="s">
+        <v>455</v>
+      </c>
+      <c r="Q48" s="19" t="s">
+        <v>455</v>
+      </c>
       <c r="R48" s="22"/>
       <c r="S48" s="22"/>
       <c r="T48" s="22"/>
@@ -8803,112 +8839,114 @@
     </row>
     <row r="49" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="19" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>179</v>
+        <v>393</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D49" s="19" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="E49" s="19" t="s">
         <v>210</v>
       </c>
       <c r="F49" s="19" t="s">
+        <v>459</v>
+      </c>
+      <c r="G49" s="20" t="s">
+        <v>460</v>
+      </c>
+      <c r="H49" s="22"/>
+      <c r="I49" s="19" t="s">
+        <v>461</v>
+      </c>
+      <c r="J49" s="22"/>
+      <c r="K49" s="22"/>
+      <c r="L49" s="22"/>
+      <c r="M49" s="19" t="s">
         <v>462</v>
       </c>
-      <c r="G49" s="20"/>
-      <c r="H49" s="21"/>
-      <c r="I49" s="19" t="s">
-        <v>463</v>
-      </c>
-      <c r="J49" s="21"/>
-      <c r="K49" s="21"/>
-      <c r="L49" s="21"/>
-      <c r="M49" s="21"/>
-      <c r="N49" s="21"/>
-      <c r="O49" s="21"/>
-      <c r="P49" s="21"/>
-      <c r="Q49" s="21"/>
-      <c r="R49" s="21"/>
-      <c r="S49" s="21"/>
-      <c r="T49" s="21"/>
-      <c r="U49" s="21"/>
-      <c r="V49" s="21"/>
-      <c r="W49" s="21"/>
-      <c r="X49" s="21"/>
-      <c r="Y49" s="19" t="s">
-        <v>464</v>
-      </c>
-      <c r="Z49" s="21"/>
-      <c r="AA49" s="21"/>
-      <c r="AB49" s="21"/>
+      <c r="N49" s="19" t="s">
+        <v>462</v>
+      </c>
+      <c r="O49" s="19" t="s">
+        <v>462</v>
+      </c>
+      <c r="P49" s="22"/>
+      <c r="Q49" s="22"/>
+      <c r="R49" s="22"/>
+      <c r="S49" s="22"/>
+      <c r="T49" s="22"/>
+      <c r="U49" s="22"/>
+      <c r="V49" s="22"/>
+      <c r="W49" s="22"/>
+      <c r="X49" s="22"/>
+      <c r="Y49" s="22"/>
+      <c r="Z49" s="22"/>
+      <c r="AA49" s="22"/>
+      <c r="AB49" s="22"/>
     </row>
     <row r="50" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="19" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B50" s="19" t="s">
         <v>179</v>
       </c>
       <c r="C50" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="D50" s="19" t="s">
+        <v>465</v>
+      </c>
+      <c r="E50" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="F50" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="D50" s="19" t="s">
+      <c r="G50" s="20"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="19" t="s">
         <v>467</v>
       </c>
-      <c r="E50" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="F50" s="22" t="s">
-        <v>307</v>
-      </c>
-      <c r="G50" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H50" s="19" t="s">
+      <c r="J50" s="21"/>
+      <c r="K50" s="21"/>
+      <c r="L50" s="21"/>
+      <c r="M50" s="21"/>
+      <c r="N50" s="21"/>
+      <c r="O50" s="21"/>
+      <c r="P50" s="21"/>
+      <c r="Q50" s="21"/>
+      <c r="R50" s="21"/>
+      <c r="S50" s="21"/>
+      <c r="T50" s="21"/>
+      <c r="U50" s="21"/>
+      <c r="V50" s="21"/>
+      <c r="W50" s="21"/>
+      <c r="X50" s="21"/>
+      <c r="Y50" s="19" t="s">
         <v>468</v>
       </c>
-      <c r="I50" s="19" t="s">
-        <v>469</v>
-      </c>
-      <c r="J50" s="22"/>
-      <c r="K50" s="22"/>
-      <c r="L50" s="22"/>
-      <c r="M50" s="22"/>
-      <c r="N50" s="22"/>
-      <c r="O50" s="22"/>
-      <c r="P50" s="22"/>
-      <c r="Q50" s="22"/>
-      <c r="R50" s="22"/>
-      <c r="S50" s="22"/>
-      <c r="T50" s="22"/>
-      <c r="U50" s="22"/>
-      <c r="V50" s="22"/>
-      <c r="W50" s="22"/>
-      <c r="X50" s="22"/>
-      <c r="Y50" s="19" t="s">
-        <v>338</v>
-      </c>
-      <c r="Z50" s="22"/>
-      <c r="AA50" s="22"/>
-      <c r="AB50" s="22"/>
+      <c r="Z50" s="21"/>
+      <c r="AA50" s="21"/>
+      <c r="AB50" s="21"/>
     </row>
     <row r="51" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="19" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B51" s="19" t="s">
         <v>179</v>
       </c>
       <c r="C51" s="19" t="s">
+        <v>470</v>
+      </c>
+      <c r="D51" s="19" t="s">
         <v>471</v>
-      </c>
-      <c r="D51" s="19" t="s">
-        <v>472</v>
       </c>
       <c r="E51" s="19" t="s">
         <v>306</v>
@@ -8916,8 +8954,12 @@
       <c r="F51" s="22" t="s">
         <v>307</v>
       </c>
-      <c r="G51" s="22"/>
-      <c r="H51" s="22"/>
+      <c r="G51" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" s="19" t="s">
+        <v>472</v>
+      </c>
       <c r="I51" s="19" t="s">
         <v>473</v>
       </c>
@@ -8937,7 +8979,7 @@
       <c r="W51" s="22"/>
       <c r="X51" s="22"/>
       <c r="Y51" s="19" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="Z51" s="22"/>
       <c r="AA51" s="22"/>
@@ -9003,10 +9045,10 @@
         <v>480</v>
       </c>
       <c r="E53" s="19" t="s">
-        <v>237</v>
+        <v>306</v>
       </c>
       <c r="F53" s="22" t="s">
-        <v>238</v>
+        <v>307</v>
       </c>
       <c r="G53" s="22"/>
       <c r="H53" s="22"/>
@@ -9049,10 +9091,10 @@
         <v>484</v>
       </c>
       <c r="E54" s="19" t="s">
-        <v>335</v>
-      </c>
-      <c r="F54" s="24" t="s">
-        <v>336</v>
+        <v>237</v>
+      </c>
+      <c r="F54" s="22" t="s">
+        <v>238</v>
       </c>
       <c r="G54" s="22"/>
       <c r="H54" s="22"/>
@@ -9081,7 +9123,7 @@
       <c r="AA54" s="22"/>
       <c r="AB54" s="22"/>
     </row>
-    <row r="55" customFormat="false" ht="136.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="19" t="s">
         <v>486</v>
       </c>
@@ -9095,10 +9137,10 @@
         <v>488</v>
       </c>
       <c r="E55" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="F55" s="22" t="s">
-        <v>307</v>
+        <v>335</v>
+      </c>
+      <c r="F55" s="24" t="s">
+        <v>336</v>
       </c>
       <c r="G55" s="22"/>
       <c r="H55" s="22"/>
@@ -9127,138 +9169,138 @@
       <c r="AA55" s="22"/>
       <c r="AB55" s="22"/>
     </row>
-    <row r="56" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="136.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="19" t="s">
         <v>490</v>
       </c>
       <c r="B56" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="C56" s="19" t="s">
         <v>491</v>
       </c>
-      <c r="C56" s="19" t="s">
+      <c r="D56" s="19" t="s">
         <v>492</v>
       </c>
-      <c r="D56" s="19" t="s">
-        <v>493</v>
-      </c>
       <c r="E56" s="19" t="s">
-        <v>249</v>
-      </c>
-      <c r="F56" s="19" t="s">
-        <v>494</v>
+        <v>306</v>
+      </c>
+      <c r="F56" s="22" t="s">
+        <v>307</v>
       </c>
       <c r="G56" s="22"/>
       <c r="H56" s="22"/>
       <c r="I56" s="19" t="s">
-        <v>495</v>
-      </c>
-      <c r="J56" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="K56" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="L56" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="M56" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="N56" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="O56" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="P56" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q56" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="R56" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="S56" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="T56" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="U56" s="21"/>
-      <c r="V56" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="W56" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="X56" s="19" t="s">
-        <v>233</v>
-      </c>
+        <v>493</v>
+      </c>
+      <c r="J56" s="22"/>
+      <c r="K56" s="22"/>
+      <c r="L56" s="22"/>
+      <c r="M56" s="22"/>
+      <c r="N56" s="22"/>
+      <c r="O56" s="22"/>
+      <c r="P56" s="22"/>
+      <c r="Q56" s="22"/>
+      <c r="R56" s="22"/>
+      <c r="S56" s="22"/>
+      <c r="T56" s="22"/>
+      <c r="U56" s="22"/>
+      <c r="V56" s="22"/>
+      <c r="W56" s="22"/>
+      <c r="X56" s="22"/>
       <c r="Y56" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="Z56" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="AA56" s="19" t="s">
-        <v>496</v>
-      </c>
-      <c r="AB56" s="19" t="s">
-        <v>233</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="Z56" s="22"/>
+      <c r="AA56" s="22"/>
+      <c r="AB56" s="22"/>
     </row>
     <row r="57" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="19" t="s">
+        <v>494</v>
+      </c>
+      <c r="B57" s="19" t="s">
+        <v>495</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>496</v>
+      </c>
+      <c r="D57" s="19" t="s">
         <v>497</v>
-      </c>
-      <c r="B57" s="19" t="s">
-        <v>491</v>
-      </c>
-      <c r="C57" s="19" t="s">
-        <v>498</v>
-      </c>
-      <c r="D57" s="19" t="s">
-        <v>499</v>
       </c>
       <c r="E57" s="19" t="s">
         <v>249</v>
       </c>
       <c r="F57" s="19" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="G57" s="22"/>
       <c r="H57" s="22"/>
       <c r="I57" s="19" t="s">
-        <v>500</v>
-      </c>
-      <c r="J57" s="22"/>
-      <c r="K57" s="22"/>
-      <c r="L57" s="22"/>
-      <c r="M57" s="22"/>
-      <c r="N57" s="22"/>
-      <c r="O57" s="22"/>
-      <c r="P57" s="22"/>
-      <c r="Q57" s="22"/>
-      <c r="R57" s="22"/>
-      <c r="S57" s="22"/>
-      <c r="T57" s="22"/>
+        <v>499</v>
+      </c>
+      <c r="J57" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="K57" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="L57" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="M57" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="N57" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="O57" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="P57" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q57" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="R57" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="S57" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="T57" s="19" t="s">
+        <v>233</v>
+      </c>
       <c r="U57" s="21"/>
-      <c r="V57" s="22"/>
-      <c r="W57" s="22"/>
+      <c r="V57" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="W57" s="19" t="s">
+        <v>233</v>
+      </c>
       <c r="X57" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="Y57" s="22"/>
-      <c r="Z57" s="22"/>
-      <c r="AA57" s="22"/>
-      <c r="AB57" s="22"/>
+      <c r="Y57" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="Z57" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="AA57" s="19" t="s">
+        <v>500</v>
+      </c>
+      <c r="AB57" s="19" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="19" t="s">
         <v>501</v>
       </c>
       <c r="B58" s="19" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="C58" s="19" t="s">
         <v>502</v>
@@ -9267,12 +9309,12 @@
         <v>503</v>
       </c>
       <c r="E58" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="F58" s="22" t="s">
-        <v>238</v>
-      </c>
-      <c r="G58" s="20"/>
+        <v>249</v>
+      </c>
+      <c r="F58" s="19" t="s">
+        <v>498</v>
+      </c>
+      <c r="G58" s="22"/>
       <c r="H58" s="22"/>
       <c r="I58" s="19" t="s">
         <v>504</v>
@@ -9283,17 +9325,17 @@
       <c r="M58" s="22"/>
       <c r="N58" s="22"/>
       <c r="O58" s="22"/>
-      <c r="P58" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q58" s="26"/>
+      <c r="P58" s="22"/>
+      <c r="Q58" s="22"/>
       <c r="R58" s="22"/>
       <c r="S58" s="22"/>
       <c r="T58" s="22"/>
-      <c r="U58" s="22"/>
+      <c r="U58" s="21"/>
       <c r="V58" s="22"/>
       <c r="W58" s="22"/>
-      <c r="X58" s="22"/>
+      <c r="X58" s="19" t="s">
+        <v>233</v>
+      </c>
       <c r="Y58" s="22"/>
       <c r="Z58" s="22"/>
       <c r="AA58" s="22"/>
@@ -9304,7 +9346,7 @@
         <v>505</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="C59" s="19" t="s">
         <v>506</v>
@@ -9318,73 +9360,39 @@
       <c r="F59" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="G59" s="22"/>
+      <c r="G59" s="20"/>
       <c r="H59" s="22"/>
       <c r="I59" s="19" t="s">
         <v>508</v>
       </c>
       <c r="J59" s="22"/>
-      <c r="K59" s="19" t="s">
-        <v>240</v>
-      </c>
-      <c r="L59" s="19" t="s">
-        <v>240</v>
-      </c>
-      <c r="M59" s="19" t="s">
-        <v>240</v>
-      </c>
-      <c r="N59" s="19" t="s">
-        <v>240</v>
-      </c>
-      <c r="O59" s="19" t="s">
-        <v>240</v>
-      </c>
+      <c r="K59" s="22"/>
+      <c r="L59" s="22"/>
+      <c r="M59" s="22"/>
+      <c r="N59" s="22"/>
+      <c r="O59" s="22"/>
       <c r="P59" s="19" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q59" s="19" t="s">
-        <v>240</v>
-      </c>
-      <c r="R59" s="19" t="s">
-        <v>240</v>
-      </c>
-      <c r="S59" s="19" t="s">
-        <v>240</v>
-      </c>
-      <c r="T59" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="U59" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="V59" s="19" t="s">
-        <v>240</v>
-      </c>
-      <c r="W59" s="19" t="s">
-        <v>240</v>
-      </c>
-      <c r="X59" s="19" t="s">
-        <v>240</v>
-      </c>
-      <c r="Y59" s="19" t="s">
-        <v>240</v>
-      </c>
-      <c r="Z59" s="19" t="s">
-        <v>240</v>
-      </c>
-      <c r="AA59" s="19" t="s">
-        <v>240</v>
-      </c>
-      <c r="AB59" s="19" t="s">
-        <v>240</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="Q59" s="26"/>
+      <c r="R59" s="22"/>
+      <c r="S59" s="22"/>
+      <c r="T59" s="22"/>
+      <c r="U59" s="22"/>
+      <c r="V59" s="22"/>
+      <c r="W59" s="22"/>
+      <c r="X59" s="22"/>
+      <c r="Y59" s="22"/>
+      <c r="Z59" s="22"/>
+      <c r="AA59" s="22"/>
+      <c r="AB59" s="22"/>
     </row>
     <row r="60" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="19" t="s">
         <v>509</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="C60" s="19" t="s">
         <v>510</v>
@@ -9405,40 +9413,58 @@
       </c>
       <c r="J60" s="22"/>
       <c r="K60" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="L60" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="M60" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="N60" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="O60" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="P60" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q60" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="R60" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="S60" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="T60" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="L60" s="19" t="s">
+      <c r="U60" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="M60" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="N60" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="O60" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="P60" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q60" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="R60" s="27"/>
-      <c r="S60" s="22"/>
-      <c r="T60" s="22"/>
-      <c r="U60" s="22"/>
       <c r="V60" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="W60" s="22"/>
-      <c r="X60" s="22"/>
-      <c r="Y60" s="22"/>
-      <c r="Z60" s="22"/>
-      <c r="AA60" s="22"/>
-      <c r="AB60" s="22" t="s">
-        <v>214</v>
+        <v>240</v>
+      </c>
+      <c r="W60" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="X60" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y60" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="Z60" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="AA60" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="AB60" s="19" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9446,7 +9472,7 @@
         <v>513</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="C61" s="19" t="s">
         <v>514</v>
@@ -9455,54 +9481,60 @@
         <v>515</v>
       </c>
       <c r="E61" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="F61" s="22"/>
-      <c r="G61" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H61" s="19" t="s">
-        <v>351</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="F61" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="G61" s="22"/>
+      <c r="H61" s="22"/>
       <c r="I61" s="19" t="s">
         <v>516</v>
       </c>
       <c r="J61" s="22"/>
-      <c r="K61" s="22"/>
-      <c r="L61" s="22"/>
+      <c r="K61" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="L61" s="19" t="s">
+        <v>233</v>
+      </c>
       <c r="M61" s="19" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="N61" s="19" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="O61" s="19" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="P61" s="19" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="Q61" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="R61" s="22"/>
+        <v>233</v>
+      </c>
+      <c r="R61" s="27"/>
       <c r="S61" s="22"/>
       <c r="T61" s="22"/>
       <c r="U61" s="22"/>
-      <c r="V61" s="22"/>
+      <c r="V61" s="19" t="s">
+        <v>233</v>
+      </c>
       <c r="W61" s="22"/>
       <c r="X61" s="22"/>
       <c r="Y61" s="22"/>
       <c r="Z61" s="22"/>
       <c r="AA61" s="22"/>
-      <c r="AB61" s="22"/>
+      <c r="AB61" s="22" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="19" t="s">
         <v>517</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="C62" s="19" t="s">
         <v>518</v>
@@ -9511,23 +9543,23 @@
         <v>519</v>
       </c>
       <c r="E62" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="F62" s="22" t="s">
-        <v>238</v>
-      </c>
-      <c r="G62" s="20"/>
-      <c r="H62" s="22"/>
+        <v>306</v>
+      </c>
+      <c r="F62" s="22"/>
+      <c r="G62" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" s="19" t="s">
+        <v>351</v>
+      </c>
       <c r="I62" s="19" t="s">
         <v>520</v>
       </c>
       <c r="J62" s="22"/>
       <c r="K62" s="22"/>
-      <c r="L62" s="19" t="s">
+      <c r="L62" s="22"/>
+      <c r="M62" s="19" t="s">
         <v>214</v>
-      </c>
-      <c r="M62" s="19" t="s">
-        <v>233</v>
       </c>
       <c r="N62" s="19" t="s">
         <v>214</v>
@@ -9543,81 +9575,61 @@
       </c>
       <c r="R62" s="22"/>
       <c r="S62" s="22"/>
-      <c r="T62" s="19" t="s">
-        <v>214</v>
-      </c>
+      <c r="T62" s="22"/>
       <c r="U62" s="22"/>
-      <c r="V62" s="19" t="s">
-        <v>233</v>
-      </c>
+      <c r="V62" s="22"/>
       <c r="W62" s="22"/>
-      <c r="X62" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="Y62" s="22" t="s">
-        <v>233</v>
-      </c>
-      <c r="Z62" s="22" t="s">
-        <v>233</v>
-      </c>
+      <c r="X62" s="22"/>
+      <c r="Y62" s="22"/>
+      <c r="Z62" s="22"/>
       <c r="AA62" s="22"/>
-      <c r="AB62" s="22" t="s">
-        <v>214</v>
-      </c>
+      <c r="AB62" s="22"/>
     </row>
     <row r="63" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="19" t="s">
         <v>521</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="C63" s="19" t="s">
-        <v>491</v>
+        <v>522</v>
       </c>
       <c r="D63" s="19" t="s">
-        <v>444</v>
+        <v>523</v>
       </c>
       <c r="E63" s="19" t="s">
-        <v>306</v>
+        <v>237</v>
       </c>
       <c r="F63" s="22" t="s">
-        <v>307</v>
-      </c>
-      <c r="G63" s="22"/>
-      <c r="H63" s="19" t="s">
-        <v>351</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="G63" s="20"/>
+      <c r="H63" s="22"/>
       <c r="I63" s="19" t="s">
-        <v>522</v>
-      </c>
-      <c r="J63" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="K63" s="19" t="s">
-        <v>233</v>
-      </c>
+        <v>524</v>
+      </c>
+      <c r="J63" s="22"/>
+      <c r="K63" s="22"/>
       <c r="L63" s="19" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="M63" s="19" t="s">
         <v>233</v>
       </c>
       <c r="N63" s="19" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="O63" s="19" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="P63" s="19" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="Q63" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="R63" s="19" t="s">
-        <v>233</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="R63" s="22"/>
       <c r="S63" s="22"/>
       <c r="T63" s="19" t="s">
         <v>214</v>
@@ -9630,23 +9642,29 @@
       <c r="X63" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="Y63" s="22"/>
-      <c r="Z63" s="22"/>
+      <c r="Y63" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="Z63" s="22" t="s">
+        <v>233</v>
+      </c>
       <c r="AA63" s="22"/>
-      <c r="AB63" s="22"/>
+      <c r="AB63" s="22" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="19" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="B64" s="19" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>524</v>
+        <v>495</v>
       </c>
       <c r="D64" s="19" t="s">
-        <v>525</v>
+        <v>448</v>
       </c>
       <c r="E64" s="19" t="s">
         <v>306</v>
@@ -9656,24 +9674,46 @@
       </c>
       <c r="G64" s="22"/>
       <c r="H64" s="19" t="s">
+        <v>351</v>
+      </c>
+      <c r="I64" s="19" t="s">
         <v>526</v>
       </c>
-      <c r="I64" s="19" t="s">
-        <v>527</v>
-      </c>
-      <c r="J64" s="22"/>
-      <c r="K64" s="22"/>
-      <c r="L64" s="22"/>
-      <c r="M64" s="22"/>
-      <c r="N64" s="22"/>
-      <c r="O64" s="22"/>
-      <c r="P64" s="22"/>
-      <c r="Q64" s="22"/>
-      <c r="R64" s="22"/>
+      <c r="J64" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="K64" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="L64" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="M64" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="N64" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="O64" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="P64" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q64" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="R64" s="19" t="s">
+        <v>233</v>
+      </c>
       <c r="S64" s="22"/>
-      <c r="T64" s="22"/>
+      <c r="T64" s="19" t="s">
+        <v>214</v>
+      </c>
       <c r="U64" s="22"/>
-      <c r="V64" s="22"/>
+      <c r="V64" s="19" t="s">
+        <v>233</v>
+      </c>
       <c r="W64" s="22"/>
       <c r="X64" s="19" t="s">
         <v>233</v>
@@ -9685,16 +9725,16 @@
     </row>
     <row r="65" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="19" t="s">
+        <v>527</v>
+      </c>
+      <c r="B65" s="19" t="s">
+        <v>495</v>
+      </c>
+      <c r="C65" s="19" t="s">
         <v>528</v>
       </c>
-      <c r="B65" s="19" t="s">
-        <v>491</v>
-      </c>
-      <c r="C65" s="19" t="s">
+      <c r="D65" s="19" t="s">
         <v>529</v>
-      </c>
-      <c r="D65" s="19" t="s">
-        <v>530</v>
       </c>
       <c r="E65" s="19" t="s">
         <v>306</v>
@@ -9702,10 +9742,10 @@
       <c r="F65" s="22" t="s">
         <v>307</v>
       </c>
-      <c r="G65" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="H65" s="22"/>
+      <c r="G65" s="22"/>
+      <c r="H65" s="19" t="s">
+        <v>530</v>
+      </c>
       <c r="I65" s="19" t="s">
         <v>531</v>
       </c>
@@ -9717,47 +9757,45 @@
       <c r="O65" s="22"/>
       <c r="P65" s="22"/>
       <c r="Q65" s="22"/>
-      <c r="R65" s="19" t="s">
-        <v>532</v>
-      </c>
-      <c r="S65" s="19" t="s">
-        <v>233</v>
-      </c>
+      <c r="R65" s="22"/>
+      <c r="S65" s="22"/>
       <c r="T65" s="22"/>
       <c r="U65" s="22"/>
       <c r="V65" s="22"/>
       <c r="W65" s="22"/>
-      <c r="X65" s="22"/>
+      <c r="X65" s="19" t="s">
+        <v>233</v>
+      </c>
       <c r="Y65" s="22"/>
       <c r="Z65" s="22"/>
       <c r="AA65" s="22"/>
-      <c r="AB65" s="22" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="148.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AB65" s="22"/>
+    </row>
+    <row r="66" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="19" t="s">
+        <v>532</v>
+      </c>
+      <c r="B66" s="19" t="s">
+        <v>495</v>
+      </c>
+      <c r="C66" s="19" t="s">
         <v>533</v>
       </c>
-      <c r="B66" s="19" t="s">
-        <v>491</v>
-      </c>
-      <c r="C66" s="19" t="s">
+      <c r="D66" s="19" t="s">
         <v>534</v>
       </c>
-      <c r="D66" s="19" t="s">
-        <v>535</v>
-      </c>
       <c r="E66" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="F66" s="19" t="s">
-        <v>536</v>
-      </c>
-      <c r="G66" s="22"/>
+        <v>306</v>
+      </c>
+      <c r="F66" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="G66" s="20" t="n">
+        <v>1</v>
+      </c>
       <c r="H66" s="22"/>
       <c r="I66" s="19" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="J66" s="22"/>
       <c r="K66" s="22"/>
@@ -9767,7 +9805,9 @@
       <c r="O66" s="22"/>
       <c r="P66" s="22"/>
       <c r="Q66" s="22"/>
-      <c r="R66" s="28"/>
+      <c r="R66" s="19" t="s">
+        <v>536</v>
+      </c>
       <c r="S66" s="19" t="s">
         <v>233</v>
       </c>
@@ -9779,32 +9819,34 @@
       <c r="Y66" s="22"/>
       <c r="Z66" s="22"/>
       <c r="AA66" s="22"/>
-      <c r="AB66" s="22"/>
+      <c r="AB66" s="22" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="148.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="19" t="s">
+        <v>537</v>
+      </c>
+      <c r="B67" s="19" t="s">
+        <v>495</v>
+      </c>
+      <c r="C67" s="19" t="s">
         <v>538</v>
       </c>
-      <c r="B67" s="19" t="s">
-        <v>491</v>
-      </c>
-      <c r="C67" s="19" t="s">
+      <c r="D67" s="19" t="s">
         <v>539</v>
       </c>
-      <c r="D67" s="19" t="s">
+      <c r="E67" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="F67" s="19" t="s">
         <v>540</v>
       </c>
-      <c r="E67" s="19" t="s">
-        <v>290</v>
-      </c>
-      <c r="F67" s="19" t="s">
-        <v>291</v>
-      </c>
-      <c r="G67" s="22" t="s">
-        <v>292</v>
-      </c>
+      <c r="G67" s="22"/>
       <c r="H67" s="22"/>
-      <c r="I67" s="19"/>
+      <c r="I67" s="19" t="s">
+        <v>541</v>
+      </c>
       <c r="J67" s="22"/>
       <c r="K67" s="22"/>
       <c r="L67" s="22"/>
@@ -9813,33 +9855,46 @@
       <c r="O67" s="22"/>
       <c r="P67" s="22"/>
       <c r="Q67" s="22"/>
-      <c r="R67" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="AC67" s="19"/>
+      <c r="R67" s="28"/>
+      <c r="S67" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="T67" s="22"/>
+      <c r="U67" s="22"/>
+      <c r="V67" s="22"/>
+      <c r="W67" s="22"/>
+      <c r="X67" s="22"/>
+      <c r="Y67" s="22"/>
+      <c r="Z67" s="22"/>
+      <c r="AA67" s="22"/>
+      <c r="AB67" s="22"/>
     </row>
     <row r="68" customFormat="false" ht="148.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="19" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="C68" s="19" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D68" s="19" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="E68" s="19" t="s">
-        <v>237</v>
+        <v>290</v>
       </c>
       <c r="F68" s="19" t="s">
-        <v>238</v>
-      </c>
-      <c r="G68" s="22"/>
+        <v>291</v>
+      </c>
+      <c r="G68" s="22" t="s">
+        <v>292</v>
+      </c>
       <c r="H68" s="22"/>
-      <c r="I68" s="19"/>
+      <c r="I68" s="19" t="s">
+        <v>545</v>
+      </c>
       <c r="J68" s="22"/>
       <c r="K68" s="22"/>
       <c r="L68" s="22"/>
@@ -9855,16 +9910,16 @@
     </row>
     <row r="69" customFormat="false" ht="148.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="19" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="C69" s="19" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="D69" s="19" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="E69" s="19" t="s">
         <v>306</v>
@@ -9874,7 +9929,9 @@
       </c>
       <c r="G69" s="22"/>
       <c r="H69" s="22"/>
-      <c r="I69" s="19"/>
+      <c r="I69" s="19" t="s">
+        <v>549</v>
+      </c>
       <c r="J69" s="22"/>
       <c r="K69" s="22"/>
       <c r="L69" s="22"/>
@@ -9890,16 +9947,16 @@
     </row>
     <row r="70" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="19" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="C70" s="19" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="D70" s="19" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="E70" s="19" t="s">
         <v>237</v>
@@ -9910,21 +9967,21 @@
       <c r="G70" s="20"/>
       <c r="H70" s="22"/>
       <c r="I70" s="19" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="J70" s="22"/>
       <c r="K70" s="22"/>
       <c r="L70" s="22"/>
       <c r="M70" s="22"/>
       <c r="N70" s="19" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="O70" s="22"/>
       <c r="P70" s="19" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="Q70" s="19" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="R70" s="22"/>
       <c r="S70" s="22"/>
@@ -9940,25 +9997,25 @@
     </row>
     <row r="71" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="19" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="D71" s="19" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="E71" s="19" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="F71" s="22"/>
       <c r="G71" s="20"/>
       <c r="H71" s="22"/>
       <c r="I71" s="19" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="J71" s="22"/>
       <c r="K71" s="22"/>
@@ -9966,7 +10023,7 @@
       <c r="M71" s="22"/>
       <c r="N71" s="22"/>
       <c r="O71" s="19" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="P71" s="22"/>
       <c r="Q71" s="22"/>
@@ -9984,16 +10041,16 @@
     </row>
     <row r="72" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="19" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="C72" s="19" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="D72" s="19" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="E72" s="19" t="s">
         <v>335</v>
@@ -10004,21 +10061,21 @@
       <c r="G72" s="20"/>
       <c r="H72" s="22"/>
       <c r="I72" s="19" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="J72" s="22"/>
       <c r="K72" s="22"/>
       <c r="L72" s="22"/>
       <c r="M72" s="22"/>
       <c r="N72" s="19" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="O72" s="22"/>
       <c r="P72" s="19" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="Q72" s="19" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="R72" s="22"/>
       <c r="S72" s="22"/>
@@ -10034,25 +10091,25 @@
     </row>
     <row r="73" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="19" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="C73" s="19" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="D73" s="19" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="E73" s="19" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="F73" s="19"/>
       <c r="G73" s="20"/>
       <c r="H73" s="22"/>
       <c r="I73" s="19" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="J73" s="22"/>
       <c r="K73" s="22"/>
@@ -10060,7 +10117,7 @@
       <c r="M73" s="22"/>
       <c r="N73" s="22"/>
       <c r="O73" s="19" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="P73" s="22"/>
       <c r="Q73" s="22"/>
@@ -10078,16 +10135,16 @@
     </row>
     <row r="74" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="19" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="C74" s="19" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="D74" s="19" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="E74" s="19" t="s">
         <v>306</v>
@@ -10100,7 +10157,7 @@
         <v>351</v>
       </c>
       <c r="I74" s="19" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="J74" s="22"/>
       <c r="K74" s="22"/>
@@ -10130,25 +10187,25 @@
     </row>
     <row r="75" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="19" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="C75" s="19" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="D75" s="19" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="E75" s="19" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="F75" s="22"/>
       <c r="G75" s="20"/>
       <c r="H75" s="22"/>
       <c r="I75" s="19" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="J75" s="22"/>
       <c r="K75" s="22"/>
@@ -10156,7 +10213,7 @@
       <c r="M75" s="22"/>
       <c r="N75" s="22"/>
       <c r="O75" s="19" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="P75" s="22"/>
       <c r="Q75" s="22"/>
@@ -10174,27 +10231,27 @@
     </row>
     <row r="76" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="19" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="C76" s="19" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="D76" s="19" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="E76" s="19" t="s">
         <v>322</v>
       </c>
       <c r="F76" s="19" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="G76" s="20"/>
       <c r="H76" s="22"/>
       <c r="I76" s="19" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="J76" s="22"/>
       <c r="K76" s="22"/>
@@ -10202,7 +10259,7 @@
       <c r="M76" s="22"/>
       <c r="N76" s="22"/>
       <c r="O76" s="19" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="P76" s="22"/>
       <c r="Q76" s="22"/>
@@ -10220,16 +10277,16 @@
     </row>
     <row r="77" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="19" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="D77" s="19" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="E77" s="19" t="s">
         <v>237</v>
@@ -10240,25 +10297,25 @@
       <c r="G77" s="20"/>
       <c r="H77" s="22"/>
       <c r="I77" s="19" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="J77" s="22"/>
       <c r="K77" s="22"/>
       <c r="L77" s="22"/>
       <c r="M77" s="19" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="N77" s="19" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="O77" s="19" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="P77" s="19" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="Q77" s="19" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="R77" s="19" t="s">
         <v>233</v>
@@ -10267,17 +10324,17 @@
         <v>233</v>
       </c>
       <c r="T77" s="19" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="U77" s="22"/>
       <c r="V77" s="19" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="W77" s="19" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="X77" s="19" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="Y77" s="19" t="s">
         <v>270</v>
@@ -10286,22 +10343,22 @@
         <v>270</v>
       </c>
       <c r="AA77" s="19" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="AB77" s="19"/>
     </row>
     <row r="78" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="19" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="C78" s="19" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="D78" s="19" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="E78" s="19" t="s">
         <v>306</v>
@@ -10309,28 +10366,28 @@
       <c r="F78" s="22"/>
       <c r="G78" s="22"/>
       <c r="H78" s="19" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="I78" s="19" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="J78" s="22"/>
       <c r="K78" s="22"/>
       <c r="L78" s="22"/>
       <c r="M78" s="19" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="N78" s="19" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="O78" s="19" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="P78" s="19" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="Q78" s="19" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="R78" s="19" t="s">
         <v>233</v>
@@ -10339,17 +10396,17 @@
         <v>233</v>
       </c>
       <c r="T78" s="19" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="U78" s="22"/>
       <c r="V78" s="19" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="W78" s="19" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="X78" s="19" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="Y78" s="19" t="s">
         <v>270</v>
@@ -10358,22 +10415,22 @@
         <v>270</v>
       </c>
       <c r="AA78" s="19" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="AB78" s="19"/>
     </row>
     <row r="79" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="19" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="C79" s="19" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="D79" s="19" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="E79" s="19" t="s">
         <v>237</v>
@@ -10384,70 +10441,70 @@
       <c r="G79" s="20"/>
       <c r="H79" s="22"/>
       <c r="I79" s="19" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="J79" s="22"/>
       <c r="K79" s="19" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="L79" s="22"/>
       <c r="M79" s="19" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="N79" s="19" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="O79" s="19" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="P79" s="19" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="Q79" s="19" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="R79" s="19" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="S79" s="19" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="T79" s="19" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="U79" s="22"/>
       <c r="V79" s="19" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="W79" s="19" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="X79" s="19" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="Y79" s="19" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="Z79" s="19" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="AA79" s="19" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="AB79" s="19"/>
     </row>
     <row r="80" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="19" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="C80" s="19" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="D80" s="19" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="E80" s="19" t="s">
         <v>306</v>
@@ -10455,73 +10512,73 @@
       <c r="F80" s="22"/>
       <c r="G80" s="22"/>
       <c r="H80" s="19" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="I80" s="19" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="J80" s="22"/>
       <c r="K80" s="19" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="L80" s="22"/>
       <c r="M80" s="19" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="N80" s="19" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="O80" s="19" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="P80" s="19" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="Q80" s="19" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="R80" s="19" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="S80" s="19" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="T80" s="19" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="U80" s="22"/>
       <c r="V80" s="19" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="W80" s="19" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="X80" s="19" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="Y80" s="19" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="Z80" s="19" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="AA80" s="19" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="AB80" s="19"/>
     </row>
     <row r="81" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="19" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="C81" s="19" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="D81" s="19" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="E81" s="19" t="s">
         <v>290</v>
@@ -10532,7 +10589,7 @@
       <c r="G81" s="20"/>
       <c r="H81" s="22"/>
       <c r="I81" s="19" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="J81" s="22"/>
       <c r="K81" s="19" t="s">
@@ -10560,16 +10617,16 @@
     </row>
     <row r="82" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="23" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="B82" s="23" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="C82" s="23" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="D82" s="23" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="E82" s="23" t="s">
         <v>306</v>
@@ -10582,7 +10639,7 @@
         <v>351</v>
       </c>
       <c r="I82" s="24" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="J82" s="24"/>
       <c r="K82" s="24"/>
@@ -10614,16 +10671,16 @@
     </row>
     <row r="83" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="19" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="C83" s="19" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="D83" s="19" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="E83" s="19" t="s">
         <v>249</v>
@@ -10631,24 +10688,26 @@
       <c r="F83" s="21"/>
       <c r="G83" s="20"/>
       <c r="H83" s="21"/>
-      <c r="I83" s="21"/>
+      <c r="I83" s="21" t="s">
+        <v>615</v>
+      </c>
       <c r="J83" s="21"/>
       <c r="K83" s="21"/>
       <c r="L83" s="21"/>
       <c r="M83" s="19" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="N83" s="19" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="O83" s="19" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="P83" s="19" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="Q83" s="19" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="R83" s="21"/>
       <c r="S83" s="21"/>
@@ -10664,16 +10723,16 @@
     </row>
     <row r="84" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="19" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="C84" s="19" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="D84" s="19" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="E84" s="19" t="s">
         <v>306</v>
@@ -10683,24 +10742,26 @@
       </c>
       <c r="G84" s="22"/>
       <c r="H84" s="22"/>
-      <c r="I84" s="22"/>
+      <c r="I84" s="22" t="s">
+        <v>620</v>
+      </c>
       <c r="J84" s="22"/>
       <c r="K84" s="22"/>
       <c r="L84" s="22"/>
       <c r="M84" s="19" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="N84" s="19" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="O84" s="19" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="P84" s="19" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="Q84" s="19" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="R84" s="22"/>
       <c r="S84" s="22"/>
@@ -10716,16 +10777,16 @@
     </row>
     <row r="85" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="19" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="C85" s="19" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="D85" s="19" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="E85" s="19" t="s">
         <v>237</v>
@@ -10736,25 +10797,25 @@
       <c r="G85" s="22"/>
       <c r="H85" s="22"/>
       <c r="I85" s="19" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="J85" s="22"/>
       <c r="K85" s="22"/>
       <c r="L85" s="22"/>
       <c r="M85" s="19" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="N85" s="19" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="O85" s="19" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="P85" s="19" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="Q85" s="19" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="R85" s="22"/>
       <c r="S85" s="22"/>
@@ -10770,16 +10831,16 @@
     </row>
     <row r="86" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="19" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="C86" s="19" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="D86" s="19" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="E86" s="19" t="s">
         <v>335</v>
@@ -10790,25 +10851,25 @@
       <c r="G86" s="22"/>
       <c r="H86" s="22"/>
       <c r="I86" s="19" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="J86" s="22"/>
       <c r="K86" s="22"/>
       <c r="L86" s="22"/>
       <c r="M86" s="19" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="N86" s="19" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="O86" s="19" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="P86" s="19" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="Q86" s="19" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="R86" s="22"/>
       <c r="S86" s="22"/>
@@ -10824,47 +10885,47 @@
     </row>
     <row r="87" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="19" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="B87" s="19" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="C87" s="19" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="D87" s="19" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="E87" s="19" t="s">
         <v>210</v>
       </c>
       <c r="F87" s="19" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="G87" s="20" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="H87" s="21"/>
       <c r="I87" s="19" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="J87" s="22"/>
       <c r="K87" s="22"/>
       <c r="L87" s="22"/>
       <c r="M87" s="19" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="N87" s="19" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="O87" s="19" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="P87" s="19" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="Q87" s="19" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="R87" s="22"/>
       <c r="S87" s="22"/>
@@ -10880,16 +10941,16 @@
     </row>
     <row r="88" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="19" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="C88" s="19" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="D88" s="19" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="E88" s="19" t="s">
         <v>306</v>
@@ -10897,10 +10958,10 @@
       <c r="F88" s="22"/>
       <c r="G88" s="20"/>
       <c r="H88" s="19" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="I88" s="19" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="J88" s="22"/>
       <c r="K88" s="22"/>
@@ -10950,27 +11011,27 @@
     </row>
     <row r="89" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="19" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="B89" s="19" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="C89" s="19" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="D89" s="19" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="E89" s="19" t="s">
         <v>210</v>
       </c>
       <c r="F89" s="19" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="G89" s="20"/>
       <c r="H89" s="21"/>
       <c r="I89" s="19" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="J89" s="21"/>
       <c r="K89" s="21"/>
@@ -10996,16 +11057,16 @@
     </row>
     <row r="90" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="19" t="s">
+        <v>647</v>
+      </c>
+      <c r="B90" s="19" t="s">
         <v>642</v>
       </c>
-      <c r="B90" s="19" t="s">
-        <v>637</v>
-      </c>
       <c r="C90" s="19" t="s">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="D90" s="19" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="E90" s="19" t="s">
         <v>237</v>
@@ -11016,25 +11077,25 @@
       <c r="G90" s="20"/>
       <c r="H90" s="21"/>
       <c r="I90" s="19" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="J90" s="22"/>
       <c r="K90" s="22"/>
       <c r="L90" s="22"/>
       <c r="M90" s="19" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="N90" s="19" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="O90" s="19" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="P90" s="19" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="Q90" s="19" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="R90" s="22"/>
       <c r="S90" s="22"/>
@@ -11052,16 +11113,16 @@
     </row>
     <row r="91" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="19" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="B91" s="19" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="C91" s="19" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="D91" s="19" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
       <c r="E91" s="19" t="s">
         <v>306</v>
@@ -11074,7 +11135,7 @@
         <v>351</v>
       </c>
       <c r="I91" s="19" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="J91" s="22"/>
       <c r="K91" s="22"/>
@@ -11100,16 +11161,16 @@
     </row>
     <row r="92" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="19" t="s">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="B92" s="19" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="C92" s="19" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="D92" s="19" t="s">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="E92" s="19" t="s">
         <v>306</v>
@@ -11122,7 +11183,7 @@
         <v>351</v>
       </c>
       <c r="I92" s="19" t="s">
-        <v>654</v>
+        <v>659</v>
       </c>
       <c r="J92" s="22"/>
       <c r="K92" s="22"/>
@@ -11148,27 +11209,27 @@
     </row>
     <row r="93" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="19" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="B93" s="19" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="C93" s="19" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="D93" s="19" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
       <c r="E93" s="19" t="s">
         <v>210</v>
       </c>
       <c r="F93" s="19" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="G93" s="22"/>
       <c r="H93" s="22"/>
       <c r="I93" s="19" t="s">
-        <v>659</v>
+        <v>664</v>
       </c>
       <c r="J93" s="22"/>
       <c r="K93" s="22"/>
@@ -11194,16 +11255,16 @@
     </row>
     <row r="94" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="19" t="s">
-        <v>660</v>
+        <v>665</v>
       </c>
       <c r="B94" s="19" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="C94" s="19" t="s">
-        <v>661</v>
+        <v>666</v>
       </c>
       <c r="D94" s="19" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
       <c r="E94" s="19" t="s">
         <v>237</v>
@@ -11214,25 +11275,25 @@
       <c r="G94" s="20"/>
       <c r="H94" s="22"/>
       <c r="I94" s="19" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="J94" s="22"/>
       <c r="K94" s="22"/>
       <c r="L94" s="22"/>
       <c r="M94" s="19" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="N94" s="19" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="O94" s="19" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="P94" s="19" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="Q94" s="19" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="R94" s="22"/>
       <c r="S94" s="22"/>
@@ -11250,16 +11311,16 @@
     </row>
     <row r="95" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="19" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="B95" s="19" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="C95" s="19" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="D95" s="19" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
       <c r="E95" s="19" t="s">
         <v>335</v>
@@ -11270,25 +11331,25 @@
       <c r="G95" s="22"/>
       <c r="H95" s="22"/>
       <c r="I95" s="19" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
       <c r="J95" s="22"/>
       <c r="K95" s="22"/>
       <c r="L95" s="22"/>
       <c r="M95" s="19" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="N95" s="19" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="O95" s="19" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="P95" s="19" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="Q95" s="19" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="R95" s="22"/>
       <c r="S95" s="22"/>
@@ -11306,47 +11367,47 @@
     </row>
     <row r="96" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="19" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
       <c r="B96" s="19" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="C96" s="19" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="D96" s="19" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
       <c r="E96" s="19" t="s">
         <v>210</v>
       </c>
       <c r="F96" s="20" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="G96" s="20" t="s">
-        <v>672</v>
+        <v>677</v>
       </c>
       <c r="H96" s="22"/>
       <c r="I96" s="19" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
       <c r="J96" s="22"/>
       <c r="K96" s="22"/>
       <c r="L96" s="22"/>
       <c r="M96" s="19" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="N96" s="19" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="O96" s="19" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="P96" s="19" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="Q96" s="19" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="R96" s="22"/>
       <c r="S96" s="22"/>
@@ -11362,16 +11423,16 @@
     </row>
     <row r="97" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="19" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="B97" s="19" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="C97" s="19" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="D97" s="19" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="E97" s="19" t="s">
         <v>306</v>
@@ -11386,25 +11447,25 @@
         <v>351</v>
       </c>
       <c r="I97" s="19" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="J97" s="22"/>
       <c r="K97" s="22"/>
       <c r="L97" s="22"/>
       <c r="M97" s="19" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="N97" s="19" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="O97" s="19" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="P97" s="19" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="Q97" s="19" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="R97" s="22"/>
       <c r="S97" s="22"/>
@@ -11420,47 +11481,47 @@
     </row>
     <row r="98" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="19" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="B98" s="19" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="C98" s="19" t="s">
-        <v>679</v>
+        <v>684</v>
       </c>
       <c r="D98" s="19" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="E98" s="19" t="s">
         <v>210</v>
       </c>
       <c r="F98" s="21" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="G98" s="20" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="H98" s="22"/>
       <c r="I98" s="19" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
       <c r="J98" s="22"/>
       <c r="K98" s="22"/>
       <c r="L98" s="22"/>
       <c r="M98" s="19" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="N98" s="19" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="O98" s="19" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="P98" s="19" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="Q98" s="19" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="R98" s="22"/>
       <c r="S98" s="22"/>
@@ -11476,16 +11537,16 @@
     </row>
     <row r="99" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="19" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="C99" s="19" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="D99" s="19" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="E99" s="19" t="s">
         <v>306</v>
@@ -11494,11 +11555,11 @@
         <v>307</v>
       </c>
       <c r="G99" s="20" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="H99" s="21"/>
       <c r="I99" s="19" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="J99" s="21"/>
       <c r="K99" s="19" t="s">
@@ -11524,16 +11585,16 @@
     </row>
     <row r="100" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="19" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="B100" s="19" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="C100" s="19" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="D100" s="19" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="E100" s="19" t="s">
         <v>237</v>
@@ -11544,34 +11605,34 @@
       <c r="G100" s="20"/>
       <c r="H100" s="19"/>
       <c r="I100" s="19" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="J100" s="19"/>
       <c r="K100" s="19" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="L100" s="19" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="M100" s="19" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="N100" s="19" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="O100" s="21"/>
       <c r="P100" s="19" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="Q100" s="19" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="R100" s="19"/>
       <c r="S100" s="19"/>
       <c r="T100" s="19"/>
       <c r="U100" s="19"/>
       <c r="V100" s="19" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="W100" s="21"/>
       <c r="X100" s="21"/>
@@ -11582,25 +11643,25 @@
     </row>
     <row r="101" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="19" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="B101" s="19" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="C101" s="19" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="D101" s="19" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="E101" s="19" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="F101" s="21"/>
       <c r="G101" s="22"/>
       <c r="H101" s="19"/>
       <c r="I101" s="19" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="J101" s="19"/>
       <c r="K101" s="21"/>
@@ -11608,7 +11669,7 @@
       <c r="M101" s="21"/>
       <c r="N101" s="21"/>
       <c r="O101" s="19" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="P101" s="21"/>
       <c r="Q101" s="21"/>
@@ -11626,16 +11687,16 @@
     </row>
     <row r="102" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="19" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="B102" s="19" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="C102" s="19" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="D102" s="19" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
       <c r="E102" s="19" t="s">
         <v>335</v>
@@ -11646,34 +11707,34 @@
       <c r="G102" s="20"/>
       <c r="H102" s="19"/>
       <c r="I102" s="19" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="J102" s="19"/>
       <c r="K102" s="19" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="L102" s="19" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="M102" s="19" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="N102" s="19" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="O102" s="21"/>
       <c r="P102" s="19" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="Q102" s="19" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="R102" s="19"/>
       <c r="S102" s="19"/>
       <c r="T102" s="19"/>
       <c r="U102" s="19"/>
       <c r="V102" s="19" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="W102" s="21"/>
       <c r="X102" s="21"/>
@@ -11684,25 +11745,25 @@
     </row>
     <row r="103" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="19" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="B103" s="19" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="C103" s="19" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="D103" s="19" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
       <c r="E103" s="19" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="F103" s="19"/>
       <c r="G103" s="22"/>
       <c r="H103" s="19"/>
       <c r="I103" s="19" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="J103" s="19"/>
       <c r="K103" s="21"/>
@@ -11710,7 +11771,7 @@
       <c r="M103" s="21"/>
       <c r="N103" s="21"/>
       <c r="O103" s="19" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="P103" s="21"/>
       <c r="Q103" s="21"/>
@@ -11728,16 +11789,16 @@
     </row>
     <row r="104" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="19" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="B104" s="19" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="C104" s="19" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="D104" s="19" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="E104" s="19" t="s">
         <v>306</v>
@@ -11748,24 +11809,24 @@
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19" t="s">
-        <v>714</v>
+        <v>719</v>
       </c>
       <c r="J104" s="19"/>
       <c r="K104" s="19" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="L104" s="19" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="M104" s="19" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="N104" s="19" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="O104" s="21"/>
       <c r="P104" s="19" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="Q104" s="19" t="s">
         <v>233</v>
@@ -11786,25 +11847,25 @@
     </row>
     <row r="105" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="19" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="B105" s="19" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="C105" s="19" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
       <c r="D105" s="19" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="E105" s="19" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="F105" s="21"/>
       <c r="G105" s="22"/>
       <c r="H105" s="19"/>
       <c r="I105" s="19" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
       <c r="J105" s="19"/>
       <c r="K105" s="21"/>
@@ -11812,7 +11873,7 @@
       <c r="M105" s="21"/>
       <c r="N105" s="21"/>
       <c r="O105" s="19" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="P105" s="21"/>
       <c r="Q105" s="21"/>
@@ -11830,27 +11891,27 @@
     </row>
     <row r="106" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="19" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
       <c r="B106" s="19" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="C106" s="19" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
       <c r="D106" s="19" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="E106" s="19" t="s">
         <v>322</v>
       </c>
       <c r="F106" s="19" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
       <c r="G106" s="22"/>
       <c r="H106" s="19"/>
       <c r="I106" s="19" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="J106" s="19"/>
       <c r="K106" s="21"/>
@@ -11858,7 +11919,7 @@
       <c r="M106" s="21"/>
       <c r="N106" s="21"/>
       <c r="O106" s="19" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="P106" s="21"/>
       <c r="Q106" s="21"/>
@@ -11876,16 +11937,16 @@
     </row>
     <row r="107" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="19" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="B107" s="19" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="C107" s="19" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D107" s="19" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="E107" s="19" t="s">
         <v>249</v>
@@ -11894,26 +11955,26 @@
       <c r="G107" s="20"/>
       <c r="H107" s="19"/>
       <c r="I107" s="19" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
       <c r="J107" s="19"/>
       <c r="K107" s="19" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="L107" s="19" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="M107" s="19" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="N107" s="19" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="O107" s="19" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="P107" s="19" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="Q107" s="19" t="s">
         <v>233</v>
@@ -11934,16 +11995,16 @@
     </row>
     <row r="108" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="19" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="B108" s="19" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="C108" s="19" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
       <c r="D108" s="19" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
       <c r="E108" s="19" t="s">
         <v>306</v>
@@ -11952,25 +12013,25 @@
       <c r="G108" s="20"/>
       <c r="H108" s="19"/>
       <c r="I108" s="19" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="J108" s="19"/>
       <c r="K108" s="19"/>
       <c r="L108" s="21"/>
       <c r="M108" s="19" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="N108" s="19" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="O108" s="19" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="P108" s="19" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="Q108" s="19" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="R108" s="19"/>
       <c r="S108" s="19"/>
@@ -11982,22 +12043,22 @@
       <c r="Y108" s="21"/>
       <c r="Z108" s="21"/>
       <c r="AA108" s="19" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="AB108" s="19"/>
     </row>
     <row r="109" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="19" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="B109" s="19" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="C109" s="19" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="D109" s="19" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="E109" s="19" t="s">
         <v>306</v>
@@ -12006,25 +12067,25 @@
       <c r="G109" s="20"/>
       <c r="H109" s="19"/>
       <c r="I109" s="19" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="J109" s="19"/>
       <c r="K109" s="19"/>
       <c r="L109" s="21"/>
       <c r="M109" s="19" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="N109" s="19" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="O109" s="19" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="P109" s="19" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="Q109" s="19" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="R109" s="19"/>
       <c r="S109" s="19"/>
@@ -12036,22 +12097,22 @@
       <c r="Y109" s="21"/>
       <c r="Z109" s="21"/>
       <c r="AA109" s="19" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="AB109" s="19"/>
     </row>
     <row r="110" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="19" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
       <c r="B110" s="19" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="C110" s="19" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="D110" s="19" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="E110" s="19" t="s">
         <v>306</v>
@@ -12062,25 +12123,25 @@
       <c r="G110" s="20"/>
       <c r="H110" s="19"/>
       <c r="I110" s="19" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
       <c r="J110" s="19"/>
       <c r="K110" s="19"/>
       <c r="L110" s="21"/>
       <c r="M110" s="19" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="N110" s="19" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="O110" s="19" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="P110" s="19" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="Q110" s="19" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="R110" s="19"/>
       <c r="S110" s="19"/>
@@ -12096,16 +12157,16 @@
     </row>
     <row r="111" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="19" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
       <c r="B111" s="19" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="C111" s="19" t="s">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="D111" s="19" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
       <c r="E111" s="19" t="s">
         <v>306</v>
@@ -12116,25 +12177,25 @@
       <c r="G111" s="20"/>
       <c r="H111" s="19"/>
       <c r="I111" s="19" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="J111" s="19"/>
       <c r="K111" s="19"/>
       <c r="L111" s="21"/>
       <c r="M111" s="19" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="N111" s="19" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="O111" s="19" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="P111" s="19" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="Q111" s="19" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="R111" s="19"/>
       <c r="S111" s="19"/>
@@ -12150,41 +12211,41 @@
     </row>
     <row r="112" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="19" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="B112" s="19" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="C112" s="19" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
       <c r="D112" s="19" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="E112" s="19" t="s">
         <v>210</v>
       </c>
       <c r="F112" s="19" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="G112" s="20" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
       <c r="H112" s="19"/>
       <c r="I112" s="19" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="J112" s="19"/>
       <c r="K112" s="19"/>
       <c r="L112" s="21"/>
       <c r="M112" s="19" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="N112" s="19" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="O112" s="19" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="P112" s="21"/>
       <c r="Q112" s="21"/>
@@ -12193,7 +12254,7 @@
       <c r="T112" s="19"/>
       <c r="U112" s="19"/>
       <c r="V112" s="19" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="W112" s="21"/>
       <c r="X112" s="21"/>
@@ -12204,16 +12265,16 @@
     </row>
     <row r="113" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="19" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
       <c r="B113" s="19" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="C113" s="19" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
       <c r="D113" s="19" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="E113" s="19" t="s">
         <v>290</v>
@@ -12226,34 +12287,34 @@
       </c>
       <c r="H113" s="19"/>
       <c r="I113" s="19" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="J113" s="19"/>
       <c r="K113" s="19"/>
       <c r="L113" s="19" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="M113" s="19" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="N113" s="19" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="O113" s="19" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="P113" s="19" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="Q113" s="19" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="R113" s="19"/>
       <c r="S113" s="19"/>
       <c r="T113" s="19"/>
       <c r="U113" s="19"/>
       <c r="V113" s="19" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="W113" s="21"/>
       <c r="X113" s="21"/>
@@ -12266,16 +12327,16 @@
     </row>
     <row r="114" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="19" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
       <c r="B114" s="19" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="C114" s="19" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
       <c r="D114" s="19" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="E114" s="19" t="s">
         <v>306</v>
@@ -12284,34 +12345,34 @@
       <c r="G114" s="20"/>
       <c r="H114" s="19"/>
       <c r="I114" s="19" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="J114" s="19"/>
       <c r="K114" s="19"/>
       <c r="L114" s="19" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="M114" s="19" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="N114" s="19" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="O114" s="19" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="P114" s="19" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="Q114" s="19" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="R114" s="19"/>
       <c r="S114" s="19"/>
       <c r="T114" s="19"/>
       <c r="U114" s="19"/>
       <c r="V114" s="19" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="W114" s="21"/>
       <c r="X114" s="21"/>
@@ -12322,16 +12383,16 @@
     </row>
     <row r="115" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="19" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="B115" s="19" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="C115" s="19" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
       <c r="D115" s="19" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="E115" s="19" t="s">
         <v>306</v>
@@ -12342,34 +12403,34 @@
       </c>
       <c r="H115" s="19"/>
       <c r="I115" s="19" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
       <c r="J115" s="19"/>
       <c r="K115" s="19"/>
       <c r="L115" s="19" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="M115" s="19" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="N115" s="19" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="O115" s="19" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="P115" s="19" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="Q115" s="19" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="R115" s="19"/>
       <c r="S115" s="19"/>
       <c r="T115" s="19"/>
       <c r="U115" s="19"/>
       <c r="V115" s="19" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="W115" s="21"/>
       <c r="X115" s="21"/>
@@ -12380,16 +12441,16 @@
     </row>
     <row r="116" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="19" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
       <c r="B116" s="19" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
       <c r="C116" s="19" t="s">
-        <v>766</v>
+        <v>771</v>
       </c>
       <c r="D116" s="19" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
       <c r="E116" s="19" t="s">
         <v>237</v>
@@ -12400,7 +12461,7 @@
       <c r="G116" s="20"/>
       <c r="H116" s="19"/>
       <c r="I116" s="19" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
       <c r="J116" s="19"/>
       <c r="K116" s="19"/>
@@ -12413,37 +12474,37 @@
       <c r="R116" s="19"/>
       <c r="S116" s="19"/>
       <c r="T116" s="19" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
       <c r="U116" s="19" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
       <c r="V116" s="21"/>
       <c r="W116" s="21"/>
       <c r="X116" s="19" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
       <c r="Y116" s="19" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
       <c r="Z116" s="19" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
       <c r="AA116" s="19"/>
       <c r="AB116" s="19"/>
     </row>
     <row r="117" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="19" t="s">
+        <v>775</v>
+      </c>
+      <c r="B117" s="19" t="s">
         <v>770</v>
       </c>
-      <c r="B117" s="19" t="s">
-        <v>765</v>
-      </c>
       <c r="C117" s="19" t="s">
-        <v>771</v>
+        <v>776</v>
       </c>
       <c r="D117" s="19" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="E117" s="19" t="s">
         <v>306</v>
@@ -12454,7 +12515,7 @@
         <v>351</v>
       </c>
       <c r="I117" s="19" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
       <c r="J117" s="19"/>
       <c r="K117" s="19"/>
@@ -12467,21 +12528,21 @@
       <c r="R117" s="19"/>
       <c r="S117" s="19"/>
       <c r="T117" s="19" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="U117" s="19" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="V117" s="21"/>
       <c r="W117" s="21"/>
       <c r="X117" s="19" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="Y117" s="19" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="Z117" s="19" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="AA117" s="19"/>
       <c r="AB117" s="19" t="s">
@@ -12490,16 +12551,16 @@
     </row>
     <row r="118" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="19" t="s">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="B118" s="19" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
       <c r="C118" s="19" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
       <c r="D118" s="19" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
       <c r="E118" s="19" t="s">
         <v>290</v>
@@ -12512,7 +12573,7 @@
       </c>
       <c r="H118" s="19"/>
       <c r="I118" s="19" t="s">
-        <v>778</v>
+        <v>783</v>
       </c>
       <c r="J118" s="19"/>
       <c r="K118" s="19"/>
@@ -12548,29 +12609,29 @@
     </row>
     <row r="119" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="19" t="s">
-        <v>779</v>
+        <v>784</v>
       </c>
       <c r="B119" s="19" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
       <c r="C119" s="19" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
       <c r="D119" s="19" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
       <c r="E119" s="19" t="s">
         <v>210</v>
       </c>
       <c r="F119" s="19" t="s">
-        <v>782</v>
+        <v>787</v>
       </c>
       <c r="G119" s="20" t="s">
-        <v>783</v>
+        <v>788</v>
       </c>
       <c r="H119" s="19"/>
       <c r="I119" s="19" t="s">
-        <v>784</v>
+        <v>789</v>
       </c>
       <c r="J119" s="19"/>
       <c r="K119" s="19"/>
@@ -12604,16 +12665,16 @@
     </row>
     <row r="120" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="19" t="s">
-        <v>785</v>
+        <v>790</v>
       </c>
       <c r="B120" s="19" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
       <c r="C120" s="19" t="s">
-        <v>786</v>
+        <v>791</v>
       </c>
       <c r="D120" s="19" t="s">
-        <v>787</v>
+        <v>792</v>
       </c>
       <c r="E120" s="19" t="s">
         <v>306</v>
@@ -12622,7 +12683,7 @@
       <c r="G120" s="20"/>
       <c r="H120" s="19"/>
       <c r="I120" s="19" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="J120" s="19"/>
       <c r="K120" s="19"/>
@@ -12648,27 +12709,27 @@
     </row>
     <row r="121" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="19" t="s">
-        <v>789</v>
+        <v>794</v>
       </c>
       <c r="B121" s="19" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
       <c r="C121" s="19" t="s">
-        <v>790</v>
+        <v>795</v>
       </c>
       <c r="D121" s="19" t="s">
-        <v>791</v>
+        <v>796</v>
       </c>
       <c r="E121" s="19" t="s">
         <v>249</v>
       </c>
       <c r="F121" s="19" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="G121" s="20"/>
       <c r="H121" s="19"/>
       <c r="I121" s="19" t="s">
-        <v>792</v>
+        <v>797</v>
       </c>
       <c r="J121" s="19"/>
       <c r="K121" s="19" t="s">
@@ -12722,18 +12783,18 @@
         <v>214</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="19" t="s">
-        <v>793</v>
+        <v>798</v>
       </c>
       <c r="B122" s="19" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="C122" s="19" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="D122" s="19" t="s">
-        <v>795</v>
+        <v>800</v>
       </c>
       <c r="E122" s="19" t="s">
         <v>237</v>
@@ -12744,7 +12805,7 @@
       <c r="G122" s="19"/>
       <c r="H122" s="19"/>
       <c r="I122" s="19" t="s">
-        <v>796</v>
+        <v>801</v>
       </c>
       <c r="R122" s="0" t="s">
         <v>233</v>
@@ -12756,16 +12817,16 @@
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="19" t="s">
-        <v>797</v>
+        <v>802</v>
       </c>
       <c r="B123" s="19" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="C123" s="19" t="s">
-        <v>798</v>
+        <v>803</v>
       </c>
       <c r="D123" s="19" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
       <c r="E123" s="19" t="s">
         <v>306</v>
@@ -12774,7 +12835,7 @@
       <c r="G123" s="19"/>
       <c r="H123" s="19"/>
       <c r="I123" s="19" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
       <c r="R123" s="0" t="s">
         <v>233</v>
@@ -12786,16 +12847,16 @@
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="19" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
       <c r="B124" s="19" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="C124" s="19" t="s">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="D124" s="19" t="s">
-        <v>803</v>
+        <v>808</v>
       </c>
       <c r="E124" s="19" t="s">
         <v>306</v>
@@ -12804,7 +12865,7 @@
       <c r="G124" s="19"/>
       <c r="H124" s="19"/>
       <c r="I124" s="19" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="R124" s="0" t="s">
         <v>233</v>
@@ -12816,16 +12877,16 @@
     </row>
     <row r="125" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="19" t="s">
-        <v>805</v>
+        <v>810</v>
       </c>
       <c r="B125" s="19" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="C125" s="19" t="s">
-        <v>806</v>
+        <v>811</v>
       </c>
       <c r="D125" s="19" t="s">
-        <v>807</v>
+        <v>812</v>
       </c>
       <c r="E125" s="19" t="s">
         <v>306</v>
@@ -12836,7 +12897,7 @@
       </c>
       <c r="H125" s="19"/>
       <c r="I125" s="19" t="s">
-        <v>808</v>
+        <v>813</v>
       </c>
       <c r="AB125" s="0" t="s">
         <v>214</v>
@@ -12845,46 +12906,46 @@
     </row>
     <row r="126" customFormat="false" ht="80.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>809</v>
+        <v>814</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>810</v>
+        <v>815</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>811</v>
+        <v>816</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>812</v>
+        <v>817</v>
       </c>
       <c r="E126" s="0" t="s">
         <v>210</v>
       </c>
       <c r="F126" s="19" t="s">
-        <v>813</v>
+        <v>818</v>
       </c>
       <c r="G126" s="0" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="I126" s="0" t="s">
-        <v>814</v>
+        <v>819</v>
       </c>
       <c r="R126" s="0" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
       <c r="AC126" s="19"/>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
+        <v>820</v>
+      </c>
+      <c r="B127" s="0" t="s">
         <v>815</v>
       </c>
-      <c r="B127" s="0" t="s">
-        <v>810</v>
-      </c>
       <c r="C127" s="0" t="s">
-        <v>816</v>
+        <v>821</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>817</v>
+        <v>822</v>
       </c>
       <c r="E127" s="0" t="s">
         <v>290</v>
@@ -12896,7 +12957,7 @@
         <v>292</v>
       </c>
       <c r="I127" s="0" t="s">
-        <v>818</v>
+        <v>823</v>
       </c>
       <c r="R127" s="0" t="s">
         <v>214</v>
@@ -12905,16 +12966,16 @@
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>819</v>
+        <v>824</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>810</v>
+        <v>815</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>820</v>
+        <v>825</v>
       </c>
       <c r="D128" s="0" t="s">
-        <v>821</v>
+        <v>826</v>
       </c>
       <c r="E128" s="0" t="s">
         <v>290</v>
@@ -12926,7 +12987,7 @@
         <v>292</v>
       </c>
       <c r="I128" s="0" t="s">
-        <v>822</v>
+        <v>827</v>
       </c>
       <c r="R128" s="0" t="s">
         <v>214</v>
@@ -12935,16 +12996,16 @@
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>823</v>
+        <v>828</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>810</v>
+        <v>815</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>824</v>
+        <v>829</v>
       </c>
       <c r="D129" s="0" t="s">
-        <v>825</v>
+        <v>830</v>
       </c>
       <c r="E129" s="0" t="s">
         <v>237</v>
@@ -12953,7 +13014,7 @@
         <v>238</v>
       </c>
       <c r="I129" s="0" t="s">
-        <v>826</v>
+        <v>831</v>
       </c>
       <c r="R129" s="0" t="s">
         <v>214</v>
@@ -12962,16 +13023,16 @@
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>827</v>
+        <v>832</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>810</v>
+        <v>815</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>828</v>
+        <v>833</v>
       </c>
       <c r="D130" s="0" t="s">
-        <v>829</v>
+        <v>834</v>
       </c>
       <c r="E130" s="0" t="s">
         <v>237</v>
@@ -12980,7 +13041,7 @@
         <v>238</v>
       </c>
       <c r="I130" s="0" t="s">
-        <v>830</v>
+        <v>835</v>
       </c>
       <c r="R130" s="0" t="s">
         <v>214</v>
@@ -12989,40 +13050,40 @@
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>831</v>
+        <v>836</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>810</v>
+        <v>815</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>832</v>
+        <v>837</v>
       </c>
       <c r="D131" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="E131" s="0" t="s">
         <v>306</v>
       </c>
       <c r="I131" s="0" t="s">
-        <v>834</v>
+        <v>839</v>
       </c>
       <c r="R131" s="0" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="AC131" s="19"/>
     </row>
     <row r="132" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="19" t="s">
-        <v>835</v>
+        <v>840</v>
       </c>
       <c r="B132" s="19" t="s">
-        <v>810</v>
+        <v>815</v>
       </c>
       <c r="C132" s="19" t="s">
-        <v>836</v>
+        <v>841</v>
       </c>
       <c r="D132" s="19" t="s">
-        <v>837</v>
+        <v>842</v>
       </c>
       <c r="E132" s="19" t="s">
         <v>237</v>
@@ -13033,7 +13094,7 @@
       <c r="G132" s="19"/>
       <c r="H132" s="19"/>
       <c r="I132" s="19" t="s">
-        <v>838</v>
+        <v>843</v>
       </c>
       <c r="AB132" s="0" t="s">
         <v>214</v>
@@ -13042,16 +13103,16 @@
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="19" t="s">
-        <v>839</v>
+        <v>844</v>
       </c>
       <c r="B133" s="19" t="s">
-        <v>810</v>
+        <v>815</v>
       </c>
       <c r="C133" s="19" t="s">
-        <v>840</v>
+        <v>845</v>
       </c>
       <c r="D133" s="19" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
       <c r="E133" s="19" t="s">
         <v>335</v>
@@ -13062,7 +13123,7 @@
       <c r="G133" s="19"/>
       <c r="H133" s="19"/>
       <c r="I133" s="19" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
       <c r="AB133" s="0" t="s">
         <v>214</v>
@@ -13071,16 +13132,16 @@
     </row>
     <row r="134" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="19" t="s">
-        <v>843</v>
+        <v>848</v>
       </c>
       <c r="B134" s="19" t="s">
-        <v>810</v>
+        <v>815</v>
       </c>
       <c r="C134" s="19" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
       <c r="D134" s="19" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="E134" s="19" t="s">
         <v>237</v>
@@ -13091,7 +13152,7 @@
       <c r="G134" s="19"/>
       <c r="H134" s="19"/>
       <c r="I134" s="19" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="AB134" s="0" t="s">
         <v>214</v>
@@ -13100,16 +13161,16 @@
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="19" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="B135" s="19" t="s">
-        <v>810</v>
+        <v>815</v>
       </c>
       <c r="C135" s="19" t="s">
-        <v>848</v>
+        <v>853</v>
       </c>
       <c r="D135" s="19" t="s">
-        <v>849</v>
+        <v>854</v>
       </c>
       <c r="E135" s="19" t="s">
         <v>335</v>
@@ -13120,7 +13181,7 @@
       <c r="G135" s="19"/>
       <c r="H135" s="19"/>
       <c r="I135" s="19" t="s">
-        <v>850</v>
+        <v>855</v>
       </c>
       <c r="AB135" s="0" t="s">
         <v>214</v>
@@ -13129,16 +13190,16 @@
     </row>
     <row r="136" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="19" t="s">
-        <v>851</v>
+        <v>856</v>
       </c>
       <c r="B136" s="19" t="s">
-        <v>810</v>
+        <v>815</v>
       </c>
       <c r="C136" s="19" t="s">
-        <v>852</v>
+        <v>857</v>
       </c>
       <c r="D136" s="19" t="s">
-        <v>853</v>
+        <v>858</v>
       </c>
       <c r="E136" s="19" t="s">
         <v>290</v>
@@ -13147,11 +13208,11 @@
         <v>291</v>
       </c>
       <c r="G136" s="19" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
       <c r="H136" s="19"/>
       <c r="I136" s="19" t="s">
-        <v>855</v>
+        <v>860</v>
       </c>
       <c r="AB136" s="0" t="s">
         <v>214</v>
@@ -13160,19 +13221,19 @@
     </row>
     <row r="137" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="19" t="s">
-        <v>856</v>
+        <v>861</v>
       </c>
       <c r="B137" s="19" t="s">
-        <v>810</v>
+        <v>815</v>
       </c>
       <c r="C137" s="19" t="s">
-        <v>857</v>
+        <v>862</v>
       </c>
       <c r="D137" s="19" t="s">
-        <v>858</v>
+        <v>863</v>
       </c>
       <c r="E137" s="19" t="s">
-        <v>859</v>
+        <v>864</v>
       </c>
       <c r="F137" s="19"/>
       <c r="G137" s="19" t="n">
@@ -13180,7 +13241,7 @@
       </c>
       <c r="H137" s="19"/>
       <c r="I137" s="19" t="s">
-        <v>860</v>
+        <v>865</v>
       </c>
       <c r="J137" s="19"/>
       <c r="K137" s="19"/>
@@ -13210,19 +13271,19 @@
     </row>
     <row r="138" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="19" t="s">
-        <v>861</v>
+        <v>866</v>
       </c>
       <c r="B138" s="19" t="s">
-        <v>810</v>
+        <v>815</v>
       </c>
       <c r="C138" s="19" t="s">
-        <v>862</v>
+        <v>867</v>
       </c>
       <c r="D138" s="19" t="s">
-        <v>863</v>
+        <v>868</v>
       </c>
       <c r="E138" s="19" t="s">
-        <v>859</v>
+        <v>864</v>
       </c>
       <c r="F138" s="19"/>
       <c r="G138" s="19" t="n">
@@ -13230,7 +13291,7 @@
       </c>
       <c r="H138" s="19"/>
       <c r="I138" s="19" t="s">
-        <v>864</v>
+        <v>869</v>
       </c>
       <c r="J138" s="19"/>
       <c r="K138" s="19"/>
@@ -13260,16 +13321,16 @@
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>865</v>
+        <v>870</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>810</v>
+        <v>815</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>866</v>
+        <v>871</v>
       </c>
       <c r="D139" s="0" t="s">
-        <v>867</v>
+        <v>872</v>
       </c>
       <c r="E139" s="0" t="s">
         <v>306</v>
@@ -13278,7 +13339,7 @@
         <v>1</v>
       </c>
       <c r="I139" s="0" t="s">
-        <v>868</v>
+        <v>873</v>
       </c>
       <c r="AB139" s="0" t="s">
         <v>214</v>
@@ -13286,16 +13347,16 @@
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>869</v>
+        <v>874</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>810</v>
+        <v>815</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>870</v>
+        <v>875</v>
       </c>
       <c r="D140" s="0" t="s">
-        <v>871</v>
+        <v>876</v>
       </c>
       <c r="E140" s="0" t="s">
         <v>306</v>
@@ -13304,7 +13365,7 @@
         <v>1</v>
       </c>
       <c r="I140" s="0" t="s">
-        <v>868</v>
+        <v>873</v>
       </c>
       <c r="AB140" s="0" t="s">
         <v>214</v>
@@ -13312,16 +13373,16 @@
     </row>
     <row r="141" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>874</v>
+        <v>879</v>
       </c>
       <c r="D141" s="0" t="s">
-        <v>875</v>
+        <v>880</v>
       </c>
       <c r="E141" s="0" t="s">
         <v>237</v>
@@ -13330,7 +13391,7 @@
         <v>238</v>
       </c>
       <c r="I141" s="19" t="s">
-        <v>876</v>
+        <v>881</v>
       </c>
       <c r="AB141" s="19" t="s">
         <v>338</v>
@@ -13338,16 +13399,16 @@
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>877</v>
+        <v>882</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>878</v>
+        <v>883</v>
       </c>
       <c r="D142" s="0" t="s">
-        <v>879</v>
+        <v>884</v>
       </c>
       <c r="E142" s="0" t="s">
         <v>335</v>
@@ -13356,7 +13417,7 @@
         <v>336</v>
       </c>
       <c r="I142" s="19" t="s">
-        <v>880</v>
+        <v>885</v>
       </c>
       <c r="AB142" s="19" t="s">
         <v>338</v>
@@ -13364,45 +13425,45 @@
     </row>
     <row r="143" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>881</v>
+        <v>886</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>882</v>
+        <v>887</v>
       </c>
       <c r="D143" s="0" t="s">
-        <v>883</v>
+        <v>888</v>
       </c>
       <c r="E143" s="0" t="s">
         <v>210</v>
       </c>
       <c r="F143" s="19" t="s">
-        <v>884</v>
+        <v>889</v>
       </c>
       <c r="G143" s="0" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="I143" s="0" t="s">
-        <v>886</v>
+        <v>891</v>
       </c>
       <c r="AB143" s="19" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>888</v>
+        <v>893</v>
       </c>
       <c r="D144" s="0" t="s">
-        <v>889</v>
+        <v>894</v>
       </c>
       <c r="E144" s="0" t="s">
         <v>306</v>
@@ -13411,7 +13472,7 @@
         <v>0</v>
       </c>
       <c r="I144" s="0" t="s">
-        <v>890</v>
+        <v>895</v>
       </c>
       <c r="AB144" s="19" t="s">
         <v>331</v>
@@ -13419,16 +13480,16 @@
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>891</v>
+        <v>896</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>892</v>
+        <v>897</v>
       </c>
       <c r="D145" s="0" t="s">
-        <v>893</v>
+        <v>898</v>
       </c>
       <c r="E145" s="0" t="s">
         <v>306</v>
@@ -13437,7 +13498,7 @@
         <v>0</v>
       </c>
       <c r="I145" s="0" t="s">
-        <v>894</v>
+        <v>899</v>
       </c>
       <c r="AB145" s="19" t="s">
         <v>338</v>
@@ -13445,16 +13506,16 @@
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>895</v>
+        <v>900</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>896</v>
+        <v>901</v>
       </c>
       <c r="D146" s="0" t="s">
-        <v>897</v>
+        <v>902</v>
       </c>
       <c r="E146" s="0" t="s">
         <v>237</v>
@@ -13463,7 +13524,7 @@
         <v>238</v>
       </c>
       <c r="I146" s="0" t="s">
-        <v>898</v>
+        <v>903</v>
       </c>
       <c r="AB146" s="19" t="s">
         <v>338</v>
@@ -13536,7 +13597,7 @@
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="10"/>
       <c r="B2" s="30" t="s">
-        <v>899</v>
+        <v>904</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -13594,7 +13655,7 @@
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="30"/>
       <c r="B4" s="30" t="s">
-        <v>900</v>
+        <v>905</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -13652,10 +13713,10 @@
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="30"/>
       <c r="B6" s="30" t="s">
-        <v>901</v>
+        <v>906</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>902</v>
+        <v>907</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="30"/>
@@ -13685,7 +13746,7 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="30" t="s">
-        <v>903</v>
+        <v>908</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
@@ -13742,10 +13803,10 @@
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="30"/>
       <c r="B9" s="30" t="s">
-        <v>904</v>
+        <v>909</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>905</v>
+        <v>910</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="30"/>
@@ -13775,11 +13836,11 @@
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="30" t="s">
-        <v>906</v>
+        <v>911</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="30" t="s">
-        <v>907</v>
+        <v>912</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
@@ -13834,12 +13895,12 @@
     <row r="12" customFormat="false" ht="118.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="10"/>
       <c r="B12" s="30" t="s">
-        <v>908</v>
+        <v>913</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="21" t="s">
-        <v>909</v>
+        <v>914</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
@@ -13894,14 +13955,14 @@
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="10"/>
       <c r="B14" s="30" t="s">
-        <v>910</v>
+        <v>915</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>911</v>
+        <v>916</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="21" t="s">
-        <v>912</v>
+        <v>917</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
@@ -13958,10 +14019,10 @@
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="30" t="s">
-        <v>913</v>
+        <v>918</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>914</v>
+        <v>919</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
@@ -13990,10 +14051,10 @@
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="30" t="s">
-        <v>915</v>
+        <v>920</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>916</v>
+        <v>921</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
@@ -14022,10 +14083,10 @@
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="30" t="s">
-        <v>917</v>
+        <v>922</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>918</v>
+        <v>923</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
@@ -14081,11 +14142,11 @@
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="30" t="s">
-        <v>919</v>
+        <v>924</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="21" t="s">
-        <v>920</v>
+        <v>925</v>
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
@@ -14142,10 +14203,10 @@
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="30" t="s">
-        <v>913</v>
+        <v>918</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>921</v>
+        <v>926</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
@@ -14174,10 +14235,10 @@
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="30" t="s">
-        <v>922</v>
+        <v>927</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>923</v>
+        <v>928</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
@@ -14233,11 +14294,11 @@
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="30" t="s">
-        <v>924</v>
+        <v>929</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="21" t="s">
-        <v>925</v>
+        <v>930</v>
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
@@ -14294,10 +14355,10 @@
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
       <c r="D27" s="31" t="s">
-        <v>926</v>
+        <v>931</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>927</v>
+        <v>932</v>
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
@@ -14326,10 +14387,10 @@
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="31" t="s">
-        <v>928</v>
+        <v>933</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>929</v>
+        <v>934</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
@@ -14358,10 +14419,10 @@
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="31" t="s">
-        <v>930</v>
+        <v>935</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>931</v>
+        <v>936</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
@@ -14390,10 +14451,10 @@
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="31" t="s">
-        <v>932</v>
+        <v>937</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>933</v>
+        <v>938</v>
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
@@ -14422,10 +14483,10 @@
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
       <c r="D31" s="31" t="s">
-        <v>934</v>
+        <v>939</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>935</v>
+        <v>940</v>
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
@@ -14481,11 +14542,11 @@
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="30" t="s">
-        <v>936</v>
+        <v>941</v>
       </c>
       <c r="D33" s="10"/>
       <c r="E33" s="21" t="s">
-        <v>937</v>
+        <v>942</v>
       </c>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
@@ -14542,10 +14603,10 @@
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="30" t="s">
-        <v>913</v>
+        <v>918</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>938</v>
+        <v>943</v>
       </c>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
@@ -14574,10 +14635,10 @@
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="D36" s="30" t="s">
-        <v>939</v>
+        <v>944</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>940</v>
+        <v>945</v>
       </c>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
@@ -14606,10 +14667,10 @@
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
       <c r="D37" s="30" t="s">
-        <v>941</v>
+        <v>946</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>942</v>
+        <v>947</v>
       </c>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
@@ -14638,10 +14699,10 @@
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
       <c r="D38" s="30" t="s">
-        <v>943</v>
+        <v>948</v>
       </c>
       <c r="E38" s="21" t="s">
-        <v>944</v>
+        <v>949</v>
       </c>
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
@@ -14670,10 +14731,10 @@
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
       <c r="D39" s="30" t="s">
-        <v>945</v>
+        <v>950</v>
       </c>
       <c r="E39" s="21" t="s">
-        <v>946</v>
+        <v>951</v>
       </c>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
@@ -14729,11 +14790,11 @@
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10" t="s">
-        <v>947</v>
+        <v>952</v>
       </c>
       <c r="D41" s="10"/>
       <c r="E41" s="21" t="s">
-        <v>948</v>
+        <v>953</v>
       </c>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
@@ -14790,10 +14851,10 @@
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
       <c r="D43" s="30" t="s">
-        <v>913</v>
+        <v>918</v>
       </c>
       <c r="E43" s="30" t="s">
-        <v>949</v>
+        <v>954</v>
       </c>
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
@@ -14822,10 +14883,10 @@
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
       <c r="D44" s="31" t="s">
-        <v>950</v>
+        <v>955</v>
       </c>
       <c r="E44" s="21" t="s">
-        <v>951</v>
+        <v>956</v>
       </c>
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
@@ -14854,10 +14915,10 @@
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
       <c r="D45" s="30" t="s">
-        <v>952</v>
+        <v>957</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>953</v>
+        <v>958</v>
       </c>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
@@ -14912,14 +14973,14 @@
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="30"/>
       <c r="B47" s="30" t="s">
-        <v>954</v>
+        <v>959</v>
       </c>
       <c r="C47" s="30" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
       <c r="D47" s="30"/>
       <c r="E47" s="21" t="s">
-        <v>956</v>
+        <v>961</v>
       </c>
       <c r="F47" s="30"/>
       <c r="G47" s="30"/>
@@ -14949,7 +15010,7 @@
       <c r="C48" s="30"/>
       <c r="D48" s="30"/>
       <c r="E48" s="21" t="s">
-        <v>957</v>
+        <v>962</v>
       </c>
       <c r="F48" s="30"/>
       <c r="G48" s="30"/>
@@ -14979,7 +15040,7 @@
       <c r="C49" s="30"/>
       <c r="D49" s="30"/>
       <c r="E49" s="21" t="s">
-        <v>958</v>
+        <v>963</v>
       </c>
       <c r="F49" s="30"/>
       <c r="G49" s="30"/>
@@ -15970,10 +16031,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16016,7 +16077,7 @@
         <v>236</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>959</v>
+        <v>964</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>237</v>
@@ -16036,7 +16097,7 @@
         <v>273</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>960</v>
+        <v>965</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>210</v>
@@ -16056,7 +16117,7 @@
         <v>285</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>961</v>
+        <v>966</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>237</v>
@@ -16067,16 +16128,16 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>962</v>
+        <v>967</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>306</v>
@@ -16084,16 +16145,16 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>963</v>
+        <v>968</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>306</v>
@@ -16101,16 +16162,16 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>964</v>
+        <v>969</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>306</v>
@@ -16118,16 +16179,16 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>964</v>
+        <v>969</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>306</v>
@@ -16135,16 +16196,16 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>965</v>
+        <v>970</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>306</v>
@@ -16152,16 +16213,16 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>966</v>
+        <v>971</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>967</v>
+        <v>972</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>968</v>
+        <v>973</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>969</v>
+        <v>974</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>306</v>
@@ -16169,16 +16230,16 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>970</v>
+        <v>975</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>306</v>
@@ -16186,16 +16247,16 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>971</v>
+        <v>976</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>972</v>
+        <v>977</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>306</v>
@@ -16203,16 +16264,16 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>973</v>
+        <v>978</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>974</v>
+        <v>979</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>975</v>
+        <v>980</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>976</v>
+        <v>981</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>306</v>
@@ -16220,16 +16281,16 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>977</v>
+        <v>982</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>978</v>
+        <v>983</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>979</v>
+        <v>984</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>980</v>
+        <v>985</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>306</v>
@@ -16237,16 +16298,16 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>981</v>
+        <v>986</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>306</v>
@@ -16254,33 +16315,33 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>982</v>
+        <v>987</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>859</v>
+        <v>864</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>766</v>
+        <v>771</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>983</v>
+        <v>988</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>237</v>
@@ -16291,16 +16352,16 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>771</v>
+        <v>776</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>984</v>
+        <v>989</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>306</v>
@@ -16308,50 +16369,50 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>856</v>
+        <v>861</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>857</v>
+        <v>862</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>858</v>
+        <v>863</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>860</v>
+        <v>865</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>859</v>
+        <v>864</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>861</v>
+        <v>866</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>862</v>
+        <v>867</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>863</v>
+        <v>868</v>
       </c>
       <c r="D20" s="5" t="s">
+        <v>869</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>864</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>859</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>865</v>
+        <v>870</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>866</v>
+        <v>871</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>867</v>
+        <v>872</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>868</v>
+        <v>873</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>306</v>
@@ -16359,16 +16420,16 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>869</v>
+        <v>874</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>870</v>
+        <v>875</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>871</v>
+        <v>876</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>868</v>
+        <v>873</v>
       </c>
       <c r="E22" s="0" t="s">
         <v>306</v>
@@ -16376,16 +16437,16 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>985</v>
+        <v>990</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>237</v>
@@ -16396,16 +16457,16 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>986</v>
+        <v>991</v>
       </c>
       <c r="E24" s="0" t="s">
         <v>237</v>
@@ -16416,16 +16477,16 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>895</v>
+        <v>900</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>896</v>
+        <v>901</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>897</v>
+        <v>992</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>898</v>
+        <v>993</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>237</v>
@@ -16436,16 +16497,16 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>891</v>
+        <v>896</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>892</v>
+        <v>897</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>987</v>
+        <v>994</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>988</v>
+        <v>995</v>
       </c>
       <c r="E26" s="0" t="s">
         <v>306</v>
@@ -16453,16 +16514,16 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>989</v>
+        <v>362</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>990</v>
+        <v>363</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>991</v>
+        <v>364</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>992</v>
+        <v>365</v>
       </c>
       <c r="E27" s="0" t="s">
         <v>237</v>
@@ -16473,16 +16534,16 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>995</v>
+        <v>998</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="E28" s="0" t="s">
         <v>237</v>
@@ -16502,7 +16563,7 @@
         <v>346</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="E29" s="0" t="s">
         <v>237</v>
@@ -16522,7 +16583,7 @@
         <v>350</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>998</v>
+        <v>1001</v>
       </c>
       <c r="E30" s="0" t="s">
         <v>306</v>
@@ -16530,16 +16591,16 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>541</v>
+        <v>1002</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>542</v>
+        <v>1003</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>543</v>
+        <v>1004</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>999</v>
+        <v>1005</v>
       </c>
       <c r="E31" s="0" t="s">
         <v>237</v>
@@ -16550,56 +16611,56 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>1000</v>
+        <v>546</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>1001</v>
+        <v>547</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>1002</v>
+        <v>548</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>237</v>
+        <v>306</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>238</v>
+        <v>307</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>544</v>
+        <v>828</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>545</v>
+        <v>829</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>546</v>
+        <v>830</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>1004</v>
+        <v>1007</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>306</v>
+        <v>237</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>307</v>
+        <v>238</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>823</v>
+        <v>832</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>824</v>
+        <v>833</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>825</v>
+        <v>834</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="E34" s="0" t="s">
         <v>237</v>
@@ -16608,26 +16669,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>827</v>
-      </c>
-      <c r="B35" s="0" t="s">
-        <v>828</v>
-      </c>
-      <c r="C35" s="0" t="s">
-        <v>829</v>
-      </c>
-      <c r="D35" s="0" t="s">
-        <v>1006</v>
-      </c>
-      <c r="E35" s="0" t="s">
-        <v>237</v>
-      </c>
-      <c r="F35" s="0" t="s">
-        <v>238</v>
-      </c>
-    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
@@ -16646,8 +16688,8 @@
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16683,16 +16725,16 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>237</v>
@@ -16703,16 +16745,16 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>237</v>
@@ -16721,58 +16763,58 @@
         <v>238</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="143.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="501.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>210</v>
       </c>
       <c r="F4" s="34" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>249</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>306</v>
@@ -16780,19 +16822,19 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="D7" s="0" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>1028</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>1026</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -16876,16 +16918,16 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>249</v>
@@ -16893,42 +16935,42 @@
     </row>
     <row r="3" customFormat="false" ht="375" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>210</v>
       </c>
       <c r="F3" s="35" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="209.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>210</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/actus-dictionary.xlsx
+++ b/actus-dictionary.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2425" uniqueCount="1045">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2425" uniqueCount="1046">
   <si>
     <t xml:space="preserve">The ACTUS Dictionary</t>
   </si>
@@ -1101,7 +1101,7 @@
     <t xml:space="preserve">Cycle Anchor Date Of Dividend</t>
   </si>
   <si>
-    <t xml:space="preserve">DANX</t>
+    <t xml:space="preserve">DIANX</t>
   </si>
   <si>
     <t xml:space="preserve">Date from which the dividend payment date schedule is calculated according to the cycle length. The first dividend payment event takes place on this anchor.</t>
@@ -1116,7 +1116,7 @@
     <t xml:space="preserve">Cycle Of Dividend</t>
   </si>
   <si>
-    <t xml:space="preserve">DCL</t>
+    <t xml:space="preserve">DICL</t>
   </si>
   <si>
     <t xml:space="preserve">Cycle</t>
@@ -1137,7 +1137,7 @@
     <t xml:space="preserve">Dividend Ex Date</t>
   </si>
   <si>
-    <t xml:space="preserve">DED</t>
+    <t xml:space="preserve">DIEX</t>
   </si>
   <si>
     <t xml:space="preserve">In case contract is traded between DVEX and next DV payment date (i.e. PRD&gt;DVEX &amp; PRD&lt;next DV payment date), then the old holder of the contract (previous to the trade) receives the next DV payment. In other words, the next DV payment is cancelled for the new (after the trade) holder of the contract.</t>
@@ -1152,7 +1152,7 @@
     <t xml:space="preserve">Dividend Payment Date</t>
   </si>
   <si>
-    <t xml:space="preserve">DPD</t>
+    <t xml:space="preserve">DIPD</t>
   </si>
   <si>
     <t xml:space="preserve">The timestamp of the next Dividend Payment Date if one has been announced.</t>
@@ -1164,7 +1164,7 @@
     <t xml:space="preserve">Dividend Payment Amount</t>
   </si>
   <si>
-    <t xml:space="preserve">DPA</t>
+    <t xml:space="preserve">DIPA</t>
   </si>
   <si>
     <t xml:space="preserve">Y</t>
@@ -1182,7 +1182,7 @@
     <t xml:space="preserve">Dividend Record Period</t>
   </si>
   <si>
-    <t xml:space="preserve">DRP</t>
+    <t xml:space="preserve">DIRP</t>
   </si>
   <si>
     <t xml:space="preserve">The period according to which the Dividend Ex Date is scheduled. More specifically, the Dividend Ex Date is scheduled at Dividend Declaration Date, the time at which a dividend event is announced, plus DRP.</t>
@@ -1194,7 +1194,7 @@
     <t xml:space="preserve">Dividend Payment Period</t>
   </si>
   <si>
-    <t xml:space="preserve">DPP</t>
+    <t xml:space="preserve">DIPP</t>
   </si>
   <si>
     <t xml:space="preserve">The period according to which the Dividend Payment Date is scheduled. More specifically, the Dividend Payment Date is scheduled at Dividend Declaration Date, the time at which a dividend event is announced, plus DPP.</t>
@@ -1206,7 +1206,7 @@
     <t xml:space="preserve">Last Dividend Fixing Date</t>
   </si>
   <si>
-    <t xml:space="preserve">LDFD</t>
+    <t xml:space="preserve">LDIFD</t>
   </si>
   <si>
     <t xml:space="preserve">The timestamp of the last DF event.</t>
@@ -1823,7 +1823,7 @@
     <t xml:space="preserve">Split Settlement Period</t>
   </si>
   <si>
-    <t xml:space="preserve">SEP</t>
+    <t xml:space="preserve">SPSP</t>
   </si>
   <si>
     <t xml:space="preserve">The period according to which stock splits are scheduled.</t>
@@ -1835,7 +1835,7 @@
     <t xml:space="preserve">Split Ratio</t>
   </si>
   <si>
-    <t xml:space="preserve">SRA</t>
+    <t xml:space="preserve">SPR</t>
   </si>
   <si>
     <t xml:space="preserve">The ratio according to which a stock split is executed.</t>
@@ -2607,7 +2607,7 @@
     <t xml:space="preserve">Exercise Date</t>
   </si>
   <si>
-    <t xml:space="preserve">XD</t>
+    <t xml:space="preserve">EXD</t>
   </si>
   <si>
     <t xml:space="preserve">Date of exercising a contingent event/obligation such as a forward condition, optionality etc. The Exercise date marks the observed timestamp of fixing the contingent event and respective payment obligation not necessarily the timestamp of settling the obligation.</t>
@@ -2622,7 +2622,7 @@
     <t xml:space="preserve">Exercise Amount</t>
   </si>
   <si>
-    <t xml:space="preserve">XA</t>
+    <t xml:space="preserve">EXA</t>
   </si>
   <si>
     <t xml:space="preserve">The amount fixed at Exercise Date for a contingent event/obligation such as a forward condition, optionality etc. The Exercise Amount is fixed at Exercise Date but not settled yet. </t>
@@ -2697,7 +2697,7 @@
     <t xml:space="preserve">Issue Date</t>
   </si>
   <si>
-    <t xml:space="preserve">ID</t>
+    <t xml:space="preserve">ISD</t>
   </si>
   <si>
     <t xml:space="preserve">Defines the time of issuance of the contract. At this time, the contract transitions from e.g. the subscription phase into the execution phase.</t>
@@ -2709,7 +2709,7 @@
     <t xml:space="preserve">Nominal Price</t>
   </si>
   <si>
-    <t xml:space="preserve">NPR</t>
+    <t xml:space="preserve">NOPR</t>
   </si>
   <si>
     <t xml:space="preserve">The nominal price for a single certificate.</t>
@@ -2721,7 +2721,7 @@
     <t xml:space="preserve">Issue Price</t>
   </si>
   <si>
-    <t xml:space="preserve">IPR</t>
+    <t xml:space="preserve">ISPR</t>
   </si>
   <si>
     <t xml:space="preserve">The issue price for a single certificate as per Issue Day.</t>
@@ -2748,7 +2748,7 @@
     <t xml:space="preserve">Redeemable By Issuer</t>
   </si>
   <si>
-    <t xml:space="preserve">RBI</t>
+    <t xml:space="preserve">REBI</t>
   </si>
   <si>
     <t xml:space="preserve">option: 0, identifier: yes, name: Yes, acronym: Y, description: The instrument is redeemable by the issuer.
@@ -2765,7 +2765,7 @@
     <t xml:space="preserve">Redemption Record Period</t>
   </si>
   <si>
-    <t xml:space="preserve">RRP</t>
+    <t xml:space="preserve">RERP</t>
   </si>
   <si>
     <t xml:space="preserve">The period according to which the Redemption Ex Date is scheduled. More specifically, the Redemption Ex Date is scheduled at the Redemption Declaration Date, which is the time when redemption is announced, plus RRP.</t>
@@ -2777,7 +2777,7 @@
     <t xml:space="preserve">Redemption Payment Period</t>
   </si>
   <si>
-    <t xml:space="preserve">RPP</t>
+    <t xml:space="preserve">REPP</t>
   </si>
   <si>
     <t xml:space="preserve">The period according to which the Redemption Payment Date is scheduled. More specifically, the Redemption Payment Date is scheduled at Redemption Declaration Date, which is the time when a redemption event is announced, plus RPP.</t>
@@ -2789,7 +2789,7 @@
     <t xml:space="preserve">Redemption Ex Date</t>
   </si>
   <si>
-    <t xml:space="preserve">RED</t>
+    <t xml:space="preserve">REXD</t>
   </si>
   <si>
     <t xml:space="preserve">The timestamp of the next Redemption Ex Date event if one has been announced.</t>
@@ -2801,7 +2801,7 @@
     <t xml:space="preserve">Redemption Payment Date</t>
   </si>
   <si>
-    <t xml:space="preserve">RPD</t>
+    <t xml:space="preserve">REPD</t>
   </si>
   <si>
     <t xml:space="preserve">The timestamp of the next Redemption Payment Date event if one has been announced.</t>
@@ -2813,7 +2813,7 @@
     <t xml:space="preserve">Redemption Price</t>
   </si>
   <si>
-    <t xml:space="preserve">RPR</t>
+    <t xml:space="preserve">REPR</t>
   </si>
   <si>
     <t xml:space="preserve">The redemption price applicable to the next Redemption Payment Date event if one has been announced.</t>
@@ -2825,7 +2825,7 @@
     <t xml:space="preserve">Cycle Anchor Date Of Redemption Day</t>
   </si>
   <si>
-    <t xml:space="preserve">RDANX</t>
+    <t xml:space="preserve">REANX</t>
   </si>
   <si>
     <t xml:space="preserve">The start date of the Redemption Day schedule. i.e. this is the very first regular Redemption Day. After this day periodic Redemption Days are scheduled through the Cycle of Redemption Day.</t>
@@ -2837,7 +2837,7 @@
     <t xml:space="preserve">Cycle Of Redemption Day</t>
   </si>
   <si>
-    <t xml:space="preserve">RDCL</t>
+    <t xml:space="preserve">RECL</t>
   </si>
   <si>
     <t xml:space="preserve">The period according to which Redemption Days are scheduled.</t>
@@ -2873,7 +2873,7 @@
     <t xml:space="preserve">Exercise Period</t>
   </si>
   <si>
-    <t xml:space="preserve">XP</t>
+    <t xml:space="preserve">EXP</t>
   </si>
   <si>
     <t xml:space="preserve">0D</t>
@@ -2888,7 +2888,7 @@
     <t xml:space="preserve">Exercise Quantity</t>
   </si>
   <si>
-    <t xml:space="preserve">XQ</t>
+    <t xml:space="preserve">EXQ</t>
   </si>
   <si>
     <t xml:space="preserve">Integer</t>
@@ -2903,7 +2903,7 @@
     <t xml:space="preserve">Exercise Quantity Ordered</t>
   </si>
   <si>
-    <t xml:space="preserve">XO</t>
+    <t xml:space="preserve">EXO</t>
   </si>
   <si>
     <t xml:space="preserve">The number of shares / notes / certificates / etc ordered for exercise. E.g. the number of certificates ordered for redemption as per a certain redemption day.</t>
@@ -2939,7 +2939,7 @@
     <t xml:space="preserve">Cycle Anchor Date Of Coupon</t>
   </si>
   <si>
-    <t xml:space="preserve">CPANX</t>
+    <t xml:space="preserve">COANX</t>
   </si>
   <si>
     <t xml:space="preserve">The start date of the Coupon Day schedule. i.e. this is the very first regular Coupon Day. After this day periodic Coupon Days are scheduled through the Cycle of Coupon Day.</t>
@@ -2951,7 +2951,7 @@
     <t xml:space="preserve">Cycle Of Coupon</t>
   </si>
   <si>
-    <t xml:space="preserve">CPCL</t>
+    <t xml:space="preserve">COCL</t>
   </si>
   <si>
     <t xml:space="preserve">The period according to which Coupon Days are scheduled.</t>
@@ -2963,7 +2963,7 @@
     <t xml:space="preserve">Coupon Type</t>
   </si>
   <si>
-    <t xml:space="preserve">CPTP</t>
+    <t xml:space="preserve">COTP</t>
   </si>
   <si>
     <t xml:space="preserve">option: 0, identifier: none, name: No Coupon, acronym: NOC, description: No coupon is paid.
@@ -2985,7 +2985,7 @@
     <t xml:space="preserve">Coupon Rate</t>
   </si>
   <si>
-    <t xml:space="preserve">CPRT</t>
+    <t xml:space="preserve">CORT</t>
   </si>
   <si>
     <t xml:space="preserve">The fixed coupon applicable (if any). Applies in conjunction with couponType=FIX (fixed).</t>
@@ -2997,7 +2997,7 @@
     <t xml:space="preserve">Coupon Amount Fixed</t>
   </si>
   <si>
-    <t xml:space="preserve">CPFX</t>
+    <t xml:space="preserve">COAF</t>
   </si>
   <si>
     <t xml:space="preserve">The coupon amount fixed at the most recent coupon day and due for payment.</t>
@@ -3009,7 +3009,7 @@
     <t xml:space="preserve">Last Coupon Fixing Date</t>
   </si>
   <si>
-    <t xml:space="preserve">LCD</t>
+    <t xml:space="preserve">LCOD</t>
   </si>
   <si>
     <t xml:space="preserve">The most recent Coupon Day as per which the last Coupon Amount was fixed.</t>
@@ -3261,6 +3261,9 @@
     <t xml:space="preserve">The multiplier being applied to interest cash flows</t>
   </si>
   <si>
+    <t xml:space="preserve">NPR</t>
+  </si>
+  <si>
     <t xml:space="preserve">The value at which principal is being repaid. This may be including or excluding of interest depending on the Contract Type</t>
   </si>
   <si>
@@ -3297,7 +3300,7 @@
     <t xml:space="preserve">Dividend Fixing Date</t>
   </si>
   <si>
-    <t xml:space="preserve">DFD</t>
+    <t xml:space="preserve">DIFD</t>
   </si>
   <si>
     <t xml:space="preserve">The timestamp of the next DF event (if scheduled).</t>
@@ -3315,7 +3318,7 @@
     <t xml:space="preserve">Split Settlement Date</t>
   </si>
   <si>
-    <t xml:space="preserve">SSD</t>
+    <t xml:space="preserve">SPSD</t>
   </si>
   <si>
     <t xml:space="preserve">The timestmap of the next SSD event (if scheduled).</t>
@@ -3366,58 +3369,12 @@
     <t xml:space="preserve">The type of the event. Different types have their own business logic in terms of payoff and state transition functions</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">option: 0, identifier: monitoring, name: Monitoring, acronym: AD, description: Monitoring of contract. Evaluates all contract states, sequence: 33
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">option: 1, identifier: creditEvent, name: Credit Event, acronym: CE, description: Credit event of counterparty to a contract, sequence: 1
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">option: 2, identifier: issue, name: Issue, acronym: IS, description: Marks the date or timestamp respectively of issuance of a contract, sequence: 2
+    <t xml:space="preserve">option: 0, identifier: monitoring, name: Monitoring, acronym: AD, description: Monitoring of contract. Evaluates all contract states, sequence: 33
+option: 1, identifier: creditEvent, name: Credit Event, acronym: CE, description: Credit event of counterparty to a contract, sequence: 1
+option: 2, identifier: issue, name: Issue, acronym: ISS, description: Marks the date or timestamp respectively of issuance of a contract, sequence: 2
 option: 3, identifier: initialExchange, name: Initial Exchange, acronym: IED, description: Scheduled date of initial exchange of e.g. principal value in fixed income products, sequence: 3
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">option: 4, identifier: purchase, name: Purchase, acronym: PRD, description: Purchase of a contract, sequence: 4
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">option: 5, identifier: feePayment, name: Fee Payment, acronym: FP, description: Scheduled fee payments, sequence: 5
+option: 4, identifier: purchase, name: Purchase, acronym: PRD, description: Purchase of a contract, sequence: 4
+option: 5, identifier: feePayment, name: Fee Payment, acronym: FP, description: Scheduled fee payments, sequence: 5
 option: 6, identifier: principalRedemption, name: Principal Redemption, acronym: PR, description: Scheduled principal redemption payment, sequence: 6
 option: 7, identifier: principalDrawing, name: Principal Drawing, acronym: PD, description: Drawing of principal amount e.g. in a credit line, sequence: 7
 option: 8, identifier: penaltyPayment, name: Penalty Payment, acronym: PY, description: Scheduled payment of a penalty, sequence: 8
@@ -3426,46 +3383,18 @@
 option: 11, identifier: interestCapitalization, name: Interest Capitalization, acronym: IPCI, description: Scheduled capitalization of accrued interest, sequence: 11
 option: 12, identifier: rateResetFixed, name: Rate Reset Fixing with Known Rate, acronym: RRF, description: Scheduled fixing of variable rate with known new rate, sequence: 12
 option: 13, identifier: rateResetVariable, name: Rate Reset Fixing with Unknown Rate, acronym: RR, description: Scheduled fixing of variable rate with unknown new rate, sequence: 13
-option: 14, identifier: dividendFixing, name: Dividend Fixing, acronym: DF, description: Declaration of a dividend payment, sequence: 14
-option: 15, identifier: dividendEx, name: Dividend Ex, acronym: DE, description: Date from which new shareholders are not considered for the next dividend distribution, sequence: 15
-option: 16, identifier: dividendPayment, name: Dividend Payment, acronym: DP, description: Date at which next dividend is distributed to shareholders, sequence: 16
-option: 17, identifier: couponFixing, name: Coupon Fixing, acronym: CF, description: Fixing of the coupon amount, sequence: 17
-option: 18, identifier: couponPayment, name: Coupon Payment, acronym: CP, description: Payment of the coupon amount, sequence: 18
-option: 19, identifier: redemptionFixing, name: Redemption Fixing, acronym: RF, description: Fixing of the redemption amount, sequence: 19
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">option: 20, identifier: redemptionEx, name: Redemption Ex, acronym: RE, description: Date from which new holders are not considered for next redemption, sequence: 20
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">option: 21, identifier: redemptionPayment, name: Redemption Payment, acronym: RP, description: Payment of the redemption amount, sequence: 21
-option: 22, identifier: splitDeclaration, name: Split Declaration, acronym: SD, description: Declaration of a stock split or reverse split, sequence: 22
-option: 23, identifier: splitSettlement, name: Split Settlement, acronym: SE, description: Date at which stock split is settled or settlement is finalized, sequence: 23
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">option: 24, identifier: exerciseOrder, name: Exercise Order, acronym: XO, description: Submission of an exercise order for a contractual feature such as an optionality, sequence: 24
-option: 25, identifier: exercise, name: Exercise, acronym: XE, description: Exercise of a contractual feature such as an optionality, sequence: 25
+option: 14, identifier: dividendFixing, name: Dividend Fixing, acronym: DIF, description: Declaration of a dividend payment, sequence: 14
+option: 15, identifier: dividendEx, name: Dividend Ex, acronym: DIX, description: Date from which new shareholders are not considered for the next dividend distribution, sequence: 15
+option: 16, identifier: dividendPayment, name: Dividend Payment, acronym: DIP, description: Date at which next dividend is distributed to shareholders, sequence: 16
+option: 17, identifier: couponFixing, name: Coupon Fixing, acronym: COF, description: Fixing of the coupon amount, sequence: 17
+option: 18, identifier: couponPayment, name: Coupon Payment, acronym: COP, description: Payment of the coupon amount, sequence: 18
+option: 19, identifier: redemptionFixing, name: Redemption Fixing, acronym: REF, description: Fixing of the redemption amount, sequence: 19
+option: 20, identifier: redemptionEx, name: Redemption Ex, acronym: REX, description: Date from which new holders are not considered for next redemption, sequence: 20
+option: 21, identifier: redemptionPayment, name: Redemption Payment, acronym: REP, description: Payment of the redemption amount, sequence: 21
+option: 22, identifier: splitFixing, name: Split Fixing, acronym: SPF, description: Declaration of a stock split or reverse split, sequence: 22
+option: 23, identifier: splitSettlement, name: Split Settlement, acronym: SPS, description: Date at which stock split is settled or settlement is finalized, sequence: 23
+option: 24, identifier: exerciseOrder, name: Exercise Order, acronym: EXO, description: Submission of an exercise order for a contractual feature such as an optionality, sequence: 24
+option: 25, identifier: exercise, name: Exercise, acronym: EXE, description: Exercise of a contractual feature such as an optionality, sequence: 25
 option: 26, identifier: settlement, name: Settlement, acronym: ST, description: Settlement of an exercised contractual claim, sequence: 26
 option: 27, identifier: scalingIndexFixing, name: Scaling Index Fixing, acronym: SC, description: Scheduled fixing of a scaling index, sequence: 27
 option: 28, identifier: interestCalculationBaseFixing, name: Interest Calculation Base Fixing, acronym: IPCB, description: Scheduled fixing of the interest calculation base, sequence: 28
@@ -3474,7 +3403,6 @@
 option: 31, identifier: termination, name: Termination, acronym: TD, description: Termination of a contract, sequence: 31
 option: 32, identifier: maturity, name: Maturity, acronym: MD, description: Maturity of a contract, sequence: 32
 </t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">The currency in which the event payoff is scheduled</t>
@@ -3563,7 +3491,7 @@
     <numFmt numFmtId="165" formatCode="YYYY\-MM\-DD"/>
     <numFmt numFmtId="166" formatCode="HH:MM:SS\ AM/PM"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3686,12 +3614,6 @@
       <name val="Cambria"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="3">
@@ -16034,7 +15956,7 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
+      <selection pane="topLeft" activeCell="A35" activeCellId="0" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16304,10 +16226,10 @@
         <v>571</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>804</v>
+        <v>986</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>306</v>
@@ -16324,7 +16246,7 @@
         <v>534</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>864</v>
@@ -16341,7 +16263,7 @@
         <v>772</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>237</v>
@@ -16361,7 +16283,7 @@
         <v>777</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>306</v>
@@ -16446,7 +16368,7 @@
         <v>596</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>237</v>
@@ -16466,7 +16388,7 @@
         <v>523</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="E24" s="0" t="s">
         <v>237</v>
@@ -16483,10 +16405,10 @@
         <v>901</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>237</v>
@@ -16503,10 +16425,10 @@
         <v>897</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="E26" s="0" t="s">
         <v>306</v>
@@ -16534,16 +16456,16 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="E28" s="0" t="s">
         <v>237</v>
@@ -16563,7 +16485,7 @@
         <v>346</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="E29" s="0" t="s">
         <v>237</v>
@@ -16583,7 +16505,7 @@
         <v>350</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="E30" s="0" t="s">
         <v>306</v>
@@ -16591,16 +16513,16 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="E31" s="0" t="s">
         <v>237</v>
@@ -16620,7 +16542,7 @@
         <v>548</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="E32" s="0" t="s">
         <v>306</v>
@@ -16640,7 +16562,7 @@
         <v>830</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="E33" s="0" t="s">
         <v>237</v>
@@ -16660,7 +16582,7 @@
         <v>834</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="E34" s="0" t="s">
         <v>237</v>
@@ -16688,8 +16610,8 @@
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16725,16 +16647,16 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>237</v>
@@ -16745,16 +16667,16 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>237</v>
@@ -16765,22 +16687,22 @@
     </row>
     <row r="4" customFormat="false" ht="501.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>210</v>
       </c>
       <c r="F4" s="34" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16794,7 +16716,7 @@
         <v>497</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>249</v>
@@ -16805,16 +16727,16 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>306</v>
@@ -16822,19 +16744,19 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="C7" s="0" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>1029</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>1030</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>1028</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -16918,16 +16840,16 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>249</v>
@@ -16935,42 +16857,42 @@
     </row>
     <row r="3" customFormat="false" ht="375" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>210</v>
       </c>
       <c r="F3" s="35" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="209.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>210</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/actus-dictionary.xlsx
+++ b/actus-dictionary.xlsx
@@ -2783,6 +2783,21 @@
     <t xml:space="preserve">The period according to which the Redemption Payment Date is scheduled. More specifically, the Redemption Payment Date is scheduled at Redemption Declaration Date, which is the time when a redemption event is announced, plus RPP.</t>
   </si>
   <si>
+    <t xml:space="preserve">redemptionExercisePeriod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redemption Exercise Period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REXP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The period within which an option holder (e.g. from redemption of a note / certificate / etc) can chose to execute his option</t>
+  </si>
+  <si>
     <t xml:space="preserve">redemptionExDate</t>
   </si>
   <si>
@@ -2865,21 +2880,6 @@
   </si>
   <si>
     <t xml:space="preserve">The period according to which Termination Days are scheduled.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exercisePeriod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exercise Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EXP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The period within which an option holder (e.g. from redemption of a note / certificate / etc) can chose to execute his option</t>
   </si>
   <si>
     <t xml:space="preserve">exerciseQuantity</t>
@@ -5777,12 +5777,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:AF146"/>
+  <dimension ref="A1:AF1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A129" activeCellId="0" sqref="A129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12916,45 +12916,49 @@
       </c>
       <c r="AC128" s="19"/>
     </row>
-    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="0" t="s">
+    <row r="129" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="19" t="s">
         <v>828</v>
       </c>
-      <c r="B129" s="0" t="s">
+      <c r="B129" s="19" t="s">
         <v>815</v>
       </c>
-      <c r="C129" s="0" t="s">
+      <c r="C129" s="19" t="s">
         <v>829</v>
       </c>
-      <c r="D129" s="0" t="s">
+      <c r="D129" s="19" t="s">
         <v>830</v>
       </c>
-      <c r="E129" s="0" t="s">
-        <v>237</v>
-      </c>
-      <c r="F129" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="I129" s="0" t="s">
+      <c r="E129" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="F129" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="G129" s="19" t="s">
         <v>831</v>
       </c>
-      <c r="R129" s="0" t="s">
+      <c r="H129" s="19"/>
+      <c r="I129" s="19" t="s">
+        <v>832</v>
+      </c>
+      <c r="AB129" s="0" t="s">
         <v>214</v>
       </c>
       <c r="AC129" s="19"/>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B130" s="0" t="s">
         <v>815</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="D130" s="0" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="E130" s="0" t="s">
         <v>237</v>
@@ -12963,7 +12967,7 @@
         <v>238</v>
       </c>
       <c r="I130" s="0" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="R130" s="0" t="s">
         <v>214</v>
@@ -12972,166 +12976,162 @@
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B131" s="0" t="s">
         <v>815</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="D131" s="0" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="E131" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="F131" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="I131" s="0" t="s">
+        <v>840</v>
+      </c>
+      <c r="R131" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="AC131" s="19"/>
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="0" t="s">
+        <v>841</v>
+      </c>
+      <c r="B132" s="0" t="s">
+        <v>815</v>
+      </c>
+      <c r="C132" s="0" t="s">
+        <v>842</v>
+      </c>
+      <c r="D132" s="0" t="s">
+        <v>843</v>
+      </c>
+      <c r="E132" s="0" t="s">
         <v>306</v>
       </c>
-      <c r="I131" s="0" t="s">
-        <v>839</v>
-      </c>
-      <c r="R131" s="0" t="s">
+      <c r="I132" s="0" t="s">
+        <v>844</v>
+      </c>
+      <c r="R132" s="0" t="s">
         <v>616</v>
       </c>
-      <c r="AC131" s="19"/>
-    </row>
-    <row r="132" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="19" t="s">
-        <v>840</v>
-      </c>
-      <c r="B132" s="19" t="s">
-        <v>815</v>
-      </c>
-      <c r="C132" s="19" t="s">
-        <v>841</v>
-      </c>
-      <c r="D132" s="19" t="s">
-        <v>842</v>
-      </c>
-      <c r="E132" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="F132" s="21" t="s">
-        <v>238</v>
-      </c>
-      <c r="G132" s="19"/>
-      <c r="H132" s="19"/>
-      <c r="I132" s="19" t="s">
-        <v>843</v>
-      </c>
-      <c r="AB132" s="0" t="s">
-        <v>214</v>
-      </c>
       <c r="AC132" s="19"/>
     </row>
-    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="19" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B133" s="19" t="s">
         <v>815</v>
       </c>
       <c r="C133" s="19" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="D133" s="19" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="E133" s="19" t="s">
-        <v>335</v>
-      </c>
-      <c r="F133" s="19" t="s">
-        <v>336</v>
+        <v>237</v>
+      </c>
+      <c r="F133" s="21" t="s">
+        <v>238</v>
       </c>
       <c r="G133" s="19"/>
       <c r="H133" s="19"/>
       <c r="I133" s="19" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="AB133" s="0" t="s">
         <v>214</v>
       </c>
       <c r="AC133" s="19"/>
     </row>
-    <row r="134" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="19" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B134" s="19" t="s">
         <v>815</v>
       </c>
       <c r="C134" s="19" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="D134" s="19" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="E134" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="F134" s="21" t="s">
-        <v>238</v>
+        <v>335</v>
+      </c>
+      <c r="F134" s="19" t="s">
+        <v>336</v>
       </c>
       <c r="G134" s="19"/>
       <c r="H134" s="19"/>
       <c r="I134" s="19" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="AB134" s="0" t="s">
         <v>214</v>
       </c>
       <c r="AC134" s="19"/>
     </row>
-    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="19" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="B135" s="19" t="s">
         <v>815</v>
       </c>
       <c r="C135" s="19" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="D135" s="19" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="E135" s="19" t="s">
-        <v>335</v>
-      </c>
-      <c r="F135" s="19" t="s">
-        <v>336</v>
+        <v>237</v>
+      </c>
+      <c r="F135" s="21" t="s">
+        <v>238</v>
       </c>
       <c r="G135" s="19"/>
       <c r="H135" s="19"/>
       <c r="I135" s="19" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="AB135" s="0" t="s">
         <v>214</v>
       </c>
       <c r="AC135" s="19"/>
     </row>
-    <row r="136" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="19" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B136" s="19" t="s">
         <v>815</v>
       </c>
       <c r="C136" s="19" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="D136" s="19" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="E136" s="19" t="s">
-        <v>290</v>
-      </c>
-      <c r="F136" s="24" t="s">
-        <v>291</v>
-      </c>
-      <c r="G136" s="19" t="s">
-        <v>859</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="F136" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="G136" s="19"/>
       <c r="H136" s="19"/>
       <c r="I136" s="19" t="s">
         <v>860</v>
@@ -13452,6 +13452,7 @@
         <v>338</v>
       </c>
     </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <autoFilter ref="T1:T121"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -16553,13 +16554,13 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>828</v>
+        <v>833</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>829</v>
+        <v>834</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>830</v>
+        <v>835</v>
       </c>
       <c r="D33" s="0" t="s">
         <v>1008</v>
@@ -16573,13 +16574,13 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>832</v>
+        <v>837</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>834</v>
+        <v>839</v>
       </c>
       <c r="D34" s="0" t="s">
         <v>1009</v>

--- a/actus-dictionary.xlsx
+++ b/actus-dictionary.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2425" uniqueCount="1046">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2425" uniqueCount="1045">
   <si>
     <t xml:space="preserve">The ACTUS Dictionary</t>
   </si>
@@ -3282,13 +3282,10 @@
     <t xml:space="preserve">The timestamp as per which the contract matures according to the initial terms or as per unscheduled events</t>
   </si>
   <si>
-    <t xml:space="preserve">LCFD</t>
+    <t xml:space="preserve">LCOFD</t>
   </si>
   <si>
     <t xml:space="preserve">The timestamp of the last CF event.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAF</t>
   </si>
   <si>
     <t xml:space="preserve">The Coupon Amount fixed with the last Coupon Fixing Day event and applicable to the next Coupon Payment Day event.</t>
@@ -5780,9 +5777,9 @@
   <dimension ref="A1:AF1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A129" activeCellId="0" sqref="A129"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15957,7 +15954,7 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A35" activeCellId="0" sqref="A35"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16426,10 +16423,10 @@
         <v>897</v>
       </c>
       <c r="C26" s="0" t="s">
+        <v>898</v>
+      </c>
+      <c r="D26" s="0" t="s">
         <v>995</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>996</v>
       </c>
       <c r="E26" s="0" t="s">
         <v>306</v>
@@ -16457,16 +16454,16 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
+        <v>996</v>
+      </c>
+      <c r="B28" s="0" t="s">
         <v>997</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="C28" s="0" t="s">
         <v>998</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="D28" s="0" t="s">
         <v>999</v>
-      </c>
-      <c r="D28" s="0" t="s">
-        <v>1000</v>
       </c>
       <c r="E28" s="0" t="s">
         <v>237</v>
@@ -16486,7 +16483,7 @@
         <v>346</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E29" s="0" t="s">
         <v>237</v>
@@ -16506,7 +16503,7 @@
         <v>350</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="E30" s="0" t="s">
         <v>306</v>
@@ -16514,16 +16511,16 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B31" s="0" t="s">
         <v>1003</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="C31" s="0" t="s">
         <v>1004</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="D31" s="0" t="s">
         <v>1005</v>
-      </c>
-      <c r="D31" s="0" t="s">
-        <v>1006</v>
       </c>
       <c r="E31" s="0" t="s">
         <v>237</v>
@@ -16543,7 +16540,7 @@
         <v>548</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="E32" s="0" t="s">
         <v>306</v>
@@ -16563,7 +16560,7 @@
         <v>835</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="E33" s="0" t="s">
         <v>237</v>
@@ -16583,7 +16580,7 @@
         <v>839</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="E34" s="0" t="s">
         <v>237</v>
@@ -16648,16 +16645,16 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>1010</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="C2" s="0" t="s">
         <v>1011</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" s="0" t="s">
         <v>1012</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>1013</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>237</v>
@@ -16668,16 +16665,16 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>1014</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="C3" s="0" t="s">
         <v>1015</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="D3" s="0" t="s">
         <v>1016</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>1017</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>237</v>
@@ -16688,22 +16685,22 @@
     </row>
     <row r="4" customFormat="false" ht="501.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>1018</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="C4" s="0" t="s">
         <v>1019</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="D4" s="0" t="s">
         <v>1020</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>1021</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>210</v>
       </c>
       <c r="F4" s="34" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16717,7 +16714,7 @@
         <v>497</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>249</v>
@@ -16728,16 +16725,16 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>1024</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="C6" s="0" t="s">
         <v>1025</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="D6" s="0" t="s">
         <v>1026</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>1027</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>306</v>
@@ -16745,19 +16742,19 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>1028</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="C7" s="0" t="s">
         <v>1029</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="D7" s="0" t="s">
         <v>1030</v>
       </c>
-      <c r="D7" s="0" t="s">
-        <v>1031</v>
-      </c>
       <c r="E7" s="0" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -16841,16 +16838,16 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>1032</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="C2" s="0" t="s">
         <v>1033</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" s="0" t="s">
         <v>1034</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>1035</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>249</v>
@@ -16858,42 +16855,42 @@
     </row>
     <row r="3" customFormat="false" ht="375" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>1036</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="C3" s="0" t="s">
         <v>1037</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="D3" s="0" t="s">
         <v>1038</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>1039</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>210</v>
       </c>
       <c r="F3" s="35" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="209.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>1041</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="C4" s="0" t="s">
         <v>1042</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="D4" s="0" t="s">
         <v>1043</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>1044</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>210</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/actus-dictionary.xlsx
+++ b/actus-dictionary.xlsx
@@ -3398,8 +3398,7 @@
 option: 29, identifier: principalPaymentAmountFixing, name: Principal Payment Amount Fixing, acronym: PRF, description: Scheduled fixing of principal payment amount, sequence: 29
 option: 30, identifier: marginCall, name: Margin Call, acronym: MC, description: Scheduled margin call, sequence: 30
 option: 31, identifier: termination, name: Termination, acronym: TD, description: Termination of a contract, sequence: 31
-option: 32, identifier: maturity, name: Maturity, acronym: MD, description: Maturity of a contract, sequence: 32
-</t>
+option: 32, identifier: maturity, name: Maturity, acronym: MD, description: Maturity of a contract, sequence: 32</t>
   </si>
   <si>
     <t xml:space="preserve">The currency in which the event payoff is scheduled</t>

--- a/actus-dictionary.xlsx
+++ b/actus-dictionary.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" state="visible" r:id="rId2"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2425" uniqueCount="1045">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2426" uniqueCount="1040">
   <si>
     <t xml:space="preserve">The ACTUS Dictionary</t>
   </si>
@@ -2781,21 +2781,6 @@
   </si>
   <si>
     <t xml:space="preserve">The period according to which the Redemption Payment Date is scheduled. More specifically, the Redemption Payment Date is scheduled at Redemption Declaration Date, which is the time when a redemption event is announced, plus RPP.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">redemptionExercisePeriod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Redemption Exercise Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REXP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The period within which an option holder (e.g. from redemption of a note / certificate / etc) can chose to execute his option</t>
   </si>
   <si>
     <t xml:space="preserve">redemptionExDate</t>
@@ -3849,7 +3834,7 @@
   </sheetPr>
   <dimension ref="A1:AA1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -5775,7 +5760,7 @@
   </sheetPr>
   <dimension ref="A1:AF1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -9417,19 +9402,19 @@
         <v>233</v>
       </c>
       <c r="M61" s="19" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="N61" s="19" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="O61" s="19" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="P61" s="19" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="Q61" s="19" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="R61" s="27"/>
       <c r="S61" s="22"/>
@@ -12725,6 +12710,21 @@
       <c r="I122" s="19" t="s">
         <v>801</v>
       </c>
+      <c r="M122" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="N122" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="O122" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="P122" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q122" s="0" t="s">
+        <v>233</v>
+      </c>
       <c r="R122" s="0" t="s">
         <v>233</v>
       </c>
@@ -12822,7 +12822,7 @@
       </c>
       <c r="AC125" s="19"/>
     </row>
-    <row r="126" customFormat="false" ht="80.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
         <v>814</v>
       </c>
@@ -12880,6 +12880,9 @@
       <c r="R127" s="0" t="s">
         <v>214</v>
       </c>
+      <c r="AB127" s="0" t="s">
+        <v>214</v>
+      </c>
       <c r="AC127" s="19"/>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12910,33 +12913,35 @@
       <c r="R128" s="0" t="s">
         <v>214</v>
       </c>
+      <c r="AB128" s="0" t="s">
+        <v>214</v>
+      </c>
       <c r="AC128" s="19"/>
     </row>
-    <row r="129" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="19" t="s">
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="0" t="s">
         <v>828</v>
       </c>
-      <c r="B129" s="19" t="s">
+      <c r="B129" s="0" t="s">
         <v>815</v>
       </c>
-      <c r="C129" s="19" t="s">
+      <c r="C129" s="0" t="s">
         <v>829</v>
       </c>
-      <c r="D129" s="19" t="s">
+      <c r="D129" s="0" t="s">
         <v>830</v>
       </c>
-      <c r="E129" s="19" t="s">
-        <v>290</v>
-      </c>
-      <c r="F129" s="24" t="s">
-        <v>291</v>
-      </c>
-      <c r="G129" s="19" t="s">
+      <c r="E129" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="F129" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="I129" s="0" t="s">
         <v>831</v>
       </c>
-      <c r="H129" s="19"/>
-      <c r="I129" s="19" t="s">
-        <v>832</v>
+      <c r="R129" s="0" t="s">
+        <v>214</v>
       </c>
       <c r="AB129" s="0" t="s">
         <v>214</v>
@@ -12945,16 +12950,16 @@
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B130" s="0" t="s">
         <v>815</v>
       </c>
       <c r="C130" s="0" t="s">
+        <v>833</v>
+      </c>
+      <c r="D130" s="0" t="s">
         <v>834</v>
-      </c>
-      <c r="D130" s="0" t="s">
-        <v>835</v>
       </c>
       <c r="E130" s="0" t="s">
         <v>237</v>
@@ -12963,179 +12968,208 @@
         <v>238</v>
       </c>
       <c r="I130" s="0" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="R130" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="AB130" s="0" t="s">
         <v>214</v>
       </c>
       <c r="AC130" s="19"/>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B131" s="0" t="s">
         <v>815</v>
       </c>
       <c r="C131" s="0" t="s">
+        <v>837</v>
+      </c>
+      <c r="D131" s="0" t="s">
         <v>838</v>
       </c>
-      <c r="D131" s="0" t="s">
+      <c r="E131" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="I131" s="0" t="s">
         <v>839</v>
       </c>
-      <c r="E131" s="0" t="s">
+      <c r="R131" s="0" t="s">
+        <v>616</v>
+      </c>
+      <c r="AB131" s="0" t="s">
+        <v>616</v>
+      </c>
+      <c r="AC131" s="19"/>
+    </row>
+    <row r="132" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="19" t="s">
+        <v>840</v>
+      </c>
+      <c r="B132" s="19" t="s">
+        <v>815</v>
+      </c>
+      <c r="C132" s="19" t="s">
+        <v>841</v>
+      </c>
+      <c r="D132" s="19" t="s">
+        <v>842</v>
+      </c>
+      <c r="E132" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="F131" s="0" t="s">
+      <c r="F132" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="I131" s="0" t="s">
-        <v>840</v>
-      </c>
-      <c r="R131" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="AC131" s="19"/>
-    </row>
-    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="0" t="s">
-        <v>841</v>
-      </c>
-      <c r="B132" s="0" t="s">
-        <v>815</v>
-      </c>
-      <c r="C132" s="0" t="s">
-        <v>842</v>
-      </c>
-      <c r="D132" s="0" t="s">
+      <c r="G132" s="19"/>
+      <c r="H132" s="19"/>
+      <c r="I132" s="19" t="s">
         <v>843</v>
       </c>
-      <c r="E132" s="0" t="s">
-        <v>306</v>
-      </c>
-      <c r="I132" s="0" t="s">
+      <c r="AB132" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="AC132" s="19"/>
+    </row>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="19" t="s">
         <v>844</v>
-      </c>
-      <c r="R132" s="0" t="s">
-        <v>616</v>
-      </c>
-      <c r="AC132" s="19"/>
-    </row>
-    <row r="133" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="19" t="s">
-        <v>845</v>
       </c>
       <c r="B133" s="19" t="s">
         <v>815</v>
       </c>
       <c r="C133" s="19" t="s">
+        <v>845</v>
+      </c>
+      <c r="D133" s="19" t="s">
         <v>846</v>
       </c>
-      <c r="D133" s="19" t="s">
-        <v>847</v>
-      </c>
       <c r="E133" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="F133" s="21" t="s">
-        <v>238</v>
+        <v>335</v>
+      </c>
+      <c r="F133" s="19" t="s">
+        <v>336</v>
       </c>
       <c r="G133" s="19"/>
       <c r="H133" s="19"/>
       <c r="I133" s="19" t="s">
+        <v>847</v>
+      </c>
+      <c r="AB133" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="AC133" s="19"/>
+    </row>
+    <row r="134" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="19" t="s">
         <v>848</v>
-      </c>
-      <c r="AB133" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="AC133" s="19"/>
-    </row>
-    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="19" t="s">
-        <v>849</v>
       </c>
       <c r="B134" s="19" t="s">
         <v>815</v>
       </c>
       <c r="C134" s="19" t="s">
+        <v>849</v>
+      </c>
+      <c r="D134" s="19" t="s">
         <v>850</v>
       </c>
-      <c r="D134" s="19" t="s">
-        <v>851</v>
-      </c>
       <c r="E134" s="19" t="s">
-        <v>335</v>
-      </c>
-      <c r="F134" s="19" t="s">
-        <v>336</v>
+        <v>237</v>
+      </c>
+      <c r="F134" s="21" t="s">
+        <v>238</v>
       </c>
       <c r="G134" s="19"/>
       <c r="H134" s="19"/>
       <c r="I134" s="19" t="s">
+        <v>851</v>
+      </c>
+      <c r="AB134" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="AC134" s="19"/>
+    </row>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="19" t="s">
         <v>852</v>
-      </c>
-      <c r="AB134" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="AC134" s="19"/>
-    </row>
-    <row r="135" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="19" t="s">
-        <v>853</v>
       </c>
       <c r="B135" s="19" t="s">
         <v>815</v>
       </c>
       <c r="C135" s="19" t="s">
+        <v>853</v>
+      </c>
+      <c r="D135" s="19" t="s">
         <v>854</v>
       </c>
-      <c r="D135" s="19" t="s">
-        <v>855</v>
-      </c>
       <c r="E135" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="F135" s="21" t="s">
-        <v>238</v>
+        <v>335</v>
+      </c>
+      <c r="F135" s="19" t="s">
+        <v>336</v>
       </c>
       <c r="G135" s="19"/>
       <c r="H135" s="19"/>
       <c r="I135" s="19" t="s">
+        <v>855</v>
+      </c>
+      <c r="AB135" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="AC135" s="19"/>
+    </row>
+    <row r="136" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="19" t="s">
         <v>856</v>
-      </c>
-      <c r="AB135" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="AC135" s="19"/>
-    </row>
-    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="19" t="s">
-        <v>857</v>
       </c>
       <c r="B136" s="19" t="s">
         <v>815</v>
       </c>
       <c r="C136" s="19" t="s">
+        <v>857</v>
+      </c>
+      <c r="D136" s="19" t="s">
         <v>858</v>
       </c>
-      <c r="D136" s="19" t="s">
+      <c r="E136" s="19" t="s">
         <v>859</v>
       </c>
-      <c r="E136" s="19" t="s">
-        <v>335</v>
-      </c>
-      <c r="F136" s="19" t="s">
-        <v>336</v>
-      </c>
-      <c r="G136" s="19"/>
+      <c r="F136" s="19"/>
+      <c r="G136" s="19" t="n">
+        <v>0</v>
+      </c>
       <c r="H136" s="19"/>
       <c r="I136" s="19" t="s">
         <v>860</v>
       </c>
-      <c r="AB136" s="0" t="s">
+      <c r="J136" s="19"/>
+      <c r="K136" s="19"/>
+      <c r="L136" s="19"/>
+      <c r="M136" s="19"/>
+      <c r="N136" s="19"/>
+      <c r="O136" s="19"/>
+      <c r="P136" s="19"/>
+      <c r="Q136" s="19"/>
+      <c r="R136" s="19"/>
+      <c r="S136" s="19"/>
+      <c r="T136" s="19"/>
+      <c r="U136" s="19"/>
+      <c r="V136" s="19"/>
+      <c r="W136" s="19"/>
+      <c r="X136" s="19"/>
+      <c r="Y136" s="19"/>
+      <c r="Z136" s="19"/>
+      <c r="AA136" s="19"/>
+      <c r="AB136" s="19" t="s">
         <v>214</v>
       </c>
       <c r="AC136" s="19"/>
+      <c r="AD136" s="19"/>
+      <c r="AE136" s="19"/>
+      <c r="AF136" s="19"/>
     </row>
     <row r="137" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="19" t="s">
@@ -13151,7 +13185,7 @@
         <v>863</v>
       </c>
       <c r="E137" s="19" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="F137" s="19"/>
       <c r="G137" s="19" t="n">
@@ -13159,7 +13193,7 @@
       </c>
       <c r="H137" s="19"/>
       <c r="I137" s="19" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="J137" s="19"/>
       <c r="K137" s="19"/>
@@ -13187,68 +13221,44 @@
       <c r="AE137" s="19"/>
       <c r="AF137" s="19"/>
     </row>
-    <row r="138" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="19" t="s">
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="0" t="s">
+        <v>865</v>
+      </c>
+      <c r="B138" s="0" t="s">
+        <v>815</v>
+      </c>
+      <c r="C138" s="0" t="s">
         <v>866</v>
       </c>
-      <c r="B138" s="19" t="s">
-        <v>815</v>
-      </c>
-      <c r="C138" s="19" t="s">
+      <c r="D138" s="0" t="s">
         <v>867</v>
       </c>
-      <c r="D138" s="19" t="s">
+      <c r="E138" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="G138" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I138" s="0" t="s">
         <v>868</v>
       </c>
-      <c r="E138" s="19" t="s">
-        <v>864</v>
-      </c>
-      <c r="F138" s="19"/>
-      <c r="G138" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H138" s="19"/>
-      <c r="I138" s="19" t="s">
-        <v>869</v>
-      </c>
-      <c r="J138" s="19"/>
-      <c r="K138" s="19"/>
-      <c r="L138" s="19"/>
-      <c r="M138" s="19"/>
-      <c r="N138" s="19"/>
-      <c r="O138" s="19"/>
-      <c r="P138" s="19"/>
-      <c r="Q138" s="19"/>
-      <c r="R138" s="19"/>
-      <c r="S138" s="19"/>
-      <c r="T138" s="19"/>
-      <c r="U138" s="19"/>
-      <c r="V138" s="19"/>
-      <c r="W138" s="19"/>
-      <c r="X138" s="19"/>
-      <c r="Y138" s="19"/>
-      <c r="Z138" s="19"/>
-      <c r="AA138" s="19"/>
-      <c r="AB138" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="AC138" s="19"/>
-      <c r="AD138" s="19"/>
-      <c r="AE138" s="19"/>
-      <c r="AF138" s="19"/>
+      <c r="AB138" s="0" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B139" s="0" t="s">
         <v>815</v>
       </c>
       <c r="C139" s="0" t="s">
+        <v>870</v>
+      </c>
+      <c r="D139" s="0" t="s">
         <v>871</v>
-      </c>
-      <c r="D139" s="0" t="s">
-        <v>872</v>
       </c>
       <c r="E139" s="0" t="s">
         <v>306</v>
@@ -13257,131 +13267,131 @@
         <v>1</v>
       </c>
       <c r="I139" s="0" t="s">
+        <v>868</v>
+      </c>
+      <c r="AB139" s="0" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="0" t="s">
+        <v>872</v>
+      </c>
+      <c r="B140" s="0" t="s">
         <v>873</v>
       </c>
-      <c r="AB139" s="0" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="0" t="s">
+      <c r="C140" s="0" t="s">
         <v>874</v>
       </c>
-      <c r="B140" s="0" t="s">
-        <v>815</v>
-      </c>
-      <c r="C140" s="0" t="s">
+      <c r="D140" s="0" t="s">
         <v>875</v>
       </c>
-      <c r="D140" s="0" t="s">
+      <c r="E140" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="F140" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="I140" s="19" t="s">
         <v>876</v>
       </c>
-      <c r="E140" s="0" t="s">
-        <v>306</v>
-      </c>
-      <c r="G140" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" s="0" t="s">
-        <v>873</v>
-      </c>
-      <c r="AB140" s="0" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AB140" s="19" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
         <v>877</v>
       </c>
       <c r="B141" s="0" t="s">
+        <v>873</v>
+      </c>
+      <c r="C141" s="0" t="s">
         <v>878</v>
       </c>
-      <c r="C141" s="0" t="s">
+      <c r="D141" s="0" t="s">
         <v>879</v>
       </c>
-      <c r="D141" s="0" t="s">
+      <c r="E141" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="F141" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="I141" s="19" t="s">
         <v>880</v>
-      </c>
-      <c r="E141" s="0" t="s">
-        <v>237</v>
-      </c>
-      <c r="F141" s="21" t="s">
-        <v>238</v>
-      </c>
-      <c r="I141" s="19" t="s">
-        <v>881</v>
       </c>
       <c r="AB141" s="19" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
+        <v>881</v>
+      </c>
+      <c r="B142" s="0" t="s">
+        <v>873</v>
+      </c>
+      <c r="C142" s="0" t="s">
         <v>882</v>
       </c>
-      <c r="B142" s="0" t="s">
-        <v>878</v>
-      </c>
-      <c r="C142" s="0" t="s">
+      <c r="D142" s="0" t="s">
         <v>883</v>
       </c>
-      <c r="D142" s="0" t="s">
+      <c r="E142" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="F142" s="19" t="s">
         <v>884</v>
       </c>
-      <c r="E142" s="0" t="s">
-        <v>335</v>
-      </c>
-      <c r="F142" s="19" t="s">
-        <v>336</v>
-      </c>
-      <c r="I142" s="19" t="s">
+      <c r="G142" s="0" t="s">
         <v>885</v>
       </c>
+      <c r="I142" s="0" t="s">
+        <v>886</v>
+      </c>
       <c r="AB142" s="19" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="D143" s="0" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="E143" s="0" t="s">
-        <v>210</v>
-      </c>
-      <c r="F143" s="19" t="s">
-        <v>889</v>
-      </c>
-      <c r="G143" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="G143" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" s="0" t="s">
         <v>890</v>
       </c>
-      <c r="I143" s="0" t="s">
-        <v>891</v>
-      </c>
       <c r="AB143" s="19" t="s">
-        <v>468</v>
+        <v>331</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
+        <v>891</v>
+      </c>
+      <c r="B144" s="0" t="s">
+        <v>873</v>
+      </c>
+      <c r="C144" s="0" t="s">
         <v>892</v>
       </c>
-      <c r="B144" s="0" t="s">
-        <v>878</v>
-      </c>
-      <c r="C144" s="0" t="s">
+      <c r="D144" s="0" t="s">
         <v>893</v>
-      </c>
-      <c r="D144" s="0" t="s">
-        <v>894</v>
       </c>
       <c r="E144" s="0" t="s">
         <v>306</v>
@@ -13390,64 +13400,39 @@
         <v>0</v>
       </c>
       <c r="I144" s="0" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="AB144" s="19" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
+        <v>895</v>
+      </c>
+      <c r="B145" s="0" t="s">
+        <v>873</v>
+      </c>
+      <c r="C145" s="0" t="s">
         <v>896</v>
       </c>
-      <c r="B145" s="0" t="s">
-        <v>878</v>
-      </c>
-      <c r="C145" s="0" t="s">
+      <c r="D145" s="0" t="s">
         <v>897</v>
       </c>
-      <c r="D145" s="0" t="s">
+      <c r="E145" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="F145" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="I145" s="0" t="s">
         <v>898</v>
-      </c>
-      <c r="E145" s="0" t="s">
-        <v>306</v>
-      </c>
-      <c r="G145" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" s="0" t="s">
-        <v>899</v>
       </c>
       <c r="AB145" s="19" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="0" t="s">
-        <v>900</v>
-      </c>
-      <c r="B146" s="0" t="s">
-        <v>878</v>
-      </c>
-      <c r="C146" s="0" t="s">
-        <v>901</v>
-      </c>
-      <c r="D146" s="0" t="s">
-        <v>902</v>
-      </c>
-      <c r="E146" s="0" t="s">
-        <v>237</v>
-      </c>
-      <c r="F146" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="I146" s="0" t="s">
-        <v>903</v>
-      </c>
-      <c r="AB146" s="19" t="s">
-        <v>338</v>
-      </c>
-    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <autoFilter ref="T1:T121"/>
@@ -13516,7 +13501,7 @@
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="10"/>
       <c r="B2" s="30" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -13574,7 +13559,7 @@
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="30"/>
       <c r="B4" s="30" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -13632,10 +13617,10 @@
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="30"/>
       <c r="B6" s="30" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="30"/>
@@ -13665,7 +13650,7 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="30" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
@@ -13722,10 +13707,10 @@
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="30"/>
       <c r="B9" s="30" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="30"/>
@@ -13755,11 +13740,11 @@
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="30" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="30" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
@@ -13814,12 +13799,12 @@
     <row r="12" customFormat="false" ht="118.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="10"/>
       <c r="B12" s="30" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="21" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
@@ -13874,14 +13859,14 @@
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="10"/>
       <c r="B14" s="30" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="21" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
@@ -13938,10 +13923,10 @@
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="30" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
@@ -13970,10 +13955,10 @@
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="30" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
@@ -14002,10 +13987,10 @@
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="30" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
@@ -14061,11 +14046,11 @@
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="30" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="21" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
@@ -14122,10 +14107,10 @@
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="30" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
@@ -14154,10 +14139,10 @@
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="30" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
@@ -14213,11 +14198,11 @@
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="30" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="21" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
@@ -14274,10 +14259,10 @@
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
       <c r="D27" s="31" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
@@ -14306,10 +14291,10 @@
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="31" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
@@ -14338,10 +14323,10 @@
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="31" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
@@ -14370,10 +14355,10 @@
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="31" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
@@ -14402,10 +14387,10 @@
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
       <c r="D31" s="31" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
@@ -14461,11 +14446,11 @@
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="30" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="D33" s="10"/>
       <c r="E33" s="21" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
@@ -14522,10 +14507,10 @@
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="30" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
@@ -14554,10 +14539,10 @@
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="D36" s="30" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
@@ -14586,10 +14571,10 @@
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
       <c r="D37" s="30" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
@@ -14618,10 +14603,10 @@
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
       <c r="D38" s="30" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="E38" s="21" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
@@ -14650,10 +14635,10 @@
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
       <c r="D39" s="30" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="E39" s="21" t="s">
-        <v>951</v>
+        <v>946</v>
       </c>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
@@ -14709,11 +14694,11 @@
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
       <c r="D41" s="10"/>
       <c r="E41" s="21" t="s">
-        <v>953</v>
+        <v>948</v>
       </c>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
@@ -14770,10 +14755,10 @@
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
       <c r="D43" s="30" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="E43" s="30" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
@@ -14802,10 +14787,10 @@
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
       <c r="D44" s="31" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="E44" s="21" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
@@ -14834,10 +14819,10 @@
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
       <c r="D45" s="30" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
@@ -14892,14 +14877,14 @@
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="30"/>
       <c r="B47" s="30" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="C47" s="30" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="D47" s="30"/>
       <c r="E47" s="21" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
       <c r="F47" s="30"/>
       <c r="G47" s="30"/>
@@ -14929,7 +14914,7 @@
       <c r="C48" s="30"/>
       <c r="D48" s="30"/>
       <c r="E48" s="21" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="F48" s="30"/>
       <c r="G48" s="30"/>
@@ -14959,7 +14944,7 @@
       <c r="C49" s="30"/>
       <c r="D49" s="30"/>
       <c r="E49" s="21" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
       <c r="F49" s="30"/>
       <c r="G49" s="30"/>
@@ -15953,7 +15938,7 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15996,7 +15981,7 @@
         <v>236</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>237</v>
@@ -16016,7 +16001,7 @@
         <v>273</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>210</v>
@@ -16036,7 +16021,7 @@
         <v>285</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>237</v>
@@ -16056,7 +16041,7 @@
         <v>448</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>967</v>
+        <v>962</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>306</v>
@@ -16073,7 +16058,7 @@
         <v>529</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>306</v>
@@ -16090,7 +16075,7 @@
         <v>416</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>306</v>
@@ -16107,7 +16092,7 @@
         <v>420</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>306</v>
@@ -16124,7 +16109,7 @@
         <v>429</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>970</v>
+        <v>965</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>306</v>
@@ -16132,16 +16117,16 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>972</v>
+        <v>967</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>973</v>
+        <v>968</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>306</v>
@@ -16158,7 +16143,7 @@
         <v>389</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>306</v>
@@ -16172,10 +16157,10 @@
         <v>452</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>306</v>
@@ -16183,16 +16168,16 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>306</v>
@@ -16200,16 +16185,16 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>306</v>
@@ -16223,10 +16208,10 @@
         <v>571</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>306</v>
@@ -16243,10 +16228,10 @@
         <v>534</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16260,7 +16245,7 @@
         <v>772</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>237</v>
@@ -16280,7 +16265,7 @@
         <v>777</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>306</v>
@@ -16288,50 +16273,50 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>306</v>
@@ -16339,16 +16324,16 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="E22" s="0" t="s">
         <v>306</v>
@@ -16365,7 +16350,7 @@
         <v>596</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>237</v>
@@ -16385,7 +16370,7 @@
         <v>523</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="E24" s="0" t="s">
         <v>237</v>
@@ -16396,16 +16381,16 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>993</v>
+        <v>988</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>237</v>
@@ -16416,16 +16401,16 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="E26" s="0" t="s">
         <v>306</v>
@@ -16453,16 +16438,16 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="E28" s="0" t="s">
         <v>237</v>
@@ -16482,7 +16467,7 @@
         <v>346</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="E29" s="0" t="s">
         <v>237</v>
@@ -16502,7 +16487,7 @@
         <v>350</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="E30" s="0" t="s">
         <v>306</v>
@@ -16510,16 +16495,16 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="E31" s="0" t="s">
         <v>237</v>
@@ -16539,7 +16524,7 @@
         <v>548</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="E32" s="0" t="s">
         <v>306</v>
@@ -16550,16 +16535,16 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="E33" s="0" t="s">
         <v>237</v>
@@ -16570,16 +16555,16 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="E34" s="0" t="s">
         <v>237</v>
@@ -16644,16 +16629,16 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>237</v>
@@ -16664,16 +16649,16 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>1016</v>
+        <v>1011</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>237</v>
@@ -16684,22 +16669,22 @@
     </row>
     <row r="4" customFormat="false" ht="501.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>1018</v>
+        <v>1013</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>210</v>
       </c>
       <c r="F4" s="34" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16713,7 +16698,7 @@
         <v>497</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>249</v>
@@ -16724,16 +16709,16 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>306</v>
@@ -16741,19 +16726,19 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>1027</v>
+        <v>1022</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>1028</v>
+        <v>1023</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>1029</v>
+        <v>1024</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>1028</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -16837,16 +16822,16 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>1031</v>
+        <v>1026</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1032</v>
+        <v>1027</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>1033</v>
+        <v>1028</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>1034</v>
+        <v>1029</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>249</v>
@@ -16854,42 +16839,42 @@
     </row>
     <row r="3" customFormat="false" ht="375" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>210</v>
       </c>
       <c r="F3" s="35" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="209.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>1041</v>
+        <v>1036</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>1042</v>
+        <v>1037</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>210</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/actus-dictionary.xlsx
+++ b/actus-dictionary.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" state="visible" r:id="rId2"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2426" uniqueCount="1040">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2485" uniqueCount="1055">
   <si>
     <t xml:space="preserve">The ACTUS Dictionary</t>
   </si>
@@ -2998,6 +2998,51 @@
   </si>
   <si>
     <t xml:space="preserve">The most recent Coupon Day as per which the last Coupon Amount was fixed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">collateralCurrency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Collateral Currency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COCU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The currency of the collateral to be supplied for securing a contract.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x(10,1,)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coverageOfCollateral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coverage Of Collateral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0,Infinity)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The coverage of contract nominal value that the collateral must maintain. i.e. if coverageOfCollateral=0.5 the market value of the collateral must always be higher than 50% of the nominal value of the contract.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x(10,0,)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">marketObjectCodeOfCollateral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Market Object Code Of Collateral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The identifier of the market price feed of the collateral securing a contract.</t>
   </si>
   <si>
     <t xml:space="preserve">Attribute Applicability Rules</t>
@@ -3666,7 +3711,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3788,6 +3833,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3834,7 +3883,7 @@
   </sheetPr>
   <dimension ref="A1:AA1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -5760,7 +5809,7 @@
   </sheetPr>
   <dimension ref="A1:AF1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -13430,6 +13479,189 @@
       </c>
       <c r="AB145" s="19" t="s">
         <v>338</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="30" t="s">
+        <v>899</v>
+      </c>
+      <c r="B146" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="C146" s="0" t="s">
+        <v>900</v>
+      </c>
+      <c r="D146" s="0" t="s">
+        <v>901</v>
+      </c>
+      <c r="E146" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="F146" s="19" t="s">
+        <v>498</v>
+      </c>
+      <c r="I146" s="0" t="s">
+        <v>902</v>
+      </c>
+      <c r="M146" s="0" t="s">
+        <v>903</v>
+      </c>
+      <c r="N146" s="0" t="s">
+        <v>903</v>
+      </c>
+      <c r="O146" s="0" t="s">
+        <v>903</v>
+      </c>
+      <c r="P146" s="0" t="s">
+        <v>903</v>
+      </c>
+      <c r="Q146" s="0" t="s">
+        <v>903</v>
+      </c>
+      <c r="T146" s="0" t="s">
+        <v>903</v>
+      </c>
+      <c r="V146" s="0" t="s">
+        <v>903</v>
+      </c>
+      <c r="W146" s="0" t="s">
+        <v>903</v>
+      </c>
+      <c r="X146" s="0" t="s">
+        <v>903</v>
+      </c>
+      <c r="Y146" s="0" t="s">
+        <v>903</v>
+      </c>
+      <c r="Z146" s="0" t="s">
+        <v>903</v>
+      </c>
+      <c r="AA146" s="0" t="s">
+        <v>903</v>
+      </c>
+      <c r="AB146" s="0" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="30" t="s">
+        <v>904</v>
+      </c>
+      <c r="B147" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="C147" s="0" t="s">
+        <v>905</v>
+      </c>
+      <c r="D147" s="0" t="s">
+        <v>906</v>
+      </c>
+      <c r="E147" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="F147" s="0" t="s">
+        <v>907</v>
+      </c>
+      <c r="I147" s="0" t="s">
+        <v>908</v>
+      </c>
+      <c r="M147" s="0" t="s">
+        <v>909</v>
+      </c>
+      <c r="N147" s="0" t="s">
+        <v>909</v>
+      </c>
+      <c r="O147" s="0" t="s">
+        <v>909</v>
+      </c>
+      <c r="P147" s="0" t="s">
+        <v>909</v>
+      </c>
+      <c r="Q147" s="0" t="s">
+        <v>909</v>
+      </c>
+      <c r="T147" s="0" t="s">
+        <v>909</v>
+      </c>
+      <c r="V147" s="0" t="s">
+        <v>909</v>
+      </c>
+      <c r="W147" s="0" t="s">
+        <v>909</v>
+      </c>
+      <c r="X147" s="0" t="s">
+        <v>909</v>
+      </c>
+      <c r="Y147" s="0" t="s">
+        <v>909</v>
+      </c>
+      <c r="Z147" s="0" t="s">
+        <v>909</v>
+      </c>
+      <c r="AA147" s="0" t="s">
+        <v>909</v>
+      </c>
+      <c r="AB147" s="0" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="0" t="s">
+        <v>910</v>
+      </c>
+      <c r="B148" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="C148" s="0" t="s">
+        <v>911</v>
+      </c>
+      <c r="D148" s="0" t="s">
+        <v>912</v>
+      </c>
+      <c r="E148" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="I148" s="0" t="s">
+        <v>913</v>
+      </c>
+      <c r="M148" s="0" t="s">
+        <v>903</v>
+      </c>
+      <c r="N148" s="0" t="s">
+        <v>903</v>
+      </c>
+      <c r="O148" s="0" t="s">
+        <v>903</v>
+      </c>
+      <c r="P148" s="0" t="s">
+        <v>903</v>
+      </c>
+      <c r="Q148" s="0" t="s">
+        <v>903</v>
+      </c>
+      <c r="T148" s="0" t="s">
+        <v>903</v>
+      </c>
+      <c r="V148" s="0" t="s">
+        <v>903</v>
+      </c>
+      <c r="W148" s="0" t="s">
+        <v>903</v>
+      </c>
+      <c r="X148" s="0" t="s">
+        <v>903</v>
+      </c>
+      <c r="Y148" s="0" t="s">
+        <v>903</v>
+      </c>
+      <c r="Z148" s="0" t="s">
+        <v>903</v>
+      </c>
+      <c r="AA148" s="0" t="s">
+        <v>903</v>
+      </c>
+      <c r="AB148" s="0" t="s">
+        <v>903</v>
       </c>
     </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -13471,37 +13703,37 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="30"/>
+      <c r="A1" s="31"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="30"/>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="30"/>
-      <c r="Z1" s="30"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="10"/>
-      <c r="B2" s="30" t="s">
-        <v>899</v>
+      <c r="B2" s="31" t="s">
+        <v>914</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -13523,10 +13755,10 @@
       <c r="T2" s="10"/>
       <c r="U2" s="10"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="30"/>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="30"/>
+      <c r="W2" s="31"/>
+      <c r="X2" s="31"/>
+      <c r="Y2" s="31"/>
+      <c r="Z2" s="31"/>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="10"/>
@@ -13551,40 +13783,40 @@
       <c r="T3" s="10"/>
       <c r="U3" s="10"/>
       <c r="V3" s="10"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="30"/>
-      <c r="Z3" s="30"/>
+      <c r="W3" s="31"/>
+      <c r="X3" s="31"/>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="31"/>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="30"/>
-      <c r="B4" s="30" t="s">
-        <v>900</v>
+      <c r="A4" s="31"/>
+      <c r="B4" s="31" t="s">
+        <v>915</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="30"/>
-      <c r="U4" s="30"/>
-      <c r="V4" s="30"/>
-      <c r="W4" s="30"/>
-      <c r="X4" s="30"/>
-      <c r="Y4" s="30"/>
-      <c r="Z4" s="30"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="31"/>
+      <c r="Z4" s="31"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="10"/>
@@ -13610,47 +13842,47 @@
       <c r="U5" s="10"/>
       <c r="V5" s="10"/>
       <c r="W5" s="10"/>
-      <c r="X5" s="30"/>
-      <c r="Y5" s="30"/>
-      <c r="Z5" s="30"/>
+      <c r="X5" s="31"/>
+      <c r="Y5" s="31"/>
+      <c r="Z5" s="31"/>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30" t="s">
-        <v>901</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>902</v>
+      <c r="A6" s="31"/>
+      <c r="B6" s="31" t="s">
+        <v>916</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>917</v>
       </c>
       <c r="D6" s="10"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30"/>
-      <c r="S6" s="30"/>
-      <c r="T6" s="30"/>
-      <c r="U6" s="30"/>
-      <c r="V6" s="30"/>
-      <c r="W6" s="30"/>
-      <c r="X6" s="30"/>
-      <c r="Y6" s="30"/>
-      <c r="Z6" s="30"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="31"/>
+      <c r="U6" s="31"/>
+      <c r="V6" s="31"/>
+      <c r="W6" s="31"/>
+      <c r="X6" s="31"/>
+      <c r="Y6" s="31"/>
+      <c r="Z6" s="31"/>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
-      <c r="C7" s="30" t="s">
-        <v>903</v>
+      <c r="C7" s="31" t="s">
+        <v>918</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
@@ -13672,9 +13904,9 @@
       <c r="U7" s="10"/>
       <c r="V7" s="10"/>
       <c r="W7" s="10"/>
-      <c r="X7" s="30"/>
-      <c r="Y7" s="30"/>
-      <c r="Z7" s="30"/>
+      <c r="X7" s="31"/>
+      <c r="Y7" s="31"/>
+      <c r="Z7" s="31"/>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="10"/>
@@ -13700,51 +13932,51 @@
       <c r="U8" s="10"/>
       <c r="V8" s="10"/>
       <c r="W8" s="10"/>
-      <c r="X8" s="30"/>
-      <c r="Y8" s="30"/>
-      <c r="Z8" s="30"/>
+      <c r="X8" s="31"/>
+      <c r="Y8" s="31"/>
+      <c r="Z8" s="31"/>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="30"/>
-      <c r="B9" s="30" t="s">
-        <v>904</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>905</v>
+      <c r="A9" s="31"/>
+      <c r="B9" s="31" t="s">
+        <v>919</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>920</v>
       </c>
       <c r="D9" s="10"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="30"/>
-      <c r="S9" s="30"/>
-      <c r="T9" s="30"/>
-      <c r="U9" s="30"/>
-      <c r="V9" s="30"/>
-      <c r="W9" s="30"/>
-      <c r="X9" s="30"/>
-      <c r="Y9" s="30"/>
-      <c r="Z9" s="30"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="31"/>
+      <c r="T9" s="31"/>
+      <c r="U9" s="31"/>
+      <c r="V9" s="31"/>
+      <c r="W9" s="31"/>
+      <c r="X9" s="31"/>
+      <c r="Y9" s="31"/>
+      <c r="Z9" s="31"/>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
-      <c r="C10" s="30" t="s">
-        <v>906</v>
+      <c r="C10" s="31" t="s">
+        <v>921</v>
       </c>
       <c r="D10" s="10"/>
-      <c r="E10" s="30" t="s">
-        <v>907</v>
+      <c r="E10" s="31" t="s">
+        <v>922</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
@@ -13766,7 +13998,7 @@
       <c r="W10" s="10"/>
       <c r="X10" s="10"/>
       <c r="Y10" s="10"/>
-      <c r="Z10" s="30"/>
+      <c r="Z10" s="31"/>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="10"/>
@@ -13794,17 +14026,17 @@
       <c r="W11" s="10"/>
       <c r="X11" s="10"/>
       <c r="Y11" s="10"/>
-      <c r="Z11" s="30"/>
+      <c r="Z11" s="31"/>
     </row>
     <row r="12" customFormat="false" ht="118.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="10"/>
-      <c r="B12" s="30" t="s">
-        <v>908</v>
+      <c r="B12" s="31" t="s">
+        <v>923</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="21" t="s">
-        <v>909</v>
+        <v>924</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
@@ -13826,47 +14058,47 @@
       <c r="W12" s="10"/>
       <c r="X12" s="10"/>
       <c r="Y12" s="10"/>
-      <c r="Z12" s="30"/>
+      <c r="Z12" s="31"/>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="30"/>
+      <c r="A13" s="31"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="30"/>
-      <c r="S13" s="30"/>
-      <c r="T13" s="30"/>
-      <c r="U13" s="30"/>
-      <c r="V13" s="30"/>
-      <c r="W13" s="30"/>
-      <c r="X13" s="30"/>
-      <c r="Y13" s="30"/>
-      <c r="Z13" s="30"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="31"/>
+      <c r="S13" s="31"/>
+      <c r="T13" s="31"/>
+      <c r="U13" s="31"/>
+      <c r="V13" s="31"/>
+      <c r="W13" s="31"/>
+      <c r="X13" s="31"/>
+      <c r="Y13" s="31"/>
+      <c r="Z13" s="31"/>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="10"/>
-      <c r="B14" s="30" t="s">
-        <v>910</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>911</v>
+      <c r="B14" s="31" t="s">
+        <v>925</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>926</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="21" t="s">
-        <v>912</v>
+        <v>927</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
@@ -13888,7 +14120,7 @@
       <c r="W14" s="10"/>
       <c r="X14" s="10"/>
       <c r="Y14" s="10"/>
-      <c r="Z14" s="30"/>
+      <c r="Z14" s="31"/>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="10"/>
@@ -13916,17 +14148,17 @@
       <c r="W15" s="10"/>
       <c r="X15" s="10"/>
       <c r="Y15" s="10"/>
-      <c r="Z15" s="30"/>
+      <c r="Z15" s="31"/>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
-      <c r="D16" s="30" t="s">
-        <v>913</v>
+      <c r="D16" s="31" t="s">
+        <v>928</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>914</v>
+        <v>929</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
@@ -13948,17 +14180,17 @@
       <c r="W16" s="10"/>
       <c r="X16" s="10"/>
       <c r="Y16" s="10"/>
-      <c r="Z16" s="30"/>
+      <c r="Z16" s="31"/>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
-      <c r="D17" s="30" t="s">
-        <v>915</v>
+      <c r="D17" s="31" t="s">
+        <v>930</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>916</v>
+        <v>931</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
@@ -13980,17 +14212,17 @@
       <c r="W17" s="10"/>
       <c r="X17" s="10"/>
       <c r="Y17" s="10"/>
-      <c r="Z17" s="30"/>
+      <c r="Z17" s="31"/>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
-      <c r="D18" s="30" t="s">
-        <v>917</v>
+      <c r="D18" s="31" t="s">
+        <v>932</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>918</v>
+        <v>933</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
@@ -14012,7 +14244,7 @@
       <c r="W18" s="10"/>
       <c r="X18" s="10"/>
       <c r="Y18" s="10"/>
-      <c r="Z18" s="30"/>
+      <c r="Z18" s="31"/>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="10"/>
@@ -14040,17 +14272,17 @@
       <c r="W19" s="10"/>
       <c r="X19" s="10"/>
       <c r="Y19" s="10"/>
-      <c r="Z19" s="30"/>
+      <c r="Z19" s="31"/>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
-      <c r="C20" s="30" t="s">
-        <v>919</v>
+      <c r="C20" s="31" t="s">
+        <v>934</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="21" t="s">
-        <v>920</v>
+        <v>935</v>
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
@@ -14072,7 +14304,7 @@
       <c r="W20" s="10"/>
       <c r="X20" s="10"/>
       <c r="Y20" s="10"/>
-      <c r="Z20" s="30"/>
+      <c r="Z20" s="31"/>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="10"/>
@@ -14100,17 +14332,17 @@
       <c r="W21" s="10"/>
       <c r="X21" s="10"/>
       <c r="Y21" s="10"/>
-      <c r="Z21" s="30"/>
+      <c r="Z21" s="31"/>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
-      <c r="D22" s="30" t="s">
-        <v>913</v>
+      <c r="D22" s="31" t="s">
+        <v>928</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>921</v>
+        <v>936</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
@@ -14132,17 +14364,17 @@
       <c r="W22" s="10"/>
       <c r="X22" s="10"/>
       <c r="Y22" s="10"/>
-      <c r="Z22" s="30"/>
+      <c r="Z22" s="31"/>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
-      <c r="D23" s="30" t="s">
-        <v>922</v>
+      <c r="D23" s="31" t="s">
+        <v>937</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>923</v>
+        <v>938</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
@@ -14164,45 +14396,45 @@
       <c r="W23" s="10"/>
       <c r="X23" s="10"/>
       <c r="Y23" s="10"/>
-      <c r="Z23" s="30"/>
+      <c r="Z23" s="31"/>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="30"/>
+      <c r="A24" s="31"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="30"/>
-      <c r="R24" s="30"/>
-      <c r="S24" s="30"/>
-      <c r="T24" s="30"/>
-      <c r="U24" s="30"/>
-      <c r="V24" s="30"/>
-      <c r="W24" s="30"/>
-      <c r="X24" s="30"/>
-      <c r="Y24" s="30"/>
-      <c r="Z24" s="30"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="31"/>
+      <c r="R24" s="31"/>
+      <c r="S24" s="31"/>
+      <c r="T24" s="31"/>
+      <c r="U24" s="31"/>
+      <c r="V24" s="31"/>
+      <c r="W24" s="31"/>
+      <c r="X24" s="31"/>
+      <c r="Y24" s="31"/>
+      <c r="Z24" s="31"/>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
-      <c r="C25" s="30" t="s">
-        <v>924</v>
+      <c r="C25" s="31" t="s">
+        <v>939</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="21" t="s">
-        <v>925</v>
+        <v>940</v>
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
@@ -14224,45 +14456,45 @@
       <c r="W25" s="10"/>
       <c r="X25" s="10"/>
       <c r="Y25" s="10"/>
-      <c r="Z25" s="30"/>
+      <c r="Z25" s="31"/>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="30"/>
+      <c r="A26" s="31"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="30"/>
-      <c r="O26" s="30"/>
-      <c r="P26" s="30"/>
-      <c r="Q26" s="30"/>
-      <c r="R26" s="30"/>
-      <c r="S26" s="30"/>
-      <c r="T26" s="30"/>
-      <c r="U26" s="30"/>
-      <c r="V26" s="30"/>
-      <c r="W26" s="30"/>
-      <c r="X26" s="30"/>
-      <c r="Y26" s="30"/>
-      <c r="Z26" s="30"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="31"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="31"/>
+      <c r="R26" s="31"/>
+      <c r="S26" s="31"/>
+      <c r="T26" s="31"/>
+      <c r="U26" s="31"/>
+      <c r="V26" s="31"/>
+      <c r="W26" s="31"/>
+      <c r="X26" s="31"/>
+      <c r="Y26" s="31"/>
+      <c r="Z26" s="31"/>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
-      <c r="D27" s="31" t="s">
-        <v>926</v>
+      <c r="D27" s="32" t="s">
+        <v>941</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>927</v>
+        <v>942</v>
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
@@ -14284,17 +14516,17 @@
       <c r="W27" s="10"/>
       <c r="X27" s="10"/>
       <c r="Y27" s="10"/>
-      <c r="Z27" s="30"/>
+      <c r="Z27" s="31"/>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
-      <c r="D28" s="31" t="s">
-        <v>928</v>
+      <c r="D28" s="32" t="s">
+        <v>943</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>929</v>
+        <v>944</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
@@ -14316,17 +14548,17 @@
       <c r="W28" s="10"/>
       <c r="X28" s="10"/>
       <c r="Y28" s="10"/>
-      <c r="Z28" s="30"/>
+      <c r="Z28" s="31"/>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
-      <c r="D29" s="31" t="s">
-        <v>930</v>
+      <c r="D29" s="32" t="s">
+        <v>945</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>931</v>
+        <v>946</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
@@ -14348,17 +14580,17 @@
       <c r="W29" s="10"/>
       <c r="X29" s="10"/>
       <c r="Y29" s="10"/>
-      <c r="Z29" s="30"/>
+      <c r="Z29" s="31"/>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
-      <c r="D30" s="31" t="s">
-        <v>932</v>
+      <c r="D30" s="32" t="s">
+        <v>947</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>933</v>
+        <v>948</v>
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
@@ -14380,17 +14612,17 @@
       <c r="W30" s="10"/>
       <c r="X30" s="10"/>
       <c r="Y30" s="10"/>
-      <c r="Z30" s="30"/>
+      <c r="Z30" s="31"/>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
-      <c r="D31" s="31" t="s">
-        <v>934</v>
+      <c r="D31" s="32" t="s">
+        <v>949</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>935</v>
+        <v>950</v>
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
@@ -14412,45 +14644,45 @@
       <c r="W31" s="10"/>
       <c r="X31" s="10"/>
       <c r="Y31" s="10"/>
-      <c r="Z31" s="30"/>
+      <c r="Z31" s="31"/>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="30"/>
+      <c r="A32" s="31"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="30"/>
-      <c r="M32" s="30"/>
-      <c r="N32" s="30"/>
-      <c r="O32" s="30"/>
-      <c r="P32" s="30"/>
-      <c r="Q32" s="30"/>
-      <c r="R32" s="30"/>
-      <c r="S32" s="30"/>
-      <c r="T32" s="30"/>
-      <c r="U32" s="30"/>
-      <c r="V32" s="30"/>
-      <c r="W32" s="30"/>
-      <c r="X32" s="30"/>
-      <c r="Y32" s="30"/>
-      <c r="Z32" s="30"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="31"/>
+      <c r="Q32" s="31"/>
+      <c r="R32" s="31"/>
+      <c r="S32" s="31"/>
+      <c r="T32" s="31"/>
+      <c r="U32" s="31"/>
+      <c r="V32" s="31"/>
+      <c r="W32" s="31"/>
+      <c r="X32" s="31"/>
+      <c r="Y32" s="31"/>
+      <c r="Z32" s="31"/>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
-      <c r="C33" s="30" t="s">
-        <v>936</v>
+      <c r="C33" s="31" t="s">
+        <v>951</v>
       </c>
       <c r="D33" s="10"/>
       <c r="E33" s="21" t="s">
-        <v>937</v>
+        <v>952</v>
       </c>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
@@ -14472,45 +14704,45 @@
       <c r="W33" s="10"/>
       <c r="X33" s="10"/>
       <c r="Y33" s="10"/>
-      <c r="Z33" s="30"/>
+      <c r="Z33" s="31"/>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="30"/>
+      <c r="A34" s="31"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="30"/>
-      <c r="M34" s="30"/>
-      <c r="N34" s="30"/>
-      <c r="O34" s="30"/>
-      <c r="P34" s="30"/>
-      <c r="Q34" s="30"/>
-      <c r="R34" s="30"/>
-      <c r="S34" s="30"/>
-      <c r="T34" s="30"/>
-      <c r="U34" s="30"/>
-      <c r="V34" s="30"/>
-      <c r="W34" s="30"/>
-      <c r="X34" s="30"/>
-      <c r="Y34" s="30"/>
-      <c r="Z34" s="30"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31"/>
+      <c r="P34" s="31"/>
+      <c r="Q34" s="31"/>
+      <c r="R34" s="31"/>
+      <c r="S34" s="31"/>
+      <c r="T34" s="31"/>
+      <c r="U34" s="31"/>
+      <c r="V34" s="31"/>
+      <c r="W34" s="31"/>
+      <c r="X34" s="31"/>
+      <c r="Y34" s="31"/>
+      <c r="Z34" s="31"/>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
-      <c r="D35" s="30" t="s">
-        <v>913</v>
+      <c r="D35" s="31" t="s">
+        <v>928</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>938</v>
+        <v>953</v>
       </c>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
@@ -14532,17 +14764,17 @@
       <c r="W35" s="10"/>
       <c r="X35" s="10"/>
       <c r="Y35" s="10"/>
-      <c r="Z35" s="30"/>
+      <c r="Z35" s="31"/>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
-      <c r="D36" s="30" t="s">
-        <v>939</v>
+      <c r="D36" s="31" t="s">
+        <v>954</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>940</v>
+        <v>955</v>
       </c>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
@@ -14564,17 +14796,17 @@
       <c r="W36" s="10"/>
       <c r="X36" s="10"/>
       <c r="Y36" s="10"/>
-      <c r="Z36" s="30"/>
+      <c r="Z36" s="31"/>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
-      <c r="D37" s="30" t="s">
-        <v>941</v>
+      <c r="D37" s="31" t="s">
+        <v>956</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>942</v>
+        <v>957</v>
       </c>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
@@ -14596,17 +14828,17 @@
       <c r="W37" s="10"/>
       <c r="X37" s="10"/>
       <c r="Y37" s="10"/>
-      <c r="Z37" s="30"/>
+      <c r="Z37" s="31"/>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
-      <c r="D38" s="30" t="s">
-        <v>943</v>
+      <c r="D38" s="31" t="s">
+        <v>958</v>
       </c>
       <c r="E38" s="21" t="s">
-        <v>944</v>
+        <v>959</v>
       </c>
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
@@ -14628,17 +14860,17 @@
       <c r="W38" s="10"/>
       <c r="X38" s="10"/>
       <c r="Y38" s="10"/>
-      <c r="Z38" s="30"/>
+      <c r="Z38" s="31"/>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
-      <c r="D39" s="30" t="s">
-        <v>945</v>
+      <c r="D39" s="31" t="s">
+        <v>960</v>
       </c>
       <c r="E39" s="21" t="s">
-        <v>946</v>
+        <v>961</v>
       </c>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
@@ -14660,7 +14892,7 @@
       <c r="W39" s="10"/>
       <c r="X39" s="10"/>
       <c r="Y39" s="10"/>
-      <c r="Z39" s="30"/>
+      <c r="Z39" s="31"/>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="10"/>
@@ -14688,17 +14920,17 @@
       <c r="W40" s="10"/>
       <c r="X40" s="10"/>
       <c r="Y40" s="10"/>
-      <c r="Z40" s="30"/>
+      <c r="Z40" s="31"/>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10" t="s">
-        <v>947</v>
+        <v>962</v>
       </c>
       <c r="D41" s="10"/>
       <c r="E41" s="21" t="s">
-        <v>948</v>
+        <v>963</v>
       </c>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
@@ -14720,7 +14952,7 @@
       <c r="W41" s="10"/>
       <c r="X41" s="10"/>
       <c r="Y41" s="10"/>
-      <c r="Z41" s="30"/>
+      <c r="Z41" s="31"/>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="10"/>
@@ -14748,17 +14980,17 @@
       <c r="W42" s="10"/>
       <c r="X42" s="10"/>
       <c r="Y42" s="10"/>
-      <c r="Z42" s="30"/>
+      <c r="Z42" s="31"/>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
-      <c r="D43" s="30" t="s">
-        <v>913</v>
-      </c>
-      <c r="E43" s="30" t="s">
-        <v>949</v>
+      <c r="D43" s="31" t="s">
+        <v>928</v>
+      </c>
+      <c r="E43" s="31" t="s">
+        <v>964</v>
       </c>
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
@@ -14780,17 +15012,17 @@
       <c r="W43" s="10"/>
       <c r="X43" s="10"/>
       <c r="Y43" s="10"/>
-      <c r="Z43" s="30"/>
+      <c r="Z43" s="31"/>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
-      <c r="D44" s="31" t="s">
-        <v>950</v>
+      <c r="D44" s="32" t="s">
+        <v>965</v>
       </c>
       <c r="E44" s="21" t="s">
-        <v>951</v>
+        <v>966</v>
       </c>
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
@@ -14812,17 +15044,17 @@
       <c r="W44" s="10"/>
       <c r="X44" s="10"/>
       <c r="Y44" s="10"/>
-      <c r="Z44" s="30"/>
+      <c r="Z44" s="31"/>
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
-      <c r="D45" s="30" t="s">
-        <v>952</v>
+      <c r="D45" s="31" t="s">
+        <v>967</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
@@ -14844,129 +15076,129 @@
       <c r="W45" s="10"/>
       <c r="X45" s="10"/>
       <c r="Y45" s="10"/>
-      <c r="Z45" s="30"/>
+      <c r="Z45" s="31"/>
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="30"/>
+      <c r="A46" s="31"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="30"/>
-      <c r="J46" s="30"/>
-      <c r="K46" s="30"/>
-      <c r="L46" s="30"/>
-      <c r="M46" s="30"/>
-      <c r="N46" s="30"/>
-      <c r="O46" s="30"/>
-      <c r="P46" s="30"/>
-      <c r="Q46" s="30"/>
-      <c r="R46" s="30"/>
-      <c r="S46" s="30"/>
-      <c r="T46" s="30"/>
-      <c r="U46" s="30"/>
-      <c r="V46" s="30"/>
-      <c r="W46" s="30"/>
-      <c r="X46" s="30"/>
-      <c r="Y46" s="30"/>
-      <c r="Z46" s="30"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="31"/>
+      <c r="I46" s="31"/>
+      <c r="J46" s="31"/>
+      <c r="K46" s="31"/>
+      <c r="L46" s="31"/>
+      <c r="M46" s="31"/>
+      <c r="N46" s="31"/>
+      <c r="O46" s="31"/>
+      <c r="P46" s="31"/>
+      <c r="Q46" s="31"/>
+      <c r="R46" s="31"/>
+      <c r="S46" s="31"/>
+      <c r="T46" s="31"/>
+      <c r="U46" s="31"/>
+      <c r="V46" s="31"/>
+      <c r="W46" s="31"/>
+      <c r="X46" s="31"/>
+      <c r="Y46" s="31"/>
+      <c r="Z46" s="31"/>
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="30"/>
-      <c r="B47" s="30" t="s">
-        <v>954</v>
-      </c>
-      <c r="C47" s="30" t="s">
-        <v>955</v>
-      </c>
-      <c r="D47" s="30"/>
+      <c r="A47" s="31"/>
+      <c r="B47" s="31" t="s">
+        <v>969</v>
+      </c>
+      <c r="C47" s="31" t="s">
+        <v>970</v>
+      </c>
+      <c r="D47" s="31"/>
       <c r="E47" s="21" t="s">
-        <v>956</v>
-      </c>
-      <c r="F47" s="30"/>
-      <c r="G47" s="30"/>
-      <c r="H47" s="30"/>
-      <c r="I47" s="30"/>
-      <c r="J47" s="30"/>
-      <c r="K47" s="30"/>
-      <c r="L47" s="30"/>
-      <c r="M47" s="30"/>
-      <c r="N47" s="30"/>
-      <c r="O47" s="30"/>
-      <c r="P47" s="30"/>
-      <c r="Q47" s="30"/>
-      <c r="R47" s="30"/>
-      <c r="S47" s="30"/>
-      <c r="T47" s="30"/>
-      <c r="U47" s="30"/>
-      <c r="V47" s="30"/>
-      <c r="W47" s="30"/>
-      <c r="X47" s="30"/>
-      <c r="Y47" s="30"/>
-      <c r="Z47" s="30"/>
+        <v>971</v>
+      </c>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="31"/>
+      <c r="K47" s="31"/>
+      <c r="L47" s="31"/>
+      <c r="M47" s="31"/>
+      <c r="N47" s="31"/>
+      <c r="O47" s="31"/>
+      <c r="P47" s="31"/>
+      <c r="Q47" s="31"/>
+      <c r="R47" s="31"/>
+      <c r="S47" s="31"/>
+      <c r="T47" s="31"/>
+      <c r="U47" s="31"/>
+      <c r="V47" s="31"/>
+      <c r="W47" s="31"/>
+      <c r="X47" s="31"/>
+      <c r="Y47" s="31"/>
+      <c r="Z47" s="31"/>
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="30"/>
-      <c r="B48" s="30"/>
-      <c r="C48" s="30"/>
-      <c r="D48" s="30"/>
+      <c r="A48" s="31"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="31"/>
       <c r="E48" s="21" t="s">
-        <v>957</v>
-      </c>
-      <c r="F48" s="30"/>
-      <c r="G48" s="30"/>
-      <c r="H48" s="30"/>
-      <c r="I48" s="30"/>
-      <c r="J48" s="30"/>
-      <c r="K48" s="30"/>
-      <c r="L48" s="30"/>
-      <c r="M48" s="30"/>
-      <c r="N48" s="30"/>
-      <c r="O48" s="30"/>
-      <c r="P48" s="30"/>
-      <c r="Q48" s="30"/>
-      <c r="R48" s="30"/>
-      <c r="S48" s="30"/>
-      <c r="T48" s="30"/>
-      <c r="U48" s="30"/>
-      <c r="V48" s="30"/>
-      <c r="W48" s="30"/>
-      <c r="X48" s="30"/>
-      <c r="Y48" s="30"/>
-      <c r="Z48" s="30"/>
+        <v>972</v>
+      </c>
+      <c r="F48" s="31"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="31"/>
+      <c r="K48" s="31"/>
+      <c r="L48" s="31"/>
+      <c r="M48" s="31"/>
+      <c r="N48" s="31"/>
+      <c r="O48" s="31"/>
+      <c r="P48" s="31"/>
+      <c r="Q48" s="31"/>
+      <c r="R48" s="31"/>
+      <c r="S48" s="31"/>
+      <c r="T48" s="31"/>
+      <c r="U48" s="31"/>
+      <c r="V48" s="31"/>
+      <c r="W48" s="31"/>
+      <c r="X48" s="31"/>
+      <c r="Y48" s="31"/>
+      <c r="Z48" s="31"/>
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="30"/>
-      <c r="B49" s="30"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="30"/>
+      <c r="A49" s="31"/>
+      <c r="B49" s="31"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="31"/>
       <c r="E49" s="21" t="s">
-        <v>958</v>
-      </c>
-      <c r="F49" s="30"/>
-      <c r="G49" s="30"/>
-      <c r="H49" s="30"/>
-      <c r="I49" s="30"/>
-      <c r="J49" s="30"/>
-      <c r="K49" s="30"/>
-      <c r="L49" s="30"/>
-      <c r="M49" s="30"/>
-      <c r="N49" s="30"/>
-      <c r="O49" s="30"/>
-      <c r="P49" s="30"/>
-      <c r="Q49" s="30"/>
-      <c r="R49" s="30"/>
-      <c r="S49" s="30"/>
-      <c r="T49" s="30"/>
-      <c r="U49" s="30"/>
-      <c r="V49" s="30"/>
-      <c r="W49" s="30"/>
-      <c r="X49" s="30"/>
-      <c r="Y49" s="30"/>
-      <c r="Z49" s="30"/>
+        <v>973</v>
+      </c>
+      <c r="F49" s="31"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="31"/>
+      <c r="I49" s="31"/>
+      <c r="J49" s="31"/>
+      <c r="K49" s="31"/>
+      <c r="L49" s="31"/>
+      <c r="M49" s="31"/>
+      <c r="N49" s="31"/>
+      <c r="O49" s="31"/>
+      <c r="P49" s="31"/>
+      <c r="Q49" s="31"/>
+      <c r="R49" s="31"/>
+      <c r="S49" s="31"/>
+      <c r="T49" s="31"/>
+      <c r="U49" s="31"/>
+      <c r="V49" s="31"/>
+      <c r="W49" s="31"/>
+      <c r="X49" s="31"/>
+      <c r="Y49" s="31"/>
+      <c r="Z49" s="31"/>
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -15951,22 +16183,22 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="33" t="s">
         <v>194</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="33" t="s">
         <v>195</v>
       </c>
     </row>
@@ -15981,7 +16213,7 @@
         <v>236</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>959</v>
+        <v>974</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>237</v>
@@ -16001,7 +16233,7 @@
         <v>273</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>960</v>
+        <v>975</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>210</v>
@@ -16021,7 +16253,7 @@
         <v>285</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>961</v>
+        <v>976</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>237</v>
@@ -16041,7 +16273,7 @@
         <v>448</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>962</v>
+        <v>977</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>306</v>
@@ -16058,7 +16290,7 @@
         <v>529</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>963</v>
+        <v>978</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>306</v>
@@ -16075,7 +16307,7 @@
         <v>416</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>964</v>
+        <v>979</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>306</v>
@@ -16092,7 +16324,7 @@
         <v>420</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>964</v>
+        <v>979</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>306</v>
@@ -16109,7 +16341,7 @@
         <v>429</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>965</v>
+        <v>980</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>306</v>
@@ -16117,16 +16349,16 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>966</v>
+        <v>981</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>967</v>
+        <v>982</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>968</v>
+        <v>983</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>306</v>
@@ -16143,7 +16375,7 @@
         <v>389</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>970</v>
+        <v>985</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>306</v>
@@ -16157,10 +16389,10 @@
         <v>452</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>971</v>
+        <v>986</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>972</v>
+        <v>987</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>306</v>
@@ -16168,16 +16400,16 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>973</v>
+        <v>988</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>974</v>
+        <v>989</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>975</v>
+        <v>990</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>976</v>
+        <v>991</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>306</v>
@@ -16185,16 +16417,16 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>977</v>
+        <v>992</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>978</v>
+        <v>993</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>979</v>
+        <v>994</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>980</v>
+        <v>995</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>306</v>
@@ -16208,10 +16440,10 @@
         <v>571</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>981</v>
+        <v>996</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>982</v>
+        <v>997</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>306</v>
@@ -16228,7 +16460,7 @@
         <v>534</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>983</v>
+        <v>998</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>859</v>
@@ -16245,7 +16477,7 @@
         <v>772</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>984</v>
+        <v>999</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>237</v>
@@ -16265,7 +16497,7 @@
         <v>777</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>985</v>
+        <v>1000</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>306</v>
@@ -16350,7 +16582,7 @@
         <v>596</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>986</v>
+        <v>1001</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>237</v>
@@ -16370,7 +16602,7 @@
         <v>523</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>987</v>
+        <v>1002</v>
       </c>
       <c r="E24" s="0" t="s">
         <v>237</v>
@@ -16387,10 +16619,10 @@
         <v>896</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>988</v>
+        <v>1003</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>989</v>
+        <v>1004</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>237</v>
@@ -16410,7 +16642,7 @@
         <v>893</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>990</v>
+        <v>1005</v>
       </c>
       <c r="E26" s="0" t="s">
         <v>306</v>
@@ -16438,16 +16670,16 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>991</v>
+        <v>1006</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>992</v>
+        <v>1007</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>993</v>
+        <v>1008</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>994</v>
+        <v>1009</v>
       </c>
       <c r="E28" s="0" t="s">
         <v>237</v>
@@ -16467,7 +16699,7 @@
         <v>346</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>995</v>
+        <v>1010</v>
       </c>
       <c r="E29" s="0" t="s">
         <v>237</v>
@@ -16487,7 +16719,7 @@
         <v>350</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>996</v>
+        <v>1011</v>
       </c>
       <c r="E30" s="0" t="s">
         <v>306</v>
@@ -16495,16 +16727,16 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>997</v>
+        <v>1012</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>998</v>
+        <v>1013</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>999</v>
+        <v>1014</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>1000</v>
+        <v>1015</v>
       </c>
       <c r="E31" s="0" t="s">
         <v>237</v>
@@ -16524,7 +16756,7 @@
         <v>548</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>1001</v>
+        <v>1016</v>
       </c>
       <c r="E32" s="0" t="s">
         <v>306</v>
@@ -16544,7 +16776,7 @@
         <v>830</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>1002</v>
+        <v>1017</v>
       </c>
       <c r="E33" s="0" t="s">
         <v>237</v>
@@ -16564,7 +16796,7 @@
         <v>834</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>1003</v>
+        <v>1018</v>
       </c>
       <c r="E34" s="0" t="s">
         <v>237</v>
@@ -16608,83 +16840,83 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="33" t="s">
         <v>194</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="33" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>1004</v>
+        <v>1019</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1005</v>
+        <v>1020</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>1006</v>
+        <v>1021</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>1007</v>
+        <v>1022</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="34" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>1008</v>
+        <v>1023</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>1009</v>
+        <v>1024</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>1010</v>
+        <v>1025</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>1011</v>
+        <v>1026</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="34" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="501.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>1012</v>
+        <v>1027</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>1013</v>
+        <v>1028</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>1014</v>
+        <v>1029</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>1015</v>
+        <v>1030</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>210</v>
       </c>
-      <c r="F4" s="34" t="s">
-        <v>1016</v>
+      <c r="F4" s="35" t="s">
+        <v>1031</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16698,7 +16930,7 @@
         <v>497</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>1017</v>
+        <v>1032</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>249</v>
@@ -16709,16 +16941,16 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>1018</v>
+        <v>1033</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>1019</v>
+        <v>1034</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>1020</v>
+        <v>1035</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>1021</v>
+        <v>1036</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>306</v>
@@ -16726,19 +16958,19 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>1022</v>
+        <v>1037</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>1023</v>
+        <v>1038</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>1024</v>
+        <v>1039</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>1025</v>
+        <v>1040</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>1023</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -16801,37 +17033,37 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="33" t="s">
         <v>194</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="33" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>1026</v>
+        <v>1041</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1027</v>
+        <v>1042</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>1028</v>
+        <v>1043</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>1029</v>
+        <v>1044</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>249</v>
@@ -16839,42 +17071,42 @@
     </row>
     <row r="3" customFormat="false" ht="375" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>1030</v>
+        <v>1045</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>1031</v>
+        <v>1046</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>1032</v>
+        <v>1047</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>1033</v>
+        <v>1048</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>210</v>
       </c>
-      <c r="F3" s="35" t="s">
-        <v>1034</v>
+      <c r="F3" s="36" t="s">
+        <v>1049</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="209.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>1035</v>
+        <v>1050</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>1036</v>
+        <v>1051</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>1037</v>
+        <v>1052</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>1038</v>
+        <v>1053</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>210</v>
       </c>
-      <c r="F4" s="35" t="s">
-        <v>1039</v>
+      <c r="F4" s="36" t="s">
+        <v>1054</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/actus-dictionary.xlsx
+++ b/actus-dictionary.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2485" uniqueCount="1055">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2483" uniqueCount="1055">
   <si>
     <t xml:space="preserve">The ACTUS Dictionary</t>
   </si>
@@ -10421,9 +10421,7 @@
       <c r="S79" s="19" t="s">
         <v>598</v>
       </c>
-      <c r="T79" s="19" t="s">
-        <v>598</v>
-      </c>
+      <c r="T79" s="19"/>
       <c r="U79" s="22"/>
       <c r="V79" s="19" t="s">
         <v>598</v>
@@ -10495,9 +10493,7 @@
       <c r="S80" s="19" t="s">
         <v>603</v>
       </c>
-      <c r="T80" s="19" t="s">
-        <v>603</v>
-      </c>
+      <c r="T80" s="19"/>
       <c r="U80" s="22"/>
       <c r="V80" s="19" t="s">
         <v>603</v>

--- a/actus-dictionary.xlsx
+++ b/actus-dictionary.xlsx
@@ -1440,10 +1440,15 @@
 option: 2, identifier: actualThreeSixtyFive, name: Actual Three Sixty Five, acronym: A365, description: Year fractions accrue on the basis of the actual number of days per month and 365 days per year in the respective period.
 option: 3, identifier: thirtyEThreeSixtyISDA, name: Thirty E Three Sixty ISDA, acronym: 30E360ISDA, description: Year fractions accrue on the basis of 30 days per month and 360 days per year in the respective period (ISDA method).
 option: 4, identifier: thirtyEThreeSixty, name: Thirty E Three Sixty, acronym: 30E360, description: Year fractions accrue on the basis of 30 days per month and 360 days per year in the respective period.
-option: 5, identifier: twentyEightEThreeThirtySix, name: Twenty Eight E Three Thirty Six, acronym: 28E336, description: Year fractions accrue on the basis of 28 days per month and 336 days per year in the respective period.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Method defining how days are counted between two dates. This finally defines the year fraction in accrual calculations.</t>
+option: 5, identifier: twentyEightEThreeThirtySix, name: Twenty Eight E Three Thirty Six, acronym: 28E336, description: Year fractions accrue on the basis of 28 days per month and 336 days per year in the respective period.
+option: 6, identifier: one, name: One, acronym: ONE, description: Year fractions are always 1.
+option: 7, identifier: oneByTwelve, name: One by Twelve, acronym: OBYT, description: Year fractions are always 1/12.
+option: 8, identifier: hoursActualActual, name: Hours/Actual/Actual, acronym: HRSAA, description: Year fractions accrue on the basis of measured hours between two timestamps assuming every day counts 24 hours, the actual number of days per month and the actual number of days per year in the respective period.
+option: 9, identifier: minutesActualActual, name: Minutes/Actual/Actual, acronym: MINAA, description: Year fractions accrue on the basis of measured minutes between two timestamps assuming every every day counts 1440 minutes, the actual number of days per month and the actual number of days per year in the respective period.
+option: 10, identifier: secondsActualActual, name: Seconds/Actual/Actual, acronym: SECAA, description: Year fractions accrue on the basis of measured seconds between two timestamps assuming every day counts 86400 seconds, the actual number of days per month and the actual number of days per year in the respective period.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Method defining how the time periods between any two timestamps of a full year are measured. This finally defines the year fraction e.g. in interest accrual calculations.</t>
   </si>
   <si>
     <t xml:space="preserve">accruedInterest</t>

--- a/actus-dictionary.xlsx
+++ b/actus-dictionary.xlsx
@@ -1442,10 +1442,10 @@
 option: 4, identifier: thirtyEThreeSixty, name: Thirty E Three Sixty, acronym: 30E360, description: Year fractions accrue on the basis of 30 days per month and 360 days per year in the respective period.
 option: 5, identifier: twentyEightEThreeThirtySix, name: Twenty Eight E Three Thirty Six, acronym: 28E336, description: Year fractions accrue on the basis of 28 days per month and 336 days per year in the respective period.
 option: 6, identifier: one, name: One, acronym: ONE, description: Year fractions are always 1.
-option: 7, identifier: oneByTwelve, name: One by Twelve, acronym: OBYT, description: Year fractions are always 1/12.
-option: 8, identifier: hoursActualActual, name: Hours/Actual/Actual, acronym: HRSAA, description: Year fractions accrue on the basis of measured hours between two timestamps assuming every day counts 24 hours, the actual number of days per month and the actual number of days per year in the respective period.
-option: 9, identifier: minutesActualActual, name: Minutes/Actual/Actual, acronym: MINAA, description: Year fractions accrue on the basis of measured minutes between two timestamps assuming every every day counts 1440 minutes, the actual number of days per month and the actual number of days per year in the respective period.
-option: 10, identifier: secondsActualActual, name: Seconds/Actual/Actual, acronym: SECAA, description: Year fractions accrue on the basis of measured seconds between two timestamps assuming every day counts 86400 seconds, the actual number of days per month and the actual number of days per year in the respective period.</t>
+option: 7, identifier: oneByTwelve, name: One by Twelve, acronym: OBYT, description: Year fractions are always 1 divided by 12.
+option: 8, identifier: hoursActualActual, name: Hours/Actual/Actual, acronym: HRSAA, description: Year fractions accrue on the basis of measured hours between two timestamps assuming every day counts 24 hours and the actual number of days per month and the actual number of days per year in the respective period.
+option: 9, identifier: minutesActualActual, name: Minutes/Actual/Actual, acronym: MINAA, description: Year fractions accrue on the basis of measured minutes between two timestamps assuming every every day counts 1440 minutes and the actual number of days per month and the actual number of days per year in the respective period.
+option: 10, identifier: secondsActualActual, name: Seconds/Actual/Actual, acronym: SECAA, description: Year fractions accrue on the basis of measured seconds between two timestamps assuming every day counts 86400 seconds and the actual number of days per month and the actual number of days per year in the respective period.</t>
   </si>
   <si>
     <t xml:space="preserve">Method defining how the time periods between any two timestamps of a full year are measured. This finally defines the year fraction e.g. in interest accrual calculations.</t>
